--- a/docs/Professions.xlsx
+++ b/docs/Professions.xlsx
@@ -135,13 +135,13 @@
     <t>ALL</t>
   </si>
   <si>
-    <t>добыча</t>
-  </si>
-  <si>
-    <t>производство</t>
-  </si>
-  <si>
-    <t>порядок</t>
+    <t>ресурс</t>
+  </si>
+  <si>
+    <t>изделие</t>
+  </si>
+  <si>
+    <t>охрана</t>
   </si>
   <si>
     <t>развлечение</t>
@@ -330,13 +330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +383,13 @@
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="7"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="8">
+    <xf fillId="4" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="8" applyFill="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="9">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="168" borderId="0" applyFont="1" fontId="9" applyNumberFormat="1" applyFill="1">
+    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="168" borderId="0" applyFont="1" fontId="10" applyNumberFormat="1" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf fillId="5" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="10" applyFill="1"/>
     <xf fillId="6" xfId="0" numFmtId="4" borderId="0" applyFont="1" fontId="11" applyNumberFormat="1" applyFill="1"/>
     <xf fillId="0" xfId="0" numFmtId="3" borderId="0" applyFont="1" fontId="12" applyNumberFormat="1"/>
     <xf fillId="7" xfId="0" numFmtId="3" borderId="0" applyFont="1" fontId="13" applyNumberFormat="1" applyFill="1"/>
@@ -435,16 +435,16 @@
       <c t="s" s="7" r="H2">
         <v>5</v>
       </c>
-      <c t="s" s="9" r="I2">
+      <c t="s" s="10" r="I2">
         <v>6</v>
       </c>
-      <c t="s" s="9" r="J2">
+      <c t="s" s="10" r="J2">
         <v>7</v>
       </c>
-      <c t="s" s="9" r="K2">
+      <c t="s" s="10" r="K2">
         <v>8</v>
       </c>
-      <c t="s" s="9" r="L2">
+      <c t="s" s="10" r="L2">
         <v>9</v>
       </c>
     </row>
@@ -472,15 +472,15 @@
         <f>((((C3*0.6000000000000001)+(D3*1.2))+(E3*0))+(F3*0.6000000000000001))+(G3*0.6000000000000001)</f>
         <v>3</v>
       </c>
-      <c s="9" r="J3">
+      <c s="10" r="J3">
         <f>((((C3*0.6000000000000001)+(D3*0))+(E3*1.2))+(F3*0.6000000000000001))+(G3*0.6000000000000001)</f>
         <v>3</v>
       </c>
-      <c s="9" r="K3">
+      <c s="10" r="K3">
         <f>((((C3*0)+(D3*0.6000000000000001))+(E3*0.6000000000000001))+(F3*1.4))+(G3*0.4)</f>
         <v>3</v>
       </c>
-      <c s="9" r="L3">
+      <c s="10" r="L3">
         <f>((((C3*1.4)+(D3*0.6000000000000001))+(E3*0.6000000000000001))+(F3*0))+(G3*0.4)</f>
         <v>3</v>
       </c>
@@ -520,7 +520,7 @@
         <f>((((C4*0)+(D4*0.6000000000000001))+(E4*0.6000000000000001))+(F4*1.4))+(G4*0.4)</f>
         <v>0.28</v>
       </c>
-      <c s="10" r="L4">
+      <c s="11" r="L4">
         <f>((((C4*1.4)+(D4*0.6000000000000001))+(E4*0.6000000000000001))+(F4*0))+(G4*0.4)</f>
         <v>1.12</v>
       </c>
@@ -552,7 +552,7 @@
         <f>((((C5*0.6000000000000001)+(D5*1.2))+(E5*0))+(F5*0.6000000000000001))+(G5*0.30000000000000004)</f>
         <v>0.18</v>
       </c>
-      <c s="10" r="J5">
+      <c s="11" r="J5">
         <f>((((C5*0.6000000000000001)+(D5*0))+(E5*1.2))+(F5*0.6000000000000001))+(G5*0.7000000000000001)</f>
         <v>1.02</v>
       </c>
@@ -596,7 +596,7 @@
         <f>((((C6*0.6000000000000001)+(D6*0))+(E6*1.2))+(F6*0.6000000000000001))+(G6*0.7000000000000001)</f>
         <v>0.63</v>
       </c>
-      <c s="10" r="K6">
+      <c s="11" r="K6">
         <f>((((C6*0)+(D6*0.6000000000000001))+(E6*0.6000000000000001))+(F6*1.4))+(G6*0.4)</f>
         <v>1.1</v>
       </c>
@@ -640,7 +640,7 @@
         <f>((((C7*0)+(D7*0.6000000000000001))+(E7*0.6000000000000001))+(F7*1.4))+(G7*0.4)</f>
         <v>0.28</v>
       </c>
-      <c s="10" r="L7">
+      <c s="11" r="L7">
         <f>((((C7*1.4)+(D7*0.6000000000000001))+(E7*0.6000000000000001))+(F7*0))+(G7*0.4)</f>
         <v>1.12</v>
       </c>
@@ -672,7 +672,7 @@
         <f>((((C8*0.6000000000000001)+(D8*1.2))+(E8*0))+(F8*0.6000000000000001))+(G8*0.30000000000000004)</f>
         <v>0.18</v>
       </c>
-      <c s="10" r="J8">
+      <c s="11" r="J8">
         <f>((((C8*0.6000000000000001)+(D8*0))+(E8*1.2))+(F8*0.6000000000000001))+(G8*0.7000000000000001)</f>
         <v>1.02</v>
       </c>
@@ -756,7 +756,7 @@
         <f>((((C10*0.6000000000000001)+(D10*0))+(E10*1.2))+(F10*0.6000000000000001))+(G10*0.7000000000000001)</f>
         <v>0.63</v>
       </c>
-      <c s="10" r="K10">
+      <c s="11" r="K10">
         <f>((((C10*0)+(D10*0.6000000000000001))+(E10*0.6000000000000001))+(F10*1.4))+(G10*0.4)</f>
         <v>1.1</v>
       </c>
@@ -880,7 +880,7 @@
         <f>((((C13*0)+(D13*0.6000000000000001))+(E13*0.6000000000000001))+(F13*1.4))+(G13*0.4)</f>
         <v>0.3</v>
       </c>
-      <c s="10" r="L13">
+      <c s="11" r="L13">
         <f>((((C13*1.4)+(D13*0.6000000000000001))+(E13*0.6000000000000001))+(F13*0))+(G13*0.4)</f>
         <v>1</v>
       </c>
@@ -920,7 +920,7 @@
         <f>((((C14*0)+(D14*0.6000000000000001))+(E14*0.6000000000000001))+(F14*1.4))+(G14*0.4)</f>
         <v>0.28</v>
       </c>
-      <c s="10" r="L14">
+      <c s="11" r="L14">
         <f>((((C14*1.4)+(D14*0.6000000000000001))+(E14*0.6000000000000001))+(F14*0))+(G14*0.4)</f>
         <v>1.12</v>
       </c>
@@ -996,7 +996,7 @@
         <f>((((C16*0.6000000000000001)+(D16*0))+(E16*1.2))+(F16*0.6000000000000001))+(G16*0.7000000000000001)</f>
         <v>0.69</v>
       </c>
-      <c s="10" r="K16">
+      <c s="11" r="K16">
         <f>((((C16*0)+(D16*0.6000000000000001))+(E16*0.6000000000000001))+(F16*1.4))+(G16*0.4)</f>
         <v>1.02</v>
       </c>
@@ -1196,7 +1196,7 @@
         <f>((((C21*0.6000000000000001)+(D21*0))+(E21*1.2))+(F21*0.6000000000000001))+(G21*0.7000000000000001)</f>
         <v>0.63</v>
       </c>
-      <c s="10" r="K21">
+      <c s="11" r="K21">
         <f>((((C21*0)+(D21*0.6000000000000001))+(E21*0.6000000000000001))+(F21*1.4))+(G21*0.4)</f>
         <v>1.1</v>
       </c>
@@ -1312,7 +1312,7 @@
         <f>((((C24*0.6000000000000001)+(D24*1.2))+(E24*0))+(F24*0.6000000000000001))+(G24*0.30000000000000004)</f>
         <v>0.12</v>
       </c>
-      <c s="10" r="J24">
+      <c s="11" r="J24">
         <f>((((C24*0.6000000000000001)+(D24*0))+(E24*1.2))+(F24*0.6000000000000001))+(G24*0.7000000000000001)</f>
         <v>1.08</v>
       </c>
@@ -1352,7 +1352,7 @@
         <f>((((C25*0.6000000000000001)+(D25*1.2))+(E25*0))+(F25*0.6000000000000001))+(G25*0.30000000000000004)</f>
         <v>0.18</v>
       </c>
-      <c s="10" r="J25">
+      <c s="11" r="J25">
         <f>((((C25*0.6000000000000001)+(D25*0))+(E25*1.2))+(F25*0.6000000000000001))+(G25*0.7000000000000001)</f>
         <v>1.02</v>
       </c>
@@ -2309,33 +2309,33 @@
         <f>SUM(C3:M3)</f>
         <v>11</v>
       </c>
-      <c s="11" r="P3">
-        <f>(((((((((((C3*5)+(D3*10))+(E3*2))+(F3*4))-(G3*7))+(H3*4))-(I3*4))+(J3*3))+(K3*10))+(L3*5))+(M3*0))</f>
-        <v>32</v>
+      <c s="9" r="P3">
+        <f>((((((((((C3*5)+(D3*10))+(E3*5))-(F3*3))-(G3*3))+(H3*5))-(I3*3))+(J3*1))+(K3*10))+(L3*3))+(M3*0)</f>
+        <v>30</v>
       </c>
       <c s="13" r="Q3">
-        <f>(((((((((((C3*8)+(D3*10))+(E3*2))-(F3*4))-(G3*5))+(H3*2))-(I3*3))+(J3*5))+(K3*5))+(L3*2))+(M3*2))</f>
-        <v>24</v>
+        <f>(((((((((((C3*10)+(D3*10))+(E3*2))-(F3*3))-(G3*3))+(H3*1))-(I3*3))+(J3*5))+(K3*5))+(L3*2))+(M3*0))</f>
+        <v>26</v>
       </c>
       <c s="13" r="R3">
-        <f>(((((((((((C3*0)+(D3*3))+(E3*10))-(F3*3))+(G3*2))+(H3*4))+(I3*5))-(J3*3))-(K3*4))-(L3*2))+(M3*2))</f>
-        <v>14</v>
+        <f>(((((((((((C3*0)+(D3*2))+(E3*10))+(F3*3))+(G3*3))+(H3*3))+(I3*3))+(J3*0))+(K3*0))+(L3*3))+(M3*3))</f>
+        <v>30</v>
       </c>
       <c s="13" r="S3">
-        <f>(((((((((((-C3*3)-(D3*5))+(E3*3))+(F3*1))+(G3*4))+(H3*2))+(I3*10))-(J3*3))+(K3*6))+(L3*8))+(M3*0))</f>
-        <v>23</v>
+        <f>(((((((((((C3*0)+(D3*0))+(E3*7))+(F3*5))+(G3*7))+(H3*2))+(I3*10))+(J3*0))+(K3*5))+(L3*10))+(M3*0))</f>
+        <v>46</v>
       </c>
       <c s="13" r="T3">
-        <f>(((((((((((C3*5)+(D3*5))-(E3*3))+(F3*7))-(G3*2))+(H3*7))-(I3*3))+(J3*5))+(K3*8))+(L3*8))+(M3*1))</f>
-        <v>38</v>
+        <f>(((((((((((C3*7)+(D3*7))+(E3*5))+(F3*5))+(G3*5))+(H3*3))+(I3*5))+(J3*2))+(K3*5))+(L3*5))+(M3*3))</f>
+        <v>52</v>
       </c>
       <c s="13" r="U3">
-        <f>(((((((((((-C3*4)-(D3*2))+(E3*5))+(F3*5))+(G3*2))+(H3*2))-(I3*1))+(J3*7))+(K3*1))+(L3*2))+(M3*10))</f>
-        <v>27</v>
+        <f>(((((((((((-C3*2)-(D3*3))-(E3*5))+(F3*3))+(G3*5))+(H3*3))-(I3*5))+(J3*5))+(K3*0))+(L3*5))+(M3*10))</f>
+        <v>16</v>
       </c>
       <c s="13" r="V3">
-        <f>(((((((((((C3*2)+(D3*4))+(E3*9))+(F3*3))-(G3*3))+(H3*10))-(I3*3))+(J3*3))+(K3*8))+(L3*5))+(M3*0))</f>
-        <v>38</v>
+        <f>(((((((((((C3*2)-(D3*3))+(E3*7))+(F3*3))+(G3*5))+(H3*10))+(I3*3))+(J3*0))+(K3*4))+(L3*5))+(M3*0))</f>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -2352,65 +2352,65 @@
         <v>1</v>
       </c>
       <c s="8" r="F4">
+        <v>1</v>
+      </c>
+      <c s="8" r="G4">
+        <v>0</v>
+      </c>
+      <c s="8" r="H4">
         <v>-3</v>
       </c>
-      <c s="8" r="G4">
-        <v>0</v>
-      </c>
-      <c s="8" r="H4">
-        <v>4</v>
-      </c>
       <c s="8" r="I4">
         <v>0</v>
       </c>
       <c s="8" r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="8" r="K4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="8" r="L4">
         <v>0</v>
       </c>
       <c s="8" r="M4">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="N4">
         <f>SUM(C4:M4)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c s="8" r="O4"/>
-      <c s="11" r="P4">
-        <f>ROUND(((((((((((((C4*5)+(D4*10))+(E4*2))+(F4*4))-(G4*7))+(H4*4))-(I4*4))+(J4*3))+(K4*10))+(L4*5))+(M4*0)) / 32))</f>
-        <v>5</v>
+      <c s="13" r="P4">
+        <f>(((((((((((C4*5)+(D4*10))+(E4*5))-(F4*3))-(G4*3))+(H4*5))-(I4*3))+(J4*1))+(K4*10))+(L4*3))+(M4*0))/30</f>
+        <v>4.26666666666667</v>
       </c>
       <c s="13" r="Q4">
-        <f>ROUND(((((((((((((C4*8)+(D4*10))+(E4*2))-(F4*4))-(G4*5))+(H4*2))-(I4*3))+(J4*5))+(K4*5))+(L4*2))+(M4*2)) / 24))</f>
-        <v>7</v>
+        <f>(((((((((((C4*10)+(D4*10))+(E4*2))-(F4*3))-(G4*3))+(H4*1))-(I4*3))+(J4*5))+(K4*5))+(L4*2))+(M4*0))/30</f>
+        <v>4.53333333333333</v>
       </c>
       <c s="13" r="R4">
-        <f>ROUND(((((((((((((C4*0)+(D4*3))+(E4*10))-(F4*3))+(G4*2))+(H4*4))+(I4*5))-(J4*3))-(K4*4))-(L4*2))+(M4*2)) / 14))</f>
-        <v>3</v>
+        <f>(((((((((((C4*0)+(D4*2))+(E4*10))+(F4*3))+(G4*3))+(H4*3))+(I4*3))+(J4*0))+(K4*0))+(L4*3))+(M4*3))/30</f>
+        <v>0.3</v>
       </c>
       <c s="13" r="S4">
-        <f>ROUND(((((((((((((-C4*3)-(D4*5))+(E4*3))+(F4*1))+(G4*4))+(H4*2))+(I4*10))-(J4*3))+(K4*6))+(L4*8))+(M4*0)) / 23))</f>
-        <v>-1</v>
+        <f>(((((((((((C4*0)+(D4*0))+(E4*7))+(F4*5))+(G4*7))+(H4*2))+(I4*10))+(J4*0))+(K4*5))+(L4*10))+(M4*0))/30</f>
+        <v>0.7</v>
       </c>
       <c s="13" r="T4">
-        <f>ROUND(((((((((((((C4*5)+(D4*5))-(E4*3))+(F4*7))-(G4*2))+(H4*7))-(I4*3))+(J4*5))+(K4*8))+(L4*8))+(M4*1)) / 38))</f>
-        <v>3</v>
+        <f>(((((((((((C4*7)+(D4*7))+(E4*5))+(F4*5))+(G4*5))+(H4*3))+(I4*5))+(J4*2))+(K4*5))+(L4*5))+(M4*3))/30</f>
+        <v>2.9</v>
       </c>
       <c s="13" r="U4">
-        <f>ROUND(((((((((((((-C4*4)-(D4*2))+(E4*5))+(F4*5))+(G4*2))+(H4*2))-(I4*1))+(J4*7))+(K4*1))+(L4*2))+(M4*10)) / 27))</f>
-        <v>-2</v>
+        <f>(((((((((((-C4*2)-(D4*3))-(E4*5))+(F4*3))+(G4*5))+(H4*3))-(I4*5))+(J4*5))+(K4*0))+(L4*5))+(M4*10))/30</f>
+        <v>-3</v>
       </c>
       <c s="13" r="V4">
-        <f>ROUND(((((((((((((C4*2)+(D4*4))+(E4*9))+(F4*3))-(G4*3))+(H4*10))-(I4*3))+(J4*3))+(K4*8))+(L4*5))+(M4*0)) / 38))</f>
-        <v>3</v>
+        <f>(((((((((((C4*2)-(D4*3))+(E4*7))+(F4*3))+(G4*5))+(H4*10))+(I4*3))+(J4*0))+(K4*4))+(L4*5))+(M4*0))/30</f>
+        <v>-1.13333333333333</v>
       </c>
       <c s="14" r="W4">
         <f>SUM(P4:V4)</f>
-        <v>18</v>
+        <v>8.56666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -2421,19 +2421,19 @@
         <v>10</v>
       </c>
       <c s="8" r="D5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c s="8" r="E5">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c s="8" r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="8" r="G5">
         <v>0</v>
       </c>
       <c s="8" r="H5">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c s="8" r="I5">
         <v>0</v>
@@ -2445,47 +2445,47 @@
         <v>2</v>
       </c>
       <c s="8" r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="8" r="M5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f>SUM(C5:M5)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="8" r="O5"/>
-      <c s="11" r="P5">
-        <f>ROUND(((((((((((((C5*5)+(D5*10))+(E5*2))+(F5*4))-(G5*7))+(H5*4))-(I5*4))+(J5*3))+(K5*10))+(L5*5))+(M5*0)) / 32))</f>
-        <v>1</v>
+      <c s="13" r="P5">
+        <f>(((((((((((C5*5)+(D5*10))+(E5*5))-(F5*3))-(G5*3))+(H5*5))-(I5*3))+(J5*1))+(K5*10))+(L5*3))+(M5*0))/30</f>
+        <v>1.23333333333333</v>
       </c>
       <c s="13" r="Q5">
-        <f>ROUND(((((((((((((C5*8)+(D5*10))+(E5*2))-(F5*4))-(G5*5))+(H5*2))-(I5*3))+(J5*5))+(K5*5))+(L5*2))+(M5*2)) / 24))</f>
-        <v>2</v>
+        <f>(((((((((((C5*10)+(D5*10))+(E5*2))-(F5*3))-(G5*3))+(H5*1))-(I5*3))+(J5*5))+(K5*5))+(L5*2))+(M5*0))/30</f>
+        <v>2.36666666666667</v>
       </c>
       <c s="13" r="R5">
-        <f>ROUND(((((((((((((C5*0)+(D5*3))+(E5*10))-(F5*3))+(G5*2))+(H5*4))+(I5*5))-(J5*3))-(K5*4))-(L5*2))+(M5*2)) / 14))</f>
-        <v>-2</v>
+        <f>(((((((((((C5*0)+(D5*2))+(E5*10))+(F5*3))+(G5*3))+(H5*3))+(I5*3))+(J5*0))+(K5*0))+(L5*3))+(M5*3))/30</f>
+        <v>0.166666666666667</v>
       </c>
       <c s="13" r="S5">
-        <f>ROUND(((((((((((((-C5*3)-(D5*5))+(E5*3))+(F5*1))+(G5*4))+(H5*2))+(I5*10))-(J5*3))+(K5*6))+(L5*8))+(M5*0)) / 23))</f>
-        <v>0</v>
+        <f>(((((((((((C5*0)+(D5*0))+(E5*7))+(F5*5))+(G5*7))+(H5*2))+(I5*10))+(J5*0))+(K5*5))+(L5*10))+(M5*0))/30</f>
+        <v>1.2</v>
       </c>
       <c s="13" r="T5">
-        <f>ROUND(((((((((((((C5*5)+(D5*5))-(E5*3))+(F5*7))-(G5*2))+(H5*7))-(I5*3))+(J5*5))+(K5*8))+(L5*8))+(M5*1)) / 38))</f>
-        <v>2</v>
+        <f>(((((((((((C5*7)+(D5*7))+(E5*5))+(F5*5))+(G5*5))+(H5*3))+(I5*5))+(J5*2))+(K5*5))+(L5*5))+(M5*3))/30</f>
+        <v>2.56666666666667</v>
       </c>
       <c s="13" r="U5">
-        <f>ROUND(((((((((((((-C5*4)-(D5*2))+(E5*5))+(F5*5))+(G5*2))+(H5*2))-(I5*1))+(J5*7))+(K5*1))+(L5*2))+(M5*10)) / 27))</f>
-        <v>-1</v>
+        <f>(((((((((((-C5*2)-(D5*3))-(E5*5))+(F5*3))+(G5*5))+(H5*3))-(I5*5))+(J5*5))+(K5*0))+(L5*5))+(M5*10))/30</f>
+        <v>-0.3</v>
       </c>
       <c s="13" r="V5">
-        <f>ROUND(((((((((((((C5*2)+(D5*4))+(E5*9))+(F5*3))-(G5*3))+(H5*10))-(I5*3))+(J5*3))+(K5*8))+(L5*5))+(M5*0)) / 38))</f>
-        <v>0</v>
+        <f>(((((((((((C5*2)-(D5*3))+(E5*7))+(F5*3))+(G5*5))+(H5*10))+(I5*3))+(J5*0))+(K5*4))+(L5*5))+(M5*0))/30</f>
+        <v>1</v>
       </c>
       <c s="14" r="W5">
         <f>SUM(P5:V5)</f>
-        <v>2</v>
+        <v>8.23333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -2499,68 +2499,68 @@
         <v>10</v>
       </c>
       <c s="8" r="E6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c s="8" r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="8" r="G6">
         <v>0</v>
       </c>
       <c s="8" r="H6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c s="8" r="I6">
         <v>0</v>
       </c>
       <c s="8" r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="8" r="K6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="8" r="L6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c s="8" r="M6">
         <v>0</v>
       </c>
       <c r="N6">
         <f>SUM(C6:M6)</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c s="8" r="O6"/>
-      <c s="11" r="P6">
-        <f>ROUND(((((((((((((C6*5)+(D6*10))+(E6*2))+(F6*4))-(G6*7))+(H6*4))-(I6*4))+(J6*3))+(K6*10))+(L6*5))+(M6*0)) / 32))</f>
-        <v>5</v>
+      <c s="13" r="P6">
+        <f>(((((((((((C6*5)+(D6*10))+(E6*5))-(F6*3))-(G6*3))+(H6*5))-(I6*3))+(J6*1))+(K6*10))+(L6*3))+(M6*0))/30</f>
+        <v>4.13333333333333</v>
       </c>
       <c s="13" r="Q6">
-        <f>ROUND(((((((((((((C6*8)+(D6*10))+(E6*2))-(F6*4))-(G6*5))+(H6*2))-(I6*3))+(J6*5))+(K6*5))+(L6*2))+(M6*2)) / 24))</f>
-        <v>6</v>
+        <f>(((((((((((C6*10)+(D6*10))+(E6*2))-(F6*3))-(G6*3))+(H6*1))-(I6*3))+(J6*5))+(K6*5))+(L6*2))+(M6*0))/30</f>
+        <v>4.2</v>
       </c>
       <c s="13" r="R6">
-        <f>ROUND(((((((((((((C6*0)+(D6*3))+(E6*10))-(F6*3))+(G6*2))+(H6*4))+(I6*5))-(J6*3))-(K6*4))-(L6*2))+(M6*2)) / 14))</f>
-        <v>1</v>
+        <f>(((((((((((C6*0)+(D6*2))+(E6*10))+(F6*3))+(G6*3))+(H6*3))+(I6*3))+(J6*0))+(K6*0))+(L6*3))+(M6*3))/30</f>
+        <v>0.633333333333333</v>
       </c>
       <c s="13" r="S6">
-        <f>ROUND(((((((((((((-C6*3)-(D6*5))+(E6*3))+(F6*1))+(G6*4))+(H6*2))+(I6*10))-(J6*3))+(K6*6))+(L6*8))+(M6*0)) / 23))</f>
-        <v>-1</v>
+        <f>(((((((((((C6*0)+(D6*0))+(E6*7))+(F6*5))+(G6*7))+(H6*2))+(I6*10))+(J6*0))+(K6*5))+(L6*10))+(M6*0))/30</f>
+        <v>1.46666666666667</v>
       </c>
       <c s="13" r="T6">
-        <f>ROUND(((((((((((((C6*5)+(D6*5))-(E6*3))+(F6*7))-(G6*2))+(H6*7))-(I6*3))+(J6*5))+(K6*8))+(L6*8))+(M6*1)) / 38))</f>
-        <v>3</v>
+        <f>(((((((((((C6*7)+(D6*7))+(E6*5))+(F6*5))+(G6*5))+(H6*3))+(I6*5))+(J6*2))+(K6*5))+(L6*5))+(M6*3))/30</f>
+        <v>3.6</v>
       </c>
       <c s="13" r="U6">
-        <f>ROUND(((((((((((((-C6*4)-(D6*2))+(E6*5))+(F6*5))+(G6*2))+(H6*2))-(I6*1))+(J6*7))+(K6*1))+(L6*2))+(M6*10)) / 27))</f>
-        <v>1</v>
+        <f>(((((((((((-C6*2)-(D6*3))-(E6*5))+(F6*3))+(G6*5))+(H6*3))-(I6*5))+(J6*5))+(K6*0))+(L6*5))+(M6*10))/30</f>
+        <v>-0.233333333333333</v>
       </c>
       <c s="13" r="V6">
-        <f>ROUND(((((((((((((C6*2)+(D6*4))+(E6*9))+(F6*3))-(G6*3))+(H6*10))-(I6*3))+(J6*3))+(K6*8))+(L6*5))+(M6*0)) / 38))</f>
-        <v>3</v>
+        <f>(((((((((((C6*2)-(D6*3))+(E6*7))+(F6*3))+(G6*5))+(H6*10))+(I6*3))+(J6*0))+(K6*4))+(L6*5))+(M6*0))/30</f>
+        <v>-0.733333333333333</v>
       </c>
       <c s="14" r="W6">
         <f>SUM(P6:V6)</f>
-        <v>18</v>
+        <v>13.0666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -2574,16 +2574,16 @@
         <v>10</v>
       </c>
       <c s="8" r="E7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c s="8" r="F7">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c s="8" r="G7">
         <v>0</v>
       </c>
       <c s="8" r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="8" r="I7">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c s="8" r="K7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="8" r="L7">
         <v>0</v>
@@ -2602,40 +2602,40 @@
       </c>
       <c r="N7">
         <f>SUM(C7:M7)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c s="8" r="O7"/>
-      <c s="11" r="P7">
-        <f>ROUND(((((((((((((C7*5)+(D7*10))+(E7*2))+(F7*4))-(G7*7))+(H7*4))-(I7*4))+(J7*3))+(K7*10))+(L7*5))+(M7*0)) / 32))</f>
-        <v>5</v>
+      <c s="13" r="P7">
+        <f>(((((((((((C7*5)+(D7*10))+(E7*5))-(F7*3))-(G7*3))+(H7*5))-(I7*3))+(J7*1))+(K7*10))+(L7*3))+(M7*0))/30</f>
+        <v>4.46666666666667</v>
       </c>
       <c s="13" r="Q7">
-        <f>ROUND(((((((((((((C7*8)+(D7*10))+(E7*2))-(F7*4))-(G7*5))+(H7*2))-(I7*3))+(J7*5))+(K7*5))+(L7*2))+(M7*2)) / 24))</f>
-        <v>6</v>
+        <f>(((((((((((C7*10)+(D7*10))+(E7*2))-(F7*3))-(G7*3))+(H7*1))-(I7*3))+(J7*5))+(K7*5))+(L7*2))+(M7*0))/30</f>
+        <v>4.36666666666667</v>
       </c>
       <c s="13" r="R7">
-        <f>ROUND(((((((((((((C7*0)+(D7*3))+(E7*10))-(F7*3))+(G7*2))+(H7*4))+(I7*5))-(J7*3))-(K7*4))-(L7*2))+(M7*2)) / 14))</f>
-        <v>2</v>
+        <f>(((((((((((C7*0)+(D7*2))+(E7*10))+(F7*3))+(G7*3))+(H7*3))+(I7*3))+(J7*0))+(K7*0))+(L7*3))+(M7*3))/30</f>
+        <v>0.533333333333333</v>
       </c>
       <c s="13" r="S7">
-        <f>ROUND(((((((((((((-C7*3)-(D7*5))+(E7*3))+(F7*1))+(G7*4))+(H7*2))+(I7*10))-(J7*3))+(K7*6))+(L7*8))+(M7*0)) / 23))</f>
-        <v>-1</v>
+        <f>(((((((((((C7*0)+(D7*0))+(E7*7))+(F7*5))+(G7*7))+(H7*2))+(I7*10))+(J7*0))+(K7*5))+(L7*10))+(M7*0))/30</f>
+        <v>0.5</v>
       </c>
       <c s="13" r="T7">
-        <f>ROUND(((((((((((((C7*5)+(D7*5))-(E7*3))+(F7*7))-(G7*2))+(H7*7))-(I7*3))+(J7*5))+(K7*8))+(L7*8))+(M7*1)) / 38))</f>
-        <v>2</v>
+        <f>(((((((((((C7*7)+(D7*7))+(E7*5))+(F7*5))+(G7*5))+(H7*3))+(I7*5))+(J7*2))+(K7*5))+(L7*5))+(M7*3))/30</f>
+        <v>3.3</v>
       </c>
       <c s="13" r="U7">
-        <f>ROUND(((((((((((((-C7*4)-(D7*2))+(E7*5))+(F7*5))+(G7*2))+(H7*2))-(I7*1))+(J7*7))+(K7*1))+(L7*2))+(M7*10)) / 27))</f>
-        <v>0</v>
+        <f>(((((((((((-C7*2)-(D7*3))-(E7*5))+(F7*3))+(G7*5))+(H7*3))-(I7*5))+(J7*5))+(K7*0))+(L7*5))+(M7*10))/30</f>
+        <v>-0.366666666666667</v>
       </c>
       <c s="13" r="V7">
-        <f>ROUND(((((((((((((C7*2)+(D7*4))+(E7*9))+(F7*3))-(G7*3))+(H7*10))-(I7*3))+(J7*3))+(K7*8))+(L7*5))+(M7*0)) / 38))</f>
-        <v>3</v>
+        <f>(((((((((((C7*2)-(D7*3))+(E7*7))+(F7*3))+(G7*5))+(H7*10))+(I7*3))+(J7*0))+(K7*4))+(L7*5))+(M7*0))/30</f>
+        <v>-0.333333333333333</v>
       </c>
       <c s="14" r="W7">
         <f>SUM(P7:V7)</f>
-        <v>17</v>
+        <v>12.4666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -2646,10 +2646,10 @@
         <v>10</v>
       </c>
       <c s="8" r="D8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c s="8" r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="8" r="F8">
         <v>2</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c s="8" r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="8" r="I8">
         <v>0</v>
@@ -2670,47 +2670,47 @@
         <v>2</v>
       </c>
       <c s="8" r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="8" r="M8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f>SUM(C8:M8)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="8" r="O8"/>
-      <c s="11" r="P8">
-        <f>ROUND(((((((((((((C8*5)+(D8*10))+(E8*2))+(F8*4))-(G8*7))+(H8*4))-(I8*4))+(J8*3))+(K8*10))+(L8*5))+(M8*0)) / 32))</f>
-        <v>2</v>
+      <c s="13" r="P8">
+        <f>(((((((((((C8*5)+(D8*10))+(E8*5))-(F8*3))-(G8*3))+(H8*5))-(I8*3))+(J8*1))+(K8*10))+(L8*3))+(M8*0))/30</f>
+        <v>2.23333333333333</v>
       </c>
       <c s="13" r="Q8">
-        <f>ROUND(((((((((((((C8*8)+(D8*10))+(E8*2))-(F8*4))-(G8*5))+(H8*2))-(I8*3))+(J8*5))+(K8*5))+(L8*2))+(M8*2)) / 24))</f>
-        <v>2</v>
+        <f>(((((((((((C8*10)+(D8*10))+(E8*2))-(F8*3))-(G8*3))+(H8*1))-(I8*3))+(J8*5))+(K8*5))+(L8*2))+(M8*0))/30</f>
+        <v>2.63333333333333</v>
       </c>
       <c s="13" r="R8">
-        <f>ROUND(((((((((((((C8*0)+(D8*3))+(E8*10))-(F8*3))+(G8*2))+(H8*4))+(I8*5))-(J8*3))-(K8*4))-(L8*2))+(M8*2)) / 14))</f>
-        <v>2</v>
+        <f>(((((((((((C8*0)+(D8*2))+(E8*10))+(F8*3))+(G8*3))+(H8*3))+(I8*3))+(J8*0))+(K8*0))+(L8*3))+(M8*3))/30</f>
+        <v>1.23333333333333</v>
       </c>
       <c s="13" r="S8">
-        <f>ROUND(((((((((((((-C8*3)-(D8*5))+(E8*3))+(F8*1))+(G8*4))+(H8*2))+(I8*10))-(J8*3))+(K8*6))+(L8*8))+(M8*0)) / 23))</f>
-        <v>1</v>
+        <f>(((((((((((C8*0)+(D8*0))+(E8*7))+(F8*5))+(G8*7))+(H8*2))+(I8*10))+(J8*0))+(K8*5))+(L8*10))+(M8*0))/30</f>
+        <v>1.93333333333333</v>
       </c>
       <c s="13" r="T8">
-        <f>ROUND(((((((((((((C8*5)+(D8*5))-(E8*3))+(F8*7))-(G8*2))+(H8*7))-(I8*3))+(J8*5))+(K8*8))+(L8*8))+(M8*1)) / 38))</f>
-        <v>1</v>
+        <f>(((((((((((C8*7)+(D8*7))+(E8*5))+(F8*5))+(G8*5))+(H8*3))+(I8*5))+(J8*2))+(K8*5))+(L8*5))+(M8*3))/30</f>
+        <v>3.3</v>
       </c>
       <c s="13" r="U8">
-        <f>ROUND(((((((((((((-C8*4)-(D8*2))+(E8*5))+(F8*5))+(G8*2))+(H8*2))-(I8*1))+(J8*7))+(K8*1))+(L8*2))+(M8*10)) / 27))</f>
-        <v>0</v>
+        <f>(((((((((((-C8*2)-(D8*3))-(E8*5))+(F8*3))+(G8*5))+(H8*3))-(I8*5))+(J8*5))+(K8*0))+(L8*5))+(M8*10))/30</f>
+        <v>-0.233333333333333</v>
       </c>
       <c s="13" r="V8">
-        <f>ROUND(((((((((((((C8*2)+(D8*4))+(E8*9))+(F8*3))-(G8*3))+(H8*10))-(I8*3))+(J8*3))+(K8*8))+(L8*5))+(M8*0)) / 38))</f>
-        <v>2</v>
+        <f>(((((((((((C8*2)-(D8*3))+(E8*7))+(F8*3))+(G8*5))+(H8*10))+(I8*3))+(J8*0))+(K8*4))+(L8*5))+(M8*0))/30</f>
+        <v>2.8</v>
       </c>
       <c s="14" r="W8">
         <f>SUM(P8:V8)</f>
-        <v>10</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="9">
@@ -2727,65 +2727,65 @@
         <v>10</v>
       </c>
       <c s="8" r="F9">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c s="8" r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="8" r="H9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c s="8" r="I9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="8" r="J9">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c s="8" r="K9">
         <v>5</v>
       </c>
       <c s="8" r="L9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c s="8" r="M9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <f>SUM(C9:M9)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="8" r="O9"/>
-      <c s="11" r="P9">
-        <f>ROUND(((((((((((((C9*5)+(D9*10))+(E9*2))+(F9*4))-(G9*7))+(H9*4))-(I9*4))+(J9*3))+(K9*10))+(L9*5))+(M9*0)) / 32))</f>
-        <v>-1</v>
+      <c s="13" r="P9">
+        <f>(((((((((((C9*5)+(D9*10))+(E9*5))-(F9*3))-(G9*3))+(H9*5))-(I9*3))+(J9*1))+(K9*10))+(L9*3))+(M9*0))/30</f>
+        <v>2.5</v>
       </c>
       <c s="13" r="Q9">
-        <f>ROUND(((((((((((((C9*8)+(D9*10))+(E9*2))-(F9*4))-(G9*5))+(H9*2))-(I9*3))+(J9*5))+(K9*5))+(L9*2))+(M9*2)) / 24))</f>
-        <v>-1</v>
+        <f>(((((((((((C9*10)+(D9*10))+(E9*2))-(F9*3))-(G9*3))+(H9*1))-(I9*3))+(J9*5))+(K9*5))+(L9*2))+(M9*0))/30</f>
+        <v>-0.233333333333333</v>
       </c>
       <c s="13" r="R9">
-        <f>ROUND(((((((((((((C9*0)+(D9*3))+(E9*10))-(F9*3))+(G9*2))+(H9*4))+(I9*5))-(J9*3))-(K9*4))-(L9*2))+(M9*2)) / 14))</f>
-        <v>8</v>
+        <f>(((((((((((C9*0)+(D9*2))+(E9*10))+(F9*3))+(G9*3))+(H9*3))+(I9*3))+(J9*0))+(K9*0))+(L9*3))+(M9*3))/30</f>
+        <v>4.03333333333333</v>
       </c>
       <c s="13" r="S9">
-        <f>ROUND(((((((((((((-C9*3)-(D9*5))+(E9*3))+(F9*1))+(G9*4))+(H9*2))+(I9*10))-(J9*3))+(K9*6))+(L9*8))+(M9*0)) / 23))</f>
-        <v>7</v>
+        <f>(((((((((((C9*0)+(D9*0))+(E9*7))+(F9*5))+(G9*7))+(H9*2))+(I9*10))+(J9*0))+(K9*5))+(L9*10))+(M9*0))/30</f>
+        <v>5</v>
       </c>
       <c s="13" r="T9">
-        <f>ROUND(((((((((((((C9*5)+(D9*5))-(E9*3))+(F9*7))-(G9*2))+(H9*7))-(I9*3))+(J9*5))+(K9*8))+(L9*8))+(M9*1)) / 38))</f>
-        <v>-2</v>
+        <f>(((((((((((C9*7)+(D9*7))+(E9*5))+(F9*5))+(G9*5))+(H9*3))+(I9*5))+(J9*2))+(K9*5))+(L9*5))+(M9*3))/30</f>
+        <v>2.3</v>
       </c>
       <c s="13" r="U9">
-        <f>ROUND(((((((((((((-C9*4)-(D9*2))+(E9*5))+(F9*5))+(G9*2))+(H9*2))-(I9*1))+(J9*7))+(K9*1))+(L9*2))+(M9*10)) / 27))</f>
-        <v>2</v>
+        <f>(((((((((((-C9*2)-(D9*3))-(E9*5))+(F9*3))+(G9*5))+(H9*3))-(I9*5))+(J9*5))+(K9*0))+(L9*5))+(M9*10))/30</f>
+        <v>0.133333333333333</v>
       </c>
       <c s="13" r="V9">
-        <f>ROUND(((((((((((((C9*2)+(D9*4))+(E9*9))+(F9*3))-(G9*3))+(H9*10))-(I9*3))+(J9*3))+(K9*8))+(L9*5))+(M9*0)) / 38))</f>
-        <v>2</v>
+        <f>(((((((((((C9*2)-(D9*3))+(E9*7))+(F9*3))+(G9*5))+(H9*10))+(I9*3))+(J9*0))+(K9*4))+(L9*5))+(M9*0))/30</f>
+        <v>3.9</v>
       </c>
       <c s="14" r="W9">
         <f>SUM(P9:V9)</f>
-        <v>15</v>
+        <v>17.6333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -2799,68 +2799,68 @@
         <v>4</v>
       </c>
       <c s="8" r="E10">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c s="8" r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="8" r="G10">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c s="8" r="H10">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c s="8" r="I10">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c s="8" r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="8" r="K10">
         <v>10</v>
       </c>
       <c s="8" r="L10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c s="8" r="M10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f>SUM(C10:M10)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c s="8" r="O10"/>
-      <c s="11" r="P10">
-        <f>ROUND(((((((((((((C10*5)+(D10*10))+(E10*2))+(F10*4))-(G10*7))+(H10*4))-(I10*4))+(J10*3))+(K10*10))+(L10*5))+(M10*0)) / 32))</f>
-        <v>8</v>
+      <c s="13" r="P10">
+        <f>(((((((((((C10*5)+(D10*10))+(E10*5))-(F10*3))-(G10*3))+(H10*5))-(I10*3))+(J10*1))+(K10*10))+(L10*3))+(M10*0))/30</f>
+        <v>4.33333333333333</v>
       </c>
       <c s="13" r="Q10">
-        <f>ROUND(((((((((((((C10*8)+(D10*10))+(E10*2))-(F10*4))-(G10*5))+(H10*2))-(I10*3))+(J10*5))+(K10*5))+(L10*2))+(M10*2)) / 24))</f>
-        <v>6</v>
+        <f>(((((((((((C10*10)+(D10*10))+(E10*2))-(F10*3))-(G10*3))+(H10*1))-(I10*3))+(J10*5))+(K10*5))+(L10*2))+(M10*0))/30</f>
+        <v>3.86666666666667</v>
       </c>
       <c s="13" r="R10">
-        <f>ROUND(((((((((((((C10*0)+(D10*3))+(E10*10))-(F10*3))+(G10*2))+(H10*4))+(I10*5))-(J10*3))-(K10*4))-(L10*2))+(M10*2)) / 14))</f>
-        <v>-6</v>
+        <f>(((((((((((C10*0)+(D10*2))+(E10*10))+(F10*3))+(G10*3))+(H10*3))+(I10*3))+(J10*0))+(K10*0))+(L10*3))+(M10*3))/30</f>
+        <v>-0.7</v>
       </c>
       <c s="13" r="S10">
-        <f>ROUND(((((((((((((-C10*3)-(D10*5))+(E10*3))+(F10*1))+(G10*4))+(H10*2))+(I10*10))-(J10*3))+(K10*6))+(L10*8))+(M10*0)) / 23))</f>
-        <v>1</v>
+        <f>(((((((((((C10*0)+(D10*0))+(E10*7))+(F10*5))+(G10*7))+(H10*2))+(I10*10))+(J10*0))+(K10*5))+(L10*10))+(M10*0))/30</f>
+        <v>3.03333333333333</v>
       </c>
       <c s="13" r="T10">
-        <f>ROUND(((((((((((((C10*5)+(D10*5))-(E10*3))+(F10*7))-(G10*2))+(H10*7))-(I10*3))+(J10*5))+(K10*8))+(L10*8))+(M10*1)) / 38))</f>
-        <v>6</v>
+        <f>(((((((((((C10*7)+(D10*7))+(E10*5))+(F10*5))+(G10*5))+(H10*3))+(I10*5))+(J10*2))+(K10*5))+(L10*5))+(M10*3))/30</f>
+        <v>3.83333333333333</v>
       </c>
       <c s="13" r="U10">
-        <f>ROUND(((((((((((((-C10*4)-(D10*2))+(E10*5))+(F10*5))+(G10*2))+(H10*2))-(I10*1))+(J10*7))+(K10*1))+(L10*2))+(M10*10)) / 27))</f>
-        <v>1</v>
+        <f>(((((((((((-C10*2)-(D10*3))-(E10*5))+(F10*3))+(G10*5))+(H10*3))-(I10*5))+(J10*5))+(K10*0))+(L10*5))+(M10*10))/30</f>
+        <v>1.23333333333333</v>
       </c>
       <c s="13" r="V10">
-        <f>ROUND(((((((((((((C10*2)+(D10*4))+(E10*9))+(F10*3))-(G10*3))+(H10*10))-(I10*3))+(J10*3))+(K10*8))+(L10*5))+(M10*0)) / 38))</f>
-        <v>5</v>
+        <f>(((((((((((C10*2)-(D10*3))+(E10*7))+(F10*3))+(G10*5))+(H10*10))+(I10*3))+(J10*0))+(K10*4))+(L10*5))+(M10*0))/30</f>
+        <v>0.6</v>
       </c>
       <c s="14" r="W10">
         <f>SUM(P10:V10)</f>
-        <v>21</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="11">
@@ -2874,22 +2874,22 @@
         <v>-2</v>
       </c>
       <c s="8" r="E11">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c s="8" r="F11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c s="8" r="G11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c s="8" r="H11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c s="8" r="I11">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c s="8" r="J11">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c s="8" r="K11">
         <v>7</v>
@@ -2898,44 +2898,44 @@
         <v>10</v>
       </c>
       <c s="8" r="M11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N11">
         <f>SUM(C11:M11)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c s="8" r="O11"/>
-      <c s="11" r="P11">
-        <f>ROUND(((((((((((((C11*5)+(D11*10))+(E11*2))+(F11*4))-(G11*7))+(H11*4))-(I11*4))+(J11*3))+(K11*10))+(L11*5))+(M11*0)) / 32))</f>
-        <v>5</v>
+      <c s="13" r="P11">
+        <f>(((((((((((C11*5)+(D11*10))+(E11*5))-(F11*3))-(G11*3))+(H11*5))-(I11*3))+(J11*1))+(K11*10))+(L11*3))+(M11*0))/30</f>
+        <v>1.73333333333333</v>
       </c>
       <c s="13" r="Q11">
-        <f>ROUND(((((((((((((C11*8)+(D11*10))+(E11*2))-(F11*4))-(G11*5))+(H11*2))-(I11*3))+(J11*5))+(K11*5))+(L11*2))+(M11*2)) / 24))</f>
-        <v>0</v>
+        <f>(((((((((((C11*10)+(D11*10))+(E11*2))-(F11*3))-(G11*3))+(H11*1))-(I11*3))+(J11*5))+(K11*5))+(L11*2))+(M11*0))/30</f>
+        <v>-1.3</v>
       </c>
       <c s="13" r="R11">
-        <f>ROUND(((((((((((((C11*0)+(D11*3))+(E11*10))-(F11*3))+(G11*2))+(H11*4))+(I11*5))-(J11*3))-(K11*4))-(L11*2))+(M11*2)) / 14))</f>
-        <v>-7</v>
+        <f>(((((((((((C11*0)+(D11*2))+(E11*10))+(F11*3))+(G11*3))+(H11*3))+(I11*3))+(J11*0))+(K11*0))+(L11*3))+(M11*3))/30</f>
+        <v>0.766666666666667</v>
       </c>
       <c s="13" r="S11">
-        <f>ROUND(((((((((((((-C11*3)-(D11*5))+(E11*3))+(F11*1))+(G11*4))+(H11*2))+(I11*10))-(J11*3))+(K11*6))+(L11*8))+(M11*0)) / 23))</f>
-        <v>6</v>
+        <f>(((((((((((C11*0)+(D11*0))+(E11*7))+(F11*5))+(G11*7))+(H11*2))+(I11*10))+(J11*0))+(K11*5))+(L11*10))+(M11*0))/30</f>
+        <v>5.3</v>
       </c>
       <c s="13" r="T11">
-        <f>ROUND(((((((((((((C11*5)+(D11*5))-(E11*3))+(F11*7))-(G11*2))+(H11*7))-(I11*3))+(J11*5))+(K11*8))+(L11*8))+(M11*1)) / 38))</f>
-        <v>7</v>
+        <f>(((((((((((C11*7)+(D11*7))+(E11*5))+(F11*5))+(G11*5))+(H11*3))+(I11*5))+(J11*2))+(K11*5))+(L11*5))+(M11*3))/30</f>
+        <v>2.13333333333333</v>
       </c>
       <c s="13" r="U11">
-        <f>ROUND(((((((((((((-C11*4)-(D11*2))+(E11*5))+(F11*5))+(G11*2))+(H11*2))-(I11*1))+(J11*7))+(K11*1))+(L11*2))+(M11*10)) / 27))</f>
-        <v>2</v>
+        <f>(((((((((((-C11*2)-(D11*3))-(E11*5))+(F11*3))+(G11*5))+(H11*3))-(I11*5))+(J11*5))+(K11*0))+(L11*5))+(M11*10))/30</f>
+        <v>1.9</v>
       </c>
       <c s="13" r="V11">
-        <f>ROUND(((((((((((((C11*2)+(D11*4))+(E11*9))+(F11*3))-(G11*3))+(H11*10))-(I11*3))+(J11*3))+(K11*8))+(L11*5))+(M11*0)) / 38))</f>
-        <v>5</v>
+        <f>(((((((((((C11*2)-(D11*3))+(E11*7))+(F11*3))+(G11*5))+(H11*10))+(I11*3))+(J11*0))+(K11*4))+(L11*5))+(M11*0))/30</f>
+        <v>4.16666666666667</v>
       </c>
       <c s="14" r="W11">
         <f>SUM(P11:V11)</f>
-        <v>18</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="12">
@@ -2949,68 +2949,68 @@
         <v>-2</v>
       </c>
       <c s="8" r="E12">
+        <v>-7</v>
+      </c>
+      <c s="8" r="F12">
+        <v>0</v>
+      </c>
+      <c s="8" r="G12">
+        <v>0</v>
+      </c>
+      <c s="8" r="H12">
+        <v>0</v>
+      </c>
+      <c s="8" r="I12">
+        <v>3</v>
+      </c>
+      <c s="8" r="J12">
+        <v>0</v>
+      </c>
+      <c s="8" r="K12">
         <v>-3</v>
       </c>
-      <c s="8" r="F12">
-        <v>5</v>
-      </c>
-      <c s="8" r="G12">
-        <v>-3</v>
-      </c>
-      <c s="8" r="H12">
-        <v>0</v>
-      </c>
-      <c s="8" r="I12">
-        <v>5</v>
-      </c>
-      <c s="8" r="J12">
-        <v>1</v>
-      </c>
-      <c s="8" r="K12">
-        <v>2</v>
-      </c>
       <c s="8" r="L12">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c s="8" r="M12">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="N12">
         <f>SUM(C12:M12)</f>
-        <v>7</v>
+        <v>-24</v>
       </c>
       <c s="8" r="O12"/>
-      <c s="11" r="P12">
-        <f>ROUND(((((((((((((C12*5)+(D12*10))+(E12*2))+(F12*4))-(G12*7))+(H12*4))-(I12*4))+(J12*3))+(K12*10))+(L12*5))+(M12*0)) / 32))</f>
-        <v>1</v>
+      <c s="13" r="P12">
+        <f>(((((((((((C12*5)+(D12*10))+(E12*5))-(F12*3))-(G12*3))+(H12*5))-(I12*3))+(J12*1))+(K12*10))+(L12*3))+(M12*0))/30</f>
+        <v>-3.63333333333333</v>
       </c>
       <c s="13" r="Q12">
-        <f>ROUND(((((((((((((C12*8)+(D12*10))+(E12*2))-(F12*4))-(G12*5))+(H12*2))-(I12*3))+(J12*5))+(K12*5))+(L12*2))+(M12*2)) / 24))</f>
-        <v>-1</v>
+        <f>(((((((((((C12*10)+(D12*10))+(E12*2))-(F12*3))-(G12*3))+(H12*1))-(I12*3))+(J12*5))+(K12*5))+(L12*2))+(M12*0))/30</f>
+        <v>-2.26666666666667</v>
       </c>
       <c s="13" r="R12">
-        <f>ROUND(((((((((((((C12*0)+(D12*3))+(E12*10))-(F12*3))+(G12*2))+(H12*4))+(I12*5))-(J12*3))-(K12*4))-(L12*2))+(M12*2)) / 14))</f>
-        <v>-4</v>
+        <f>(((((((((((C12*0)+(D12*2))+(E12*10))+(F12*3))+(G12*3))+(H12*3))+(I12*3))+(J12*0))+(K12*0))+(L12*3))+(M12*3))/30</f>
+        <v>-3.66666666666667</v>
       </c>
       <c s="13" r="S12">
-        <f>ROUND(((((((((((((-C12*3)-(D12*5))+(E12*3))+(F12*1))+(G12*4))+(H12*2))+(I12*10))-(J12*3))+(K12*6))+(L12*8))+(M12*0)) / 23))</f>
-        <v>3</v>
+        <f>(((((((((((C12*0)+(D12*0))+(E12*7))+(F12*5))+(G12*7))+(H12*2))+(I12*10))+(J12*0))+(K12*5))+(L12*10))+(M12*0))/30</f>
+        <v>-2.8</v>
       </c>
       <c s="13" r="T12">
-        <f>ROUND(((((((((((((C12*5)+(D12*5))-(E12*3))+(F12*7))-(G12*2))+(H12*7))-(I12*3))+(J12*5))+(K12*8))+(L12*8))+(M12*1)) / 38))</f>
-        <v>2</v>
+        <f>(((((((((((C12*7)+(D12*7))+(E12*5))+(F12*5))+(G12*5))+(H12*3))+(I12*5))+(J12*2))+(K12*5))+(L12*5))+(M12*3))/30</f>
+        <v>-3.46666666666667</v>
       </c>
       <c s="13" r="U12">
-        <f>ROUND(((((((((((((-C12*4)-(D12*2))+(E12*5))+(F12*5))+(G12*2))+(H12*2))-(I12*1))+(J12*7))+(K12*1))+(L12*2))+(M12*10)) / 27))</f>
-        <v>0</v>
+        <f>(((((((((((-C12*2)-(D12*3))-(E12*5))+(F12*3))+(G12*5))+(H12*3))-(I12*5))+(J12*5))+(K12*0))+(L12*5))+(M12*10))/30</f>
+        <v>-3.3</v>
       </c>
       <c s="13" r="V12">
-        <f>ROUND(((((((((((((C12*2)+(D12*4))+(E12*9))+(F12*3))-(G12*3))+(H12*10))-(I12*3))+(J12*3))+(K12*8))+(L12*5))+(M12*0)) / 38))</f>
-        <v>0</v>
+        <f>(((((((((((C12*2)-(D12*3))+(E12*7))+(F12*3))+(G12*5))+(H12*10))+(I12*3))+(J12*0))+(K12*4))+(L12*5))+(M12*0))/30</f>
+        <v>-2.36666666666667</v>
       </c>
       <c s="14" r="W12">
         <f>SUM(P12:V12)</f>
-        <v>1</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="13">
@@ -3021,13 +3021,13 @@
         <v>10</v>
       </c>
       <c s="8" r="D13">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c s="8" r="E13">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c s="8" r="F13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="8" r="G13">
         <v>0</v>
@@ -3045,47 +3045,47 @@
         <v>2</v>
       </c>
       <c s="8" r="L13">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c s="8" r="M13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <f>SUM(C13:M13)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c s="8" r="O13"/>
-      <c s="11" r="P13">
-        <f>ROUND(((((((((((((C13*5)+(D13*10))+(E13*2))+(F13*4))-(G13*7))+(H13*4))-(I13*4))+(J13*3))+(K13*10))+(L13*5))+(M13*0)) / 32))</f>
-        <v>1</v>
+      <c s="13" r="P13">
+        <f>(((((((((((C13*5)+(D13*10))+(E13*5))-(F13*3))-(G13*3))+(H13*5))-(I13*3))+(J13*1))+(K13*10))+(L13*3))+(M13*0))/30</f>
+        <v>0.9</v>
       </c>
       <c s="13" r="Q13">
-        <f>ROUND(((((((((((((C13*8)+(D13*10))+(E13*2))-(F13*4))-(G13*5))+(H13*2))-(I13*3))+(J13*5))+(K13*5))+(L13*2))+(M13*2)) / 24))</f>
-        <v>2</v>
+        <f>(((((((((((C13*10)+(D13*10))+(E13*2))-(F13*3))-(G13*3))+(H13*1))-(I13*3))+(J13*5))+(K13*5))+(L13*2))+(M13*0))/30</f>
+        <v>1.96666666666667</v>
       </c>
       <c s="13" r="R13">
-        <f>ROUND(((((((((((((C13*0)+(D13*3))+(E13*10))-(F13*3))+(G13*2))+(H13*4))+(I13*5))-(J13*3))-(K13*4))-(L13*2))+(M13*2)) / 14))</f>
-        <v>-2</v>
+        <f>(((((((((((C13*0)+(D13*2))+(E13*10))+(F13*3))+(G13*3))+(H13*3))+(I13*3))+(J13*0))+(K13*0))+(L13*3))+(M13*3))/30</f>
+        <v>-0.4</v>
       </c>
       <c s="13" r="S13">
-        <f>ROUND(((((((((((((-C13*3)-(D13*5))+(E13*3))+(F13*1))+(G13*4))+(H13*2))+(I13*10))-(J13*3))+(K13*6))+(L13*8))+(M13*0)) / 23))</f>
-        <v>-1</v>
+        <f>(((((((((((C13*0)+(D13*0))+(E13*7))+(F13*5))+(G13*7))+(H13*2))+(I13*10))+(J13*0))+(K13*5))+(L13*10))+(M13*0))/30</f>
+        <v>-0.233333333333333</v>
       </c>
       <c s="13" r="T13">
-        <f>ROUND(((((((((((((C13*5)+(D13*5))-(E13*3))+(F13*7))-(G13*2))+(H13*7))-(I13*3))+(J13*5))+(K13*8))+(L13*8))+(M13*1)) / 38))</f>
-        <v>1</v>
+        <f>(((((((((((C13*7)+(D13*7))+(E13*5))+(F13*5))+(G13*5))+(H13*3))+(I13*5))+(J13*2))+(K13*5))+(L13*5))+(M13*3))/30</f>
+        <v>2.13333333333333</v>
       </c>
       <c s="13" r="U13">
-        <f>ROUND(((((((((((((-C13*4)-(D13*2))+(E13*5))+(F13*5))+(G13*2))+(H13*2))-(I13*1))+(J13*7))+(K13*1))+(L13*2))+(M13*10)) / 27))</f>
-        <v>-1</v>
+        <f>(((((((((((-C13*2)-(D13*3))-(E13*5))+(F13*3))+(G13*5))+(H13*3))-(I13*5))+(J13*5))+(K13*0))+(L13*5))+(M13*10))/30</f>
+        <v>0.1</v>
       </c>
       <c s="13" r="V13">
-        <f>ROUND(((((((((((((C13*2)+(D13*4))+(E13*9))+(F13*3))-(G13*3))+(H13*10))-(I13*3))+(J13*3))+(K13*8))+(L13*5))+(M13*0)) / 38))</f>
-        <v>0</v>
+        <f>(((((((((((C13*2)-(D13*3))+(E13*7))+(F13*3))+(G13*5))+(H13*10))+(I13*3))+(J13*0))+(K13*4))+(L13*5))+(M13*0))/30</f>
+        <v>0.966666666666667</v>
       </c>
       <c s="14" r="W13">
         <f>SUM(P13:V13)</f>
-        <v>0</v>
+        <v>5.43333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -3096,19 +3096,19 @@
         <v>10</v>
       </c>
       <c s="8" r="D14">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c s="8" r="E14">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c s="8" r="F14">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c s="8" r="G14">
         <v>0</v>
       </c>
       <c s="8" r="H14">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c s="8" r="I14">
         <v>0</v>
@@ -3127,40 +3127,40 @@
       </c>
       <c r="N14">
         <f>SUM(C14:M14)</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c s="8" r="O14"/>
-      <c s="11" r="P14">
-        <f>ROUND(((((((((((((C14*5)+(D14*10))+(E14*2))+(F14*4))-(G14*7))+(H14*4))-(I14*4))+(J14*3))+(K14*10))+(L14*5))+(M14*0)) / 32))</f>
-        <v>1</v>
+      <c s="13" r="P14">
+        <f>(((((((((((C14*5)+(D14*10))+(E14*5))-(F14*3))-(G14*3))+(H14*5))-(I14*3))+(J14*1))+(K14*10))+(L14*3))+(M14*0))/30</f>
+        <v>0.5</v>
       </c>
       <c s="13" r="Q14">
-        <f>ROUND(((((((((((((C14*8)+(D14*10))+(E14*2))-(F14*4))-(G14*5))+(H14*2))-(I14*3))+(J14*5))+(K14*5))+(L14*2))+(M14*2)) / 24))</f>
-        <v>4</v>
+        <f>(((((((((((C14*10)+(D14*10))+(E14*2))-(F14*3))-(G14*3))+(H14*1))-(I14*3))+(J14*5))+(K14*5))+(L14*2))+(M14*0))/30</f>
+        <v>2.03333333333333</v>
       </c>
       <c s="13" r="R14">
-        <f>ROUND(((((((((((((C14*0)+(D14*3))+(E14*10))-(F14*3))+(G14*2))+(H14*4))+(I14*5))-(J14*3))-(K14*4))-(L14*2))+(M14*2)) / 14))</f>
-        <v>0</v>
+        <f>(((((((((((C14*0)+(D14*2))+(E14*10))+(F14*3))+(G14*3))+(H14*3))+(I14*3))+(J14*0))+(K14*0))+(L14*3))+(M14*3))/30</f>
+        <v>-1.46666666666667</v>
       </c>
       <c s="13" r="S14">
-        <f>ROUND(((((((((((((-C14*3)-(D14*5))+(E14*3))+(F14*1))+(G14*4))+(H14*2))+(I14*10))-(J14*3))+(K14*6))+(L14*8))+(M14*0)) / 23))</f>
-        <v>-2</v>
+        <f>(((((((((((C14*0)+(D14*0))+(E14*7))+(F14*5))+(G14*7))+(H14*2))+(I14*10))+(J14*0))+(K14*5))+(L14*10))+(M14*0))/30</f>
+        <v>-0.933333333333333</v>
       </c>
       <c s="13" r="T14">
-        <f>ROUND(((((((((((((C14*5)+(D14*5))-(E14*3))+(F14*7))-(G14*2))+(H14*7))-(I14*3))+(J14*5))+(K14*8))+(L14*8))+(M14*1)) / 38))</f>
-        <v>0</v>
+        <f>(((((((((((C14*7)+(D14*7))+(E14*5))+(F14*5))+(G14*5))+(H14*3))+(I14*5))+(J14*2))+(K14*5))+(L14*5))+(M14*3))/30</f>
+        <v>0.7</v>
       </c>
       <c s="13" r="U14">
-        <f>ROUND(((((((((((((-C14*4)-(D14*2))+(E14*5))+(F14*5))+(G14*2))+(H14*2))-(I14*1))+(J14*7))+(K14*1))+(L14*2))+(M14*10)) / 27))</f>
-        <v>-6</v>
+        <f>(((((((((((-C14*2)-(D14*3))-(E14*5))+(F14*3))+(G14*5))+(H14*3))-(I14*5))+(J14*5))+(K14*0))+(L14*5))+(M14*10))/30</f>
+        <v>-3.16666666666667</v>
       </c>
       <c s="13" r="V14">
-        <f>ROUND(((((((((((((C14*2)+(D14*4))+(E14*9))+(F14*3))-(G14*3))+(H14*10))-(I14*3))+(J14*3))+(K14*8))+(L14*5))+(M14*0)) / 38))</f>
-        <v>0</v>
+        <f>(((((((((((C14*2)-(D14*3))+(E14*7))+(F14*3))+(G14*5))+(H14*10))+(I14*3))+(J14*0))+(K14*4))+(L14*5))+(M14*0))/30</f>
+        <v>-0.5</v>
       </c>
       <c s="14" r="W14">
         <f>SUM(P14:V14)</f>
-        <v>-3</v>
+        <v>-2.83333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -3171,71 +3171,71 @@
         <v>-1</v>
       </c>
       <c s="8" r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="8" r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="8" r="F15">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c s="8" r="G15">
         <v>10</v>
       </c>
       <c s="8" r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="8" r="I15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="8" r="J15">
         <v>-10</v>
       </c>
       <c s="8" r="K15">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c s="8" r="L15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c s="8" r="M15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <f>SUM(C15:M15)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c s="8" r="O15"/>
-      <c s="11" r="P15">
-        <f>ROUND(((((((((((((C15*5)+(D15*10))+(E15*2))+(F15*4))-(G15*7))+(H15*4))-(I15*4))+(J15*3))+(K15*10))+(L15*5))+(M15*0)) / 32))</f>
-        <v>-4</v>
+      <c s="13" r="P15">
+        <f>(((((((((((C15*5)+(D15*10))+(E15*5))-(F15*3))-(G15*3))+(H15*5))-(I15*3))+(J15*1))+(K15*10))+(L15*3))+(M15*0))/30</f>
+        <v>-0.4</v>
       </c>
       <c s="13" r="Q15">
-        <f>ROUND(((((((((((((C15*8)+(D15*10))+(E15*2))-(F15*4))-(G15*5))+(H15*2))-(I15*3))+(J15*5))+(K15*5))+(L15*2))+(M15*2)) / 24))</f>
-        <v>-3</v>
+        <f>(((((((((((C15*10)+(D15*10))+(E15*2))-(F15*3))-(G15*3))+(H15*1))-(I15*3))+(J15*5))+(K15*5))+(L15*2))+(M15*0))/30</f>
+        <v>-1.9</v>
       </c>
       <c s="13" r="R15">
-        <f>ROUND(((((((((((((C15*0)+(D15*3))+(E15*10))-(F15*3))+(G15*2))+(H15*4))+(I15*5))-(J15*3))-(K15*4))-(L15*2))+(M15*2)) / 14))</f>
-        <v>10</v>
+        <f>(((((((((((C15*0)+(D15*2))+(E15*10))+(F15*3))+(G15*3))+(H15*3))+(I15*3))+(J15*0))+(K15*0))+(L15*3))+(M15*3))/30</f>
+        <v>2.03333333333333</v>
       </c>
       <c s="13" r="S15">
-        <f>ROUND(((((((((((((-C15*3)-(D15*5))+(E15*3))+(F15*1))+(G15*4))+(H15*2))+(I15*10))-(J15*3))+(K15*6))+(L15*8))+(M15*0)) / 23))</f>
-        <v>4</v>
+        <f>(((((((((((C15*0)+(D15*0))+(E15*7))+(F15*5))+(G15*7))+(H15*2))+(I15*10))+(J15*0))+(K15*5))+(L15*10))+(M15*0))/30</f>
+        <v>5.83333333333333</v>
       </c>
       <c s="13" r="T15">
-        <f>ROUND(((((((((((((C15*5)+(D15*5))-(E15*3))+(F15*7))-(G15*2))+(H15*7))-(I15*3))+(J15*5))+(K15*8))+(L15*8))+(M15*1)) / 38))</f>
-        <v>-3</v>
+        <f>(((((((((((C15*7)+(D15*7))+(E15*5))+(F15*5))+(G15*5))+(H15*3))+(I15*5))+(J15*2))+(K15*5))+(L15*5))+(M15*3))/30</f>
+        <v>2.4</v>
       </c>
       <c s="13" r="U15">
-        <f>ROUND(((((((((((((-C15*4)-(D15*2))+(E15*5))+(F15*5))+(G15*2))+(H15*2))-(I15*1))+(J15*7))+(K15*1))+(L15*2))+(M15*10)) / 27))</f>
-        <v>-2</v>
+        <f>(((((((((((-C15*2)-(D15*3))-(E15*5))+(F15*3))+(G15*5))+(H15*3))-(I15*5))+(J15*5))+(K15*0))+(L15*5))+(M15*10))/30</f>
+        <v>0.366666666666667</v>
       </c>
       <c s="13" r="V15">
-        <f>ROUND(((((((((((((C15*2)+(D15*4))+(E15*9))+(F15*3))-(G15*3))+(H15*10))-(I15*3))+(J15*3))+(K15*8))+(L15*5))+(M15*0)) / 38))</f>
-        <v>-2</v>
+        <f>(((((((((((C15*2)-(D15*3))+(E15*7))+(F15*3))+(G15*5))+(H15*10))+(I15*3))+(J15*0))+(K15*4))+(L15*5))+(M15*0))/30</f>
+        <v>2.7</v>
       </c>
       <c s="14" r="W15">
         <f>SUM(P15:V15)</f>
-        <v>0</v>
+        <v>11.0333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -3243,22 +3243,22 @@
         <v>22</v>
       </c>
       <c s="8" r="C16">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c s="8" r="D16">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c s="8" r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="8" r="F16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c s="8" r="G16">
         <v>-2</v>
       </c>
       <c s="8" r="H16">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c s="8" r="I16">
         <v>0</v>
@@ -3267,50 +3267,50 @@
         <v>7</v>
       </c>
       <c s="8" r="K16">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c s="8" r="L16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c s="8" r="M16">
         <v>10</v>
       </c>
       <c r="N16">
         <f>SUM(C16:M16)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c s="8" r="O16"/>
-      <c s="11" r="P16">
-        <f>ROUND(((((((((((((C16*5)+(D16*10))+(E16*2))+(F16*4))-(G16*7))+(H16*4))-(I16*4))+(J16*3))+(K16*10))+(L16*5))+(M16*0)) / 32))</f>
-        <v>0</v>
+      <c s="13" r="P16">
+        <f>(((((((((((C16*5)+(D16*10))+(E16*5))-(F16*3))-(G16*3))+(H16*5))-(I16*3))+(J16*1))+(K16*10))+(L16*3))+(M16*0))/30</f>
+        <v>-0.9</v>
       </c>
       <c s="13" r="Q16">
-        <f>ROUND(((((((((((((C16*8)+(D16*10))+(E16*2))-(F16*4))-(G16*5))+(H16*2))-(I16*3))+(J16*5))+(K16*5))+(L16*2))+(M16*2)) / 24))</f>
-        <v>1</v>
+        <f>(((((((((((C16*10)+(D16*10))+(E16*2))-(F16*3))-(G16*3))+(H16*1))-(I16*3))+(J16*5))+(K16*5))+(L16*2))+(M16*0))/30</f>
+        <v>0.5</v>
       </c>
       <c s="13" r="R16">
-        <f>ROUND(((((((((((((C16*0)+(D16*3))+(E16*10))-(F16*3))+(G16*2))+(H16*4))+(I16*5))-(J16*3))-(K16*4))-(L16*2))+(M16*2)) / 14))</f>
-        <v>-1</v>
+        <f>(((((((((((C16*0)+(D16*2))+(E16*10))+(F16*3))+(G16*3))+(H16*3))+(I16*3))+(J16*0))+(K16*0))+(L16*3))+(M16*3))/30</f>
+        <v>1.06666666666667</v>
       </c>
       <c s="13" r="S16">
-        <f>ROUND(((((((((((((-C16*3)-(D16*5))+(E16*3))+(F16*1))+(G16*4))+(H16*2))+(I16*10))-(J16*3))+(K16*6))+(L16*8))+(M16*0)) / 23))</f>
-        <v>3</v>
+        <f>(((((((((((C16*0)+(D16*0))+(E16*7))+(F16*5))+(G16*7))+(H16*2))+(I16*10))+(J16*0))+(K16*5))+(L16*10))+(M16*0))/30</f>
+        <v>0.633333333333333</v>
       </c>
       <c s="13" r="T16">
-        <f>ROUND(((((((((((((C16*5)+(D16*5))-(E16*3))+(F16*7))-(G16*2))+(H16*7))-(I16*3))+(J16*5))+(K16*8))+(L16*8))+(M16*1)) / 38))</f>
-        <v>1</v>
+        <f>(((((((((((C16*7)+(D16*7))+(E16*5))+(F16*5))+(G16*5))+(H16*3))+(I16*5))+(J16*2))+(K16*5))+(L16*5))+(M16*3))/30</f>
+        <v>0.9</v>
       </c>
       <c s="13" r="U16">
-        <f>ROUND(((((((((((((-C16*4)-(D16*2))+(E16*5))+(F16*5))+(G16*2))+(H16*2))-(I16*1))+(J16*7))+(K16*1))+(L16*2))+(M16*10)) / 27))</f>
-        <v>7</v>
+        <f>(((((((((((-C16*2)-(D16*3))-(E16*5))+(F16*3))+(G16*5))+(H16*3))-(I16*5))+(J16*5))+(K16*0))+(L16*5))+(M16*10))/30</f>
+        <v>5.1</v>
       </c>
       <c s="13" r="V16">
-        <f>ROUND(((((((((((((C16*2)+(D16*4))+(E16*9))+(F16*3))-(G16*3))+(H16*10))-(I16*3))+(J16*3))+(K16*8))+(L16*5))+(M16*0)) / 38))</f>
-        <v>1</v>
+        <f>(((((((((((C16*2)-(D16*3))+(E16*7))+(F16*3))+(G16*5))+(H16*10))+(I16*3))+(J16*0))+(K16*4))+(L16*5))+(M16*0))/30</f>
+        <v>-0.033333333333333</v>
       </c>
       <c s="14" r="W16">
         <f>SUM(P16:V16)</f>
-        <v>12</v>
+        <v>7.26666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -3324,16 +3324,16 @@
         <v>10</v>
       </c>
       <c s="8" r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="8" r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="8" r="G17">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c s="8" r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="8" r="I17">
         <v>0</v>
@@ -3342,50 +3342,50 @@
         <v>7</v>
       </c>
       <c s="8" r="K17">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c s="8" r="L17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c s="8" r="M17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <f>SUM(C17:M17)</f>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c s="8" r="O17"/>
-      <c s="11" r="P17">
-        <f>ROUND(((((((((((((C17*5)+(D17*10))+(E17*2))+(F17*4))-(G17*7))+(H17*4))-(I17*4))+(J17*3))+(K17*10))+(L17*5))+(M17*0)) / 32))</f>
-        <v>6</v>
+      <c s="13" r="P17">
+        <f>(((((((((((C17*5)+(D17*10))+(E17*5))-(F17*3))-(G17*3))+(H17*5))-(I17*3))+(J17*1))+(K17*10))+(L17*3))+(M17*0))/30</f>
+        <v>1.2</v>
       </c>
       <c s="13" r="Q17">
-        <f>ROUND(((((((((((((C17*8)+(D17*10))+(E17*2))-(F17*4))-(G17*5))+(H17*2))-(I17*3))+(J17*5))+(K17*5))+(L17*2))+(M17*2)) / 24))</f>
-        <v>7</v>
+        <f>(((((((((((C17*10)+(D17*10))+(E17*2))-(F17*3))-(G17*3))+(H17*1))-(I17*3))+(J17*5))+(K17*5))+(L17*2))+(M17*0))/30</f>
+        <v>2.53333333333333</v>
       </c>
       <c s="13" r="R17">
-        <f>ROUND(((((((((((((C17*0)+(D17*3))+(E17*10))-(F17*3))+(G17*2))+(H17*4))+(I17*5))-(J17*3))-(K17*4))-(L17*2))+(M17*2)) / 14))</f>
-        <v>0</v>
+        <f>(((((((((((C17*0)+(D17*2))+(E17*10))+(F17*3))+(G17*3))+(H17*3))+(I17*3))+(J17*0))+(K17*0))+(L17*3))+(M17*3))/30</f>
+        <v>0.466666666666667</v>
       </c>
       <c s="13" r="S17">
-        <f>ROUND(((((((((((((-C17*3)-(D17*5))+(E17*3))+(F17*1))+(G17*4))+(H17*2))+(I17*10))-(J17*3))+(K17*6))+(L17*8))+(M17*0)) / 23))</f>
-        <v>-2</v>
+        <f>(((((((((((C17*0)+(D17*0))+(E17*7))+(F17*5))+(G17*7))+(H17*2))+(I17*10))+(J17*0))+(K17*5))+(L17*10))+(M17*0))/30</f>
+        <v>-1.7</v>
       </c>
       <c s="13" r="T17">
-        <f>ROUND(((((((((((((C17*5)+(D17*5))-(E17*3))+(F17*7))-(G17*2))+(H17*7))-(I17*3))+(J17*5))+(K17*8))+(L17*8))+(M17*1)) / 38))</f>
-        <v>4</v>
+        <f>(((((((((((C17*7)+(D17*7))+(E17*5))+(F17*5))+(G17*5))+(H17*3))+(I17*5))+(J17*2))+(K17*5))+(L17*5))+(M17*3))/30</f>
+        <v>0.933333333333333</v>
       </c>
       <c s="13" r="U17">
-        <f>ROUND(((((((((((((-C17*4)-(D17*2))+(E17*5))+(F17*5))+(G17*2))+(H17*2))-(I17*1))+(J17*7))+(K17*1))+(L17*2))+(M17*10)) / 27))</f>
-        <v>3</v>
+        <f>(((((((((((-C17*2)-(D17*3))-(E17*5))+(F17*3))+(G17*5))+(H17*3))-(I17*5))+(J17*5))+(K17*0))+(L17*5))+(M17*10))/30</f>
+        <v>-0.166666666666667</v>
       </c>
       <c s="13" r="V17">
-        <f>ROUND(((((((((((((C17*2)+(D17*4))+(E17*9))+(F17*3))-(G17*3))+(H17*10))-(I17*3))+(J17*3))+(K17*8))+(L17*5))+(M17*0)) / 38))</f>
-        <v>4</v>
+        <f>(((((((((((C17*2)-(D17*3))+(E17*7))+(F17*3))+(G17*5))+(H17*10))+(I17*3))+(J17*0))+(K17*4))+(L17*5))+(M17*0))/30</f>
+        <v>-2.4</v>
       </c>
       <c s="14" r="W17">
         <f>SUM(P17:V17)</f>
-        <v>22</v>
+        <v>0.866666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -3399,68 +3399,68 @@
         <v>0</v>
       </c>
       <c s="8" r="E18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="8" r="F18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="8" r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="8" r="H18">
         <v>0</v>
       </c>
       <c s="8" r="I18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c s="8" r="J18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c s="8" r="K18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c s="8" r="L18">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c s="8" r="M18">
         <v>0</v>
       </c>
       <c r="N18">
         <f>SUM(C18:M18)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c s="8" r="O18"/>
-      <c s="11" r="P18">
-        <f>ROUND(((((((((((((C18*5)+(D18*10))+(E18*2))+(F18*4))-(G18*7))+(H18*4))-(I18*4))+(J18*3))+(K18*10))+(L18*5))+(M18*0)) / 32))</f>
-        <v>-2</v>
+      <c s="13" r="P18">
+        <f>(((((((((((C18*5)+(D18*10))+(E18*5))-(F18*3))-(G18*3))+(H18*5))-(I18*3))+(J18*1))+(K18*10))+(L18*3))+(M18*0))/30</f>
+        <v>-0.7</v>
       </c>
       <c s="13" r="Q18">
-        <f>ROUND(((((((((((((C18*8)+(D18*10))+(E18*2))-(F18*4))-(G18*5))+(H18*2))-(I18*3))+(J18*5))+(K18*5))+(L18*2))+(M18*2)) / 24))</f>
-        <v>-3</v>
+        <f>(((((((((((C18*10)+(D18*10))+(E18*2))-(F18*3))-(G18*3))+(H18*1))-(I18*3))+(J18*5))+(K18*5))+(L18*2))+(M18*0))/30</f>
+        <v>-1.13333333333333</v>
       </c>
       <c s="13" r="R18">
-        <f>ROUND(((((((((((((C18*0)+(D18*3))+(E18*10))-(F18*3))+(G18*2))+(H18*4))+(I18*5))-(J18*3))-(K18*4))-(L18*2))+(M18*2)) / 14))</f>
-        <v>9</v>
+        <f>(((((((((((C18*0)+(D18*2))+(E18*10))+(F18*3))+(G18*3))+(H18*3))+(I18*3))+(J18*0))+(K18*0))+(L18*3))+(M18*3))/30</f>
+        <v>2.7</v>
       </c>
       <c s="13" r="S18">
-        <f>ROUND(((((((((((((-C18*3)-(D18*5))+(E18*3))+(F18*1))+(G18*4))+(H18*2))+(I18*10))-(J18*3))+(K18*6))+(L18*8))+(M18*0)) / 23))</f>
-        <v>2</v>
+        <f>(((((((((((C18*0)+(D18*0))+(E18*7))+(F18*5))+(G18*7))+(H18*2))+(I18*10))+(J18*0))+(K18*5))+(L18*10))+(M18*0))/30</f>
+        <v>2.73333333333333</v>
       </c>
       <c s="13" r="T18">
-        <f>ROUND(((((((((((((C18*5)+(D18*5))-(E18*3))+(F18*7))-(G18*2))+(H18*7))-(I18*3))+(J18*5))+(K18*8))+(L18*8))+(M18*1)) / 38))</f>
-        <v>-3</v>
+        <f>(((((((((((C18*7)+(D18*7))+(E18*5))+(F18*5))+(G18*5))+(H18*3))+(I18*5))+(J18*2))+(K18*5))+(L18*5))+(M18*3))/30</f>
+        <v>2.16666666666667</v>
       </c>
       <c s="13" r="U18">
-        <f>ROUND(((((((((((((-C18*4)-(D18*2))+(E18*5))+(F18*5))+(G18*2))+(H18*2))-(I18*1))+(J18*7))+(K18*1))+(L18*2))+(M18*10)) / 27))</f>
-        <v>1</v>
+        <f>(((((((((((-C18*2)-(D18*3))-(E18*5))+(F18*3))+(G18*5))+(H18*3))-(I18*5))+(J18*5))+(K18*0))+(L18*5))+(M18*10))/30</f>
+        <v>-2.23333333333333</v>
       </c>
       <c s="13" r="V18">
-        <f>ROUND(((((((((((((C18*2)+(D18*4))+(E18*9))+(F18*3))-(G18*3))+(H18*10))-(I18*3))+(J18*3))+(K18*8))+(L18*5))+(M18*0)) / 38))</f>
-        <v>0</v>
+        <f>(((((((((((C18*2)-(D18*3))+(E18*7))+(F18*3))+(G18*5))+(H18*10))+(I18*3))+(J18*0))+(K18*4))+(L18*5))+(M18*0))/30</f>
+        <v>1.76666666666667</v>
       </c>
       <c s="14" r="W18">
         <f>SUM(P18:V18)</f>
-        <v>4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="19">
@@ -3474,16 +3474,16 @@
         <v>4</v>
       </c>
       <c s="8" r="E19">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c s="8" r="F19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c s="8" r="G19">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c s="8" r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="8" r="I19">
         <v>4</v>
@@ -3495,47 +3495,47 @@
         <v>3</v>
       </c>
       <c s="8" r="L19">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c s="8" r="M19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <f>SUM(C19:M19)</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c s="8" r="O19"/>
-      <c s="11" r="P19">
-        <f>ROUND(((((((((((((C19*5)+(D19*10))+(E19*2))+(F19*4))-(G19*7))+(H19*4))-(I19*4))+(J19*3))+(K19*10))+(L19*5))+(M19*0)) / 32))</f>
-        <v>5</v>
+      <c s="13" r="P19">
+        <f>(((((((((((C19*5)+(D19*10))+(E19*5))-(F19*3))-(G19*3))+(H19*5))-(I19*3))+(J19*1))+(K19*10))+(L19*3))+(M19*0))/30</f>
+        <v>3.4</v>
       </c>
       <c s="13" r="Q19">
-        <f>ROUND(((((((((((((C19*8)+(D19*10))+(E19*2))-(F19*4))-(G19*5))+(H19*2))-(I19*3))+(J19*5))+(K19*5))+(L19*2))+(M19*2)) / 24))</f>
-        <v>6</v>
+        <f>(((((((((((C19*10)+(D19*10))+(E19*2))-(F19*3))-(G19*3))+(H19*1))-(I19*3))+(J19*5))+(K19*5))+(L19*2))+(M19*0))/30</f>
+        <v>4.23333333333333</v>
       </c>
       <c s="13" r="R19">
-        <f>ROUND(((((((((((((C19*0)+(D19*3))+(E19*10))-(F19*3))+(G19*2))+(H19*4))+(I19*5))-(J19*3))-(K19*4))-(L19*2))+(M19*2)) / 14))</f>
-        <v>-3</v>
+        <f>(((((((((((C19*0)+(D19*2))+(E19*10))+(F19*3))+(G19*3))+(H19*3))+(I19*3))+(J19*0))+(K19*0))+(L19*3))+(M19*3))/30</f>
+        <v>1.86666666666667</v>
       </c>
       <c s="13" r="S19">
-        <f>ROUND(((((((((((((-C19*3)-(D19*5))+(E19*3))+(F19*1))+(G19*4))+(H19*2))+(I19*10))-(J19*3))+(K19*6))+(L19*8))+(M19*0)) / 23))</f>
-        <v>-3</v>
+        <f>(((((((((((C19*0)+(D19*0))+(E19*7))+(F19*5))+(G19*7))+(H19*2))+(I19*10))+(J19*0))+(K19*5))+(L19*10))+(M19*0))/30</f>
+        <v>2.06666666666667</v>
       </c>
       <c s="13" r="T19">
-        <f>ROUND(((((((((((((C19*5)+(D19*5))-(E19*3))+(F19*7))-(G19*2))+(H19*7))-(I19*3))+(J19*5))+(K19*8))+(L19*8))+(M19*1)) / 38))</f>
-        <v>3</v>
+        <f>(((((((((((C19*7)+(D19*7))+(E19*5))+(F19*5))+(G19*5))+(H19*3))+(I19*5))+(J19*2))+(K19*5))+(L19*5))+(M19*3))/30</f>
+        <v>3.86666666666667</v>
       </c>
       <c s="13" r="U19">
-        <f>ROUND(((((((((((((-C19*4)-(D19*2))+(E19*5))+(F19*5))+(G19*2))+(H19*2))-(I19*1))+(J19*7))+(K19*1))+(L19*2))+(M19*10)) / 27))</f>
-        <v>2</v>
+        <f>(((((((((((-C19*2)-(D19*3))-(E19*5))+(F19*3))+(G19*5))+(H19*3))-(I19*5))+(J19*5))+(K19*0))+(L19*5))+(M19*10))/30</f>
+        <v>0.466666666666667</v>
       </c>
       <c s="13" r="V19">
-        <f>ROUND(((((((((((((C19*2)+(D19*4))+(E19*9))+(F19*3))-(G19*3))+(H19*10))-(I19*3))+(J19*3))+(K19*8))+(L19*5))+(M19*0)) / 38))</f>
-        <v>2</v>
+        <f>(((((((((((C19*2)-(D19*3))+(E19*7))+(F19*3))+(G19*5))+(H19*10))+(I19*3))+(J19*0))+(K19*4))+(L19*5))+(M19*0))/30</f>
+        <v>0.733333333333333</v>
       </c>
       <c s="14" r="W19">
         <f>SUM(P19:V19)</f>
-        <v>12</v>
+        <v>16.6333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -3546,71 +3546,71 @@
         <v>1</v>
       </c>
       <c s="8" r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="8" r="E20">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c s="8" r="F20">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c s="8" r="G20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="8" r="H20">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c s="8" r="I20">
         <v>10</v>
       </c>
       <c s="8" r="J20">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c s="8" r="K20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c s="8" r="L20">
         <v>7</v>
       </c>
       <c s="8" r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <f>SUM(C20:M20)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c s="8" r="O20"/>
-      <c s="11" r="P20">
-        <f>ROUND(((((((((((((C20*5)+(D20*10))+(E20*2))+(F20*4))-(G20*7))+(H20*4))-(I20*4))+(J20*3))+(K20*10))+(L20*5))+(M20*0)) / 32))</f>
-        <v>1</v>
+      <c s="13" r="P20">
+        <f>(((((((((((C20*5)+(D20*10))+(E20*5))-(F20*3))-(G20*3))+(H20*5))-(I20*3))+(J20*1))+(K20*10))+(L20*3))+(M20*0))/30</f>
+        <v>0.6</v>
       </c>
       <c s="13" r="Q20">
-        <f>ROUND(((((((((((((C20*8)+(D20*10))+(E20*2))-(F20*4))-(G20*5))+(H20*2))-(I20*3))+(J20*5))+(K20*5))+(L20*2))+(M20*2)) / 24))</f>
-        <v>1</v>
+        <f>(((((((((((C20*10)+(D20*10))+(E20*2))-(F20*3))-(G20*3))+(H20*1))-(I20*3))+(J20*5))+(K20*5))+(L20*2))+(M20*0))/30</f>
+        <v>0.933333333333333</v>
       </c>
       <c s="13" r="R20">
-        <f>ROUND(((((((((((((C20*0)+(D20*3))+(E20*10))-(F20*3))+(G20*2))+(H20*4))+(I20*5))-(J20*3))-(K20*4))-(L20*2))+(M20*2)) / 14))</f>
-        <v>6</v>
+        <f>(((((((((((C20*0)+(D20*2))+(E20*10))+(F20*3))+(G20*3))+(H20*3))+(I20*3))+(J20*0))+(K20*0))+(L20*3))+(M20*3))/30</f>
+        <v>-0.133333333333333</v>
       </c>
       <c s="13" r="S20">
-        <f>ROUND(((((((((((((-C20*3)-(D20*5))+(E20*3))+(F20*1))+(G20*4))+(H20*2))+(I20*10))-(J20*3))+(K20*6))+(L20*8))+(M20*0)) / 23))</f>
-        <v>9</v>
+        <f>(((((((((((C20*0)+(D20*0))+(E20*7))+(F20*5))+(G20*7))+(H20*2))+(I20*10))+(J20*0))+(K20*5))+(L20*10))+(M20*0))/30</f>
+        <v>5.76666666666667</v>
       </c>
       <c s="13" r="T20">
-        <f>ROUND(((((((((((((C20*5)+(D20*5))-(E20*3))+(F20*7))-(G20*2))+(H20*7))-(I20*3))+(J20*5))+(K20*8))+(L20*8))+(M20*1)) / 38))</f>
-        <v>1</v>
+        <f>(((((((((((C20*7)+(D20*7))+(E20*5))+(F20*5))+(G20*5))+(H20*3))+(I20*5))+(J20*2))+(K20*5))+(L20*5))+(M20*3))/30</f>
+        <v>4.2</v>
       </c>
       <c s="13" r="U20">
-        <f>ROUND(((((((((((((-C20*4)-(D20*2))+(E20*5))+(F20*5))+(G20*2))+(H20*2))-(I20*1))+(J20*7))+(K20*1))+(L20*2))+(M20*10)) / 27))</f>
-        <v>0</v>
+        <f>(((((((((((-C20*2)-(D20*3))-(E20*5))+(F20*3))+(G20*5))+(H20*3))-(I20*5))+(J20*5))+(K20*0))+(L20*5))+(M20*10))/30</f>
+        <v>1.13333333333333</v>
       </c>
       <c s="13" r="V20">
-        <f>ROUND(((((((((((((C20*2)+(D20*4))+(E20*9))+(F20*3))-(G20*3))+(H20*10))-(I20*3))+(J20*3))+(K20*8))+(L20*5))+(M20*0)) / 38))</f>
-        <v>2</v>
+        <f>(((((((((((C20*2)-(D20*3))+(E20*7))+(F20*3))+(G20*5))+(H20*10))+(I20*3))+(J20*0))+(K20*4))+(L20*5))+(M20*0))/30</f>
+        <v>1</v>
       </c>
       <c s="14" r="W20">
         <f>SUM(P20:V20)</f>
-        <v>20</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="21">
@@ -3630,62 +3630,62 @@
         <v>-4</v>
       </c>
       <c s="8" r="G21">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c s="8" r="H21">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c s="8" r="I21">
         <v>6</v>
       </c>
       <c s="8" r="J21">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c s="8" r="K21">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c s="8" r="L21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="8" r="M21">
         <v>0</v>
       </c>
       <c r="N21">
         <f>SUM(C21:M21)</f>
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c s="8" r="O21"/>
-      <c s="11" r="P21">
-        <f>ROUND(((((((((((((C21*5)+(D21*10))+(E21*2))+(F21*4))-(G21*7))+(H21*4))-(I21*4))+(J21*3))+(K21*10))+(L21*5))+(M21*0)) / 32))</f>
-        <v>-4</v>
+      <c s="13" r="P21">
+        <f>(((((((((((C21*5)+(D21*10))+(E21*5))-(F21*3))-(G21*3))+(H21*5))-(I21*3))+(J21*1))+(K21*10))+(L21*3))+(M21*0))/30</f>
+        <v>1</v>
       </c>
       <c s="13" r="Q21">
-        <f>ROUND(((((((((((((C21*8)+(D21*10))+(E21*2))-(F21*4))-(G21*5))+(H21*2))-(I21*3))+(J21*5))+(K21*5))+(L21*2))+(M21*2)) / 24))</f>
-        <v>-4</v>
+        <f>(((((((((((C21*10)+(D21*10))+(E21*2))-(F21*3))-(G21*3))+(H21*1))-(I21*3))+(J21*5))+(K21*5))+(L21*2))+(M21*0))/30</f>
+        <v>0.166666666666667</v>
       </c>
       <c s="13" r="R21">
-        <f>ROUND(((((((((((((C21*0)+(D21*3))+(E21*10))-(F21*3))+(G21*2))+(H21*4))+(I21*5))-(J21*3))-(K21*4))-(L21*2))+(M21*2)) / 14))</f>
-        <v>2</v>
+        <f>(((((((((((C21*0)+(D21*2))+(E21*10))+(F21*3))+(G21*3))+(H21*3))+(I21*3))+(J21*0))+(K21*0))+(L21*3))+(M21*3))/30</f>
+        <v>-0.833333333333333</v>
       </c>
       <c s="13" r="S21">
-        <f>ROUND(((((((((((((-C21*3)-(D21*5))+(E21*3))+(F21*1))+(G21*4))+(H21*2))+(I21*10))-(J21*3))+(K21*6))+(L21*8))+(M21*0)) / 23))</f>
-        <v>4</v>
+        <f>(((((((((((C21*0)+(D21*0))+(E21*7))+(F21*5))+(G21*7))+(H21*2))+(I21*10))+(J21*0))+(K21*5))+(L21*10))+(M21*0))/30</f>
+        <v>2.16666666666667</v>
       </c>
       <c s="13" r="T21">
-        <f>ROUND(((((((((((((C21*5)+(D21*5))-(E21*3))+(F21*7))-(G21*2))+(H21*7))-(I21*3))+(J21*5))+(K21*8))+(L21*8))+(M21*1)) / 38))</f>
-        <v>-3</v>
+        <f>(((((((((((C21*7)+(D21*7))+(E21*5))+(F21*5))+(G21*5))+(H21*3))+(I21*5))+(J21*2))+(K21*5))+(L21*5))+(M21*3))/30</f>
+        <v>0.366666666666667</v>
       </c>
       <c s="13" r="U21">
-        <f>ROUND(((((((((((((-C21*4)-(D21*2))+(E21*5))+(F21*5))+(G21*2))+(H21*2))-(I21*1))+(J21*7))+(K21*1))+(L21*2))+(M21*10)) / 27))</f>
-        <v>-3</v>
+        <f>(((((((((((-C21*2)-(D21*3))-(E21*5))+(F21*3))+(G21*5))+(H21*3))-(I21*5))+(J21*5))+(K21*0))+(L21*5))+(M21*10))/30</f>
+        <v>-0.3</v>
       </c>
       <c s="13" r="V21">
-        <f>ROUND(((((((((((((C21*2)+(D21*4))+(E21*9))+(F21*3))-(G21*3))+(H21*10))-(I21*3))+(J21*3))+(K21*8))+(L21*5))+(M21*0)) / 38))</f>
-        <v>-3</v>
+        <f>(((((((((((C21*2)-(D21*3))+(E21*7))+(F21*3))+(G21*5))+(H21*10))+(I21*3))+(J21*0))+(K21*4))+(L21*5))+(M21*0))/30</f>
+        <v>0.6</v>
       </c>
       <c s="14" r="W21">
         <f>SUM(P21:V21)</f>
-        <v>-11</v>
+        <v>3.16666666666667</v>
       </c>
     </row>
     <row r="22">
@@ -3699,68 +3699,68 @@
         <v>-4</v>
       </c>
       <c s="8" r="E22">
+        <v>-3</v>
+      </c>
+      <c s="8" r="F22">
+        <v>3</v>
+      </c>
+      <c s="8" r="G22">
+        <v>2</v>
+      </c>
+      <c s="8" r="H22">
         <v>-5</v>
-      </c>
-      <c s="8" r="F22">
-        <v>4</v>
-      </c>
-      <c s="8" r="G22">
-        <v>-3</v>
-      </c>
-      <c s="8" r="H22">
-        <v>2</v>
       </c>
       <c s="8" r="I22">
         <v>10</v>
       </c>
       <c s="8" r="J22">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c s="8" r="K22">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c s="8" r="L22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c s="8" r="M22">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="N22">
         <f>SUM(C22:M22)</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c s="8" r="O22"/>
-      <c s="11" r="P22">
-        <f>ROUND(((((((((((((C22*5)+(D22*10))+(E22*2))+(F22*4))-(G22*7))+(H22*4))-(I22*4))+(J22*3))+(K22*10))+(L22*5))+(M22*0)) / 32))</f>
-        <v>0</v>
+      <c s="13" r="P22">
+        <f>(((((((((((C22*5)+(D22*10))+(E22*5))-(F22*3))-(G22*3))+(H22*5))-(I22*3))+(J22*1))+(K22*10))+(L22*3))+(M22*0))/30</f>
+        <v>-5.73333333333333</v>
       </c>
       <c s="13" r="Q22">
-        <f>ROUND(((((((((((((C22*8)+(D22*10))+(E22*2))-(F22*4))-(G22*5))+(H22*2))-(I22*3))+(J22*5))+(K22*5))+(L22*2))+(M22*2)) / 24))</f>
-        <v>-5</v>
+        <f>(((((((((((C22*10)+(D22*10))+(E22*2))-(F22*3))-(G22*3))+(H22*1))-(I22*3))+(J22*5))+(K22*5))+(L22*2))+(M22*0))/30</f>
+        <v>-5.2</v>
       </c>
       <c s="13" r="R22">
-        <f>ROUND(((((((((((((C22*0)+(D22*3))+(E22*10))-(F22*3))+(G22*2))+(H22*4))+(I22*5))-(J22*3))-(K22*4))-(L22*2))+(M22*2)) / 14))</f>
-        <v>-3</v>
+        <f>(((((((((((C22*0)+(D22*2))+(E22*10))+(F22*3))+(G22*3))+(H22*3))+(I22*3))+(J22*0))+(K22*0))+(L22*3))+(M22*3))/30</f>
+        <v>-0.066666666666667</v>
       </c>
       <c s="13" r="S22">
-        <f>ROUND(((((((((((((-C22*3)-(D22*5))+(E22*3))+(F22*1))+(G22*4))+(H22*2))+(I22*10))-(J22*3))+(K22*6))+(L22*8))+(M22*0)) / 23))</f>
-        <v>10</v>
+        <f>(((((((((((C22*0)+(D22*0))+(E22*7))+(F22*5))+(G22*7))+(H22*2))+(I22*10))+(J22*0))+(K22*5))+(L22*10))+(M22*0))/30</f>
+        <v>4.43333333333333</v>
       </c>
       <c s="13" r="T22">
-        <f>ROUND(((((((((((((C22*5)+(D22*5))-(E22*3))+(F22*7))-(G22*2))+(H22*7))-(I22*3))+(J22*5))+(K22*8))+(L22*8))+(M22*1)) / 38))</f>
-        <v>1</v>
+        <f>(((((((((((C22*7)+(D22*7))+(E22*5))+(F22*5))+(G22*5))+(H22*3))+(I22*5))+(J22*2))+(K22*5))+(L22*5))+(M22*3))/30</f>
+        <v>-0.833333333333333</v>
       </c>
       <c s="13" r="U22">
-        <f>ROUND(((((((((((((-C22*4)-(D22*2))+(E22*5))+(F22*5))+(G22*2))+(H22*2))-(I22*1))+(J22*7))+(K22*1))+(L22*2))+(M22*10)) / 27))</f>
-        <v>-1</v>
+        <f>(((((((((((-C22*2)-(D22*3))-(E22*5))+(F22*3))+(G22*5))+(H22*3))-(I22*5))+(J22*5))+(K22*0))+(L22*5))+(M22*10))/30</f>
+        <v>0.166666666666667</v>
       </c>
       <c s="13" r="V22">
-        <f>ROUND(((((((((((((C22*2)+(D22*4))+(E22*9))+(F22*3))-(G22*3))+(H22*10))-(I22*3))+(J22*3))+(K22*8))+(L22*5))+(M22*0)) / 38))</f>
-        <v>0</v>
+        <f>(((((((((((C22*2)-(D22*3))+(E22*7))+(F22*3))+(G22*5))+(H22*10))+(I22*3))+(J22*0))+(K22*4))+(L22*5))+(M22*0))/30</f>
+        <v>-0.366666666666667</v>
       </c>
       <c s="14" r="W22">
         <f>SUM(P22:V22)</f>
-        <v>2</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="23">
@@ -3774,68 +3774,68 @@
         <v>0</v>
       </c>
       <c s="8" r="E23">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c s="8" r="F23">
         <v>10</v>
       </c>
       <c s="8" r="G23">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c s="8" r="H23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c s="8" r="I23">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c s="8" r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="8" r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="8" r="L23">
         <v>10</v>
       </c>
       <c s="8" r="M23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <f>SUM(C23:M23)</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c s="8" r="O23"/>
-      <c s="11" r="P23">
-        <f>ROUND(((((((((((((C23*5)+(D23*10))+(E23*2))+(F23*4))-(G23*7))+(H23*4))-(I23*4))+(J23*3))+(K23*10))+(L23*5))+(M23*0)) / 32))</f>
-        <v>6</v>
+      <c s="13" r="P23">
+        <f>(((((((((((C23*5)+(D23*10))+(E23*5))-(F23*3))-(G23*3))+(H23*5))-(I23*3))+(J23*1))+(K23*10))+(L23*3))+(M23*0))/30</f>
+        <v>0.3</v>
       </c>
       <c s="13" r="Q23">
-        <f>ROUND(((((((((((((C23*8)+(D23*10))+(E23*2))-(F23*4))-(G23*5))+(H23*2))-(I23*3))+(J23*5))+(K23*5))+(L23*2))+(M23*2)) / 24))</f>
-        <v>1</v>
+        <f>(((((((((((C23*10)+(D23*10))+(E23*2))-(F23*3))-(G23*3))+(H23*1))-(I23*3))+(J23*5))+(K23*5))+(L23*2))+(M23*0))/30</f>
+        <v>-0.233333333333333</v>
       </c>
       <c s="13" r="R23">
-        <f>ROUND(((((((((((((C23*0)+(D23*3))+(E23*10))-(F23*3))+(G23*2))+(H23*4))+(I23*5))-(J23*3))-(K23*4))-(L23*2))+(M23*2)) / 14))</f>
-        <v>-8</v>
+        <f>(((((((((((C23*0)+(D23*2))+(E23*10))+(F23*3))+(G23*3))+(H23*3))+(I23*3))+(J23*0))+(K23*0))+(L23*3))+(M23*3))/30</f>
+        <v>2.4</v>
       </c>
       <c s="13" r="S23">
-        <f>ROUND(((((((((((((-C23*3)-(D23*5))+(E23*3))+(F23*1))+(G23*4))+(H23*2))+(I23*10))-(J23*3))+(K23*6))+(L23*8))+(M23*0)) / 23))</f>
-        <v>3</v>
+        <f>(((((((((((C23*0)+(D23*0))+(E23*7))+(F23*5))+(G23*7))+(H23*2))+(I23*10))+(J23*0))+(K23*5))+(L23*10))+(M23*0))/30</f>
+        <v>6.36666666666667</v>
       </c>
       <c s="13" r="T23">
-        <f>ROUND(((((((((((((C23*5)+(D23*5))-(E23*3))+(F23*7))-(G23*2))+(H23*7))-(I23*3))+(J23*5))+(K23*8))+(L23*8))+(M23*1)) / 38))</f>
-        <v>6</v>
+        <f>(((((((((((C23*7)+(D23*7))+(E23*5))+(F23*5))+(G23*5))+(H23*3))+(I23*5))+(J23*2))+(K23*5))+(L23*5))+(M23*3))/30</f>
+        <v>4.4</v>
       </c>
       <c s="13" r="U23">
-        <f>ROUND(((((((((((((-C23*4)-(D23*2))+(E23*5))+(F23*5))+(G23*2))+(H23*2))-(I23*1))+(J23*7))+(K23*1))+(L23*2))+(M23*10)) / 27))</f>
-        <v>1</v>
+        <f>(((((((((((-C23*2)-(D23*3))-(E23*5))+(F23*3))+(G23*5))+(H23*3))-(I23*5))+(J23*5))+(K23*0))+(L23*5))+(M23*10))/30</f>
+        <v>3.16666666666667</v>
       </c>
       <c s="13" r="V23">
-        <f>ROUND(((((((((((((C23*2)+(D23*4))+(E23*9))+(F23*3))-(G23*3))+(H23*10))-(I23*3))+(J23*3))+(K23*8))+(L23*5))+(M23*0)) / 38))</f>
-        <v>3</v>
+        <f>(((((((((((C23*2)-(D23*3))+(E23*7))+(F23*3))+(G23*5))+(H23*10))+(I23*3))+(J23*0))+(K23*4))+(L23*5))+(M23*0))/30</f>
+        <v>3.53333333333333</v>
       </c>
       <c s="14" r="W23">
         <f>SUM(P23:V23)</f>
-        <v>12</v>
+        <v>19.9333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -3849,68 +3849,68 @@
         <v>10</v>
       </c>
       <c s="8" r="E24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c s="8" r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="8" r="G24">
         <v>0</v>
       </c>
       <c s="8" r="H24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c s="8" r="I24">
         <v>0</v>
       </c>
       <c s="8" r="J24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="8" r="K24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="8" r="L24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c s="8" r="M24">
         <v>0</v>
       </c>
       <c r="N24">
         <f>SUM(C24:M24)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c s="8" r="O24"/>
-      <c s="11" r="P24">
-        <f>ROUND(((((((((((((C24*5)+(D24*10))+(E24*2))+(F24*4))-(G24*7))+(H24*4))-(I24*4))+(J24*3))+(K24*10))+(L24*5))+(M24*0)) / 32))</f>
-        <v>6</v>
+      <c s="13" r="P24">
+        <f>(((((((((((C24*5)+(D24*10))+(E24*5))-(F24*3))-(G24*3))+(H24*5))-(I24*3))+(J24*1))+(K24*10))+(L24*3))+(M24*0))/30</f>
+        <v>5.4</v>
       </c>
       <c s="13" r="Q24">
-        <f>ROUND(((((((((((((C24*8)+(D24*10))+(E24*2))-(F24*4))-(G24*5))+(H24*2))-(I24*3))+(J24*5))+(K24*5))+(L24*2))+(M24*2)) / 24))</f>
-        <v>4</v>
+        <f>(((((((((((C24*10)+(D24*10))+(E24*2))-(F24*3))-(G24*3))+(H24*1))-(I24*3))+(J24*5))+(K24*5))+(L24*2))+(M24*0))/30</f>
+        <v>3.66666666666667</v>
       </c>
       <c s="13" r="R24">
-        <f>ROUND(((((((((((((C24*0)+(D24*3))+(E24*10))-(F24*3))+(G24*2))+(H24*4))+(I24*5))-(J24*3))-(K24*4))-(L24*2))+(M24*2)) / 14))</f>
-        <v>2</v>
+        <f>(((((((((((C24*0)+(D24*2))+(E24*10))+(F24*3))+(G24*3))+(H24*3))+(I24*3))+(J24*0))+(K24*0))+(L24*3))+(M24*3))/30</f>
+        <v>2.06666666666667</v>
       </c>
       <c s="13" r="S24">
-        <f>ROUND(((((((((((((-C24*3)-(D24*5))+(E24*3))+(F24*1))+(G24*4))+(H24*2))+(I24*10))-(J24*3))+(K24*6))+(L24*8))+(M24*0)) / 23))</f>
-        <v>0</v>
+        <f>(((((((((((C24*0)+(D24*0))+(E24*7))+(F24*5))+(G24*7))+(H24*2))+(I24*10))+(J24*0))+(K24*5))+(L24*10))+(M24*0))/30</f>
+        <v>2.53333333333333</v>
       </c>
       <c s="13" r="T24">
-        <f>ROUND(((((((((((((C24*5)+(D24*5))-(E24*3))+(F24*7))-(G24*2))+(H24*7))-(I24*3))+(J24*5))+(K24*8))+(L24*8))+(M24*1)) / 38))</f>
-        <v>5</v>
+        <f>(((((((((((C24*7)+(D24*7))+(E24*5))+(F24*5))+(G24*5))+(H24*3))+(I24*5))+(J24*2))+(K24*5))+(L24*5))+(M24*3))/30</f>
+        <v>4.3</v>
       </c>
       <c s="13" r="U24">
-        <f>ROUND(((((((((((((-C24*4)-(D24*2))+(E24*5))+(F24*5))+(G24*2))+(H24*2))-(I24*1))+(J24*7))+(K24*1))+(L24*2))+(M24*10)) / 27))</f>
-        <v>1</v>
+        <f>(((((((((((-C24*2)-(D24*3))-(E24*5))+(F24*3))+(G24*5))+(H24*3))-(I24*5))+(J24*5))+(K24*0))+(L24*5))+(M24*10))/30</f>
+        <v>1.06666666666667</v>
       </c>
       <c s="13" r="V24">
-        <f>ROUND(((((((((((((C24*2)+(D24*4))+(E24*9))+(F24*3))-(G24*3))+(H24*10))-(I24*3))+(J24*3))+(K24*8))+(L24*5))+(M24*0)) / 38))</f>
-        <v>4</v>
+        <f>(((((((((((C24*2)-(D24*3))+(E24*7))+(F24*3))+(G24*5))+(H24*10))+(I24*3))+(J24*0))+(K24*4))+(L24*5))+(M24*0))/30</f>
+        <v>2.73333333333333</v>
       </c>
       <c s="14" r="W24">
         <f>SUM(P24:V24)</f>
-        <v>22</v>
+        <v>21.7666666666667</v>
       </c>
     </row>
     <row r="25">
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c s="8" r="F25">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c s="8" r="G25">
         <v>0</v>
@@ -3952,76 +3952,76 @@
       </c>
       <c r="N25">
         <f>SUM(C25:M25)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c s="8" r="O25"/>
-      <c s="11" r="P25">
-        <f>ROUND(((((((((((((C25*5)+(D25*10))+(E25*2))+(F25*4))-(G25*7))+(H25*4))-(I25*4))+(J25*3))+(K25*10))+(L25*5))+(M25*0)) / 32))</f>
-        <v>3</v>
+      <c s="13" r="P25">
+        <f>(((((((((((C25*5)+(D25*10))+(E25*5))-(F25*3))-(G25*3))+(H25*5))-(I25*3))+(J25*1))+(K25*10))+(L25*3))+(M25*0))/30</f>
+        <v>3.83333333333333</v>
       </c>
       <c s="13" r="Q25">
-        <f>ROUND(((((((((((((C25*8)+(D25*10))+(E25*2))-(F25*4))-(G25*5))+(H25*2))-(I25*3))+(J25*5))+(K25*5))+(L25*2))+(M25*2)) / 24))</f>
-        <v>5</v>
+        <f>(((((((((((C25*10)+(D25*10))+(E25*2))-(F25*3))-(G25*3))+(H25*1))-(I25*3))+(J25*5))+(K25*5))+(L25*2))+(M25*0))/30</f>
+        <v>3.83333333333333</v>
       </c>
       <c s="13" r="R25">
-        <f>ROUND(((((((((((((C25*0)+(D25*3))+(E25*10))-(F25*3))+(G25*2))+(H25*4))+(I25*5))-(J25*3))-(K25*4))-(L25*2))+(M25*2)) / 14))</f>
-        <v>4</v>
+        <f>(((((((((((C25*0)+(D25*2))+(E25*10))+(F25*3))+(G25*3))+(H25*3))+(I25*3))+(J25*0))+(K25*0))+(L25*3))+(M25*3))/30</f>
+        <v>0.966666666666667</v>
       </c>
       <c s="13" r="S25">
-        <f>ROUND(((((((((((((-C25*3)-(D25*5))+(E25*3))+(F25*1))+(G25*4))+(H25*2))+(I25*10))-(J25*3))+(K25*6))+(L25*8))+(M25*0)) / 23))</f>
-        <v>-1</v>
+        <f>(((((((((((C25*0)+(D25*0))+(E25*7))+(F25*5))+(G25*7))+(H25*2))+(I25*10))+(J25*0))+(K25*5))+(L25*10))+(M25*0))/30</f>
+        <v>0.2</v>
       </c>
       <c s="13" r="T25">
-        <f>ROUND(((((((((((((C25*5)+(D25*5))-(E25*3))+(F25*7))-(G25*2))+(H25*7))-(I25*3))+(J25*5))+(K25*8))+(L25*8))+(M25*1)) / 38))</f>
-        <v>2</v>
+        <f>(((((((((((C25*7)+(D25*7))+(E25*5))+(F25*5))+(G25*5))+(H25*3))+(I25*5))+(J25*2))+(K25*5))+(L25*5))+(M25*3))/30</f>
+        <v>3.46666666666667</v>
       </c>
       <c s="13" r="U25">
-        <f>ROUND(((((((((((((-C25*4)-(D25*2))+(E25*5))+(F25*5))+(G25*2))+(H25*2))-(I25*1))+(J25*7))+(K25*1))+(L25*2))+(M25*10)) / 27))</f>
-        <v>-2</v>
+        <f>(((((((((((-C25*2)-(D25*3))-(E25*5))+(F25*3))+(G25*5))+(H25*3))-(I25*5))+(J25*5))+(K25*0))+(L25*5))+(M25*10))/30</f>
+        <v>-1.23333333333333</v>
       </c>
       <c s="13" r="V25">
-        <f>ROUND(((((((((((((C25*2)+(D25*4))+(E25*9))+(F25*3))-(G25*3))+(H25*10))-(I25*3))+(J25*3))+(K25*8))+(L25*5))+(M25*0)) / 38))</f>
-        <v>2</v>
+        <f>(((((((((((C25*2)-(D25*3))+(E25*7))+(F25*3))+(G25*5))+(H25*10))+(I25*3))+(J25*0))+(K25*4))+(L25*5))+(M25*0))/30</f>
+        <v>2.9</v>
       </c>
       <c s="14" r="W25">
         <f>SUM(P25:V25)</f>
-        <v>13</v>
+        <v>13.9666666666667</v>
       </c>
     </row>
     <row r="26">
       <c s="8" r="P26">
         <f>SUM(P4:P25)</f>
-        <v>50</v>
+        <v>30.6666666666667</v>
       </c>
       <c s="8" r="Q26">
         <f>SUM(Q4:Q25)</f>
-        <v>43</v>
+        <v>29.5666666666667</v>
       </c>
       <c s="8" r="R26">
         <f>SUM(R4:R25)</f>
-        <v>13</v>
+        <v>13.9666666666667</v>
       </c>
       <c s="8" r="S26">
         <f>SUM(S4:S25)</f>
-        <v>41</v>
+        <v>46.2</v>
       </c>
       <c s="8" r="T26">
         <f>SUM(T4:T25)</f>
-        <v>39</v>
+        <v>49.4666666666667</v>
       </c>
       <c s="8" r="U26">
         <f>SUM(U4:U25)</f>
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c s="8" r="V26">
         <f>SUM(V4:V25)</f>
-        <v>36</v>
+        <v>21.5333333333333</v>
       </c>
     </row>
     <row r="27">
       <c s="8" r="B27">
         <f>SUM(P26:V26)</f>
-        <v>225</v>
+        <v>191.7</v>
       </c>
       <c s="8" r="C27"/>
       <c s="8" r="D27"/>
@@ -4038,31 +4038,31 @@
       <c s="8" r="O27"/>
       <c s="12" r="P27">
         <f>P26/167</f>
-        <v>0.29940119760479</v>
+        <v>0.183632734530938</v>
       </c>
       <c s="12" r="Q27">
         <f>Q26/167</f>
-        <v>0.25748502994012</v>
+        <v>0.177045908183633</v>
       </c>
       <c s="12" r="R27">
         <f>R26/167</f>
-        <v>0.077844311377246</v>
+        <v>0.083632734530938</v>
       </c>
       <c s="12" r="S27">
         <f>S26/167</f>
-        <v>0.245508982035928</v>
+        <v>0.276646706586826</v>
       </c>
       <c s="12" r="T27">
         <f>T26/167</f>
-        <v>0.233532934131737</v>
+        <v>0.296207584830339</v>
       </c>
       <c s="12" r="U27">
         <f>U26/167</f>
-        <v>0.017964071856287</v>
+        <v>0.001796407185629</v>
       </c>
       <c s="12" r="V27">
         <f>V26/167</f>
-        <v>0.215568862275449</v>
+        <v>0.128942115768463</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Professions.xlsx
+++ b/docs/Professions.xlsx
@@ -141,7 +141,7 @@
     <t>изделие</t>
   </si>
   <si>
-    <t>охрана</t>
+    <t>порядок</t>
   </si>
   <si>
     <t>развлечение</t>
@@ -330,13 +330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +383,13 @@
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
     </xf>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="7"/>
-    <xf fillId="4" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="8" applyFill="1"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="9">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="8">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="168" borderId="0" applyFont="1" fontId="10" applyNumberFormat="1" applyFill="1">
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="168" borderId="0" applyFont="1" fontId="9" applyNumberFormat="1" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
+    <xf fillId="5" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="10" applyFill="1"/>
     <xf fillId="6" xfId="0" numFmtId="4" borderId="0" applyFont="1" fontId="11" applyNumberFormat="1" applyFill="1"/>
     <xf fillId="0" xfId="0" numFmtId="3" borderId="0" applyFont="1" fontId="12" applyNumberFormat="1"/>
     <xf fillId="7" xfId="0" numFmtId="3" borderId="0" applyFont="1" fontId="13" applyNumberFormat="1" applyFill="1"/>
@@ -435,16 +435,16 @@
       <c t="s" s="7" r="H2">
         <v>5</v>
       </c>
-      <c t="s" s="10" r="I2">
+      <c t="s" s="9" r="I2">
         <v>6</v>
       </c>
-      <c t="s" s="10" r="J2">
+      <c t="s" s="9" r="J2">
         <v>7</v>
       </c>
-      <c t="s" s="10" r="K2">
+      <c t="s" s="9" r="K2">
         <v>8</v>
       </c>
-      <c t="s" s="10" r="L2">
+      <c t="s" s="9" r="L2">
         <v>9</v>
       </c>
     </row>
@@ -472,15 +472,15 @@
         <f>((((C3*0.6000000000000001)+(D3*1.2))+(E3*0))+(F3*0.6000000000000001))+(G3*0.6000000000000001)</f>
         <v>3</v>
       </c>
-      <c s="10" r="J3">
+      <c s="9" r="J3">
         <f>((((C3*0.6000000000000001)+(D3*0))+(E3*1.2))+(F3*0.6000000000000001))+(G3*0.6000000000000001)</f>
         <v>3</v>
       </c>
-      <c s="10" r="K3">
+      <c s="9" r="K3">
         <f>((((C3*0)+(D3*0.6000000000000001))+(E3*0.6000000000000001))+(F3*1.4))+(G3*0.4)</f>
         <v>3</v>
       </c>
-      <c s="10" r="L3">
+      <c s="9" r="L3">
         <f>((((C3*1.4)+(D3*0.6000000000000001))+(E3*0.6000000000000001))+(F3*0))+(G3*0.4)</f>
         <v>3</v>
       </c>
@@ -520,7 +520,7 @@
         <f>((((C4*0)+(D4*0.6000000000000001))+(E4*0.6000000000000001))+(F4*1.4))+(G4*0.4)</f>
         <v>0.28</v>
       </c>
-      <c s="11" r="L4">
+      <c s="10" r="L4">
         <f>((((C4*1.4)+(D4*0.6000000000000001))+(E4*0.6000000000000001))+(F4*0))+(G4*0.4)</f>
         <v>1.12</v>
       </c>
@@ -552,7 +552,7 @@
         <f>((((C5*0.6000000000000001)+(D5*1.2))+(E5*0))+(F5*0.6000000000000001))+(G5*0.30000000000000004)</f>
         <v>0.18</v>
       </c>
-      <c s="11" r="J5">
+      <c s="10" r="J5">
         <f>((((C5*0.6000000000000001)+(D5*0))+(E5*1.2))+(F5*0.6000000000000001))+(G5*0.7000000000000001)</f>
         <v>1.02</v>
       </c>
@@ -570,7 +570,7 @@
         <v>12</v>
       </c>
       <c s="8" r="C6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c s="8" r="D6">
         <v>0</v>
@@ -579,30 +579,30 @@
         <v>0</v>
       </c>
       <c s="8" r="F6">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c s="8" r="G6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c s="1" r="H6">
         <f>((((C6*0.4)+(D6*0.4))+(E6*0.4))+(F6*0.4))+(G6*1.1)</f>
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c s="1" r="I6">
         <f>((((C6*0.6000000000000001)+(D6*1.2))+(E6*0))+(F6*0.6000000000000001))+(G6*0.30000000000000004)</f>
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c s="4" r="J6">
         <f>((((C6*0.6000000000000001)+(D6*0))+(E6*1.2))+(F6*0.6000000000000001))+(G6*0.7000000000000001)</f>
-        <v>0.63</v>
-      </c>
-      <c s="11" r="K6">
+        <v>0.61</v>
+      </c>
+      <c s="10" r="K6">
         <f>((((C6*0)+(D6*0.6000000000000001))+(E6*0.6000000000000001))+(F6*1.4))+(G6*0.4)</f>
-        <v>1.1</v>
+        <v>0.32</v>
       </c>
       <c s="4" r="L6">
         <f>((((C6*1.4)+(D6*0.6000000000000001))+(E6*0.6000000000000001))+(F6*0))+(G6*0.4)</f>
-        <v>0.12</v>
+        <v>1.02</v>
       </c>
     </row>
     <row customHeight="1" r="7" ht="12.75">
@@ -640,7 +640,7 @@
         <f>((((C7*0)+(D7*0.6000000000000001))+(E7*0.6000000000000001))+(F7*1.4))+(G7*0.4)</f>
         <v>0.28</v>
       </c>
-      <c s="11" r="L7">
+      <c s="10" r="L7">
         <f>((((C7*1.4)+(D7*0.6000000000000001))+(E7*0.6000000000000001))+(F7*0))+(G7*0.4)</f>
         <v>1.12</v>
       </c>
@@ -650,13 +650,13 @@
         <v>14</v>
       </c>
       <c s="8" r="C8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c s="8" r="D8">
         <v>0</v>
       </c>
       <c s="8" r="E8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c s="8" r="F8">
         <v>0</v>
@@ -670,19 +670,19 @@
       </c>
       <c s="1" r="I8">
         <f>((((C8*0.6000000000000001)+(D8*1.2))+(E8*0))+(F8*0.6000000000000001))+(G8*0.30000000000000004)</f>
-        <v>0.18</v>
-      </c>
-      <c s="11" r="J8">
+        <v>0.12</v>
+      </c>
+      <c s="10" r="J8">
         <f>((((C8*0.6000000000000001)+(D8*0))+(E8*1.2))+(F8*0.6000000000000001))+(G8*0.7000000000000001)</f>
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c s="4" r="K8">
         <f>((((C8*0)+(D8*0.6000000000000001))+(E8*0.6000000000000001))+(F8*1.4))+(G8*0.4)</f>
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c s="4" r="L8">
         <f>((((C8*1.4)+(D8*0.6000000000000001))+(E8*0.6000000000000001))+(F8*0))+(G8*0.4)</f>
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
     </row>
     <row customHeight="1" r="9" ht="12.75">
@@ -690,10 +690,10 @@
         <v>15</v>
       </c>
       <c s="8" r="C9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c s="8" r="D9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c s="8" r="E9">
         <v>0</v>
@@ -710,19 +710,19 @@
       </c>
       <c s="1" r="I9">
         <f>((((C9*0.6000000000000001)+(D9*1.2))+(E9*0))+(F9*0.6000000000000001))+(G9*0.30000000000000004)</f>
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c s="4" r="J9">
         <f>((((C9*0.6000000000000001)+(D9*0))+(E9*1.2))+(F9*0.6000000000000001))+(G9*0.7000000000000001)</f>
-        <v>0.56</v>
+        <v>0.62</v>
       </c>
       <c s="4" r="K9">
         <f>((((C9*0)+(D9*0.6000000000000001))+(E9*0.6000000000000001))+(F9*1.4))+(G9*0.4)</f>
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c s="4" r="L9">
         <f>((((C9*1.4)+(D9*0.6000000000000001))+(E9*0.6000000000000001))+(F9*0))+(G9*0.4)</f>
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
     </row>
     <row customHeight="1" r="10" ht="12.75">
@@ -756,7 +756,7 @@
         <f>((((C10*0.6000000000000001)+(D10*0))+(E10*1.2))+(F10*0.6000000000000001))+(G10*0.7000000000000001)</f>
         <v>0.63</v>
       </c>
-      <c s="11" r="K10">
+      <c s="10" r="K10">
         <f>((((C10*0)+(D10*0.6000000000000001))+(E10*0.6000000000000001))+(F10*1.4))+(G10*0.4)</f>
         <v>1.1</v>
       </c>
@@ -773,36 +773,36 @@
         <v>0</v>
       </c>
       <c s="8" r="D11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c s="8" r="E11">
         <v>0.2</v>
       </c>
       <c s="8" r="F11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c s="8" r="G11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c s="1" r="H11">
         <f>((((C11*0.4)+(D11*0.4))+(E11*0.4))+(F11*0.4))+(G11*1.1)</f>
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c s="1" r="I11">
         <f>((((C11*0.6000000000000001)+(D11*1.2))+(E11*0))+(F11*0.6000000000000001))+(G11*0.30000000000000004)</f>
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c s="4" r="J11">
         <f>((((C11*0.6000000000000001)+(D11*0))+(E11*1.2))+(F11*0.6000000000000001))+(G11*0.7000000000000001)</f>
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c s="4" r="K11">
         <f>((((C11*0)+(D11*0.6000000000000001))+(E11*0.6000000000000001))+(F11*1.4))+(G11*0.4)</f>
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c s="4" r="L11">
         <f>((((C11*1.4)+(D11*0.6000000000000001))+(E11*0.6000000000000001))+(F11*0))+(G11*0.4)</f>
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
     </row>
     <row customHeight="1" r="12" ht="12.75">
@@ -880,7 +880,7 @@
         <f>((((C13*0)+(D13*0.6000000000000001))+(E13*0.6000000000000001))+(F13*1.4))+(G13*0.4)</f>
         <v>0.3</v>
       </c>
-      <c s="11" r="L13">
+      <c s="10" r="L13">
         <f>((((C13*1.4)+(D13*0.6000000000000001))+(E13*0.6000000000000001))+(F13*0))+(G13*0.4)</f>
         <v>1</v>
       </c>
@@ -920,7 +920,7 @@
         <f>((((C14*0)+(D14*0.6000000000000001))+(E14*0.6000000000000001))+(F14*1.4))+(G14*0.4)</f>
         <v>0.28</v>
       </c>
-      <c s="11" r="L14">
+      <c s="10" r="L14">
         <f>((((C14*1.4)+(D14*0.6000000000000001))+(E14*0.6000000000000001))+(F14*0))+(G14*0.4)</f>
         <v>1.12</v>
       </c>
@@ -979,30 +979,30 @@
         <v>0.1</v>
       </c>
       <c s="8" r="F16">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c s="8" r="G16">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c s="1" r="H16">
         <f>((((C16*0.4)+(D16*0.4))+(E16*0.4))+(F16*0.4))+(G16*1.1)</f>
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c s="1" r="I16">
         <f>((((C16*0.6000000000000001)+(D16*1.2))+(E16*0))+(F16*0.6000000000000001))+(G16*0.30000000000000004)</f>
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c s="4" r="J16">
         <f>((((C16*0.6000000000000001)+(D16*0))+(E16*1.2))+(F16*0.6000000000000001))+(G16*0.7000000000000001)</f>
-        <v>0.69</v>
-      </c>
-      <c s="11" r="K16">
+        <v>0.68</v>
+      </c>
+      <c s="10" r="K16">
         <f>((((C16*0)+(D16*0.6000000000000001))+(E16*0.6000000000000001))+(F16*1.4))+(G16*0.4)</f>
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c s="4" r="L16">
         <f>((((C16*1.4)+(D16*0.6000000000000001))+(E16*0.6000000000000001))+(F16*0))+(G16*0.4)</f>
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row customHeight="1" r="17" ht="12.75">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c s="8" r="D20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c s="8" r="E20">
         <v>0</v>
@@ -1142,27 +1142,27 @@
         <v>0.1</v>
       </c>
       <c s="8" r="G20">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c s="6" r="H20">
         <f>((((C20*0.4)+(D20*0.4))+(E20*0.4))+(F20*0.4))+(G20*1.1)</f>
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c s="1" r="I20">
         <f>((((C20*0.6000000000000001)+(D20*1.2))+(E20*0))+(F20*0.6000000000000001))+(G20*0.30000000000000004)</f>
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c s="4" r="J20">
         <f>((((C20*0.6000000000000001)+(D20*0))+(E20*1.2))+(F20*0.6000000000000001))+(G20*0.7000000000000001)</f>
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
       <c s="4" r="K20">
         <f>((((C20*0)+(D20*0.6000000000000001))+(E20*0.6000000000000001))+(F20*1.4))+(G20*0.4)</f>
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c s="4" r="L20">
         <f>((((C20*1.4)+(D20*0.6000000000000001))+(E20*0.6000000000000001))+(F20*0))+(G20*0.4)</f>
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row customHeight="1" r="21" ht="12.75">
@@ -1179,30 +1179,30 @@
         <v>0</v>
       </c>
       <c s="8" r="F21">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c s="8" r="G21">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c s="1" r="H21">
         <f>((((C21*0.4)+(D21*0.4))+(E21*0.4))+(F21*0.4))+(G21*1.1)</f>
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c s="1" r="I21">
         <f>((((C21*0.6000000000000001)+(D21*1.2))+(E21*0))+(F21*0.6000000000000001))+(G21*0.30000000000000004)</f>
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c s="4" r="J21">
         <f>((((C21*0.6000000000000001)+(D21*0))+(E21*1.2))+(F21*0.6000000000000001))+(G21*0.7000000000000001)</f>
-        <v>0.63</v>
-      </c>
-      <c s="11" r="K21">
+        <v>0.65</v>
+      </c>
+      <c s="10" r="K21">
         <f>((((C21*0)+(D21*0.6000000000000001))+(E21*0.6000000000000001))+(F21*1.4))+(G21*0.4)</f>
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c s="4" r="L21">
         <f>((((C21*1.4)+(D21*0.6000000000000001))+(E21*0.6000000000000001))+(F21*0))+(G21*0.4)</f>
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row customHeight="1" r="22" ht="12.75">
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c s="8" r="D23">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c s="8" r="E23">
         <v>0</v>
@@ -1262,27 +1262,27 @@
         <v>0</v>
       </c>
       <c s="8" r="G23">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c s="1" r="H23">
         <f>((((C23*0.4)+(D23*0.4))+(E23*0.4))+(F23*0.4))+(G23*1.1)</f>
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c s="6" r="I23">
         <f>((((C23*0.6000000000000001)+(D23*1.2))+(E23*0))+(F23*0.6000000000000001))+(G23*0.30000000000000004)</f>
-        <v>1.02</v>
+        <v>0.57</v>
       </c>
       <c s="4" r="J23">
         <f>((((C23*0.6000000000000001)+(D23*0))+(E23*1.2))+(F23*0.6000000000000001))+(G23*0.7000000000000001)</f>
-        <v>0.14</v>
+        <v>0.49</v>
       </c>
       <c s="4" r="K23">
         <f>((((C23*0)+(D23*0.6000000000000001))+(E23*0.6000000000000001))+(F23*1.4))+(G23*0.4)</f>
-        <v>0.56</v>
+        <v>0.46</v>
       </c>
       <c s="4" r="L23">
         <f>((((C23*1.4)+(D23*0.6000000000000001))+(E23*0.6000000000000001))+(F23*0))+(G23*0.4)</f>
-        <v>0.56</v>
+        <v>0.46</v>
       </c>
     </row>
     <row customHeight="1" r="24" ht="12.75">
@@ -1290,16 +1290,16 @@
         <v>30</v>
       </c>
       <c s="8" r="C24">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c s="8" r="D24">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c s="8" r="E24">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c s="8" r="F24">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c s="8" r="G24">
         <v>0</v>
@@ -1310,19 +1310,19 @@
       </c>
       <c s="1" r="I24">
         <f>((((C24*0.6000000000000001)+(D24*1.2))+(E24*0))+(F24*0.6000000000000001))+(G24*0.30000000000000004)</f>
-        <v>0.12</v>
-      </c>
-      <c s="11" r="J24">
+        <v>0.24</v>
+      </c>
+      <c s="10" r="J24">
         <f>((((C24*0.6000000000000001)+(D24*0))+(E24*1.2))+(F24*0.6000000000000001))+(G24*0.7000000000000001)</f>
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c s="4" r="K24">
         <f>((((C24*0)+(D24*0.6000000000000001))+(E24*0.6000000000000001))+(F24*1.4))+(G24*0.4)</f>
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c s="4" r="L24">
         <f>((((C24*1.4)+(D24*0.6000000000000001))+(E24*0.6000000000000001))+(F24*0))+(G24*0.4)</f>
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row customHeight="1" r="25" ht="12.75">
@@ -1330,13 +1330,13 @@
         <v>31</v>
       </c>
       <c s="8" r="C25">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c s="8" r="D25">
         <v>0</v>
       </c>
       <c s="8" r="E25">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c s="8" r="F25">
         <v>0</v>
@@ -1350,61 +1350,61 @@
       </c>
       <c s="1" r="I25">
         <f>((((C25*0.6000000000000001)+(D25*1.2))+(E25*0))+(F25*0.6000000000000001))+(G25*0.30000000000000004)</f>
-        <v>0.18</v>
-      </c>
-      <c s="11" r="J25">
+        <v>0.12</v>
+      </c>
+      <c s="10" r="J25">
         <f>((((C25*0.6000000000000001)+(D25*0))+(E25*1.2))+(F25*0.6000000000000001))+(G25*0.7000000000000001)</f>
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c s="4" r="K25">
         <f>((((C25*0)+(D25*0.6000000000000001))+(E25*0.6000000000000001))+(F25*1.4))+(G25*0.4)</f>
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c s="4" r="L25">
         <f>((((C25*1.4)+(D25*0.6000000000000001))+(E25*0.6000000000000001))+(F25*0))+(G25*0.4)</f>
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
     </row>
     <row customHeight="1" r="26" ht="12.75">
       <c s="8" r="C26">
         <f>SUM(C3:C23)</f>
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c s="8" r="D26">
         <f>SUM(D3:D23)</f>
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c s="8" r="E26">
         <f>SUM(E3:E23)</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c s="8" r="F26">
         <f>SUM(F3:F23)</f>
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c s="8" r="G26">
         <f>SUM(G3:G23)</f>
-        <v>7.6</v>
+        <v>8.2</v>
       </c>
       <c s="8" r="H26">
         <f>SUM(H4:H23)</f>
-        <v>12.62</v>
+        <v>13.08</v>
       </c>
       <c s="8" r="I26">
         <f>SUM(I4:I23)</f>
-        <v>11.04</v>
+        <v>10.38</v>
       </c>
       <c s="8" r="J26">
         <f>SUM(J4:J23)</f>
-        <v>11.64</v>
+        <v>12.3</v>
       </c>
       <c s="8" r="K26">
         <f>SUM(K4:K23)</f>
-        <v>11.62</v>
+        <v>10.74</v>
       </c>
       <c s="8" r="L26">
         <f>SUM(L4:L23)</f>
-        <v>11.2</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2309,33 +2309,33 @@
         <f>SUM(C3:M3)</f>
         <v>11</v>
       </c>
-      <c s="9" r="P3">
-        <f>((((((((((C3*5)+(D3*10))+(E3*5))-(F3*3))-(G3*3))+(H3*5))-(I3*3))+(J3*1))+(K3*10))+(L3*3))+(M3*0)</f>
-        <v>30</v>
+      <c s="11" r="P3">
+        <f>(((((((((((C3*5)+(D3*10))+(E3*2))+(F3*4))-(G3*7))+(H3*4))-(I3*4))+(J3*3))+(K3*10))+(L3*5))+(M3*0))</f>
+        <v>32</v>
       </c>
       <c s="13" r="Q3">
-        <f>(((((((((((C3*10)+(D3*10))+(E3*2))-(F3*3))-(G3*3))+(H3*1))-(I3*3))+(J3*5))+(K3*5))+(L3*2))+(M3*0))</f>
-        <v>26</v>
+        <f>(((((((((((C3*8)+(D3*10))+(E3*2))-(F3*4))-(G3*5))+(H3*2))-(I3*3))+(J3*5))+(K3*5))+(L3*2))+(M3*2))</f>
+        <v>24</v>
       </c>
       <c s="13" r="R3">
-        <f>(((((((((((C3*0)+(D3*2))+(E3*10))+(F3*3))+(G3*3))+(H3*3))+(I3*3))+(J3*0))+(K3*0))+(L3*3))+(M3*3))</f>
-        <v>30</v>
+        <f>(((((((((((C3*0)+(D3*3))+(E3*10))-(F3*3))+(G3*2))+(H3*4))+(I3*5))-(J3*3))-(K3*4))-(L3*2))+(M3*2))</f>
+        <v>14</v>
       </c>
       <c s="13" r="S3">
-        <f>(((((((((((C3*0)+(D3*0))+(E3*7))+(F3*5))+(G3*7))+(H3*2))+(I3*10))+(J3*0))+(K3*5))+(L3*10))+(M3*0))</f>
-        <v>46</v>
+        <f>(((((((((((-C3*3)-(D3*5))+(E3*3))+(F3*1))+(G3*4))+(H3*2))+(I3*10))-(J3*3))+(K3*6))+(L3*8))+(M3*0))</f>
+        <v>23</v>
       </c>
       <c s="13" r="T3">
-        <f>(((((((((((C3*7)+(D3*7))+(E3*5))+(F3*5))+(G3*5))+(H3*3))+(I3*5))+(J3*2))+(K3*5))+(L3*5))+(M3*3))</f>
-        <v>52</v>
+        <f>(((((((((((C3*5)+(D3*5))-(E3*3))+(F3*7))-(G3*2))+(H3*7))-(I3*3))+(J3*5))+(K3*8))+(L3*8))+(M3*1))</f>
+        <v>38</v>
       </c>
       <c s="13" r="U3">
-        <f>(((((((((((-C3*2)-(D3*3))-(E3*5))+(F3*3))+(G3*5))+(H3*3))-(I3*5))+(J3*5))+(K3*0))+(L3*5))+(M3*10))</f>
-        <v>16</v>
+        <f>(((((((((((-C3*4)-(D3*2))+(E3*5))+(F3*5))+(G3*2))+(H3*2))-(I3*1))+(J3*7))+(K3*1))+(L3*2))+(M3*10))</f>
+        <v>27</v>
       </c>
       <c s="13" r="V3">
-        <f>(((((((((((C3*2)-(D3*3))+(E3*7))+(F3*3))+(G3*5))+(H3*10))+(I3*3))+(J3*0))+(K3*4))+(L3*5))+(M3*0))</f>
-        <v>36</v>
+        <f>(((((((((((C3*2)+(D3*4))+(E3*9))+(F3*3))-(G3*3))+(H3*10))-(I3*3))+(J3*3))+(K3*8))+(L3*5))+(M3*0))</f>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -2352,65 +2352,65 @@
         <v>1</v>
       </c>
       <c s="8" r="F4">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c s="8" r="G4">
         <v>0</v>
       </c>
       <c s="8" r="H4">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c s="8" r="I4">
         <v>0</v>
       </c>
       <c s="8" r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="8" r="K4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="8" r="L4">
         <v>0</v>
       </c>
       <c s="8" r="M4">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="N4">
         <f>SUM(C4:M4)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c s="8" r="O4"/>
-      <c s="13" r="P4">
-        <f>(((((((((((C4*5)+(D4*10))+(E4*5))-(F4*3))-(G4*3))+(H4*5))-(I4*3))+(J4*1))+(K4*10))+(L4*3))+(M4*0))/30</f>
-        <v>4.26666666666667</v>
+      <c s="11" r="P4">
+        <f>ROUND(((((((((((((C4*5)+(D4*10))+(E4*2))+(F4*4))-(G4*7))+(H4*4))-(I4*4))+(J4*3))+(K4*10))+(L4*5))+(M4*0)) / 32))</f>
+        <v>5</v>
       </c>
       <c s="13" r="Q4">
-        <f>(((((((((((C4*10)+(D4*10))+(E4*2))-(F4*3))-(G4*3))+(H4*1))-(I4*3))+(J4*5))+(K4*5))+(L4*2))+(M4*0))/30</f>
-        <v>4.53333333333333</v>
+        <f>ROUND(((((((((((((C4*8)+(D4*10))+(E4*2))-(F4*4))-(G4*5))+(H4*2))-(I4*3))+(J4*5))+(K4*5))+(L4*2))+(M4*2)) / 24))</f>
+        <v>7</v>
       </c>
       <c s="13" r="R4">
-        <f>(((((((((((C4*0)+(D4*2))+(E4*10))+(F4*3))+(G4*3))+(H4*3))+(I4*3))+(J4*0))+(K4*0))+(L4*3))+(M4*3))/30</f>
-        <v>0.3</v>
+        <f>ROUND(((((((((((((C4*0)+(D4*3))+(E4*10))-(F4*3))+(G4*2))+(H4*4))+(I4*5))-(J4*3))-(K4*4))-(L4*2))+(M4*2)) / 14))</f>
+        <v>3</v>
       </c>
       <c s="13" r="S4">
-        <f>(((((((((((C4*0)+(D4*0))+(E4*7))+(F4*5))+(G4*7))+(H4*2))+(I4*10))+(J4*0))+(K4*5))+(L4*10))+(M4*0))/30</f>
-        <v>0.7</v>
+        <f>ROUND(((((((((((((-C4*3)-(D4*5))+(E4*3))+(F4*1))+(G4*4))+(H4*2))+(I4*10))-(J4*3))+(K4*6))+(L4*8))+(M4*0)) / 23))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="T4">
-        <f>(((((((((((C4*7)+(D4*7))+(E4*5))+(F4*5))+(G4*5))+(H4*3))+(I4*5))+(J4*2))+(K4*5))+(L4*5))+(M4*3))/30</f>
-        <v>2.9</v>
+        <f>ROUND(((((((((((((C4*5)+(D4*5))-(E4*3))+(F4*7))-(G4*2))+(H4*7))-(I4*3))+(J4*5))+(K4*8))+(L4*8))+(M4*1)) / 38))</f>
+        <v>3</v>
       </c>
       <c s="13" r="U4">
-        <f>(((((((((((-C4*2)-(D4*3))-(E4*5))+(F4*3))+(G4*5))+(H4*3))-(I4*5))+(J4*5))+(K4*0))+(L4*5))+(M4*10))/30</f>
-        <v>-3</v>
+        <f>ROUND(((((((((((((-C4*4)-(D4*2))+(E4*5))+(F4*5))+(G4*2))+(H4*2))-(I4*1))+(J4*7))+(K4*1))+(L4*2))+(M4*10)) / 27))</f>
+        <v>-2</v>
       </c>
       <c s="13" r="V4">
-        <f>(((((((((((C4*2)-(D4*3))+(E4*7))+(F4*3))+(G4*5))+(H4*10))+(I4*3))+(J4*0))+(K4*4))+(L4*5))+(M4*0))/30</f>
-        <v>-1.13333333333333</v>
+        <f>ROUND(((((((((((((C4*2)+(D4*4))+(E4*9))+(F4*3))-(G4*3))+(H4*10))-(I4*3))+(J4*3))+(K4*8))+(L4*5))+(M4*0)) / 38))</f>
+        <v>3</v>
       </c>
       <c s="14" r="W4">
         <f>SUM(P4:V4)</f>
-        <v>8.56666666666667</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -2421,19 +2421,19 @@
         <v>10</v>
       </c>
       <c s="8" r="D5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c s="8" r="E5">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c s="8" r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="8" r="G5">
         <v>0</v>
       </c>
       <c s="8" r="H5">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c s="8" r="I5">
         <v>0</v>
@@ -2445,47 +2445,47 @@
         <v>2</v>
       </c>
       <c s="8" r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="8" r="M5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <f>SUM(C5:M5)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c s="8" r="O5"/>
-      <c s="13" r="P5">
-        <f>(((((((((((C5*5)+(D5*10))+(E5*5))-(F5*3))-(G5*3))+(H5*5))-(I5*3))+(J5*1))+(K5*10))+(L5*3))+(M5*0))/30</f>
-        <v>1.23333333333333</v>
+      <c s="11" r="P5">
+        <f>ROUND(((((((((((((C5*5)+(D5*10))+(E5*2))+(F5*4))-(G5*7))+(H5*4))-(I5*4))+(J5*3))+(K5*10))+(L5*5))+(M5*0)) / 32))</f>
+        <v>1</v>
       </c>
       <c s="13" r="Q5">
-        <f>(((((((((((C5*10)+(D5*10))+(E5*2))-(F5*3))-(G5*3))+(H5*1))-(I5*3))+(J5*5))+(K5*5))+(L5*2))+(M5*0))/30</f>
-        <v>2.36666666666667</v>
+        <f>ROUND(((((((((((((C5*8)+(D5*10))+(E5*2))-(F5*4))-(G5*5))+(H5*2))-(I5*3))+(J5*5))+(K5*5))+(L5*2))+(M5*2)) / 24))</f>
+        <v>2</v>
       </c>
       <c s="13" r="R5">
-        <f>(((((((((((C5*0)+(D5*2))+(E5*10))+(F5*3))+(G5*3))+(H5*3))+(I5*3))+(J5*0))+(K5*0))+(L5*3))+(M5*3))/30</f>
-        <v>0.166666666666667</v>
+        <f>ROUND(((((((((((((C5*0)+(D5*3))+(E5*10))-(F5*3))+(G5*2))+(H5*4))+(I5*5))-(J5*3))-(K5*4))-(L5*2))+(M5*2)) / 14))</f>
+        <v>-2</v>
       </c>
       <c s="13" r="S5">
-        <f>(((((((((((C5*0)+(D5*0))+(E5*7))+(F5*5))+(G5*7))+(H5*2))+(I5*10))+(J5*0))+(K5*5))+(L5*10))+(M5*0))/30</f>
-        <v>1.2</v>
+        <f>ROUND(((((((((((((-C5*3)-(D5*5))+(E5*3))+(F5*1))+(G5*4))+(H5*2))+(I5*10))-(J5*3))+(K5*6))+(L5*8))+(M5*0)) / 23))</f>
+        <v>0</v>
       </c>
       <c s="13" r="T5">
-        <f>(((((((((((C5*7)+(D5*7))+(E5*5))+(F5*5))+(G5*5))+(H5*3))+(I5*5))+(J5*2))+(K5*5))+(L5*5))+(M5*3))/30</f>
-        <v>2.56666666666667</v>
+        <f>ROUND(((((((((((((C5*5)+(D5*5))-(E5*3))+(F5*7))-(G5*2))+(H5*7))-(I5*3))+(J5*5))+(K5*8))+(L5*8))+(M5*1)) / 38))</f>
+        <v>2</v>
       </c>
       <c s="13" r="U5">
-        <f>(((((((((((-C5*2)-(D5*3))-(E5*5))+(F5*3))+(G5*5))+(H5*3))-(I5*5))+(J5*5))+(K5*0))+(L5*5))+(M5*10))/30</f>
-        <v>-0.3</v>
+        <f>ROUND(((((((((((((-C5*4)-(D5*2))+(E5*5))+(F5*5))+(G5*2))+(H5*2))-(I5*1))+(J5*7))+(K5*1))+(L5*2))+(M5*10)) / 27))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="V5">
-        <f>(((((((((((C5*2)-(D5*3))+(E5*7))+(F5*3))+(G5*5))+(H5*10))+(I5*3))+(J5*0))+(K5*4))+(L5*5))+(M5*0))/30</f>
-        <v>1</v>
+        <f>ROUND(((((((((((((C5*2)+(D5*4))+(E5*9))+(F5*3))-(G5*3))+(H5*10))-(I5*3))+(J5*3))+(K5*8))+(L5*5))+(M5*0)) / 38))</f>
+        <v>0</v>
       </c>
       <c s="14" r="W5">
         <f>SUM(P5:V5)</f>
-        <v>8.23333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2499,68 +2499,68 @@
         <v>10</v>
       </c>
       <c s="8" r="E6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c s="8" r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="8" r="G6">
         <v>0</v>
       </c>
       <c s="8" r="H6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c s="8" r="I6">
         <v>0</v>
       </c>
       <c s="8" r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="8" r="K6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="8" r="L6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c s="8" r="M6">
         <v>0</v>
       </c>
       <c r="N6">
         <f>SUM(C6:M6)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c s="8" r="O6"/>
-      <c s="13" r="P6">
-        <f>(((((((((((C6*5)+(D6*10))+(E6*5))-(F6*3))-(G6*3))+(H6*5))-(I6*3))+(J6*1))+(K6*10))+(L6*3))+(M6*0))/30</f>
-        <v>4.13333333333333</v>
+      <c s="11" r="P6">
+        <f>ROUND(((((((((((((C6*5)+(D6*10))+(E6*2))+(F6*4))-(G6*7))+(H6*4))-(I6*4))+(J6*3))+(K6*10))+(L6*5))+(M6*0)) / 32))</f>
+        <v>5</v>
       </c>
       <c s="13" r="Q6">
-        <f>(((((((((((C6*10)+(D6*10))+(E6*2))-(F6*3))-(G6*3))+(H6*1))-(I6*3))+(J6*5))+(K6*5))+(L6*2))+(M6*0))/30</f>
-        <v>4.2</v>
+        <f>ROUND(((((((((((((C6*8)+(D6*10))+(E6*2))-(F6*4))-(G6*5))+(H6*2))-(I6*3))+(J6*5))+(K6*5))+(L6*2))+(M6*2)) / 24))</f>
+        <v>6</v>
       </c>
       <c s="13" r="R6">
-        <f>(((((((((((C6*0)+(D6*2))+(E6*10))+(F6*3))+(G6*3))+(H6*3))+(I6*3))+(J6*0))+(K6*0))+(L6*3))+(M6*3))/30</f>
-        <v>0.633333333333333</v>
+        <f>ROUND(((((((((((((C6*0)+(D6*3))+(E6*10))-(F6*3))+(G6*2))+(H6*4))+(I6*5))-(J6*3))-(K6*4))-(L6*2))+(M6*2)) / 14))</f>
+        <v>1</v>
       </c>
       <c s="13" r="S6">
-        <f>(((((((((((C6*0)+(D6*0))+(E6*7))+(F6*5))+(G6*7))+(H6*2))+(I6*10))+(J6*0))+(K6*5))+(L6*10))+(M6*0))/30</f>
-        <v>1.46666666666667</v>
+        <f>ROUND(((((((((((((-C6*3)-(D6*5))+(E6*3))+(F6*1))+(G6*4))+(H6*2))+(I6*10))-(J6*3))+(K6*6))+(L6*8))+(M6*0)) / 23))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="T6">
-        <f>(((((((((((C6*7)+(D6*7))+(E6*5))+(F6*5))+(G6*5))+(H6*3))+(I6*5))+(J6*2))+(K6*5))+(L6*5))+(M6*3))/30</f>
-        <v>3.6</v>
+        <f>ROUND(((((((((((((C6*5)+(D6*5))-(E6*3))+(F6*7))-(G6*2))+(H6*7))-(I6*3))+(J6*5))+(K6*8))+(L6*8))+(M6*1)) / 38))</f>
+        <v>3</v>
       </c>
       <c s="13" r="U6">
-        <f>(((((((((((-C6*2)-(D6*3))-(E6*5))+(F6*3))+(G6*5))+(H6*3))-(I6*5))+(J6*5))+(K6*0))+(L6*5))+(M6*10))/30</f>
-        <v>-0.233333333333333</v>
+        <f>ROUND(((((((((((((-C6*4)-(D6*2))+(E6*5))+(F6*5))+(G6*2))+(H6*2))-(I6*1))+(J6*7))+(K6*1))+(L6*2))+(M6*10)) / 27))</f>
+        <v>1</v>
       </c>
       <c s="13" r="V6">
-        <f>(((((((((((C6*2)-(D6*3))+(E6*7))+(F6*3))+(G6*5))+(H6*10))+(I6*3))+(J6*0))+(K6*4))+(L6*5))+(M6*0))/30</f>
-        <v>-0.733333333333333</v>
+        <f>ROUND(((((((((((((C6*2)+(D6*4))+(E6*9))+(F6*3))-(G6*3))+(H6*10))-(I6*3))+(J6*3))+(K6*8))+(L6*5))+(M6*0)) / 38))</f>
+        <v>3</v>
       </c>
       <c s="14" r="W6">
         <f>SUM(P6:V6)</f>
-        <v>13.0666666666667</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -2574,16 +2574,16 @@
         <v>10</v>
       </c>
       <c s="8" r="E7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c s="8" r="F7">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c s="8" r="G7">
         <v>0</v>
       </c>
       <c s="8" r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="8" r="I7">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c s="8" r="K7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="8" r="L7">
         <v>0</v>
@@ -2602,40 +2602,40 @@
       </c>
       <c r="N7">
         <f>SUM(C7:M7)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="8" r="O7"/>
-      <c s="13" r="P7">
-        <f>(((((((((((C7*5)+(D7*10))+(E7*5))-(F7*3))-(G7*3))+(H7*5))-(I7*3))+(J7*1))+(K7*10))+(L7*3))+(M7*0))/30</f>
-        <v>4.46666666666667</v>
+      <c s="11" r="P7">
+        <f>ROUND(((((((((((((C7*5)+(D7*10))+(E7*2))+(F7*4))-(G7*7))+(H7*4))-(I7*4))+(J7*3))+(K7*10))+(L7*5))+(M7*0)) / 32))</f>
+        <v>5</v>
       </c>
       <c s="13" r="Q7">
-        <f>(((((((((((C7*10)+(D7*10))+(E7*2))-(F7*3))-(G7*3))+(H7*1))-(I7*3))+(J7*5))+(K7*5))+(L7*2))+(M7*0))/30</f>
-        <v>4.36666666666667</v>
+        <f>ROUND(((((((((((((C7*8)+(D7*10))+(E7*2))-(F7*4))-(G7*5))+(H7*2))-(I7*3))+(J7*5))+(K7*5))+(L7*2))+(M7*2)) / 24))</f>
+        <v>6</v>
       </c>
       <c s="13" r="R7">
-        <f>(((((((((((C7*0)+(D7*2))+(E7*10))+(F7*3))+(G7*3))+(H7*3))+(I7*3))+(J7*0))+(K7*0))+(L7*3))+(M7*3))/30</f>
-        <v>0.533333333333333</v>
+        <f>ROUND(((((((((((((C7*0)+(D7*3))+(E7*10))-(F7*3))+(G7*2))+(H7*4))+(I7*5))-(J7*3))-(K7*4))-(L7*2))+(M7*2)) / 14))</f>
+        <v>2</v>
       </c>
       <c s="13" r="S7">
-        <f>(((((((((((C7*0)+(D7*0))+(E7*7))+(F7*5))+(G7*7))+(H7*2))+(I7*10))+(J7*0))+(K7*5))+(L7*10))+(M7*0))/30</f>
-        <v>0.5</v>
+        <f>ROUND(((((((((((((-C7*3)-(D7*5))+(E7*3))+(F7*1))+(G7*4))+(H7*2))+(I7*10))-(J7*3))+(K7*6))+(L7*8))+(M7*0)) / 23))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="T7">
-        <f>(((((((((((C7*7)+(D7*7))+(E7*5))+(F7*5))+(G7*5))+(H7*3))+(I7*5))+(J7*2))+(K7*5))+(L7*5))+(M7*3))/30</f>
-        <v>3.3</v>
+        <f>ROUND(((((((((((((C7*5)+(D7*5))-(E7*3))+(F7*7))-(G7*2))+(H7*7))-(I7*3))+(J7*5))+(K7*8))+(L7*8))+(M7*1)) / 38))</f>
+        <v>2</v>
       </c>
       <c s="13" r="U7">
-        <f>(((((((((((-C7*2)-(D7*3))-(E7*5))+(F7*3))+(G7*5))+(H7*3))-(I7*5))+(J7*5))+(K7*0))+(L7*5))+(M7*10))/30</f>
-        <v>-0.366666666666667</v>
+        <f>ROUND(((((((((((((-C7*4)-(D7*2))+(E7*5))+(F7*5))+(G7*2))+(H7*2))-(I7*1))+(J7*7))+(K7*1))+(L7*2))+(M7*10)) / 27))</f>
+        <v>0</v>
       </c>
       <c s="13" r="V7">
-        <f>(((((((((((C7*2)-(D7*3))+(E7*7))+(F7*3))+(G7*5))+(H7*10))+(I7*3))+(J7*0))+(K7*4))+(L7*5))+(M7*0))/30</f>
-        <v>-0.333333333333333</v>
+        <f>ROUND(((((((((((((C7*2)+(D7*4))+(E7*9))+(F7*3))-(G7*3))+(H7*10))-(I7*3))+(J7*3))+(K7*8))+(L7*5))+(M7*0)) / 38))</f>
+        <v>3</v>
       </c>
       <c s="14" r="W7">
         <f>SUM(P7:V7)</f>
-        <v>12.4666666666667</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -2646,10 +2646,10 @@
         <v>10</v>
       </c>
       <c s="8" r="D8">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c s="8" r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="8" r="F8">
         <v>2</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c s="8" r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="8" r="I8">
         <v>0</v>
@@ -2670,47 +2670,47 @@
         <v>2</v>
       </c>
       <c s="8" r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="8" r="M8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <f>SUM(C8:M8)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c s="8" r="O8"/>
-      <c s="13" r="P8">
-        <f>(((((((((((C8*5)+(D8*10))+(E8*5))-(F8*3))-(G8*3))+(H8*5))-(I8*3))+(J8*1))+(K8*10))+(L8*3))+(M8*0))/30</f>
-        <v>2.23333333333333</v>
+      <c s="11" r="P8">
+        <f>ROUND(((((((((((((C8*5)+(D8*10))+(E8*2))+(F8*4))-(G8*7))+(H8*4))-(I8*4))+(J8*3))+(K8*10))+(L8*5))+(M8*0)) / 32))</f>
+        <v>2</v>
       </c>
       <c s="13" r="Q8">
-        <f>(((((((((((C8*10)+(D8*10))+(E8*2))-(F8*3))-(G8*3))+(H8*1))-(I8*3))+(J8*5))+(K8*5))+(L8*2))+(M8*0))/30</f>
-        <v>2.63333333333333</v>
+        <f>ROUND(((((((((((((C8*8)+(D8*10))+(E8*2))-(F8*4))-(G8*5))+(H8*2))-(I8*3))+(J8*5))+(K8*5))+(L8*2))+(M8*2)) / 24))</f>
+        <v>2</v>
       </c>
       <c s="13" r="R8">
-        <f>(((((((((((C8*0)+(D8*2))+(E8*10))+(F8*3))+(G8*3))+(H8*3))+(I8*3))+(J8*0))+(K8*0))+(L8*3))+(M8*3))/30</f>
-        <v>1.23333333333333</v>
+        <f>ROUND(((((((((((((C8*0)+(D8*3))+(E8*10))-(F8*3))+(G8*2))+(H8*4))+(I8*5))-(J8*3))-(K8*4))-(L8*2))+(M8*2)) / 14))</f>
+        <v>2</v>
       </c>
       <c s="13" r="S8">
-        <f>(((((((((((C8*0)+(D8*0))+(E8*7))+(F8*5))+(G8*7))+(H8*2))+(I8*10))+(J8*0))+(K8*5))+(L8*10))+(M8*0))/30</f>
-        <v>1.93333333333333</v>
+        <f>ROUND(((((((((((((-C8*3)-(D8*5))+(E8*3))+(F8*1))+(G8*4))+(H8*2))+(I8*10))-(J8*3))+(K8*6))+(L8*8))+(M8*0)) / 23))</f>
+        <v>1</v>
       </c>
       <c s="13" r="T8">
-        <f>(((((((((((C8*7)+(D8*7))+(E8*5))+(F8*5))+(G8*5))+(H8*3))+(I8*5))+(J8*2))+(K8*5))+(L8*5))+(M8*3))/30</f>
-        <v>3.3</v>
+        <f>ROUND(((((((((((((C8*5)+(D8*5))-(E8*3))+(F8*7))-(G8*2))+(H8*7))-(I8*3))+(J8*5))+(K8*8))+(L8*8))+(M8*1)) / 38))</f>
+        <v>1</v>
       </c>
       <c s="13" r="U8">
-        <f>(((((((((((-C8*2)-(D8*3))-(E8*5))+(F8*3))+(G8*5))+(H8*3))-(I8*5))+(J8*5))+(K8*0))+(L8*5))+(M8*10))/30</f>
-        <v>-0.233333333333333</v>
+        <f>ROUND(((((((((((((-C8*4)-(D8*2))+(E8*5))+(F8*5))+(G8*2))+(H8*2))-(I8*1))+(J8*7))+(K8*1))+(L8*2))+(M8*10)) / 27))</f>
+        <v>0</v>
       </c>
       <c s="13" r="V8">
-        <f>(((((((((((C8*2)-(D8*3))+(E8*7))+(F8*3))+(G8*5))+(H8*10))+(I8*3))+(J8*0))+(K8*4))+(L8*5))+(M8*0))/30</f>
-        <v>2.8</v>
+        <f>ROUND(((((((((((((C8*2)+(D8*4))+(E8*9))+(F8*3))-(G8*3))+(H8*10))-(I8*3))+(J8*3))+(K8*8))+(L8*5))+(M8*0)) / 38))</f>
+        <v>2</v>
       </c>
       <c s="14" r="W8">
         <f>SUM(P8:V8)</f>
-        <v>13.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2727,65 +2727,65 @@
         <v>10</v>
       </c>
       <c s="8" r="F9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c s="8" r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="8" r="H9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c s="8" r="I9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="8" r="J9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c s="8" r="K9">
         <v>5</v>
       </c>
       <c s="8" r="L9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c s="8" r="M9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <f>SUM(C9:M9)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c s="8" r="O9"/>
-      <c s="13" r="P9">
-        <f>(((((((((((C9*5)+(D9*10))+(E9*5))-(F9*3))-(G9*3))+(H9*5))-(I9*3))+(J9*1))+(K9*10))+(L9*3))+(M9*0))/30</f>
-        <v>2.5</v>
+      <c s="11" r="P9">
+        <f>ROUND(((((((((((((C9*5)+(D9*10))+(E9*2))+(F9*4))-(G9*7))+(H9*4))-(I9*4))+(J9*3))+(K9*10))+(L9*5))+(M9*0)) / 32))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="Q9">
-        <f>(((((((((((C9*10)+(D9*10))+(E9*2))-(F9*3))-(G9*3))+(H9*1))-(I9*3))+(J9*5))+(K9*5))+(L9*2))+(M9*0))/30</f>
-        <v>-0.233333333333333</v>
+        <f>ROUND(((((((((((((C9*8)+(D9*10))+(E9*2))-(F9*4))-(G9*5))+(H9*2))-(I9*3))+(J9*5))+(K9*5))+(L9*2))+(M9*2)) / 24))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="R9">
-        <f>(((((((((((C9*0)+(D9*2))+(E9*10))+(F9*3))+(G9*3))+(H9*3))+(I9*3))+(J9*0))+(K9*0))+(L9*3))+(M9*3))/30</f>
-        <v>4.03333333333333</v>
+        <f>ROUND(((((((((((((C9*0)+(D9*3))+(E9*10))-(F9*3))+(G9*2))+(H9*4))+(I9*5))-(J9*3))-(K9*4))-(L9*2))+(M9*2)) / 14))</f>
+        <v>8</v>
       </c>
       <c s="13" r="S9">
-        <f>(((((((((((C9*0)+(D9*0))+(E9*7))+(F9*5))+(G9*7))+(H9*2))+(I9*10))+(J9*0))+(K9*5))+(L9*10))+(M9*0))/30</f>
-        <v>5</v>
+        <f>ROUND(((((((((((((-C9*3)-(D9*5))+(E9*3))+(F9*1))+(G9*4))+(H9*2))+(I9*10))-(J9*3))+(K9*6))+(L9*8))+(M9*0)) / 23))</f>
+        <v>7</v>
       </c>
       <c s="13" r="T9">
-        <f>(((((((((((C9*7)+(D9*7))+(E9*5))+(F9*5))+(G9*5))+(H9*3))+(I9*5))+(J9*2))+(K9*5))+(L9*5))+(M9*3))/30</f>
-        <v>2.3</v>
+        <f>ROUND(((((((((((((C9*5)+(D9*5))-(E9*3))+(F9*7))-(G9*2))+(H9*7))-(I9*3))+(J9*5))+(K9*8))+(L9*8))+(M9*1)) / 38))</f>
+        <v>-2</v>
       </c>
       <c s="13" r="U9">
-        <f>(((((((((((-C9*2)-(D9*3))-(E9*5))+(F9*3))+(G9*5))+(H9*3))-(I9*5))+(J9*5))+(K9*0))+(L9*5))+(M9*10))/30</f>
-        <v>0.133333333333333</v>
+        <f>ROUND(((((((((((((-C9*4)-(D9*2))+(E9*5))+(F9*5))+(G9*2))+(H9*2))-(I9*1))+(J9*7))+(K9*1))+(L9*2))+(M9*10)) / 27))</f>
+        <v>2</v>
       </c>
       <c s="13" r="V9">
-        <f>(((((((((((C9*2)-(D9*3))+(E9*7))+(F9*3))+(G9*5))+(H9*10))+(I9*3))+(J9*0))+(K9*4))+(L9*5))+(M9*0))/30</f>
-        <v>3.9</v>
+        <f>ROUND(((((((((((((C9*2)+(D9*4))+(E9*9))+(F9*3))-(G9*3))+(H9*10))-(I9*3))+(J9*3))+(K9*8))+(L9*5))+(M9*0)) / 38))</f>
+        <v>2</v>
       </c>
       <c s="14" r="W9">
         <f>SUM(P9:V9)</f>
-        <v>17.6333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -2799,68 +2799,68 @@
         <v>4</v>
       </c>
       <c s="8" r="E10">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c s="8" r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="8" r="G10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c s="8" r="H10">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c s="8" r="I10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c s="8" r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="8" r="K10">
         <v>10</v>
       </c>
       <c s="8" r="L10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c s="8" r="M10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <f>SUM(C10:M10)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c s="8" r="O10"/>
-      <c s="13" r="P10">
-        <f>(((((((((((C10*5)+(D10*10))+(E10*5))-(F10*3))-(G10*3))+(H10*5))-(I10*3))+(J10*1))+(K10*10))+(L10*3))+(M10*0))/30</f>
-        <v>4.33333333333333</v>
+      <c s="11" r="P10">
+        <f>ROUND(((((((((((((C10*5)+(D10*10))+(E10*2))+(F10*4))-(G10*7))+(H10*4))-(I10*4))+(J10*3))+(K10*10))+(L10*5))+(M10*0)) / 32))</f>
+        <v>8</v>
       </c>
       <c s="13" r="Q10">
-        <f>(((((((((((C10*10)+(D10*10))+(E10*2))-(F10*3))-(G10*3))+(H10*1))-(I10*3))+(J10*5))+(K10*5))+(L10*2))+(M10*0))/30</f>
-        <v>3.86666666666667</v>
+        <f>ROUND(((((((((((((C10*8)+(D10*10))+(E10*2))-(F10*4))-(G10*5))+(H10*2))-(I10*3))+(J10*5))+(K10*5))+(L10*2))+(M10*2)) / 24))</f>
+        <v>6</v>
       </c>
       <c s="13" r="R10">
-        <f>(((((((((((C10*0)+(D10*2))+(E10*10))+(F10*3))+(G10*3))+(H10*3))+(I10*3))+(J10*0))+(K10*0))+(L10*3))+(M10*3))/30</f>
-        <v>-0.7</v>
+        <f>ROUND(((((((((((((C10*0)+(D10*3))+(E10*10))-(F10*3))+(G10*2))+(H10*4))+(I10*5))-(J10*3))-(K10*4))-(L10*2))+(M10*2)) / 14))</f>
+        <v>-6</v>
       </c>
       <c s="13" r="S10">
-        <f>(((((((((((C10*0)+(D10*0))+(E10*7))+(F10*5))+(G10*7))+(H10*2))+(I10*10))+(J10*0))+(K10*5))+(L10*10))+(M10*0))/30</f>
-        <v>3.03333333333333</v>
+        <f>ROUND(((((((((((((-C10*3)-(D10*5))+(E10*3))+(F10*1))+(G10*4))+(H10*2))+(I10*10))-(J10*3))+(K10*6))+(L10*8))+(M10*0)) / 23))</f>
+        <v>1</v>
       </c>
       <c s="13" r="T10">
-        <f>(((((((((((C10*7)+(D10*7))+(E10*5))+(F10*5))+(G10*5))+(H10*3))+(I10*5))+(J10*2))+(K10*5))+(L10*5))+(M10*3))/30</f>
-        <v>3.83333333333333</v>
+        <f>ROUND(((((((((((((C10*5)+(D10*5))-(E10*3))+(F10*7))-(G10*2))+(H10*7))-(I10*3))+(J10*5))+(K10*8))+(L10*8))+(M10*1)) / 38))</f>
+        <v>6</v>
       </c>
       <c s="13" r="U10">
-        <f>(((((((((((-C10*2)-(D10*3))-(E10*5))+(F10*3))+(G10*5))+(H10*3))-(I10*5))+(J10*5))+(K10*0))+(L10*5))+(M10*10))/30</f>
-        <v>1.23333333333333</v>
+        <f>ROUND(((((((((((((-C10*4)-(D10*2))+(E10*5))+(F10*5))+(G10*2))+(H10*2))-(I10*1))+(J10*7))+(K10*1))+(L10*2))+(M10*10)) / 27))</f>
+        <v>1</v>
       </c>
       <c s="13" r="V10">
-        <f>(((((((((((C10*2)-(D10*3))+(E10*7))+(F10*3))+(G10*5))+(H10*10))+(I10*3))+(J10*0))+(K10*4))+(L10*5))+(M10*0))/30</f>
-        <v>0.6</v>
+        <f>ROUND(((((((((((((C10*2)+(D10*4))+(E10*9))+(F10*3))-(G10*3))+(H10*10))-(I10*3))+(J10*3))+(K10*8))+(L10*5))+(M10*0)) / 38))</f>
+        <v>5</v>
       </c>
       <c s="14" r="W10">
         <f>SUM(P10:V10)</f>
-        <v>16.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -2868,28 +2868,28 @@
         <v>17</v>
       </c>
       <c s="8" r="C11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c s="8" r="D11">
         <v>-2</v>
       </c>
       <c s="8" r="E11">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c s="8" r="F11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c s="8" r="G11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c s="8" r="H11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c s="8" r="I11">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c s="8" r="J11">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c s="8" r="K11">
         <v>7</v>
@@ -2898,44 +2898,44 @@
         <v>10</v>
       </c>
       <c s="8" r="M11">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="N11">
         <f>SUM(C11:M11)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c s="8" r="O11"/>
-      <c s="13" r="P11">
-        <f>(((((((((((C11*5)+(D11*10))+(E11*5))-(F11*3))-(G11*3))+(H11*5))-(I11*3))+(J11*1))+(K11*10))+(L11*3))+(M11*0))/30</f>
-        <v>1.73333333333333</v>
+      <c s="11" r="P11">
+        <f>ROUND(((((((((((((C11*5)+(D11*10))+(E11*2))+(F11*4))-(G11*7))+(H11*4))-(I11*4))+(J11*3))+(K11*10))+(L11*5))+(M11*0)) / 32))</f>
+        <v>5</v>
       </c>
       <c s="13" r="Q11">
-        <f>(((((((((((C11*10)+(D11*10))+(E11*2))-(F11*3))-(G11*3))+(H11*1))-(I11*3))+(J11*5))+(K11*5))+(L11*2))+(M11*0))/30</f>
-        <v>-1.3</v>
+        <f>ROUND(((((((((((((C11*8)+(D11*10))+(E11*2))-(F11*4))-(G11*5))+(H11*2))-(I11*3))+(J11*5))+(K11*5))+(L11*2))+(M11*2)) / 24))</f>
+        <v>0</v>
       </c>
       <c s="13" r="R11">
-        <f>(((((((((((C11*0)+(D11*2))+(E11*10))+(F11*3))+(G11*3))+(H11*3))+(I11*3))+(J11*0))+(K11*0))+(L11*3))+(M11*3))/30</f>
-        <v>0.766666666666667</v>
+        <f>ROUND(((((((((((((C11*0)+(D11*3))+(E11*10))-(F11*3))+(G11*2))+(H11*4))+(I11*5))-(J11*3))-(K11*4))-(L11*2))+(M11*2)) / 14))</f>
+        <v>-8</v>
       </c>
       <c s="13" r="S11">
-        <f>(((((((((((C11*0)+(D11*0))+(E11*7))+(F11*5))+(G11*7))+(H11*2))+(I11*10))+(J11*0))+(K11*5))+(L11*10))+(M11*0))/30</f>
-        <v>5.3</v>
+        <f>ROUND(((((((((((((-C11*3)-(D11*5))+(E11*3))+(F11*1))+(G11*4))+(H11*2))+(I11*10))-(J11*3))+(K11*6))+(L11*8))+(M11*0)) / 23))</f>
+        <v>5</v>
       </c>
       <c s="13" r="T11">
-        <f>(((((((((((C11*7)+(D11*7))+(E11*5))+(F11*5))+(G11*5))+(H11*3))+(I11*5))+(J11*2))+(K11*5))+(L11*5))+(M11*3))/30</f>
-        <v>2.13333333333333</v>
+        <f>ROUND(((((((((((((C11*5)+(D11*5))-(E11*3))+(F11*7))-(G11*2))+(H11*7))-(I11*3))+(J11*5))+(K11*8))+(L11*8))+(M11*1)) / 38))</f>
+        <v>7</v>
       </c>
       <c s="13" r="U11">
-        <f>(((((((((((-C11*2)-(D11*3))-(E11*5))+(F11*3))+(G11*5))+(H11*3))-(I11*5))+(J11*5))+(K11*0))+(L11*5))+(M11*10))/30</f>
-        <v>1.9</v>
+        <f>ROUND(((((((((((((-C11*4)-(D11*2))+(E11*5))+(F11*5))+(G11*2))+(H11*2))-(I11*1))+(J11*7))+(K11*1))+(L11*2))+(M11*10)) / 27))</f>
+        <v>2</v>
       </c>
       <c s="13" r="V11">
-        <f>(((((((((((C11*2)-(D11*3))+(E11*7))+(F11*3))+(G11*5))+(H11*10))+(I11*3))+(J11*0))+(K11*4))+(L11*5))+(M11*0))/30</f>
-        <v>4.16666666666667</v>
+        <f>ROUND(((((((((((((C11*2)+(D11*4))+(E11*9))+(F11*3))-(G11*3))+(H11*10))-(I11*3))+(J11*3))+(K11*8))+(L11*5))+(M11*0)) / 38))</f>
+        <v>4</v>
       </c>
       <c s="14" r="W11">
         <f>SUM(P11:V11)</f>
-        <v>14.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -2949,68 +2949,68 @@
         <v>-2</v>
       </c>
       <c s="8" r="E12">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c s="8" r="F12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c s="8" r="G12">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c s="8" r="H12">
         <v>0</v>
       </c>
       <c s="8" r="I12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c s="8" r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="8" r="K12">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c s="8" r="L12">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c s="8" r="M12">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="N12">
         <f>SUM(C12:M12)</f>
-        <v>-24</v>
+        <v>7</v>
       </c>
       <c s="8" r="O12"/>
-      <c s="13" r="P12">
-        <f>(((((((((((C12*5)+(D12*10))+(E12*5))-(F12*3))-(G12*3))+(H12*5))-(I12*3))+(J12*1))+(K12*10))+(L12*3))+(M12*0))/30</f>
-        <v>-3.63333333333333</v>
+      <c s="11" r="P12">
+        <f>ROUND(((((((((((((C12*5)+(D12*10))+(E12*2))+(F12*4))-(G12*7))+(H12*4))-(I12*4))+(J12*3))+(K12*10))+(L12*5))+(M12*0)) / 32))</f>
+        <v>1</v>
       </c>
       <c s="13" r="Q12">
-        <f>(((((((((((C12*10)+(D12*10))+(E12*2))-(F12*3))-(G12*3))+(H12*1))-(I12*3))+(J12*5))+(K12*5))+(L12*2))+(M12*0))/30</f>
-        <v>-2.26666666666667</v>
+        <f>ROUND(((((((((((((C12*8)+(D12*10))+(E12*2))-(F12*4))-(G12*5))+(H12*2))-(I12*3))+(J12*5))+(K12*5))+(L12*2))+(M12*2)) / 24))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="R12">
-        <f>(((((((((((C12*0)+(D12*2))+(E12*10))+(F12*3))+(G12*3))+(H12*3))+(I12*3))+(J12*0))+(K12*0))+(L12*3))+(M12*3))/30</f>
-        <v>-3.66666666666667</v>
+        <f>ROUND(((((((((((((C12*0)+(D12*3))+(E12*10))-(F12*3))+(G12*2))+(H12*4))+(I12*5))-(J12*3))-(K12*4))-(L12*2))+(M12*2)) / 14))</f>
+        <v>-4</v>
       </c>
       <c s="13" r="S12">
-        <f>(((((((((((C12*0)+(D12*0))+(E12*7))+(F12*5))+(G12*7))+(H12*2))+(I12*10))+(J12*0))+(K12*5))+(L12*10))+(M12*0))/30</f>
-        <v>-2.8</v>
+        <f>ROUND(((((((((((((-C12*3)-(D12*5))+(E12*3))+(F12*1))+(G12*4))+(H12*2))+(I12*10))-(J12*3))+(K12*6))+(L12*8))+(M12*0)) / 23))</f>
+        <v>3</v>
       </c>
       <c s="13" r="T12">
-        <f>(((((((((((C12*7)+(D12*7))+(E12*5))+(F12*5))+(G12*5))+(H12*3))+(I12*5))+(J12*2))+(K12*5))+(L12*5))+(M12*3))/30</f>
-        <v>-3.46666666666667</v>
+        <f>ROUND(((((((((((((C12*5)+(D12*5))-(E12*3))+(F12*7))-(G12*2))+(H12*7))-(I12*3))+(J12*5))+(K12*8))+(L12*8))+(M12*1)) / 38))</f>
+        <v>2</v>
       </c>
       <c s="13" r="U12">
-        <f>(((((((((((-C12*2)-(D12*3))-(E12*5))+(F12*3))+(G12*5))+(H12*3))-(I12*5))+(J12*5))+(K12*0))+(L12*5))+(M12*10))/30</f>
-        <v>-3.3</v>
+        <f>ROUND(((((((((((((-C12*4)-(D12*2))+(E12*5))+(F12*5))+(G12*2))+(H12*2))-(I12*1))+(J12*7))+(K12*1))+(L12*2))+(M12*10)) / 27))</f>
+        <v>0</v>
       </c>
       <c s="13" r="V12">
-        <f>(((((((((((C12*2)-(D12*3))+(E12*7))+(F12*3))+(G12*5))+(H12*10))+(I12*3))+(J12*0))+(K12*4))+(L12*5))+(M12*0))/30</f>
-        <v>-2.36666666666667</v>
+        <f>ROUND(((((((((((((C12*2)+(D12*4))+(E12*9))+(F12*3))-(G12*3))+(H12*10))-(I12*3))+(J12*3))+(K12*8))+(L12*5))+(M12*0)) / 38))</f>
+        <v>0</v>
       </c>
       <c s="14" r="W12">
         <f>SUM(P12:V12)</f>
-        <v>-21.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3021,13 +3021,13 @@
         <v>10</v>
       </c>
       <c s="8" r="D13">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c s="8" r="E13">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c s="8" r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="8" r="G13">
         <v>0</v>
@@ -3045,47 +3045,47 @@
         <v>2</v>
       </c>
       <c s="8" r="L13">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c s="8" r="M13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <f>SUM(C13:M13)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c s="8" r="O13"/>
-      <c s="13" r="P13">
-        <f>(((((((((((C13*5)+(D13*10))+(E13*5))-(F13*3))-(G13*3))+(H13*5))-(I13*3))+(J13*1))+(K13*10))+(L13*3))+(M13*0))/30</f>
-        <v>0.9</v>
+      <c s="11" r="P13">
+        <f>ROUND(((((((((((((C13*5)+(D13*10))+(E13*2))+(F13*4))-(G13*7))+(H13*4))-(I13*4))+(J13*3))+(K13*10))+(L13*5))+(M13*0)) / 32))</f>
+        <v>1</v>
       </c>
       <c s="13" r="Q13">
-        <f>(((((((((((C13*10)+(D13*10))+(E13*2))-(F13*3))-(G13*3))+(H13*1))-(I13*3))+(J13*5))+(K13*5))+(L13*2))+(M13*0))/30</f>
-        <v>1.96666666666667</v>
+        <f>ROUND(((((((((((((C13*8)+(D13*10))+(E13*2))-(F13*4))-(G13*5))+(H13*2))-(I13*3))+(J13*5))+(K13*5))+(L13*2))+(M13*2)) / 24))</f>
+        <v>2</v>
       </c>
       <c s="13" r="R13">
-        <f>(((((((((((C13*0)+(D13*2))+(E13*10))+(F13*3))+(G13*3))+(H13*3))+(I13*3))+(J13*0))+(K13*0))+(L13*3))+(M13*3))/30</f>
-        <v>-0.4</v>
+        <f>ROUND(((((((((((((C13*0)+(D13*3))+(E13*10))-(F13*3))+(G13*2))+(H13*4))+(I13*5))-(J13*3))-(K13*4))-(L13*2))+(M13*2)) / 14))</f>
+        <v>-2</v>
       </c>
       <c s="13" r="S13">
-        <f>(((((((((((C13*0)+(D13*0))+(E13*7))+(F13*5))+(G13*7))+(H13*2))+(I13*10))+(J13*0))+(K13*5))+(L13*10))+(M13*0))/30</f>
-        <v>-0.233333333333333</v>
+        <f>ROUND(((((((((((((-C13*3)-(D13*5))+(E13*3))+(F13*1))+(G13*4))+(H13*2))+(I13*10))-(J13*3))+(K13*6))+(L13*8))+(M13*0)) / 23))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="T13">
-        <f>(((((((((((C13*7)+(D13*7))+(E13*5))+(F13*5))+(G13*5))+(H13*3))+(I13*5))+(J13*2))+(K13*5))+(L13*5))+(M13*3))/30</f>
-        <v>2.13333333333333</v>
+        <f>ROUND(((((((((((((C13*5)+(D13*5))-(E13*3))+(F13*7))-(G13*2))+(H13*7))-(I13*3))+(J13*5))+(K13*8))+(L13*8))+(M13*1)) / 38))</f>
+        <v>1</v>
       </c>
       <c s="13" r="U13">
-        <f>(((((((((((-C13*2)-(D13*3))-(E13*5))+(F13*3))+(G13*5))+(H13*3))-(I13*5))+(J13*5))+(K13*0))+(L13*5))+(M13*10))/30</f>
-        <v>0.1</v>
+        <f>ROUND(((((((((((((-C13*4)-(D13*2))+(E13*5))+(F13*5))+(G13*2))+(H13*2))-(I13*1))+(J13*7))+(K13*1))+(L13*2))+(M13*10)) / 27))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="V13">
-        <f>(((((((((((C13*2)-(D13*3))+(E13*7))+(F13*3))+(G13*5))+(H13*10))+(I13*3))+(J13*0))+(K13*4))+(L13*5))+(M13*0))/30</f>
-        <v>0.966666666666667</v>
+        <f>ROUND(((((((((((((C13*2)+(D13*4))+(E13*9))+(F13*3))-(G13*3))+(H13*10))-(I13*3))+(J13*3))+(K13*8))+(L13*5))+(M13*0)) / 38))</f>
+        <v>0</v>
       </c>
       <c s="14" r="W13">
         <f>SUM(P13:V13)</f>
-        <v>5.43333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3096,19 +3096,19 @@
         <v>10</v>
       </c>
       <c s="8" r="D14">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c s="8" r="E14">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c s="8" r="F14">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c s="8" r="G14">
         <v>0</v>
       </c>
       <c s="8" r="H14">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c s="8" r="I14">
         <v>0</v>
@@ -3127,40 +3127,40 @@
       </c>
       <c r="N14">
         <f>SUM(C14:M14)</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c s="8" r="O14"/>
-      <c s="13" r="P14">
-        <f>(((((((((((C14*5)+(D14*10))+(E14*5))-(F14*3))-(G14*3))+(H14*5))-(I14*3))+(J14*1))+(K14*10))+(L14*3))+(M14*0))/30</f>
-        <v>0.5</v>
+      <c s="11" r="P14">
+        <f>ROUND(((((((((((((C14*5)+(D14*10))+(E14*2))+(F14*4))-(G14*7))+(H14*4))-(I14*4))+(J14*3))+(K14*10))+(L14*5))+(M14*0)) / 32))</f>
+        <v>1</v>
       </c>
       <c s="13" r="Q14">
-        <f>(((((((((((C14*10)+(D14*10))+(E14*2))-(F14*3))-(G14*3))+(H14*1))-(I14*3))+(J14*5))+(K14*5))+(L14*2))+(M14*0))/30</f>
-        <v>2.03333333333333</v>
+        <f>ROUND(((((((((((((C14*8)+(D14*10))+(E14*2))-(F14*4))-(G14*5))+(H14*2))-(I14*3))+(J14*5))+(K14*5))+(L14*2))+(M14*2)) / 24))</f>
+        <v>4</v>
       </c>
       <c s="13" r="R14">
-        <f>(((((((((((C14*0)+(D14*2))+(E14*10))+(F14*3))+(G14*3))+(H14*3))+(I14*3))+(J14*0))+(K14*0))+(L14*3))+(M14*3))/30</f>
-        <v>-1.46666666666667</v>
+        <f>ROUND(((((((((((((C14*0)+(D14*3))+(E14*10))-(F14*3))+(G14*2))+(H14*4))+(I14*5))-(J14*3))-(K14*4))-(L14*2))+(M14*2)) / 14))</f>
+        <v>0</v>
       </c>
       <c s="13" r="S14">
-        <f>(((((((((((C14*0)+(D14*0))+(E14*7))+(F14*5))+(G14*7))+(H14*2))+(I14*10))+(J14*0))+(K14*5))+(L14*10))+(M14*0))/30</f>
-        <v>-0.933333333333333</v>
+        <f>ROUND(((((((((((((-C14*3)-(D14*5))+(E14*3))+(F14*1))+(G14*4))+(H14*2))+(I14*10))-(J14*3))+(K14*6))+(L14*8))+(M14*0)) / 23))</f>
+        <v>-2</v>
       </c>
       <c s="13" r="T14">
-        <f>(((((((((((C14*7)+(D14*7))+(E14*5))+(F14*5))+(G14*5))+(H14*3))+(I14*5))+(J14*2))+(K14*5))+(L14*5))+(M14*3))/30</f>
-        <v>0.7</v>
+        <f>ROUND(((((((((((((C14*5)+(D14*5))-(E14*3))+(F14*7))-(G14*2))+(H14*7))-(I14*3))+(J14*5))+(K14*8))+(L14*8))+(M14*1)) / 38))</f>
+        <v>0</v>
       </c>
       <c s="13" r="U14">
-        <f>(((((((((((-C14*2)-(D14*3))-(E14*5))+(F14*3))+(G14*5))+(H14*3))-(I14*5))+(J14*5))+(K14*0))+(L14*5))+(M14*10))/30</f>
-        <v>-3.16666666666667</v>
+        <f>ROUND(((((((((((((-C14*4)-(D14*2))+(E14*5))+(F14*5))+(G14*2))+(H14*2))-(I14*1))+(J14*7))+(K14*1))+(L14*2))+(M14*10)) / 27))</f>
+        <v>-6</v>
       </c>
       <c s="13" r="V14">
-        <f>(((((((((((C14*2)-(D14*3))+(E14*7))+(F14*3))+(G14*5))+(H14*10))+(I14*3))+(J14*0))+(K14*4))+(L14*5))+(M14*0))/30</f>
-        <v>-0.5</v>
+        <f>ROUND(((((((((((((C14*2)+(D14*4))+(E14*9))+(F14*3))-(G14*3))+(H14*10))-(I14*3))+(J14*3))+(K14*8))+(L14*5))+(M14*0)) / 38))</f>
+        <v>0</v>
       </c>
       <c s="14" r="W14">
         <f>SUM(P14:V14)</f>
-        <v>-2.83333333333333</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15">
@@ -3171,71 +3171,71 @@
         <v>-1</v>
       </c>
       <c s="8" r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="8" r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="8" r="F15">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c s="8" r="G15">
         <v>10</v>
       </c>
       <c s="8" r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="8" r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="8" r="J15">
         <v>-10</v>
       </c>
       <c s="8" r="K15">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c s="8" r="L15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c s="8" r="M15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <f>SUM(C15:M15)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c s="8" r="O15"/>
-      <c s="13" r="P15">
-        <f>(((((((((((C15*5)+(D15*10))+(E15*5))-(F15*3))-(G15*3))+(H15*5))-(I15*3))+(J15*1))+(K15*10))+(L15*3))+(M15*0))/30</f>
-        <v>-0.4</v>
+      <c s="11" r="P15">
+        <f>ROUND(((((((((((((C15*5)+(D15*10))+(E15*2))+(F15*4))-(G15*7))+(H15*4))-(I15*4))+(J15*3))+(K15*10))+(L15*5))+(M15*0)) / 32))</f>
+        <v>-4</v>
       </c>
       <c s="13" r="Q15">
-        <f>(((((((((((C15*10)+(D15*10))+(E15*2))-(F15*3))-(G15*3))+(H15*1))-(I15*3))+(J15*5))+(K15*5))+(L15*2))+(M15*0))/30</f>
-        <v>-1.9</v>
+        <f>ROUND(((((((((((((C15*8)+(D15*10))+(E15*2))-(F15*4))-(G15*5))+(H15*2))-(I15*3))+(J15*5))+(K15*5))+(L15*2))+(M15*2)) / 24))</f>
+        <v>-3</v>
       </c>
       <c s="13" r="R15">
-        <f>(((((((((((C15*0)+(D15*2))+(E15*10))+(F15*3))+(G15*3))+(H15*3))+(I15*3))+(J15*0))+(K15*0))+(L15*3))+(M15*3))/30</f>
-        <v>2.03333333333333</v>
+        <f>ROUND(((((((((((((C15*0)+(D15*3))+(E15*10))-(F15*3))+(G15*2))+(H15*4))+(I15*5))-(J15*3))-(K15*4))-(L15*2))+(M15*2)) / 14))</f>
+        <v>10</v>
       </c>
       <c s="13" r="S15">
-        <f>(((((((((((C15*0)+(D15*0))+(E15*7))+(F15*5))+(G15*7))+(H15*2))+(I15*10))+(J15*0))+(K15*5))+(L15*10))+(M15*0))/30</f>
-        <v>5.83333333333333</v>
+        <f>ROUND(((((((((((((-C15*3)-(D15*5))+(E15*3))+(F15*1))+(G15*4))+(H15*2))+(I15*10))-(J15*3))+(K15*6))+(L15*8))+(M15*0)) / 23))</f>
+        <v>4</v>
       </c>
       <c s="13" r="T15">
-        <f>(((((((((((C15*7)+(D15*7))+(E15*5))+(F15*5))+(G15*5))+(H15*3))+(I15*5))+(J15*2))+(K15*5))+(L15*5))+(M15*3))/30</f>
-        <v>2.4</v>
+        <f>ROUND(((((((((((((C15*5)+(D15*5))-(E15*3))+(F15*7))-(G15*2))+(H15*7))-(I15*3))+(J15*5))+(K15*8))+(L15*8))+(M15*1)) / 38))</f>
+        <v>-3</v>
       </c>
       <c s="13" r="U15">
-        <f>(((((((((((-C15*2)-(D15*3))-(E15*5))+(F15*3))+(G15*5))+(H15*3))-(I15*5))+(J15*5))+(K15*0))+(L15*5))+(M15*10))/30</f>
-        <v>0.366666666666667</v>
+        <f>ROUND(((((((((((((-C15*4)-(D15*2))+(E15*5))+(F15*5))+(G15*2))+(H15*2))-(I15*1))+(J15*7))+(K15*1))+(L15*2))+(M15*10)) / 27))</f>
+        <v>-2</v>
       </c>
       <c s="13" r="V15">
-        <f>(((((((((((C15*2)-(D15*3))+(E15*7))+(F15*3))+(G15*5))+(H15*10))+(I15*3))+(J15*0))+(K15*4))+(L15*5))+(M15*0))/30</f>
-        <v>2.7</v>
+        <f>ROUND(((((((((((((C15*2)+(D15*4))+(E15*9))+(F15*3))-(G15*3))+(H15*10))-(I15*3))+(J15*3))+(K15*8))+(L15*5))+(M15*0)) / 38))</f>
+        <v>-2</v>
       </c>
       <c s="14" r="W15">
         <f>SUM(P15:V15)</f>
-        <v>11.0333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3243,22 +3243,22 @@
         <v>22</v>
       </c>
       <c s="8" r="C16">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c s="8" r="D16">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c s="8" r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="8" r="F16">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c s="8" r="G16">
         <v>-2</v>
       </c>
       <c s="8" r="H16">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c s="8" r="I16">
         <v>0</v>
@@ -3267,50 +3267,50 @@
         <v>7</v>
       </c>
       <c s="8" r="K16">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c s="8" r="L16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c s="8" r="M16">
         <v>10</v>
       </c>
       <c r="N16">
         <f>SUM(C16:M16)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c s="8" r="O16"/>
-      <c s="13" r="P16">
-        <f>(((((((((((C16*5)+(D16*10))+(E16*5))-(F16*3))-(G16*3))+(H16*5))-(I16*3))+(J16*1))+(K16*10))+(L16*3))+(M16*0))/30</f>
-        <v>-0.9</v>
+      <c s="11" r="P16">
+        <f>ROUND(((((((((((((C16*5)+(D16*10))+(E16*2))+(F16*4))-(G16*7))+(H16*4))-(I16*4))+(J16*3))+(K16*10))+(L16*5))+(M16*0)) / 32))</f>
+        <v>0</v>
       </c>
       <c s="13" r="Q16">
-        <f>(((((((((((C16*10)+(D16*10))+(E16*2))-(F16*3))-(G16*3))+(H16*1))-(I16*3))+(J16*5))+(K16*5))+(L16*2))+(M16*0))/30</f>
-        <v>0.5</v>
+        <f>ROUND(((((((((((((C16*8)+(D16*10))+(E16*2))-(F16*4))-(G16*5))+(H16*2))-(I16*3))+(J16*5))+(K16*5))+(L16*2))+(M16*2)) / 24))</f>
+        <v>1</v>
       </c>
       <c s="13" r="R16">
-        <f>(((((((((((C16*0)+(D16*2))+(E16*10))+(F16*3))+(G16*3))+(H16*3))+(I16*3))+(J16*0))+(K16*0))+(L16*3))+(M16*3))/30</f>
-        <v>1.06666666666667</v>
+        <f>ROUND(((((((((((((C16*0)+(D16*3))+(E16*10))-(F16*3))+(G16*2))+(H16*4))+(I16*5))-(J16*3))-(K16*4))-(L16*2))+(M16*2)) / 14))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="S16">
-        <f>(((((((((((C16*0)+(D16*0))+(E16*7))+(F16*5))+(G16*7))+(H16*2))+(I16*10))+(J16*0))+(K16*5))+(L16*10))+(M16*0))/30</f>
-        <v>0.633333333333333</v>
+        <f>ROUND(((((((((((((-C16*3)-(D16*5))+(E16*3))+(F16*1))+(G16*4))+(H16*2))+(I16*10))-(J16*3))+(K16*6))+(L16*8))+(M16*0)) / 23))</f>
+        <v>3</v>
       </c>
       <c s="13" r="T16">
-        <f>(((((((((((C16*7)+(D16*7))+(E16*5))+(F16*5))+(G16*5))+(H16*3))+(I16*5))+(J16*2))+(K16*5))+(L16*5))+(M16*3))/30</f>
-        <v>0.9</v>
+        <f>ROUND(((((((((((((C16*5)+(D16*5))-(E16*3))+(F16*7))-(G16*2))+(H16*7))-(I16*3))+(J16*5))+(K16*8))+(L16*8))+(M16*1)) / 38))</f>
+        <v>1</v>
       </c>
       <c s="13" r="U16">
-        <f>(((((((((((-C16*2)-(D16*3))-(E16*5))+(F16*3))+(G16*5))+(H16*3))-(I16*5))+(J16*5))+(K16*0))+(L16*5))+(M16*10))/30</f>
-        <v>5.1</v>
+        <f>ROUND(((((((((((((-C16*4)-(D16*2))+(E16*5))+(F16*5))+(G16*2))+(H16*2))-(I16*1))+(J16*7))+(K16*1))+(L16*2))+(M16*10)) / 27))</f>
+        <v>7</v>
       </c>
       <c s="13" r="V16">
-        <f>(((((((((((C16*2)-(D16*3))+(E16*7))+(F16*3))+(G16*5))+(H16*10))+(I16*3))+(J16*0))+(K16*4))+(L16*5))+(M16*0))/30</f>
-        <v>-0.033333333333333</v>
+        <f>ROUND(((((((((((((C16*2)+(D16*4))+(E16*9))+(F16*3))-(G16*3))+(H16*10))-(I16*3))+(J16*3))+(K16*8))+(L16*5))+(M16*0)) / 38))</f>
+        <v>1</v>
       </c>
       <c s="14" r="W16">
         <f>SUM(P16:V16)</f>
-        <v>7.26666666666667</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -3324,16 +3324,16 @@
         <v>10</v>
       </c>
       <c s="8" r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="8" r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="8" r="G17">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c s="8" r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c s="8" r="I17">
         <v>0</v>
@@ -3342,50 +3342,50 @@
         <v>7</v>
       </c>
       <c s="8" r="K17">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c s="8" r="L17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c s="8" r="M17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <f>SUM(C17:M17)</f>
+        <v>20</v>
+      </c>
+      <c s="8" r="O17"/>
+      <c s="11" r="P17">
+        <f>ROUND(((((((((((((C17*5)+(D17*10))+(E17*2))+(F17*4))-(G17*7))+(H17*4))-(I17*4))+(J17*3))+(K17*10))+(L17*5))+(M17*0)) / 32))</f>
+        <v>6</v>
+      </c>
+      <c s="13" r="Q17">
+        <f>ROUND(((((((((((((C17*8)+(D17*10))+(E17*2))-(F17*4))-(G17*5))+(H17*2))-(I17*3))+(J17*5))+(K17*5))+(L17*2))+(M17*2)) / 24))</f>
         <v>7</v>
       </c>
-      <c s="8" r="O17"/>
-      <c s="13" r="P17">
-        <f>(((((((((((C17*5)+(D17*10))+(E17*5))-(F17*3))-(G17*3))+(H17*5))-(I17*3))+(J17*1))+(K17*10))+(L17*3))+(M17*0))/30</f>
-        <v>1.2</v>
-      </c>
-      <c s="13" r="Q17">
-        <f>(((((((((((C17*10)+(D17*10))+(E17*2))-(F17*3))-(G17*3))+(H17*1))-(I17*3))+(J17*5))+(K17*5))+(L17*2))+(M17*0))/30</f>
-        <v>2.53333333333333</v>
-      </c>
       <c s="13" r="R17">
-        <f>(((((((((((C17*0)+(D17*2))+(E17*10))+(F17*3))+(G17*3))+(H17*3))+(I17*3))+(J17*0))+(K17*0))+(L17*3))+(M17*3))/30</f>
-        <v>0.466666666666667</v>
+        <f>ROUND(((((((((((((C17*0)+(D17*3))+(E17*10))-(F17*3))+(G17*2))+(H17*4))+(I17*5))-(J17*3))-(K17*4))-(L17*2))+(M17*2)) / 14))</f>
+        <v>0</v>
       </c>
       <c s="13" r="S17">
-        <f>(((((((((((C17*0)+(D17*0))+(E17*7))+(F17*5))+(G17*7))+(H17*2))+(I17*10))+(J17*0))+(K17*5))+(L17*10))+(M17*0))/30</f>
-        <v>-1.7</v>
+        <f>ROUND(((((((((((((-C17*3)-(D17*5))+(E17*3))+(F17*1))+(G17*4))+(H17*2))+(I17*10))-(J17*3))+(K17*6))+(L17*8))+(M17*0)) / 23))</f>
+        <v>-2</v>
       </c>
       <c s="13" r="T17">
-        <f>(((((((((((C17*7)+(D17*7))+(E17*5))+(F17*5))+(G17*5))+(H17*3))+(I17*5))+(J17*2))+(K17*5))+(L17*5))+(M17*3))/30</f>
-        <v>0.933333333333333</v>
+        <f>ROUND(((((((((((((C17*5)+(D17*5))-(E17*3))+(F17*7))-(G17*2))+(H17*7))-(I17*3))+(J17*5))+(K17*8))+(L17*8))+(M17*1)) / 38))</f>
+        <v>4</v>
       </c>
       <c s="13" r="U17">
-        <f>(((((((((((-C17*2)-(D17*3))-(E17*5))+(F17*3))+(G17*5))+(H17*3))-(I17*5))+(J17*5))+(K17*0))+(L17*5))+(M17*10))/30</f>
-        <v>-0.166666666666667</v>
+        <f>ROUND(((((((((((((-C17*4)-(D17*2))+(E17*5))+(F17*5))+(G17*2))+(H17*2))-(I17*1))+(J17*7))+(K17*1))+(L17*2))+(M17*10)) / 27))</f>
+        <v>3</v>
       </c>
       <c s="13" r="V17">
-        <f>(((((((((((C17*2)-(D17*3))+(E17*7))+(F17*3))+(G17*5))+(H17*10))+(I17*3))+(J17*0))+(K17*4))+(L17*5))+(M17*0))/30</f>
-        <v>-2.4</v>
+        <f>ROUND(((((((((((((C17*2)+(D17*4))+(E17*9))+(F17*3))-(G17*3))+(H17*10))-(I17*3))+(J17*3))+(K17*8))+(L17*5))+(M17*0)) / 38))</f>
+        <v>4</v>
       </c>
       <c s="14" r="W17">
         <f>SUM(P17:V17)</f>
-        <v>0.866666666666667</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -3399,68 +3399,68 @@
         <v>0</v>
       </c>
       <c s="8" r="E18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="8" r="F18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c s="8" r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="8" r="H18">
         <v>0</v>
       </c>
       <c s="8" r="I18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c s="8" r="J18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c s="8" r="K18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c s="8" r="L18">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c s="8" r="M18">
         <v>0</v>
       </c>
       <c r="N18">
         <f>SUM(C18:M18)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c s="8" r="O18"/>
-      <c s="13" r="P18">
-        <f>(((((((((((C18*5)+(D18*10))+(E18*5))-(F18*3))-(G18*3))+(H18*5))-(I18*3))+(J18*1))+(K18*10))+(L18*3))+(M18*0))/30</f>
-        <v>-0.7</v>
+      <c s="11" r="P18">
+        <f>ROUND(((((((((((((C18*5)+(D18*10))+(E18*2))+(F18*4))-(G18*7))+(H18*4))-(I18*4))+(J18*3))+(K18*10))+(L18*5))+(M18*0)) / 32))</f>
+        <v>-2</v>
       </c>
       <c s="13" r="Q18">
-        <f>(((((((((((C18*10)+(D18*10))+(E18*2))-(F18*3))-(G18*3))+(H18*1))-(I18*3))+(J18*5))+(K18*5))+(L18*2))+(M18*0))/30</f>
-        <v>-1.13333333333333</v>
+        <f>ROUND(((((((((((((C18*8)+(D18*10))+(E18*2))-(F18*4))-(G18*5))+(H18*2))-(I18*3))+(J18*5))+(K18*5))+(L18*2))+(M18*2)) / 24))</f>
+        <v>-3</v>
       </c>
       <c s="13" r="R18">
-        <f>(((((((((((C18*0)+(D18*2))+(E18*10))+(F18*3))+(G18*3))+(H18*3))+(I18*3))+(J18*0))+(K18*0))+(L18*3))+(M18*3))/30</f>
-        <v>2.7</v>
+        <f>ROUND(((((((((((((C18*0)+(D18*3))+(E18*10))-(F18*3))+(G18*2))+(H18*4))+(I18*5))-(J18*3))-(K18*4))-(L18*2))+(M18*2)) / 14))</f>
+        <v>9</v>
       </c>
       <c s="13" r="S18">
-        <f>(((((((((((C18*0)+(D18*0))+(E18*7))+(F18*5))+(G18*7))+(H18*2))+(I18*10))+(J18*0))+(K18*5))+(L18*10))+(M18*0))/30</f>
-        <v>2.73333333333333</v>
+        <f>ROUND(((((((((((((-C18*3)-(D18*5))+(E18*3))+(F18*1))+(G18*4))+(H18*2))+(I18*10))-(J18*3))+(K18*6))+(L18*8))+(M18*0)) / 23))</f>
+        <v>2</v>
       </c>
       <c s="13" r="T18">
-        <f>(((((((((((C18*7)+(D18*7))+(E18*5))+(F18*5))+(G18*5))+(H18*3))+(I18*5))+(J18*2))+(K18*5))+(L18*5))+(M18*3))/30</f>
-        <v>2.16666666666667</v>
+        <f>ROUND(((((((((((((C18*5)+(D18*5))-(E18*3))+(F18*7))-(G18*2))+(H18*7))-(I18*3))+(J18*5))+(K18*8))+(L18*8))+(M18*1)) / 38))</f>
+        <v>-3</v>
       </c>
       <c s="13" r="U18">
-        <f>(((((((((((-C18*2)-(D18*3))-(E18*5))+(F18*3))+(G18*5))+(H18*3))-(I18*5))+(J18*5))+(K18*0))+(L18*5))+(M18*10))/30</f>
-        <v>-2.23333333333333</v>
+        <f>ROUND(((((((((((((-C18*4)-(D18*2))+(E18*5))+(F18*5))+(G18*2))+(H18*2))-(I18*1))+(J18*7))+(K18*1))+(L18*2))+(M18*10)) / 27))</f>
+        <v>1</v>
       </c>
       <c s="13" r="V18">
-        <f>(((((((((((C18*2)-(D18*3))+(E18*7))+(F18*3))+(G18*5))+(H18*10))+(I18*3))+(J18*0))+(K18*4))+(L18*5))+(M18*0))/30</f>
-        <v>1.76666666666667</v>
+        <f>ROUND(((((((((((((C18*2)+(D18*4))+(E18*9))+(F18*3))-(G18*3))+(H18*10))-(I18*3))+(J18*3))+(K18*8))+(L18*5))+(M18*0)) / 38))</f>
+        <v>0</v>
       </c>
       <c s="14" r="W18">
         <f>SUM(P18:V18)</f>
-        <v>5.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -3474,16 +3474,16 @@
         <v>4</v>
       </c>
       <c s="8" r="E19">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c s="8" r="F19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c s="8" r="G19">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c s="8" r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="8" r="I19">
         <v>4</v>
@@ -3495,47 +3495,47 @@
         <v>3</v>
       </c>
       <c s="8" r="L19">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c s="8" r="M19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <f>SUM(C19:M19)</f>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c s="8" r="O19"/>
-      <c s="13" r="P19">
-        <f>(((((((((((C19*5)+(D19*10))+(E19*5))-(F19*3))-(G19*3))+(H19*5))-(I19*3))+(J19*1))+(K19*10))+(L19*3))+(M19*0))/30</f>
-        <v>3.4</v>
+      <c s="11" r="P19">
+        <f>ROUND(((((((((((((C19*5)+(D19*10))+(E19*2))+(F19*4))-(G19*7))+(H19*4))-(I19*4))+(J19*3))+(K19*10))+(L19*5))+(M19*0)) / 32))</f>
+        <v>5</v>
       </c>
       <c s="13" r="Q19">
-        <f>(((((((((((C19*10)+(D19*10))+(E19*2))-(F19*3))-(G19*3))+(H19*1))-(I19*3))+(J19*5))+(K19*5))+(L19*2))+(M19*0))/30</f>
-        <v>4.23333333333333</v>
+        <f>ROUND(((((((((((((C19*8)+(D19*10))+(E19*2))-(F19*4))-(G19*5))+(H19*2))-(I19*3))+(J19*5))+(K19*5))+(L19*2))+(M19*2)) / 24))</f>
+        <v>6</v>
       </c>
       <c s="13" r="R19">
-        <f>(((((((((((C19*0)+(D19*2))+(E19*10))+(F19*3))+(G19*3))+(H19*3))+(I19*3))+(J19*0))+(K19*0))+(L19*3))+(M19*3))/30</f>
-        <v>1.86666666666667</v>
+        <f>ROUND(((((((((((((C19*0)+(D19*3))+(E19*10))-(F19*3))+(G19*2))+(H19*4))+(I19*5))-(J19*3))-(K19*4))-(L19*2))+(M19*2)) / 14))</f>
+        <v>-3</v>
       </c>
       <c s="13" r="S19">
-        <f>(((((((((((C19*0)+(D19*0))+(E19*7))+(F19*5))+(G19*7))+(H19*2))+(I19*10))+(J19*0))+(K19*5))+(L19*10))+(M19*0))/30</f>
-        <v>2.06666666666667</v>
+        <f>ROUND(((((((((((((-C19*3)-(D19*5))+(E19*3))+(F19*1))+(G19*4))+(H19*2))+(I19*10))-(J19*3))+(K19*6))+(L19*8))+(M19*0)) / 23))</f>
+        <v>-3</v>
       </c>
       <c s="13" r="T19">
-        <f>(((((((((((C19*7)+(D19*7))+(E19*5))+(F19*5))+(G19*5))+(H19*3))+(I19*5))+(J19*2))+(K19*5))+(L19*5))+(M19*3))/30</f>
-        <v>3.86666666666667</v>
+        <f>ROUND(((((((((((((C19*5)+(D19*5))-(E19*3))+(F19*7))-(G19*2))+(H19*7))-(I19*3))+(J19*5))+(K19*8))+(L19*8))+(M19*1)) / 38))</f>
+        <v>3</v>
       </c>
       <c s="13" r="U19">
-        <f>(((((((((((-C19*2)-(D19*3))-(E19*5))+(F19*3))+(G19*5))+(H19*3))-(I19*5))+(J19*5))+(K19*0))+(L19*5))+(M19*10))/30</f>
-        <v>0.466666666666667</v>
+        <f>ROUND(((((((((((((-C19*4)-(D19*2))+(E19*5))+(F19*5))+(G19*2))+(H19*2))-(I19*1))+(J19*7))+(K19*1))+(L19*2))+(M19*10)) / 27))</f>
+        <v>2</v>
       </c>
       <c s="13" r="V19">
-        <f>(((((((((((C19*2)-(D19*3))+(E19*7))+(F19*3))+(G19*5))+(H19*10))+(I19*3))+(J19*0))+(K19*4))+(L19*5))+(M19*0))/30</f>
-        <v>0.733333333333333</v>
+        <f>ROUND(((((((((((((C19*2)+(D19*4))+(E19*9))+(F19*3))-(G19*3))+(H19*10))-(I19*3))+(J19*3))+(K19*8))+(L19*5))+(M19*0)) / 38))</f>
+        <v>2</v>
       </c>
       <c s="14" r="W19">
         <f>SUM(P19:V19)</f>
-        <v>16.6333333333333</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -3546,71 +3546,71 @@
         <v>1</v>
       </c>
       <c s="8" r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="8" r="E20">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c s="8" r="F20">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c s="8" r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="8" r="H20">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c s="8" r="I20">
         <v>10</v>
       </c>
       <c s="8" r="J20">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c s="8" r="K20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c s="8" r="L20">
         <v>7</v>
       </c>
       <c s="8" r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <f>SUM(C20:M20)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c s="8" r="O20"/>
-      <c s="13" r="P20">
-        <f>(((((((((((C20*5)+(D20*10))+(E20*5))-(F20*3))-(G20*3))+(H20*5))-(I20*3))+(J20*1))+(K20*10))+(L20*3))+(M20*0))/30</f>
-        <v>0.6</v>
+      <c s="11" r="P20">
+        <f>ROUND(((((((((((((C20*5)+(D20*10))+(E20*2))+(F20*4))-(G20*7))+(H20*4))-(I20*4))+(J20*3))+(K20*10))+(L20*5))+(M20*0)) / 32))</f>
+        <v>1</v>
       </c>
       <c s="13" r="Q20">
-        <f>(((((((((((C20*10)+(D20*10))+(E20*2))-(F20*3))-(G20*3))+(H20*1))-(I20*3))+(J20*5))+(K20*5))+(L20*2))+(M20*0))/30</f>
-        <v>0.933333333333333</v>
+        <f>ROUND(((((((((((((C20*8)+(D20*10))+(E20*2))-(F20*4))-(G20*5))+(H20*2))-(I20*3))+(J20*5))+(K20*5))+(L20*2))+(M20*2)) / 24))</f>
+        <v>1</v>
       </c>
       <c s="13" r="R20">
-        <f>(((((((((((C20*0)+(D20*2))+(E20*10))+(F20*3))+(G20*3))+(H20*3))+(I20*3))+(J20*0))+(K20*0))+(L20*3))+(M20*3))/30</f>
-        <v>-0.133333333333333</v>
+        <f>ROUND(((((((((((((C20*0)+(D20*3))+(E20*10))-(F20*3))+(G20*2))+(H20*4))+(I20*5))-(J20*3))-(K20*4))-(L20*2))+(M20*2)) / 14))</f>
+        <v>6</v>
       </c>
       <c s="13" r="S20">
-        <f>(((((((((((C20*0)+(D20*0))+(E20*7))+(F20*5))+(G20*7))+(H20*2))+(I20*10))+(J20*0))+(K20*5))+(L20*10))+(M20*0))/30</f>
-        <v>5.76666666666667</v>
+        <f>ROUND(((((((((((((-C20*3)-(D20*5))+(E20*3))+(F20*1))+(G20*4))+(H20*2))+(I20*10))-(J20*3))+(K20*6))+(L20*8))+(M20*0)) / 23))</f>
+        <v>9</v>
       </c>
       <c s="13" r="T20">
-        <f>(((((((((((C20*7)+(D20*7))+(E20*5))+(F20*5))+(G20*5))+(H20*3))+(I20*5))+(J20*2))+(K20*5))+(L20*5))+(M20*3))/30</f>
-        <v>4.2</v>
+        <f>ROUND(((((((((((((C20*5)+(D20*5))-(E20*3))+(F20*7))-(G20*2))+(H20*7))-(I20*3))+(J20*5))+(K20*8))+(L20*8))+(M20*1)) / 38))</f>
+        <v>1</v>
       </c>
       <c s="13" r="U20">
-        <f>(((((((((((-C20*2)-(D20*3))-(E20*5))+(F20*3))+(G20*5))+(H20*3))-(I20*5))+(J20*5))+(K20*0))+(L20*5))+(M20*10))/30</f>
-        <v>1.13333333333333</v>
+        <f>ROUND(((((((((((((-C20*4)-(D20*2))+(E20*5))+(F20*5))+(G20*2))+(H20*2))-(I20*1))+(J20*7))+(K20*1))+(L20*2))+(M20*10)) / 27))</f>
+        <v>0</v>
       </c>
       <c s="13" r="V20">
-        <f>(((((((((((C20*2)-(D20*3))+(E20*7))+(F20*3))+(G20*5))+(H20*10))+(I20*3))+(J20*0))+(K20*4))+(L20*5))+(M20*0))/30</f>
-        <v>1</v>
+        <f>ROUND(((((((((((((C20*2)+(D20*4))+(E20*9))+(F20*3))-(G20*3))+(H20*10))-(I20*3))+(J20*3))+(K20*8))+(L20*5))+(M20*0)) / 38))</f>
+        <v>2</v>
       </c>
       <c s="14" r="W20">
         <f>SUM(P20:V20)</f>
-        <v>13.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -3630,62 +3630,62 @@
         <v>-4</v>
       </c>
       <c s="8" r="G21">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c s="8" r="H21">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c s="8" r="I21">
         <v>6</v>
       </c>
       <c s="8" r="J21">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c s="8" r="K21">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c s="8" r="L21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="8" r="M21">
         <v>0</v>
       </c>
       <c r="N21">
         <f>SUM(C21:M21)</f>
+        <v>-12</v>
+      </c>
+      <c s="8" r="O21"/>
+      <c s="11" r="P21">
+        <f>ROUND(((((((((((((C21*5)+(D21*10))+(E21*2))+(F21*4))-(G21*7))+(H21*4))-(I21*4))+(J21*3))+(K21*10))+(L21*5))+(M21*0)) / 32))</f>
+        <v>-4</v>
+      </c>
+      <c s="13" r="Q21">
+        <f>ROUND(((((((((((((C21*8)+(D21*10))+(E21*2))-(F21*4))-(G21*5))+(H21*2))-(I21*3))+(J21*5))+(K21*5))+(L21*2))+(M21*2)) / 24))</f>
+        <v>-4</v>
+      </c>
+      <c s="13" r="R21">
+        <f>ROUND(((((((((((((C21*0)+(D21*3))+(E21*10))-(F21*3))+(G21*2))+(H21*4))+(I21*5))-(J21*3))-(K21*4))-(L21*2))+(M21*2)) / 14))</f>
+        <v>2</v>
+      </c>
+      <c s="13" r="S21">
+        <f>ROUND(((((((((((((-C21*3)-(D21*5))+(E21*3))+(F21*1))+(G21*4))+(H21*2))+(I21*10))-(J21*3))+(K21*6))+(L21*8))+(M21*0)) / 23))</f>
         <v>4</v>
       </c>
-      <c s="8" r="O21"/>
-      <c s="13" r="P21">
-        <f>(((((((((((C21*5)+(D21*10))+(E21*5))-(F21*3))-(G21*3))+(H21*5))-(I21*3))+(J21*1))+(K21*10))+(L21*3))+(M21*0))/30</f>
-        <v>1</v>
-      </c>
-      <c s="13" r="Q21">
-        <f>(((((((((((C21*10)+(D21*10))+(E21*2))-(F21*3))-(G21*3))+(H21*1))-(I21*3))+(J21*5))+(K21*5))+(L21*2))+(M21*0))/30</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c s="13" r="R21">
-        <f>(((((((((((C21*0)+(D21*2))+(E21*10))+(F21*3))+(G21*3))+(H21*3))+(I21*3))+(J21*0))+(K21*0))+(L21*3))+(M21*3))/30</f>
-        <v>-0.833333333333333</v>
-      </c>
-      <c s="13" r="S21">
-        <f>(((((((((((C21*0)+(D21*0))+(E21*7))+(F21*5))+(G21*7))+(H21*2))+(I21*10))+(J21*0))+(K21*5))+(L21*10))+(M21*0))/30</f>
-        <v>2.16666666666667</v>
-      </c>
       <c s="13" r="T21">
-        <f>(((((((((((C21*7)+(D21*7))+(E21*5))+(F21*5))+(G21*5))+(H21*3))+(I21*5))+(J21*2))+(K21*5))+(L21*5))+(M21*3))/30</f>
-        <v>0.366666666666667</v>
+        <f>ROUND(((((((((((((C21*5)+(D21*5))-(E21*3))+(F21*7))-(G21*2))+(H21*7))-(I21*3))+(J21*5))+(K21*8))+(L21*8))+(M21*1)) / 38))</f>
+        <v>-3</v>
       </c>
       <c s="13" r="U21">
-        <f>(((((((((((-C21*2)-(D21*3))-(E21*5))+(F21*3))+(G21*5))+(H21*3))-(I21*5))+(J21*5))+(K21*0))+(L21*5))+(M21*10))/30</f>
-        <v>-0.3</v>
+        <f>ROUND(((((((((((((-C21*4)-(D21*2))+(E21*5))+(F21*5))+(G21*2))+(H21*2))-(I21*1))+(J21*7))+(K21*1))+(L21*2))+(M21*10)) / 27))</f>
+        <v>-3</v>
       </c>
       <c s="13" r="V21">
-        <f>(((((((((((C21*2)-(D21*3))+(E21*7))+(F21*3))+(G21*5))+(H21*10))+(I21*3))+(J21*0))+(K21*4))+(L21*5))+(M21*0))/30</f>
-        <v>0.6</v>
+        <f>ROUND(((((((((((((C21*2)+(D21*4))+(E21*9))+(F21*3))-(G21*3))+(H21*10))-(I21*3))+(J21*3))+(K21*8))+(L21*5))+(M21*0)) / 38))</f>
+        <v>-3</v>
       </c>
       <c s="14" r="W21">
         <f>SUM(P21:V21)</f>
-        <v>3.16666666666667</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="22">
@@ -3699,68 +3699,68 @@
         <v>-4</v>
       </c>
       <c s="8" r="E22">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c s="8" r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="8" r="G22">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c s="8" r="H22">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c s="8" r="I22">
         <v>10</v>
       </c>
       <c s="8" r="J22">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c s="8" r="K22">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c s="8" r="L22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="8" r="M22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N22">
         <f>SUM(C22:M22)</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c s="8" r="O22"/>
-      <c s="13" r="P22">
-        <f>(((((((((((C22*5)+(D22*10))+(E22*5))-(F22*3))-(G22*3))+(H22*5))-(I22*3))+(J22*1))+(K22*10))+(L22*3))+(M22*0))/30</f>
-        <v>-5.73333333333333</v>
+      <c s="11" r="P22">
+        <f>ROUND(((((((((((((C22*5)+(D22*10))+(E22*2))+(F22*4))-(G22*7))+(H22*4))-(I22*4))+(J22*3))+(K22*10))+(L22*5))+(M22*0)) / 32))</f>
+        <v>0</v>
       </c>
       <c s="13" r="Q22">
-        <f>(((((((((((C22*10)+(D22*10))+(E22*2))-(F22*3))-(G22*3))+(H22*1))-(I22*3))+(J22*5))+(K22*5))+(L22*2))+(M22*0))/30</f>
-        <v>-5.2</v>
+        <f>ROUND(((((((((((((C22*8)+(D22*10))+(E22*2))-(F22*4))-(G22*5))+(H22*2))-(I22*3))+(J22*5))+(K22*5))+(L22*2))+(M22*2)) / 24))</f>
+        <v>-5</v>
       </c>
       <c s="13" r="R22">
-        <f>(((((((((((C22*0)+(D22*2))+(E22*10))+(F22*3))+(G22*3))+(H22*3))+(I22*3))+(J22*0))+(K22*0))+(L22*3))+(M22*3))/30</f>
-        <v>-0.066666666666667</v>
+        <f>ROUND(((((((((((((C22*0)+(D22*3))+(E22*10))-(F22*3))+(G22*2))+(H22*4))+(I22*5))-(J22*3))-(K22*4))-(L22*2))+(M22*2)) / 14))</f>
+        <v>-3</v>
       </c>
       <c s="13" r="S22">
-        <f>(((((((((((C22*0)+(D22*0))+(E22*7))+(F22*5))+(G22*7))+(H22*2))+(I22*10))+(J22*0))+(K22*5))+(L22*10))+(M22*0))/30</f>
-        <v>4.43333333333333</v>
+        <f>ROUND(((((((((((((-C22*3)-(D22*5))+(E22*3))+(F22*1))+(G22*4))+(H22*2))+(I22*10))-(J22*3))+(K22*6))+(L22*8))+(M22*0)) / 23))</f>
+        <v>10</v>
       </c>
       <c s="13" r="T22">
-        <f>(((((((((((C22*7)+(D22*7))+(E22*5))+(F22*5))+(G22*5))+(H22*3))+(I22*5))+(J22*2))+(K22*5))+(L22*5))+(M22*3))/30</f>
-        <v>-0.833333333333333</v>
+        <f>ROUND(((((((((((((C22*5)+(D22*5))-(E22*3))+(F22*7))-(G22*2))+(H22*7))-(I22*3))+(J22*5))+(K22*8))+(L22*8))+(M22*1)) / 38))</f>
+        <v>1</v>
       </c>
       <c s="13" r="U22">
-        <f>(((((((((((-C22*2)-(D22*3))-(E22*5))+(F22*3))+(G22*5))+(H22*3))-(I22*5))+(J22*5))+(K22*0))+(L22*5))+(M22*10))/30</f>
-        <v>0.166666666666667</v>
+        <f>ROUND(((((((((((((-C22*4)-(D22*2))+(E22*5))+(F22*5))+(G22*2))+(H22*2))-(I22*1))+(J22*7))+(K22*1))+(L22*2))+(M22*10)) / 27))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="V22">
-        <f>(((((((((((C22*2)-(D22*3))+(E22*7))+(F22*3))+(G22*5))+(H22*10))+(I22*3))+(J22*0))+(K22*4))+(L22*5))+(M22*0))/30</f>
-        <v>-0.366666666666667</v>
+        <f>ROUND(((((((((((((C22*2)+(D22*4))+(E22*9))+(F22*3))-(G22*3))+(H22*10))-(I22*3))+(J22*3))+(K22*8))+(L22*5))+(M22*0)) / 38))</f>
+        <v>0</v>
       </c>
       <c s="14" r="W22">
         <f>SUM(P22:V22)</f>
-        <v>-7.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -3774,68 +3774,68 @@
         <v>0</v>
       </c>
       <c s="8" r="E23">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c s="8" r="F23">
         <v>10</v>
       </c>
       <c s="8" r="G23">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c s="8" r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c s="8" r="I23">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c s="8" r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="8" r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="8" r="L23">
         <v>10</v>
       </c>
       <c s="8" r="M23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N23">
         <f>SUM(C23:M23)</f>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c s="8" r="O23"/>
-      <c s="13" r="P23">
-        <f>(((((((((((C23*5)+(D23*10))+(E23*5))-(F23*3))-(G23*3))+(H23*5))-(I23*3))+(J23*1))+(K23*10))+(L23*3))+(M23*0))/30</f>
-        <v>0.3</v>
+      <c s="11" r="P23">
+        <f>ROUND(((((((((((((C23*5)+(D23*10))+(E23*2))+(F23*4))-(G23*7))+(H23*4))-(I23*4))+(J23*3))+(K23*10))+(L23*5))+(M23*0)) / 32))</f>
+        <v>6</v>
       </c>
       <c s="13" r="Q23">
-        <f>(((((((((((C23*10)+(D23*10))+(E23*2))-(F23*3))-(G23*3))+(H23*1))-(I23*3))+(J23*5))+(K23*5))+(L23*2))+(M23*0))/30</f>
-        <v>-0.233333333333333</v>
+        <f>ROUND(((((((((((((C23*8)+(D23*10))+(E23*2))-(F23*4))-(G23*5))+(H23*2))-(I23*3))+(J23*5))+(K23*5))+(L23*2))+(M23*2)) / 24))</f>
+        <v>1</v>
       </c>
       <c s="13" r="R23">
-        <f>(((((((((((C23*0)+(D23*2))+(E23*10))+(F23*3))+(G23*3))+(H23*3))+(I23*3))+(J23*0))+(K23*0))+(L23*3))+(M23*3))/30</f>
-        <v>2.4</v>
+        <f>ROUND(((((((((((((C23*0)+(D23*3))+(E23*10))-(F23*3))+(G23*2))+(H23*4))+(I23*5))-(J23*3))-(K23*4))-(L23*2))+(M23*2)) / 14))</f>
+        <v>-8</v>
       </c>
       <c s="13" r="S23">
-        <f>(((((((((((C23*0)+(D23*0))+(E23*7))+(F23*5))+(G23*7))+(H23*2))+(I23*10))+(J23*0))+(K23*5))+(L23*10))+(M23*0))/30</f>
-        <v>6.36666666666667</v>
+        <f>ROUND(((((((((((((-C23*3)-(D23*5))+(E23*3))+(F23*1))+(G23*4))+(H23*2))+(I23*10))-(J23*3))+(K23*6))+(L23*8))+(M23*0)) / 23))</f>
+        <v>3</v>
       </c>
       <c s="13" r="T23">
-        <f>(((((((((((C23*7)+(D23*7))+(E23*5))+(F23*5))+(G23*5))+(H23*3))+(I23*5))+(J23*2))+(K23*5))+(L23*5))+(M23*3))/30</f>
-        <v>4.4</v>
+        <f>ROUND(((((((((((((C23*5)+(D23*5))-(E23*3))+(F23*7))-(G23*2))+(H23*7))-(I23*3))+(J23*5))+(K23*8))+(L23*8))+(M23*1)) / 38))</f>
+        <v>6</v>
       </c>
       <c s="13" r="U23">
-        <f>(((((((((((-C23*2)-(D23*3))-(E23*5))+(F23*3))+(G23*5))+(H23*3))-(I23*5))+(J23*5))+(K23*0))+(L23*5))+(M23*10))/30</f>
-        <v>3.16666666666667</v>
+        <f>ROUND(((((((((((((-C23*4)-(D23*2))+(E23*5))+(F23*5))+(G23*2))+(H23*2))-(I23*1))+(J23*7))+(K23*1))+(L23*2))+(M23*10)) / 27))</f>
+        <v>1</v>
       </c>
       <c s="13" r="V23">
-        <f>(((((((((((C23*2)-(D23*3))+(E23*7))+(F23*3))+(G23*5))+(H23*10))+(I23*3))+(J23*0))+(K23*4))+(L23*5))+(M23*0))/30</f>
-        <v>3.53333333333333</v>
+        <f>ROUND(((((((((((((C23*2)+(D23*4))+(E23*9))+(F23*3))-(G23*3))+(H23*10))-(I23*3))+(J23*3))+(K23*8))+(L23*5))+(M23*0)) / 38))</f>
+        <v>3</v>
       </c>
       <c s="14" r="W23">
         <f>SUM(P23:V23)</f>
-        <v>19.9333333333333</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -3849,68 +3849,68 @@
         <v>10</v>
       </c>
       <c s="8" r="E24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c s="8" r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="8" r="G24">
         <v>0</v>
       </c>
       <c s="8" r="H24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c s="8" r="I24">
         <v>0</v>
       </c>
       <c s="8" r="J24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="8" r="K24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="8" r="L24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c s="8" r="M24">
         <v>0</v>
       </c>
       <c r="N24">
         <f>SUM(C24:M24)</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c s="8" r="O24"/>
-      <c s="13" r="P24">
-        <f>(((((((((((C24*5)+(D24*10))+(E24*5))-(F24*3))-(G24*3))+(H24*5))-(I24*3))+(J24*1))+(K24*10))+(L24*3))+(M24*0))/30</f>
-        <v>5.4</v>
+      <c s="11" r="P24">
+        <f>ROUND(((((((((((((C24*5)+(D24*10))+(E24*2))+(F24*4))-(G24*7))+(H24*4))-(I24*4))+(J24*3))+(K24*10))+(L24*5))+(M24*0)) / 32))</f>
+        <v>5</v>
       </c>
       <c s="13" r="Q24">
-        <f>(((((((((((C24*10)+(D24*10))+(E24*2))-(F24*3))-(G24*3))+(H24*1))-(I24*3))+(J24*5))+(K24*5))+(L24*2))+(M24*0))/30</f>
-        <v>3.66666666666667</v>
+        <f>ROUND(((((((((((((C24*8)+(D24*10))+(E24*2))-(F24*4))-(G24*5))+(H24*2))-(I24*3))+(J24*5))+(K24*5))+(L24*2))+(M24*2)) / 24))</f>
+        <v>4</v>
       </c>
       <c s="13" r="R24">
-        <f>(((((((((((C24*0)+(D24*2))+(E24*10))+(F24*3))+(G24*3))+(H24*3))+(I24*3))+(J24*0))+(K24*0))+(L24*3))+(M24*3))/30</f>
-        <v>2.06666666666667</v>
+        <f>ROUND(((((((((((((C24*0)+(D24*3))+(E24*10))-(F24*3))+(G24*2))+(H24*4))+(I24*5))-(J24*3))-(K24*4))-(L24*2))+(M24*2)) / 14))</f>
+        <v>1</v>
       </c>
       <c s="13" r="S24">
-        <f>(((((((((((C24*0)+(D24*0))+(E24*7))+(F24*5))+(G24*7))+(H24*2))+(I24*10))+(J24*0))+(K24*5))+(L24*10))+(M24*0))/30</f>
-        <v>2.53333333333333</v>
+        <f>ROUND(((((((((((((-C24*3)-(D24*5))+(E24*3))+(F24*1))+(G24*4))+(H24*2))+(I24*10))-(J24*3))+(K24*6))+(L24*8))+(M24*0)) / 23))</f>
+        <v>0</v>
       </c>
       <c s="13" r="T24">
-        <f>(((((((((((C24*7)+(D24*7))+(E24*5))+(F24*5))+(G24*5))+(H24*3))+(I24*5))+(J24*2))+(K24*5))+(L24*5))+(M24*3))/30</f>
-        <v>4.3</v>
+        <f>ROUND(((((((((((((C24*5)+(D24*5))-(E24*3))+(F24*7))-(G24*2))+(H24*7))-(I24*3))+(J24*5))+(K24*8))+(L24*8))+(M24*1)) / 38))</f>
+        <v>4</v>
       </c>
       <c s="13" r="U24">
-        <f>(((((((((((-C24*2)-(D24*3))-(E24*5))+(F24*3))+(G24*5))+(H24*3))-(I24*5))+(J24*5))+(K24*0))+(L24*5))+(M24*10))/30</f>
-        <v>1.06666666666667</v>
+        <f>ROUND(((((((((((((-C24*4)-(D24*2))+(E24*5))+(F24*5))+(G24*2))+(H24*2))-(I24*1))+(J24*7))+(K24*1))+(L24*2))+(M24*10)) / 27))</f>
+        <v>1</v>
       </c>
       <c s="13" r="V24">
-        <f>(((((((((((C24*2)-(D24*3))+(E24*7))+(F24*3))+(G24*5))+(H24*10))+(I24*3))+(J24*0))+(K24*4))+(L24*5))+(M24*0))/30</f>
-        <v>2.73333333333333</v>
+        <f>ROUND(((((((((((((C24*2)+(D24*4))+(E24*9))+(F24*3))-(G24*3))+(H24*10))-(I24*3))+(J24*3))+(K24*8))+(L24*5))+(M24*0)) / 38))</f>
+        <v>3</v>
       </c>
       <c s="14" r="W24">
         <f>SUM(P24:V24)</f>
-        <v>21.7666666666667</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c s="8" r="F25">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c s="8" r="G25">
         <v>0</v>
@@ -3952,76 +3952,76 @@
       </c>
       <c r="N25">
         <f>SUM(C25:M25)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c s="8" r="O25"/>
-      <c s="13" r="P25">
-        <f>(((((((((((C25*5)+(D25*10))+(E25*5))-(F25*3))-(G25*3))+(H25*5))-(I25*3))+(J25*1))+(K25*10))+(L25*3))+(M25*0))/30</f>
-        <v>3.83333333333333</v>
+      <c s="11" r="P25">
+        <f>ROUND(((((((((((((C25*5)+(D25*10))+(E25*2))+(F25*4))-(G25*7))+(H25*4))-(I25*4))+(J25*3))+(K25*10))+(L25*5))+(M25*0)) / 32))</f>
+        <v>3</v>
       </c>
       <c s="13" r="Q25">
-        <f>(((((((((((C25*10)+(D25*10))+(E25*2))-(F25*3))-(G25*3))+(H25*1))-(I25*3))+(J25*5))+(K25*5))+(L25*2))+(M25*0))/30</f>
-        <v>3.83333333333333</v>
+        <f>ROUND(((((((((((((C25*8)+(D25*10))+(E25*2))-(F25*4))-(G25*5))+(H25*2))-(I25*3))+(J25*5))+(K25*5))+(L25*2))+(M25*2)) / 24))</f>
+        <v>5</v>
       </c>
       <c s="13" r="R25">
-        <f>(((((((((((C25*0)+(D25*2))+(E25*10))+(F25*3))+(G25*3))+(H25*3))+(I25*3))+(J25*0))+(K25*0))+(L25*3))+(M25*3))/30</f>
-        <v>0.966666666666667</v>
+        <f>ROUND(((((((((((((C25*0)+(D25*3))+(E25*10))-(F25*3))+(G25*2))+(H25*4))+(I25*5))-(J25*3))-(K25*4))-(L25*2))+(M25*2)) / 14))</f>
+        <v>4</v>
       </c>
       <c s="13" r="S25">
-        <f>(((((((((((C25*0)+(D25*0))+(E25*7))+(F25*5))+(G25*7))+(H25*2))+(I25*10))+(J25*0))+(K25*5))+(L25*10))+(M25*0))/30</f>
-        <v>0.2</v>
+        <f>ROUND(((((((((((((-C25*3)-(D25*5))+(E25*3))+(F25*1))+(G25*4))+(H25*2))+(I25*10))-(J25*3))+(K25*6))+(L25*8))+(M25*0)) / 23))</f>
+        <v>-1</v>
       </c>
       <c s="13" r="T25">
-        <f>(((((((((((C25*7)+(D25*7))+(E25*5))+(F25*5))+(G25*5))+(H25*3))+(I25*5))+(J25*2))+(K25*5))+(L25*5))+(M25*3))/30</f>
-        <v>3.46666666666667</v>
+        <f>ROUND(((((((((((((C25*5)+(D25*5))-(E25*3))+(F25*7))-(G25*2))+(H25*7))-(I25*3))+(J25*5))+(K25*8))+(L25*8))+(M25*1)) / 38))</f>
+        <v>2</v>
       </c>
       <c s="13" r="U25">
-        <f>(((((((((((-C25*2)-(D25*3))-(E25*5))+(F25*3))+(G25*5))+(H25*3))-(I25*5))+(J25*5))+(K25*0))+(L25*5))+(M25*10))/30</f>
-        <v>-1.23333333333333</v>
+        <f>ROUND(((((((((((((-C25*4)-(D25*2))+(E25*5))+(F25*5))+(G25*2))+(H25*2))-(I25*1))+(J25*7))+(K25*1))+(L25*2))+(M25*10)) / 27))</f>
+        <v>-2</v>
       </c>
       <c s="13" r="V25">
-        <f>(((((((((((C25*2)-(D25*3))+(E25*7))+(F25*3))+(G25*5))+(H25*10))+(I25*3))+(J25*0))+(K25*4))+(L25*5))+(M25*0))/30</f>
-        <v>2.9</v>
+        <f>ROUND(((((((((((((C25*2)+(D25*4))+(E25*9))+(F25*3))-(G25*3))+(H25*10))-(I25*3))+(J25*3))+(K25*8))+(L25*5))+(M25*0)) / 38))</f>
+        <v>2</v>
       </c>
       <c s="14" r="W25">
         <f>SUM(P25:V25)</f>
-        <v>13.9666666666667</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c s="8" r="P26">
         <f>SUM(P4:P25)</f>
-        <v>30.6666666666667</v>
+        <v>49</v>
       </c>
       <c s="8" r="Q26">
         <f>SUM(Q4:Q25)</f>
-        <v>29.5666666666667</v>
+        <v>43</v>
       </c>
       <c s="8" r="R26">
         <f>SUM(R4:R25)</f>
-        <v>13.9666666666667</v>
+        <v>11</v>
       </c>
       <c s="8" r="S26">
         <f>SUM(S4:S25)</f>
-        <v>46.2</v>
+        <v>40</v>
       </c>
       <c s="8" r="T26">
         <f>SUM(T4:T25)</f>
-        <v>49.4666666666667</v>
+        <v>38</v>
       </c>
       <c s="8" r="U26">
         <f>SUM(U4:U25)</f>
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c s="8" r="V26">
         <f>SUM(V4:V25)</f>
-        <v>21.5333333333333</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c s="8" r="B27">
         <f>SUM(P26:V26)</f>
-        <v>191.7</v>
+        <v>218</v>
       </c>
       <c s="8" r="C27"/>
       <c s="8" r="D27"/>
@@ -4038,31 +4038,31 @@
       <c s="8" r="O27"/>
       <c s="12" r="P27">
         <f>P26/167</f>
-        <v>0.183632734530938</v>
+        <v>0.293413173652695</v>
       </c>
       <c s="12" r="Q27">
         <f>Q26/167</f>
-        <v>0.177045908183633</v>
+        <v>0.25748502994012</v>
       </c>
       <c s="12" r="R27">
         <f>R26/167</f>
-        <v>0.083632734530938</v>
+        <v>0.065868263473054</v>
       </c>
       <c s="12" r="S27">
         <f>S26/167</f>
-        <v>0.276646706586826</v>
+        <v>0.239520958083832</v>
       </c>
       <c s="12" r="T27">
         <f>T26/167</f>
-        <v>0.296207584830339</v>
+        <v>0.227544910179641</v>
       </c>
       <c s="12" r="U27">
         <f>U26/167</f>
-        <v>0.001796407185629</v>
+        <v>0.017964071856287</v>
       </c>
       <c s="12" r="V27">
         <f>V26/167</f>
-        <v>0.128942115768463</v>
+        <v>0.203592814371257</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Professions.xlsx
+++ b/docs/Professions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>nature</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>влияние на параметры городов</t>
+  </si>
+  <si>
+    <t>делим на 10, т.к. Максимальное значение – 10 (т.е. Нормируем)</t>
   </si>
   <si>
     <t>ресурс</t>
@@ -197,13 +200,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="0.0" numFmtId="165"/>
     <numFmt formatCode="0;\-0" numFmtId="166"/>
     <numFmt formatCode="#,##0.00" numFmtId="167"/>
-    <numFmt formatCode="GENERAL" numFmtId="168"/>
-    <numFmt formatCode="#,##0" numFmtId="169"/>
+    <numFmt formatCode="#,##0" numFmtId="168"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -295,7 +297,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -340,19 +342,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="169" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="168" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -376,7 +374,7 @@
   <dimension ref="B2:L26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J12" activeCellId="0" pane="topLeft" sqref="12:12"/>
+      <selection activeCell="J12" activeCellId="0" pane="topLeft" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1401,7 +1399,7 @@
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="12:12 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2179,8 +2177,8 @@
   </sheetPr>
   <dimension ref="B1:AH27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="T1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="12:12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="H1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="AB3" activeCellId="0" pane="topLeft" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2227,40 +2225,43 @@
       <c r="Y1" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="AD1" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>39</v>
@@ -2290,34 +2291,31 @@
         <v>39</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="AD2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -2354,77 +2352,73 @@
       <c r="M3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N3" s="11" t="n">
+      <c r="N3" s="0" t="n">
         <f aca="false">SUM(C3:M3)</f>
         <v>11</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="11" t="n">
         <f aca="false">(((((((((((C3*5)+(D3*10))+(E3*2))+(F3*4))-(G3*7))+(H3*4))-(I3*4))+(J3*3))+(K3*10))+(L3*5))+(M3*0))</f>
         <v>32</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="12" t="n">
         <f aca="false">(((((((((((C3*8)+(D3*10))+(E3*2))-(F3*4))-(G3*5))+(H3*2))-(I3*3))+(J3*5))+(K3*5))+(L3*2))+(M3*2))</f>
         <v>24</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="12" t="n">
         <f aca="false">(((((((((((C3*0)+(D3*3))+(E3*10))-(F3*3))+(G3*2))+(H3*4))+(I3*5))-(J3*3))-(K3*4))-(L3*2))+(M3*2))</f>
         <v>14</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="12" t="n">
         <f aca="false">(((((((((((-C3*3)-(D3*5))+(E3*3))+(F3*1))+(G3*4))+(H3*2))+(I3*10))-(J3*3))+(K3*6))+(L3*8))+(M3*0))</f>
         <v>23</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="12" t="n">
         <f aca="false">(((((((((((C3*5)+(D3*5))-(E3*3))+(F3*7))-(G3*2))+(H3*7))-(I3*3))+(J3*5))+(K3*8))+(L3*8))+(M3*1))</f>
         <v>38</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="12" t="n">
         <f aca="false">(((((((((((-C3*4)-(D3*2))+(E3*5))+(F3*5))+(G3*2))+(H3*2))-(I3*1))+(J3*7))+(K3*1))+(L3*2))+(M3*10))</f>
         <v>27</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="12" t="n">
         <f aca="false">(((((((((((C3*2)+(D3*4))+(E3*9))+(F3*3))-(G3*3))+(H3*10))-(I3*3))+(J3*3))+(K3*8))+(L3*5))+(M3*0))</f>
         <v>38</v>
       </c>
-      <c r="Y3" s="11" t="n">
-        <f aca="false">C3+D3</f>
-        <v>2</v>
-      </c>
-      <c r="Z3" s="11" t="n">
-        <f aca="false">E3+G3+I3+M3</f>
-        <v>4</v>
-      </c>
-      <c r="AA3" s="11" t="n">
-        <f aca="false">F3+J3+K3+L3</f>
-        <v>4</v>
-      </c>
-      <c r="AB3" s="11" t="n">
-        <f aca="false">H3</f>
-        <v>1</v>
-      </c>
-      <c r="AC3" s="11" t="n">
-        <f aca="false">ABS(Y3)+ABS(Z3)+ABS(AA3)+ABS(AB3)</f>
-        <v>11</v>
-      </c>
-      <c r="AD3" s="11" t="n">
-        <f aca="false">ROUND(Y3/AC3, 2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="AE3" s="11" t="n">
-        <f aca="false">ROUND(Z3/AC3, 2)</f>
-        <v>0.36</v>
-      </c>
-      <c r="AF3" s="11" t="n">
-        <f aca="false">ROUND(AA3/AC3, 2)</f>
-        <v>0.36</v>
-      </c>
-      <c r="AG3" s="11" t="n">
-        <f aca="false">ROUND(AB3/AC3, 2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="AH3" s="11" t="n">
-        <f aca="false">ABS(AD3)+ABS(AE3)+ABS(AF3)+ABS(AG3)</f>
-        <v>0.99</v>
+      <c r="Y3" s="0" t="n">
+        <f aca="false">0.5*C3+0.5*D3</f>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <f aca="false">0.4*E3+0.1*G3+0.3*I3+0.2*M3</f>
+        <v>1</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <f aca="false">0.3*F3+0.2*J3+0.2*K3+0.3*L3</f>
+        <v>1</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <f aca="false">1*H3</f>
+        <v>1</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <f aca="false">ROUND(Y3/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <f aca="false">ROUND(Z3/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <f aca="false">ROUND(AA3/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <f aca="false">ROUND(AB3/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <f aca="false">AD3+AE3+AF3+AG3</f>
+        <v>0.4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -2464,82 +2458,78 @@
       <c r="M4" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="N4" s="0" t="n">
         <f aca="false">SUM(C4:M4)</f>
         <v>17</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C4*5)+(D4*10))+(E4*2))+(F4*4))-(G4*7))+(H4*4))-(I4*4))+(J4*3))+(K4*10))+(L4*5))+(M4*0)) / 32))</f>
         <v>5</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C4*8)+(D4*10))+(E4*2))-(F4*4))-(G4*5))+(H4*2))-(I4*3))+(J4*5))+(K4*5))+(L4*2))+(M4*2)) / 24))</f>
         <v>7</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="R4" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C4*0)+(D4*3))+(E4*10))-(F4*3))+(G4*2))+(H4*4))+(I4*5))-(J4*3))-(K4*4))-(L4*2))+(M4*2)) / 14))</f>
         <v>3</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C4*3)-(D4*5))+(E4*3))+(F4*1))+(G4*4))+(H4*2))+(I4*10))-(J4*3))+(K4*6))+(L4*8))+(M4*0)) / 23))</f>
         <v>-1</v>
       </c>
-      <c r="T4" s="13" t="n">
+      <c r="T4" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C4*5)+(D4*5))-(E4*3))+(F4*7))-(G4*2))+(H4*7))-(I4*3))+(J4*5))+(K4*8))+(L4*8))+(M4*1)) / 38))</f>
         <v>3</v>
       </c>
-      <c r="U4" s="13" t="n">
+      <c r="U4" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C4*4)-(D4*2))+(E4*5))+(F4*5))+(G4*2))+(H4*2))-(I4*1))+(J4*7))+(K4*1))+(L4*2))+(M4*10)) / 27))</f>
         <v>-2</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C4*2)+(D4*4))+(E4*9))+(F4*3))-(G4*3))+(H4*10))-(I4*3))+(J4*3))+(K4*8))+(L4*5))+(M4*0)) / 38))</f>
         <v>3</v>
       </c>
-      <c r="W4" s="14" t="n">
+      <c r="W4" s="13" t="n">
         <f aca="false">SUM(P4:V4)</f>
         <v>18</v>
       </c>
-      <c r="Y4" s="11" t="n">
-        <f aca="false">C4+D4</f>
-        <v>12</v>
-      </c>
-      <c r="Z4" s="11" t="n">
-        <f aca="false">E4+G4+I4+M4</f>
-        <v>-2</v>
-      </c>
-      <c r="AA4" s="11" t="n">
-        <f aca="false">F4+J4+K4+L4</f>
-        <v>3</v>
-      </c>
-      <c r="AB4" s="11" t="n">
-        <f aca="false">H4</f>
+      <c r="Y4" s="0" t="n">
+        <f aca="false">0.5*C4+0.5*D4</f>
+        <v>6</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <f aca="false">0.4*E4+0.1*G4+0.3*I4+0.2*M4</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <f aca="false">0.3*F4+0.2*J4+0.2*K4+0.3*L4</f>
+        <v>0.3</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <f aca="false">1*H4</f>
         <v>4</v>
       </c>
-      <c r="AC4" s="11" t="n">
-        <f aca="false">ABS(Y4)+ABS(Z4)+ABS(AA4)+ABS(AB4)</f>
-        <v>21</v>
-      </c>
-      <c r="AD4" s="11" t="n">
-        <f aca="false">ROUND(Y4/AC4, 2)</f>
-        <v>0.57</v>
-      </c>
-      <c r="AE4" s="11" t="n">
-        <f aca="false">ROUND(Z4/AC4, 2)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="AF4" s="11" t="n">
-        <f aca="false">ROUND(AA4/AC4, 2)</f>
-        <v>0.14</v>
-      </c>
-      <c r="AG4" s="11" t="n">
-        <f aca="false">ROUND(AB4/AC4, 2)</f>
-        <v>0.19</v>
-      </c>
-      <c r="AH4" s="11" t="n">
-        <f aca="false">ABS(AD4)+ABS(AE4)+ABS(AF4)+ABS(AG4)</f>
-        <v>1</v>
+      <c r="AD4" s="0" t="n">
+        <f aca="false">ROUND(Y4/10, 2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <f aca="false">ROUND(Z4/10, 2)</f>
+        <v>-0.02</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <f aca="false">ROUND(AA4/10, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <f aca="false">ROUND(AB4/10, 2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <f aca="false">AD4+AE4+AF4+AG4</f>
+        <v>1.01</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -2579,82 +2569,78 @@
       <c r="M5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="0" t="n">
         <f aca="false">SUM(C5:M5)</f>
         <v>8</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C5*5)+(D5*10))+(E5*2))+(F5*4))-(G5*7))+(H5*4))-(I5*4))+(J5*3))+(K5*10))+(L5*5))+(M5*0)) / 32))</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="13" t="n">
+      <c r="Q5" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C5*8)+(D5*10))+(E5*2))-(F5*4))-(G5*5))+(H5*2))-(I5*3))+(J5*5))+(K5*5))+(L5*2))+(M5*2)) / 24))</f>
         <v>2</v>
       </c>
-      <c r="R5" s="13" t="n">
+      <c r="R5" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C5*0)+(D5*3))+(E5*10))-(F5*3))+(G5*2))+(H5*4))+(I5*5))-(J5*3))-(K5*4))-(L5*2))+(M5*2)) / 14))</f>
         <v>-2</v>
       </c>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C5*3)-(D5*5))+(E5*3))+(F5*1))+(G5*4))+(H5*2))+(I5*10))-(J5*3))+(K5*6))+(L5*8))+(M5*0)) / 23))</f>
         <v>0</v>
       </c>
-      <c r="T5" s="13" t="n">
+      <c r="T5" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C5*5)+(D5*5))-(E5*3))+(F5*7))-(G5*2))+(H5*7))-(I5*3))+(J5*5))+(K5*8))+(L5*8))+(M5*1)) / 38))</f>
         <v>2</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C5*4)-(D5*2))+(E5*5))+(F5*5))+(G5*2))+(H5*2))-(I5*1))+(J5*7))+(K5*1))+(L5*2))+(M5*10)) / 27))</f>
         <v>-1</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C5*2)+(D5*4))+(E5*9))+(F5*3))-(G5*3))+(H5*10))-(I5*3))+(J5*3))+(K5*8))+(L5*5))+(M5*0)) / 38))</f>
         <v>0</v>
       </c>
-      <c r="W5" s="14" t="n">
+      <c r="W5" s="13" t="n">
         <f aca="false">SUM(P5:V5)</f>
         <v>2</v>
       </c>
-      <c r="Y5" s="11" t="n">
-        <f aca="false">C5+D5</f>
-        <v>7</v>
-      </c>
-      <c r="Z5" s="11" t="n">
-        <f aca="false">E5+G5+I5+M5</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="11" t="n">
-        <f aca="false">F5+J5+K5+L5</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="11" t="n">
-        <f aca="false">H5</f>
-        <v>1</v>
-      </c>
-      <c r="AC5" s="11" t="n">
-        <f aca="false">ABS(Y5)+ABS(Z5)+ABS(AA5)+ABS(AB5)</f>
-        <v>8</v>
-      </c>
-      <c r="AD5" s="11" t="n">
-        <f aca="false">ROUND(Y5/AC5, 2)</f>
-        <v>0.88</v>
-      </c>
-      <c r="AE5" s="11" t="n">
-        <f aca="false">ROUND(Z5/AC5, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="11" t="n">
-        <f aca="false">ROUND(AA5/AC5, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="11" t="n">
-        <f aca="false">ROUND(AB5/AC5, 2)</f>
-        <v>0.13</v>
-      </c>
-      <c r="AH5" s="11" t="n">
-        <f aca="false">ABS(AD5)+ABS(AE5)+ABS(AF5)+ABS(AG5)</f>
-        <v>1.01</v>
+      <c r="Y5" s="0" t="n">
+        <f aca="false">0.5*C5+0.5*D5</f>
+        <v>3.5</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <f aca="false">0.4*E5+0.1*G5+0.3*I5+0.2*M5</f>
+        <v>-0.6</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <f aca="false">0.3*F5+0.2*J5+0.2*K5+0.3*L5</f>
+        <v>0.1</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <f aca="false">1*H5</f>
+        <v>1</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <f aca="false">ROUND(Y5/10, 2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <f aca="false">ROUND(Z5/10, 2)</f>
+        <v>-0.06</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <f aca="false">ROUND(AA5/10, 2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <f aca="false">ROUND(AB5/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AH5" s="0" t="n">
+        <f aca="false">AD5+AE5+AF5+AG5</f>
+        <v>0.4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -2694,81 +2680,77 @@
       <c r="M6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="11" t="n">
+      <c r="N6" s="0" t="n">
         <f aca="false">SUM(C6:M6)</f>
         <v>23</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C6*5)+(D6*10))+(E6*2))+(F6*4))-(G6*7))+(H6*4))-(I6*4))+(J6*3))+(K6*10))+(L6*5))+(M6*0)) / 32))</f>
         <v>5</v>
       </c>
-      <c r="Q6" s="13" t="n">
+      <c r="Q6" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C6*8)+(D6*10))+(E6*2))-(F6*4))-(G6*5))+(H6*2))-(I6*3))+(J6*5))+(K6*5))+(L6*2))+(M6*2)) / 24))</f>
         <v>6</v>
       </c>
-      <c r="R6" s="13" t="n">
+      <c r="R6" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C6*0)+(D6*3))+(E6*10))-(F6*3))+(G6*2))+(H6*4))+(I6*5))-(J6*3))-(K6*4))-(L6*2))+(M6*2)) / 14))</f>
         <v>1</v>
       </c>
-      <c r="S6" s="13" t="n">
+      <c r="S6" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C6*3)-(D6*5))+(E6*3))+(F6*1))+(G6*4))+(H6*2))+(I6*10))-(J6*3))+(K6*6))+(L6*8))+(M6*0)) / 23))</f>
         <v>-1</v>
       </c>
-      <c r="T6" s="13" t="n">
+      <c r="T6" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C6*5)+(D6*5))-(E6*3))+(F6*7))-(G6*2))+(H6*7))-(I6*3))+(J6*5))+(K6*8))+(L6*8))+(M6*1)) / 38))</f>
         <v>3</v>
       </c>
-      <c r="U6" s="13" t="n">
+      <c r="U6" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C6*4)-(D6*2))+(E6*5))+(F6*5))+(G6*2))+(H6*2))-(I6*1))+(J6*7))+(K6*1))+(L6*2))+(M6*10)) / 27))</f>
         <v>1</v>
       </c>
-      <c r="V6" s="13" t="n">
+      <c r="V6" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C6*2)+(D6*4))+(E6*9))+(F6*3))-(G6*3))+(H6*10))-(I6*3))+(J6*3))+(K6*8))+(L6*5))+(M6*0)) / 38))</f>
         <v>3</v>
       </c>
-      <c r="W6" s="14" t="n">
+      <c r="W6" s="13" t="n">
         <f aca="false">SUM(P6:V6)</f>
         <v>18</v>
       </c>
-      <c r="Y6" s="11" t="n">
-        <f aca="false">C6+D6</f>
-        <v>11</v>
-      </c>
-      <c r="Z6" s="11" t="n">
-        <f aca="false">E6+G6+I6+M6</f>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="11" t="n">
-        <f aca="false">F6+J6+K6+L6</f>
-        <v>9</v>
-      </c>
-      <c r="AB6" s="11" t="n">
-        <f aca="false">H6</f>
-        <v>2</v>
-      </c>
-      <c r="AC6" s="11" t="n">
-        <f aca="false">ABS(Y6)+ABS(Z6)+ABS(AA6)+ABS(AB6)</f>
-        <v>23</v>
-      </c>
-      <c r="AD6" s="11" t="n">
-        <f aca="false">ROUND(Y6/AC6, 2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="AE6" s="11" t="n">
-        <f aca="false">ROUND(Z6/AC6, 2)</f>
+      <c r="Y6" s="0" t="n">
+        <f aca="false">0.5*C6+0.5*D6</f>
+        <v>5.5</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <f aca="false">0.4*E6+0.1*G6+0.3*I6+0.2*M6</f>
+        <v>0.4</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <f aca="false">0.3*F6+0.2*J6+0.2*K6+0.3*L6</f>
+        <v>2.1</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <f aca="false">1*H6</f>
+        <v>2</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <f aca="false">ROUND(Y6/10, 2)</f>
+        <v>0.55</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <f aca="false">ROUND(Z6/10, 2)</f>
         <v>0.04</v>
       </c>
-      <c r="AF6" s="11" t="n">
-        <f aca="false">ROUND(AA6/AC6, 2)</f>
-        <v>0.39</v>
-      </c>
-      <c r="AG6" s="11" t="n">
-        <f aca="false">ROUND(AB6/AC6, 2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="AH6" s="11" t="n">
-        <f aca="false">ABS(AD6)+ABS(AE6)+ABS(AF6)+ABS(AG6)</f>
+      <c r="AF6" s="0" t="n">
+        <f aca="false">ROUND(AA6/10, 2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <f aca="false">ROUND(AB6/10, 2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <f aca="false">AD6+AE6+AF6+AG6</f>
         <v>1</v>
       </c>
     </row>
@@ -2809,82 +2791,78 @@
       <c r="M7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="11" t="n">
+      <c r="N7" s="0" t="n">
         <f aca="false">SUM(C7:M7)</f>
         <v>18</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="12" t="n">
+      <c r="P7" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C7*5)+(D7*10))+(E7*2))+(F7*4))-(G7*7))+(H7*4))-(I7*4))+(J7*3))+(K7*10))+(L7*5))+(M7*0)) / 32))</f>
         <v>5</v>
       </c>
-      <c r="Q7" s="13" t="n">
+      <c r="Q7" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C7*8)+(D7*10))+(E7*2))-(F7*4))-(G7*5))+(H7*2))-(I7*3))+(J7*5))+(K7*5))+(L7*2))+(M7*2)) / 24))</f>
         <v>6</v>
       </c>
-      <c r="R7" s="13" t="n">
+      <c r="R7" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C7*0)+(D7*3))+(E7*10))-(F7*3))+(G7*2))+(H7*4))+(I7*5))-(J7*3))-(K7*4))-(L7*2))+(M7*2)) / 14))</f>
         <v>2</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C7*3)-(D7*5))+(E7*3))+(F7*1))+(G7*4))+(H7*2))+(I7*10))-(J7*3))+(K7*6))+(L7*8))+(M7*0)) / 23))</f>
         <v>-1</v>
       </c>
-      <c r="T7" s="13" t="n">
+      <c r="T7" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C7*5)+(D7*5))-(E7*3))+(F7*7))-(G7*2))+(H7*7))-(I7*3))+(J7*5))+(K7*8))+(L7*8))+(M7*1)) / 38))</f>
         <v>2</v>
       </c>
-      <c r="U7" s="13" t="n">
+      <c r="U7" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C7*4)-(D7*2))+(E7*5))+(F7*5))+(G7*2))+(H7*2))-(I7*1))+(J7*7))+(K7*1))+(L7*2))+(M7*10)) / 27))</f>
         <v>0</v>
       </c>
-      <c r="V7" s="13" t="n">
+      <c r="V7" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C7*2)+(D7*4))+(E7*9))+(F7*3))-(G7*3))+(H7*10))-(I7*3))+(J7*3))+(K7*8))+(L7*5))+(M7*0)) / 38))</f>
         <v>3</v>
       </c>
-      <c r="W7" s="14" t="n">
+      <c r="W7" s="13" t="n">
         <f aca="false">SUM(P7:V7)</f>
         <v>17</v>
       </c>
-      <c r="Y7" s="11" t="n">
-        <f aca="false">C7+D7</f>
-        <v>11</v>
-      </c>
-      <c r="Z7" s="11" t="n">
-        <f aca="false">E7+G7+I7+M7</f>
-        <v>1</v>
-      </c>
-      <c r="AA7" s="11" t="n">
-        <f aca="false">F7+J7+K7+L7</f>
-        <v>4</v>
-      </c>
-      <c r="AB7" s="11" t="n">
-        <f aca="false">H7</f>
-        <v>2</v>
-      </c>
-      <c r="AC7" s="11" t="n">
-        <f aca="false">ABS(Y7)+ABS(Z7)+ABS(AA7)+ABS(AB7)</f>
-        <v>18</v>
-      </c>
-      <c r="AD7" s="11" t="n">
-        <f aca="false">ROUND(Y7/AC7, 2)</f>
-        <v>0.61</v>
-      </c>
-      <c r="AE7" s="11" t="n">
-        <f aca="false">ROUND(Z7/AC7, 2)</f>
+      <c r="Y7" s="0" t="n">
+        <f aca="false">0.5*C7+0.5*D7</f>
+        <v>5.5</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <f aca="false">0.4*E7+0.1*G7+0.3*I7+0.2*M7</f>
+        <v>0.4</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <f aca="false">0.3*F7+0.2*J7+0.2*K7+0.3*L7</f>
+        <v>0.6</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <f aca="false">1*H7</f>
+        <v>2</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <f aca="false">ROUND(Y7/10, 2)</f>
+        <v>0.55</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <f aca="false">ROUND(Z7/10, 2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <f aca="false">ROUND(AA7/10, 2)</f>
         <v>0.06</v>
       </c>
-      <c r="AF7" s="11" t="n">
-        <f aca="false">ROUND(AA7/AC7, 2)</f>
-        <v>0.22</v>
-      </c>
-      <c r="AG7" s="11" t="n">
-        <f aca="false">ROUND(AB7/AC7, 2)</f>
-        <v>0.11</v>
-      </c>
-      <c r="AH7" s="11" t="n">
-        <f aca="false">ABS(AD7)+ABS(AE7)+ABS(AF7)+ABS(AG7)</f>
-        <v>1</v>
+      <c r="AG7" s="0" t="n">
+        <f aca="false">ROUND(AB7/10, 2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <f aca="false">AD7+AE7+AF7+AG7</f>
+        <v>0.85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -2924,82 +2902,78 @@
       <c r="M8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N8" s="11" t="n">
+      <c r="N8" s="0" t="n">
         <f aca="false">SUM(C8:M8)</f>
         <v>15</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="12" t="n">
+      <c r="P8" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C8*5)+(D8*10))+(E8*2))+(F8*4))-(G8*7))+(H8*4))-(I8*4))+(J8*3))+(K8*10))+(L8*5))+(M8*0)) / 32))</f>
         <v>2</v>
       </c>
-      <c r="Q8" s="13" t="n">
+      <c r="Q8" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C8*8)+(D8*10))+(E8*2))-(F8*4))-(G8*5))+(H8*2))-(I8*3))+(J8*5))+(K8*5))+(L8*2))+(M8*2)) / 24))</f>
         <v>2</v>
       </c>
-      <c r="R8" s="13" t="n">
+      <c r="R8" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C8*0)+(D8*3))+(E8*10))-(F8*3))+(G8*2))+(H8*4))+(I8*5))-(J8*3))-(K8*4))-(L8*2))+(M8*2)) / 14))</f>
         <v>2</v>
       </c>
-      <c r="S8" s="13" t="n">
+      <c r="S8" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C8*3)-(D8*5))+(E8*3))+(F8*1))+(G8*4))+(H8*2))+(I8*10))-(J8*3))+(K8*6))+(L8*8))+(M8*0)) / 23))</f>
         <v>1</v>
       </c>
-      <c r="T8" s="13" t="n">
+      <c r="T8" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C8*5)+(D8*5))-(E8*3))+(F8*7))-(G8*2))+(H8*7))-(I8*3))+(J8*5))+(K8*8))+(L8*8))+(M8*1)) / 38))</f>
         <v>1</v>
       </c>
-      <c r="U8" s="13" t="n">
+      <c r="U8" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C8*4)-(D8*2))+(E8*5))+(F8*5))+(G8*2))+(H8*2))-(I8*1))+(J8*7))+(K8*1))+(L8*2))+(M8*10)) / 27))</f>
         <v>0</v>
       </c>
-      <c r="V8" s="13" t="n">
+      <c r="V8" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C8*2)+(D8*4))+(E8*9))+(F8*3))-(G8*3))+(H8*10))-(I8*3))+(J8*3))+(K8*8))+(L8*5))+(M8*0)) / 38))</f>
         <v>2</v>
       </c>
-      <c r="W8" s="14" t="n">
+      <c r="W8" s="13" t="n">
         <f aca="false">SUM(P8:V8)</f>
         <v>10</v>
       </c>
-      <c r="Y8" s="11" t="n">
-        <f aca="false">C8+D8</f>
-        <v>7</v>
-      </c>
-      <c r="Z8" s="11" t="n">
-        <f aca="false">E8+G8+I8+M8</f>
-        <v>6</v>
-      </c>
-      <c r="AA8" s="11" t="n">
-        <f aca="false">F8+J8+K8+L8</f>
-        <v>1</v>
-      </c>
-      <c r="AB8" s="11" t="n">
-        <f aca="false">H8</f>
-        <v>1</v>
-      </c>
-      <c r="AC8" s="11" t="n">
-        <f aca="false">ABS(Y8)+ABS(Z8)+ABS(AA8)+ABS(AB8)</f>
-        <v>15</v>
-      </c>
-      <c r="AD8" s="11" t="n">
-        <f aca="false">ROUND(Y8/AC8, 2)</f>
-        <v>0.47</v>
-      </c>
-      <c r="AE8" s="11" t="n">
-        <f aca="false">ROUND(Z8/AC8, 2)</f>
+      <c r="Y8" s="0" t="n">
+        <f aca="false">0.5*C8+0.5*D8</f>
+        <v>3.5</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <f aca="false">0.4*E8+0.1*G8+0.3*I8+0.2*M8</f>
+        <v>1.8</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <f aca="false">0.3*F8+0.2*J8+0.2*K8+0.3*L8</f>
         <v>0.4</v>
       </c>
-      <c r="AF8" s="11" t="n">
-        <f aca="false">ROUND(AA8/AC8, 2)</f>
-        <v>0.07</v>
-      </c>
-      <c r="AG8" s="11" t="n">
-        <f aca="false">ROUND(AB8/AC8, 2)</f>
-        <v>0.07</v>
-      </c>
-      <c r="AH8" s="11" t="n">
-        <f aca="false">ABS(AD8)+ABS(AE8)+ABS(AF8)+ABS(AG8)</f>
-        <v>1.01</v>
+      <c r="AB8" s="0" t="n">
+        <f aca="false">1*H8</f>
+        <v>1</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <f aca="false">ROUND(Y8/10, 2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <f aca="false">ROUND(Z8/10, 2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <f aca="false">ROUND(AA8/10, 2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <f aca="false">ROUND(AB8/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <f aca="false">AD8+AE8+AF8+AG8</f>
+        <v>0.67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -3022,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4</v>
@@ -3039,82 +3013,78 @@
       <c r="M9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N9" s="11" t="n">
+      <c r="N9" s="0" t="n">
         <f aca="false">SUM(C9:M9)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C9*5)+(D9*10))+(E9*2))+(F9*4))-(G9*7))+(H9*4))-(I9*4))+(J9*3))+(K9*10))+(L9*5))+(M9*0)) / 32))</f>
         <v>-1</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C9*8)+(D9*10))+(E9*2))-(F9*4))-(G9*5))+(H9*2))-(I9*3))+(J9*5))+(K9*5))+(L9*2))+(M9*2)) / 24))</f>
         <v>-1</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C9*0)+(D9*3))+(E9*10))-(F9*3))+(G9*2))+(H9*4))+(I9*5))-(J9*3))-(K9*4))-(L9*2))+(M9*2)) / 14))</f>
         <v>8</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C9*3)-(D9*5))+(E9*3))+(F9*1))+(G9*4))+(H9*2))+(I9*10))-(J9*3))+(K9*6))+(L9*8))+(M9*0)) / 23))</f>
         <v>7</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C9*5)+(D9*5))-(E9*3))+(F9*7))-(G9*2))+(H9*7))-(I9*3))+(J9*5))+(K9*8))+(L9*8))+(M9*1)) / 38))</f>
         <v>-2</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C9*4)-(D9*2))+(E9*5))+(F9*5))+(G9*2))+(H9*2))-(I9*1))+(J9*7))+(K9*1))+(L9*2))+(M9*10)) / 27))</f>
         <v>2</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C9*2)+(D9*4))+(E9*9))+(F9*3))-(G9*3))+(H9*10))-(I9*3))+(J9*3))+(K9*8))+(L9*5))+(M9*0)) / 38))</f>
         <v>2</v>
       </c>
-      <c r="W9" s="14" t="n">
+      <c r="W9" s="13" t="n">
         <f aca="false">SUM(P9:V9)</f>
         <v>15</v>
       </c>
-      <c r="Y9" s="11" t="n">
-        <f aca="false">C9+D9</f>
-        <v>-5</v>
-      </c>
-      <c r="Z9" s="11" t="n">
-        <f aca="false">E9+G9+I9+M9</f>
-        <v>19</v>
-      </c>
-      <c r="AA9" s="11" t="n">
-        <f aca="false">F9+J9+K9+L9</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="11" t="n">
-        <f aca="false">H9</f>
-        <v>-2</v>
-      </c>
-      <c r="AC9" s="11" t="n">
-        <f aca="false">ABS(Y9)+ABS(Z9)+ABS(AA9)+ABS(AB9)</f>
-        <v>26</v>
-      </c>
-      <c r="AD9" s="11" t="n">
-        <f aca="false">ROUND(Y9/AC9, 2)</f>
-        <v>-0.19</v>
-      </c>
-      <c r="AE9" s="11" t="n">
-        <f aca="false">ROUND(Z9/AC9, 2)</f>
-        <v>0.73</v>
-      </c>
-      <c r="AF9" s="11" t="n">
-        <f aca="false">ROUND(AA9/AC9, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="11" t="n">
-        <f aca="false">ROUND(AB9/AC9, 2)</f>
-        <v>-0.08</v>
-      </c>
-      <c r="AH9" s="11" t="n">
-        <f aca="false">ABS(AD9)+ABS(AE9)+ABS(AF9)+ABS(AG9)</f>
-        <v>1</v>
+      <c r="Y9" s="0" t="n">
+        <f aca="false">0.5*C9+0.5*D9</f>
+        <v>-2.5</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <f aca="false">0.4*E9+0.1*G9+0.3*I9+0.2*M9</f>
+        <v>6</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <f aca="false">0.3*F9+0.2*J9+0.2*K9+0.3*L9</f>
+        <v>-0.0999999999999999</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <f aca="false">1*H9</f>
+        <v>-1</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <f aca="false">ROUND(Y9/10, 2)</f>
+        <v>-0.25</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <f aca="false">ROUND(Z9/10, 2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <f aca="false">ROUND(AA9/10, 2)</f>
+        <v>-0.01</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <f aca="false">ROUND(AB9/10, 2)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="AH9" s="0" t="n">
+        <f aca="false">AD9+AE9+AF9+AG9</f>
+        <v>0.24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -3154,82 +3124,78 @@
       <c r="M10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="11" t="n">
+      <c r="N10" s="0" t="n">
         <f aca="false">SUM(C10:M10)</f>
         <v>22</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="12" t="n">
+      <c r="P10" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C10*5)+(D10*10))+(E10*2))+(F10*4))-(G10*7))+(H10*4))-(I10*4))+(J10*3))+(K10*10))+(L10*5))+(M10*0)) / 32))</f>
         <v>8</v>
       </c>
-      <c r="Q10" s="13" t="n">
+      <c r="Q10" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C10*8)+(D10*10))+(E10*2))-(F10*4))-(G10*5))+(H10*2))-(I10*3))+(J10*5))+(K10*5))+(L10*2))+(M10*2)) / 24))</f>
         <v>6</v>
       </c>
-      <c r="R10" s="13" t="n">
+      <c r="R10" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C10*0)+(D10*3))+(E10*10))-(F10*3))+(G10*2))+(H10*4))+(I10*5))-(J10*3))-(K10*4))-(L10*2))+(M10*2)) / 14))</f>
         <v>-6</v>
       </c>
-      <c r="S10" s="13" t="n">
+      <c r="S10" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C10*3)-(D10*5))+(E10*3))+(F10*1))+(G10*4))+(H10*2))+(I10*10))-(J10*3))+(K10*6))+(L10*8))+(M10*0)) / 23))</f>
         <v>1</v>
       </c>
-      <c r="T10" s="13" t="n">
+      <c r="T10" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C10*5)+(D10*5))-(E10*3))+(F10*7))-(G10*2))+(H10*7))-(I10*3))+(J10*5))+(K10*8))+(L10*8))+(M10*1)) / 38))</f>
         <v>6</v>
       </c>
-      <c r="U10" s="13" t="n">
+      <c r="U10" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C10*4)-(D10*2))+(E10*5))+(F10*5))+(G10*2))+(H10*2))-(I10*1))+(J10*7))+(K10*1))+(L10*2))+(M10*10)) / 27))</f>
         <v>1</v>
       </c>
-      <c r="V10" s="13" t="n">
+      <c r="V10" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C10*2)+(D10*4))+(E10*9))+(F10*3))-(G10*3))+(H10*10))-(I10*3))+(J10*3))+(K10*8))+(L10*5))+(M10*0)) / 38))</f>
         <v>5</v>
       </c>
-      <c r="W10" s="14" t="n">
+      <c r="W10" s="13" t="n">
         <f aca="false">SUM(P10:V10)</f>
         <v>21</v>
       </c>
-      <c r="Y10" s="11" t="n">
-        <f aca="false">C10+D10</f>
-        <v>7</v>
-      </c>
-      <c r="Z10" s="11" t="n">
-        <f aca="false">E10+G10+I10+M10</f>
-        <v>-8</v>
-      </c>
-      <c r="AA10" s="11" t="n">
-        <f aca="false">F10+J10+K10+L10</f>
-        <v>19</v>
-      </c>
-      <c r="AB10" s="11" t="n">
-        <f aca="false">H10</f>
+      <c r="Y10" s="0" t="n">
+        <f aca="false">0.5*C10+0.5*D10</f>
+        <v>3.5</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <f aca="false">0.4*E10+0.1*G10+0.3*I10+0.2*M10</f>
+        <v>-2.1</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <f aca="false">0.3*F10+0.2*J10+0.2*K10+0.3*L10</f>
+        <v>4.5</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <f aca="false">1*H10</f>
         <v>4</v>
       </c>
-      <c r="AC10" s="11" t="n">
-        <f aca="false">ABS(Y10)+ABS(Z10)+ABS(AA10)+ABS(AB10)</f>
-        <v>38</v>
-      </c>
-      <c r="AD10" s="11" t="n">
-        <f aca="false">ROUND(Y10/AC10, 2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="AE10" s="11" t="n">
-        <f aca="false">ROUND(Z10/AC10, 2)</f>
+      <c r="AD10" s="0" t="n">
+        <f aca="false">ROUND(Y10/10, 2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <f aca="false">ROUND(Z10/10, 2)</f>
         <v>-0.21</v>
       </c>
-      <c r="AF10" s="11" t="n">
-        <f aca="false">ROUND(AA10/AC10, 2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AG10" s="11" t="n">
-        <f aca="false">ROUND(AB10/AC10, 2)</f>
-        <v>0.11</v>
-      </c>
-      <c r="AH10" s="11" t="n">
-        <f aca="false">ABS(AD10)+ABS(AE10)+ABS(AF10)+ABS(AG10)</f>
-        <v>1</v>
+      <c r="AF10" s="0" t="n">
+        <f aca="false">ROUND(AA10/10, 2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <f aca="false">ROUND(AB10/10, 2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AH10" s="0" t="n">
+        <f aca="false">AD10+AE10+AF10+AG10</f>
+        <v>0.99</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -3269,82 +3235,78 @@
       <c r="M11" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="0" t="n">
         <f aca="false">SUM(C11:M11)</f>
         <v>18</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C11*5)+(D11*10))+(E11*2))+(F11*4))-(G11*7))+(H11*4))-(I11*4))+(J11*3))+(K11*10))+(L11*5))+(M11*0)) / 32))</f>
         <v>5</v>
       </c>
-      <c r="Q11" s="13" t="n">
+      <c r="Q11" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C11*8)+(D11*10))+(E11*2))-(F11*4))-(G11*5))+(H11*2))-(I11*3))+(J11*5))+(K11*5))+(L11*2))+(M11*2)) / 24))</f>
         <v>0</v>
       </c>
-      <c r="R11" s="13" t="n">
+      <c r="R11" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C11*0)+(D11*3))+(E11*10))-(F11*3))+(G11*2))+(H11*4))+(I11*5))-(J11*3))-(K11*4))-(L11*2))+(M11*2)) / 14))</f>
         <v>-8</v>
       </c>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C11*3)-(D11*5))+(E11*3))+(F11*1))+(G11*4))+(H11*2))+(I11*10))-(J11*3))+(K11*6))+(L11*8))+(M11*0)) / 23))</f>
         <v>5</v>
       </c>
-      <c r="T11" s="13" t="n">
+      <c r="T11" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C11*5)+(D11*5))-(E11*3))+(F11*7))-(G11*2))+(H11*7))-(I11*3))+(J11*5))+(K11*8))+(L11*8))+(M11*1)) / 38))</f>
         <v>7</v>
       </c>
-      <c r="U11" s="13" t="n">
+      <c r="U11" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C11*4)-(D11*2))+(E11*5))+(F11*5))+(G11*2))+(H11*2))-(I11*1))+(J11*7))+(K11*1))+(L11*2))+(M11*10)) / 27))</f>
         <v>2</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C11*2)+(D11*4))+(E11*9))+(F11*3))-(G11*3))+(H11*10))-(I11*3))+(J11*3))+(K11*8))+(L11*5))+(M11*0)) / 38))</f>
         <v>4</v>
       </c>
-      <c r="W11" s="14" t="n">
+      <c r="W11" s="13" t="n">
         <f aca="false">SUM(P11:V11)</f>
         <v>15</v>
       </c>
-      <c r="Y11" s="11" t="n">
-        <f aca="false">C11+D11</f>
-        <v>-4</v>
-      </c>
-      <c r="Z11" s="11" t="n">
-        <f aca="false">E11+G11+I11+M11</f>
-        <v>-11</v>
-      </c>
-      <c r="AA11" s="11" t="n">
-        <f aca="false">F11+J11+K11+L11</f>
-        <v>26</v>
-      </c>
-      <c r="AB11" s="11" t="n">
-        <f aca="false">H11</f>
+      <c r="Y11" s="0" t="n">
+        <f aca="false">0.5*C11+0.5*D11</f>
+        <v>-2</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <f aca="false">0.4*E11+0.1*G11+0.3*I11+0.2*M11</f>
+        <v>-3</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <f aca="false">0.3*F11+0.2*J11+0.2*K11+0.3*L11</f>
+        <v>7.1</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <f aca="false">1*H11</f>
         <v>7</v>
       </c>
-      <c r="AC11" s="11" t="n">
-        <f aca="false">ABS(Y11)+ABS(Z11)+ABS(AA11)+ABS(AB11)</f>
-        <v>48</v>
-      </c>
-      <c r="AD11" s="11" t="n">
-        <f aca="false">ROUND(Y11/AC11, 2)</f>
-        <v>-0.08</v>
-      </c>
-      <c r="AE11" s="11" t="n">
-        <f aca="false">ROUND(Z11/AC11, 2)</f>
-        <v>-0.23</v>
-      </c>
-      <c r="AF11" s="11" t="n">
-        <f aca="false">ROUND(AA11/AC11, 2)</f>
-        <v>0.54</v>
-      </c>
-      <c r="AG11" s="11" t="n">
-        <f aca="false">ROUND(AB11/AC11, 2)</f>
-        <v>0.15</v>
-      </c>
-      <c r="AH11" s="11" t="n">
-        <f aca="false">ABS(AD11)+ABS(AE11)+ABS(AF11)+ABS(AG11)</f>
-        <v>1</v>
+      <c r="AD11" s="0" t="n">
+        <f aca="false">ROUND(Y11/10, 2)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <f aca="false">ROUND(Z11/10, 2)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <f aca="false">ROUND(AA11/10, 2)</f>
+        <v>0.71</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <f aca="false">ROUND(AB11/10, 2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <f aca="false">AD11+AE11+AF11+AG11</f>
+        <v>0.91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -3358,7 +3320,7 @@
         <v>-2</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>5</v>
@@ -3384,82 +3346,78 @@
       <c r="M12" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="0" t="n">
         <f aca="false">SUM(C12:M12)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C12*5)+(D12*10))+(E12*2))+(F12*4))-(G12*7))+(H12*4))-(I12*4))+(J12*3))+(K12*10))+(L12*5))+(M12*0)) / 32))</f>
         <v>1</v>
       </c>
-      <c r="Q12" s="13" t="n">
+      <c r="Q12" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C12*8)+(D12*10))+(E12*2))-(F12*4))-(G12*5))+(H12*2))-(I12*3))+(J12*5))+(K12*5))+(L12*2))+(M12*2)) / 24))</f>
         <v>-1</v>
       </c>
-      <c r="R12" s="13" t="n">
+      <c r="R12" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C12*0)+(D12*3))+(E12*10))-(F12*3))+(G12*2))+(H12*4))+(I12*5))-(J12*3))-(K12*4))-(L12*2))+(M12*2)) / 14))</f>
-        <v>-4</v>
-      </c>
-      <c r="S12" s="13" t="n">
+        <v>-7</v>
+      </c>
+      <c r="S12" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C12*3)-(D12*5))+(E12*3))+(F12*1))+(G12*4))+(H12*2))+(I12*10))-(J12*3))+(K12*6))+(L12*8))+(M12*0)) / 23))</f>
         <v>3</v>
       </c>
-      <c r="T12" s="13" t="n">
+      <c r="T12" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C12*5)+(D12*5))-(E12*3))+(F12*7))-(G12*2))+(H12*7))-(I12*3))+(J12*5))+(K12*8))+(L12*8))+(M12*1)) / 38))</f>
         <v>2</v>
       </c>
-      <c r="U12" s="13" t="n">
+      <c r="U12" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C12*4)-(D12*2))+(E12*5))+(F12*5))+(G12*2))+(H12*2))-(I12*1))+(J12*7))+(K12*1))+(L12*2))+(M12*10)) / 27))</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="V12" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C12*2)+(D12*4))+(E12*9))+(F12*3))-(G12*3))+(H12*10))-(I12*3))+(J12*3))+(K12*8))+(L12*5))+(M12*0)) / 38))</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="13" t="n">
         <f aca="false">SUM(P12:V12)</f>
-        <v>1</v>
-      </c>
-      <c r="Y12" s="11" t="n">
-        <f aca="false">C12+D12</f>
-        <v>-2</v>
-      </c>
-      <c r="Z12" s="11" t="n">
-        <f aca="false">E12+G12+I12+M12</f>
-        <v>-2</v>
-      </c>
-      <c r="AA12" s="11" t="n">
-        <f aca="false">F12+J12+K12+L12</f>
-        <v>11</v>
-      </c>
-      <c r="AB12" s="11" t="n">
-        <f aca="false">H12</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="11" t="n">
-        <f aca="false">ABS(Y12)+ABS(Z12)+ABS(AA12)+ABS(AB12)</f>
-        <v>15</v>
-      </c>
-      <c r="AD12" s="11" t="n">
-        <f aca="false">ROUND(Y12/AC12, 2)</f>
-        <v>-0.13</v>
-      </c>
-      <c r="AE12" s="11" t="n">
-        <f aca="false">ROUND(Z12/AC12, 2)</f>
-        <v>-0.13</v>
-      </c>
-      <c r="AF12" s="11" t="n">
-        <f aca="false">ROUND(AA12/AC12, 2)</f>
-        <v>0.73</v>
-      </c>
-      <c r="AG12" s="11" t="n">
-        <f aca="false">ROUND(AB12/AC12, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="11" t="n">
-        <f aca="false">ABS(AD12)+ABS(AE12)+ABS(AF12)+ABS(AG12)</f>
-        <v>0.99</v>
+        <v>-3</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <f aca="false">0.5*C12+0.5*D12</f>
+        <v>-1</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <f aca="false">0.4*E12+0.1*G12+0.3*I12+0.2*M12</f>
+        <v>-1.8</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <f aca="false">0.3*F12+0.2*J12+0.2*K12+0.3*L12</f>
+        <v>3</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <f aca="false">1*H12</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <f aca="false">ROUND(Y12/10, 2)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <f aca="false">ROUND(Z12/10, 2)</f>
+        <v>-0.18</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <f aca="false">ROUND(AA12/10, 2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <f aca="false">ROUND(AB12/10, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="0" t="n">
+        <f aca="false">AD12+AE12+AF12+AG12</f>
+        <v>0.02</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -3499,82 +3457,78 @@
       <c r="M13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="0" t="n">
         <f aca="false">SUM(C13:M13)</f>
         <v>6</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C13*5)+(D13*10))+(E13*2))+(F13*4))-(G13*7))+(H13*4))-(I13*4))+(J13*3))+(K13*10))+(L13*5))+(M13*0)) / 32))</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="13" t="n">
+      <c r="Q13" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C13*8)+(D13*10))+(E13*2))-(F13*4))-(G13*5))+(H13*2))-(I13*3))+(J13*5))+(K13*5))+(L13*2))+(M13*2)) / 24))</f>
         <v>2</v>
       </c>
-      <c r="R13" s="13" t="n">
+      <c r="R13" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C13*0)+(D13*3))+(E13*10))-(F13*3))+(G13*2))+(H13*4))+(I13*5))-(J13*3))-(K13*4))-(L13*2))+(M13*2)) / 14))</f>
         <v>-2</v>
       </c>
-      <c r="S13" s="13" t="n">
+      <c r="S13" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C13*3)-(D13*5))+(E13*3))+(F13*1))+(G13*4))+(H13*2))+(I13*10))-(J13*3))+(K13*6))+(L13*8))+(M13*0)) / 23))</f>
         <v>-1</v>
       </c>
-      <c r="T13" s="13" t="n">
+      <c r="T13" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C13*5)+(D13*5))-(E13*3))+(F13*7))-(G13*2))+(H13*7))-(I13*3))+(J13*5))+(K13*8))+(L13*8))+(M13*1)) / 38))</f>
         <v>1</v>
       </c>
-      <c r="U13" s="13" t="n">
+      <c r="U13" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C13*4)-(D13*2))+(E13*5))+(F13*5))+(G13*2))+(H13*2))-(I13*1))+(J13*7))+(K13*1))+(L13*2))+(M13*10)) / 27))</f>
         <v>-1</v>
       </c>
-      <c r="V13" s="13" t="n">
+      <c r="V13" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C13*2)+(D13*4))+(E13*9))+(F13*3))-(G13*3))+(H13*10))-(I13*3))+(J13*3))+(K13*8))+(L13*5))+(M13*0)) / 38))</f>
         <v>0</v>
       </c>
-      <c r="W13" s="14" t="n">
+      <c r="W13" s="13" t="n">
         <f aca="false">SUM(P13:V13)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="11" t="n">
-        <f aca="false">C13+D13</f>
-        <v>7</v>
-      </c>
-      <c r="Z13" s="11" t="n">
-        <f aca="false">E13+G13+I13+M13</f>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="11" t="n">
-        <f aca="false">F13+J13+K13+L13</f>
-        <v>-3</v>
-      </c>
-      <c r="AB13" s="11" t="n">
-        <f aca="false">H13</f>
-        <v>1</v>
-      </c>
-      <c r="AC13" s="11" t="n">
-        <f aca="false">ABS(Y13)+ABS(Z13)+ABS(AA13)+ABS(AB13)</f>
-        <v>12</v>
-      </c>
-      <c r="AD13" s="11" t="n">
-        <f aca="false">ROUND(Y13/AC13, 2)</f>
-        <v>0.58</v>
-      </c>
-      <c r="AE13" s="11" t="n">
-        <f aca="false">ROUND(Z13/AC13, 2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="AF13" s="11" t="n">
-        <f aca="false">ROUND(AA13/AC13, 2)</f>
-        <v>-0.25</v>
-      </c>
-      <c r="AG13" s="11" t="n">
-        <f aca="false">ROUND(AB13/AC13, 2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="AH13" s="11" t="n">
-        <f aca="false">ABS(AD13)+ABS(AE13)+ABS(AF13)+ABS(AG13)</f>
-        <v>0.99</v>
+      <c r="Y13" s="0" t="n">
+        <f aca="false">0.5*C13+0.5*D13</f>
+        <v>3.5</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <f aca="false">0.4*E13+0.1*G13+0.3*I13+0.2*M13</f>
+        <v>-0.4</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <f aca="false">0.3*F13+0.2*J13+0.2*K13+0.3*L13</f>
+        <v>-0.8</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <f aca="false">1*H13</f>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <f aca="false">ROUND(Y13/10, 2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <f aca="false">ROUND(Z13/10, 2)</f>
+        <v>-0.04</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <f aca="false">ROUND(AA13/10, 2)</f>
+        <v>-0.08</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <f aca="false">ROUND(AB13/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AH13" s="0" t="n">
+        <f aca="false">AD13+AE13+AF13+AG13</f>
+        <v>0.33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -3614,82 +3568,78 @@
       <c r="M14" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="N14" s="11" t="n">
+      <c r="N14" s="0" t="n">
         <f aca="false">SUM(C14:M14)</f>
         <v>-3</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C14*5)+(D14*10))+(E14*2))+(F14*4))-(G14*7))+(H14*4))-(I14*4))+(J14*3))+(K14*10))+(L14*5))+(M14*0)) / 32))</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="13" t="n">
+      <c r="Q14" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C14*8)+(D14*10))+(E14*2))-(F14*4))-(G14*5))+(H14*2))-(I14*3))+(J14*5))+(K14*5))+(L14*2))+(M14*2)) / 24))</f>
         <v>4</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C14*0)+(D14*3))+(E14*10))-(F14*3))+(G14*2))+(H14*4))+(I14*5))-(J14*3))-(K14*4))-(L14*2))+(M14*2)) / 14))</f>
         <v>0</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C14*3)-(D14*5))+(E14*3))+(F14*1))+(G14*4))+(H14*2))+(I14*10))-(J14*3))+(K14*6))+(L14*8))+(M14*0)) / 23))</f>
         <v>-2</v>
       </c>
-      <c r="T14" s="13" t="n">
+      <c r="T14" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C14*5)+(D14*5))-(E14*3))+(F14*7))-(G14*2))+(H14*7))-(I14*3))+(J14*5))+(K14*8))+(L14*8))+(M14*1)) / 38))</f>
         <v>0</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C14*4)-(D14*2))+(E14*5))+(F14*5))+(G14*2))+(H14*2))-(I14*1))+(J14*7))+(K14*1))+(L14*2))+(M14*10)) / 27))</f>
         <v>-6</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C14*2)+(D14*4))+(E14*9))+(F14*3))-(G14*3))+(H14*10))-(I14*3))+(J14*3))+(K14*8))+(L14*5))+(M14*0)) / 38))</f>
         <v>0</v>
       </c>
-      <c r="W14" s="14" t="n">
+      <c r="W14" s="13" t="n">
         <f aca="false">SUM(P14:V14)</f>
         <v>-3</v>
       </c>
-      <c r="Y14" s="11" t="n">
-        <f aca="false">C14+D14</f>
-        <v>12</v>
-      </c>
-      <c r="Z14" s="11" t="n">
-        <f aca="false">E14+G14+I14+M14</f>
-        <v>-7</v>
-      </c>
-      <c r="AA14" s="11" t="n">
-        <f aca="false">F14+J14+K14+L14</f>
-        <v>-9</v>
-      </c>
-      <c r="AB14" s="11" t="n">
-        <f aca="false">H14</f>
-        <v>1</v>
-      </c>
-      <c r="AC14" s="11" t="n">
-        <f aca="false">ABS(Y14)+ABS(Z14)+ABS(AA14)+ABS(AB14)</f>
-        <v>29</v>
-      </c>
-      <c r="AD14" s="11" t="n">
-        <f aca="false">ROUND(Y14/AC14, 2)</f>
-        <v>0.41</v>
-      </c>
-      <c r="AE14" s="11" t="n">
-        <f aca="false">ROUND(Z14/AC14, 2)</f>
-        <v>-0.24</v>
-      </c>
-      <c r="AF14" s="11" t="n">
-        <f aca="false">ROUND(AA14/AC14, 2)</f>
-        <v>-0.31</v>
-      </c>
-      <c r="AG14" s="11" t="n">
-        <f aca="false">ROUND(AB14/AC14, 2)</f>
-        <v>0.03</v>
-      </c>
-      <c r="AH14" s="11" t="n">
-        <f aca="false">ABS(AD14)+ABS(AE14)+ABS(AF14)+ABS(AG14)</f>
-        <v>0.99</v>
+      <c r="Y14" s="0" t="n">
+        <f aca="false">0.5*C14+0.5*D14</f>
+        <v>6</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <f aca="false">0.4*E14+0.1*G14+0.3*I14+0.2*M14</f>
+        <v>-1.8</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <f aca="false">0.3*F14+0.2*J14+0.2*K14+0.3*L14</f>
+        <v>-2.6</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <f aca="false">1*H14</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <f aca="false">ROUND(Y14/10, 2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <f aca="false">ROUND(Z14/10, 2)</f>
+        <v>-0.18</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <f aca="false">ROUND(AA14/10, 2)</f>
+        <v>-0.26</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <f aca="false">ROUND(AB14/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <f aca="false">AD14+AE14+AF14+AG14</f>
+        <v>0.26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -3729,82 +3679,78 @@
       <c r="M15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="0" t="n">
         <f aca="false">SUM(C15:M15)</f>
         <v>3</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C15*5)+(D15*10))+(E15*2))+(F15*4))-(G15*7))+(H15*4))-(I15*4))+(J15*3))+(K15*10))+(L15*5))+(M15*0)) / 32))</f>
         <v>-4</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="Q15" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C15*8)+(D15*10))+(E15*2))-(F15*4))-(G15*5))+(H15*2))-(I15*3))+(J15*5))+(K15*5))+(L15*2))+(M15*2)) / 24))</f>
         <v>-3</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="R15" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C15*0)+(D15*3))+(E15*10))-(F15*3))+(G15*2))+(H15*4))+(I15*5))-(J15*3))-(K15*4))-(L15*2))+(M15*2)) / 14))</f>
         <v>10</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C15*3)-(D15*5))+(E15*3))+(F15*1))+(G15*4))+(H15*2))+(I15*10))-(J15*3))+(K15*6))+(L15*8))+(M15*0)) / 23))</f>
         <v>4</v>
       </c>
-      <c r="T15" s="13" t="n">
+      <c r="T15" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C15*5)+(D15*5))-(E15*3))+(F15*7))-(G15*2))+(H15*7))-(I15*3))+(J15*5))+(K15*8))+(L15*8))+(M15*1)) / 38))</f>
         <v>-3</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="U15" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C15*4)-(D15*2))+(E15*5))+(F15*5))+(G15*2))+(H15*2))-(I15*1))+(J15*7))+(K15*1))+(L15*2))+(M15*10)) / 27))</f>
         <v>-2</v>
       </c>
-      <c r="V15" s="13" t="n">
+      <c r="V15" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C15*2)+(D15*4))+(E15*9))+(F15*3))-(G15*3))+(H15*10))-(I15*3))+(J15*3))+(K15*8))+(L15*5))+(M15*0)) / 38))</f>
         <v>-2</v>
       </c>
-      <c r="W15" s="14" t="n">
+      <c r="W15" s="13" t="n">
         <f aca="false">SUM(P15:V15)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="11" t="n">
-        <f aca="false">C15+D15</f>
-        <v>2</v>
-      </c>
-      <c r="Z15" s="11" t="n">
-        <f aca="false">E15+G15+I15+M15</f>
-        <v>18</v>
-      </c>
-      <c r="AA15" s="11" t="n">
-        <f aca="false">F15+J15+K15+L15</f>
-        <v>-18</v>
-      </c>
-      <c r="AB15" s="11" t="n">
-        <f aca="false">H15</f>
-        <v>1</v>
-      </c>
-      <c r="AC15" s="11" t="n">
-        <f aca="false">ABS(Y15)+ABS(Z15)+ABS(AA15)+ABS(AB15)</f>
-        <v>39</v>
-      </c>
-      <c r="AD15" s="11" t="n">
-        <f aca="false">ROUND(Y15/AC15, 2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="AE15" s="11" t="n">
-        <f aca="false">ROUND(Z15/AC15, 2)</f>
-        <v>0.46</v>
-      </c>
-      <c r="AF15" s="11" t="n">
-        <f aca="false">ROUND(AA15/AC15, 2)</f>
-        <v>-0.46</v>
-      </c>
-      <c r="AG15" s="11" t="n">
-        <f aca="false">ROUND(AB15/AC15, 2)</f>
-        <v>0.03</v>
-      </c>
-      <c r="AH15" s="11" t="n">
-        <f aca="false">ABS(AD15)+ABS(AE15)+ABS(AF15)+ABS(AG15)</f>
-        <v>1</v>
+      <c r="Y15" s="0" t="n">
+        <f aca="false">0.5*C15+0.5*D15</f>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <f aca="false">0.4*E15+0.1*G15+0.3*I15+0.2*M15</f>
+        <v>3.3</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <f aca="false">0.3*F15+0.2*J15+0.2*K15+0.3*L15</f>
+        <v>-4</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <f aca="false">1*H15</f>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <f aca="false">ROUND(Y15/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <f aca="false">ROUND(Z15/10, 2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <f aca="false">ROUND(AA15/10, 2)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <f aca="false">ROUND(AB15/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <f aca="false">AD15+AE15+AF15+AG15</f>
+        <v>0.13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -3844,82 +3790,78 @@
       <c r="M16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N16" s="11" t="n">
+      <c r="N16" s="0" t="n">
         <f aca="false">SUM(C16:M16)</f>
         <v>12</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="12" t="n">
+      <c r="P16" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C16*5)+(D16*10))+(E16*2))+(F16*4))-(G16*7))+(H16*4))-(I16*4))+(J16*3))+(K16*10))+(L16*5))+(M16*0)) / 32))</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="13" t="n">
+      <c r="Q16" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C16*8)+(D16*10))+(E16*2))-(F16*4))-(G16*5))+(H16*2))-(I16*3))+(J16*5))+(K16*5))+(L16*2))+(M16*2)) / 24))</f>
         <v>1</v>
       </c>
-      <c r="R16" s="13" t="n">
+      <c r="R16" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C16*0)+(D16*3))+(E16*10))-(F16*3))+(G16*2))+(H16*4))+(I16*5))-(J16*3))-(K16*4))-(L16*2))+(M16*2)) / 14))</f>
         <v>-1</v>
       </c>
-      <c r="S16" s="13" t="n">
+      <c r="S16" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C16*3)-(D16*5))+(E16*3))+(F16*1))+(G16*4))+(H16*2))+(I16*10))-(J16*3))+(K16*6))+(L16*8))+(M16*0)) / 23))</f>
         <v>3</v>
       </c>
-      <c r="T16" s="13" t="n">
+      <c r="T16" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C16*5)+(D16*5))-(E16*3))+(F16*7))-(G16*2))+(H16*7))-(I16*3))+(J16*5))+(K16*8))+(L16*8))+(M16*1)) / 38))</f>
         <v>1</v>
       </c>
-      <c r="U16" s="13" t="n">
+      <c r="U16" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C16*4)-(D16*2))+(E16*5))+(F16*5))+(G16*2))+(H16*2))-(I16*1))+(J16*7))+(K16*1))+(L16*2))+(M16*10)) / 27))</f>
         <v>7</v>
       </c>
-      <c r="V16" s="13" t="n">
+      <c r="V16" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C16*2)+(D16*4))+(E16*9))+(F16*3))-(G16*3))+(H16*10))-(I16*3))+(J16*3))+(K16*8))+(L16*5))+(M16*0)) / 38))</f>
         <v>1</v>
       </c>
-      <c r="W16" s="14" t="n">
+      <c r="W16" s="13" t="n">
         <f aca="false">SUM(P16:V16)</f>
         <v>12</v>
       </c>
-      <c r="Y16" s="11" t="n">
-        <f aca="false">C16+D16</f>
-        <v>-8</v>
-      </c>
-      <c r="Z16" s="11" t="n">
-        <f aca="false">E16+G16+I16+M16</f>
-        <v>10</v>
-      </c>
-      <c r="AA16" s="11" t="n">
-        <f aca="false">F16+J16+K16+L16</f>
-        <v>13</v>
-      </c>
-      <c r="AB16" s="11" t="n">
-        <f aca="false">H16</f>
-        <v>-3</v>
-      </c>
-      <c r="AC16" s="11" t="n">
-        <f aca="false">ABS(Y16)+ABS(Z16)+ABS(AA16)+ABS(AB16)</f>
-        <v>34</v>
-      </c>
-      <c r="AD16" s="11" t="n">
-        <f aca="false">ROUND(Y16/AC16, 2)</f>
-        <v>-0.24</v>
-      </c>
-      <c r="AE16" s="11" t="n">
-        <f aca="false">ROUND(Z16/AC16, 2)</f>
-        <v>0.29</v>
-      </c>
-      <c r="AF16" s="11" t="n">
-        <f aca="false">ROUND(AA16/AC16, 2)</f>
-        <v>0.38</v>
-      </c>
-      <c r="AG16" s="11" t="n">
-        <f aca="false">ROUND(AB16/AC16, 2)</f>
-        <v>-0.09</v>
-      </c>
-      <c r="AH16" s="11" t="n">
-        <f aca="false">ABS(AD16)+ABS(AE16)+ABS(AF16)+ABS(AG16)</f>
-        <v>1</v>
+      <c r="Y16" s="0" t="n">
+        <f aca="false">0.5*C16+0.5*D16</f>
+        <v>-4</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <f aca="false">0.4*E16+0.1*G16+0.3*I16+0.2*M16</f>
+        <v>2.6</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <f aca="false">0.3*F16+0.2*J16+0.2*K16+0.3*L16</f>
+        <v>3</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <f aca="false">1*H16</f>
+        <v>-3</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <f aca="false">ROUND(Y16/10, 2)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <f aca="false">ROUND(Z16/10, 2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <f aca="false">ROUND(AA16/10, 2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <f aca="false">ROUND(AB16/10, 2)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <f aca="false">AD16+AE16+AF16+AG16</f>
+        <v>-0.14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -3959,82 +3901,78 @@
       <c r="M17" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N17" s="11" t="n">
+      <c r="N17" s="0" t="n">
         <f aca="false">SUM(C17:M17)</f>
         <v>20</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="P17" s="12" t="n">
+      <c r="P17" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C17*5)+(D17*10))+(E17*2))+(F17*4))-(G17*7))+(H17*4))-(I17*4))+(J17*3))+(K17*10))+(L17*5))+(M17*0)) / 32))</f>
         <v>6</v>
       </c>
-      <c r="Q17" s="13" t="n">
+      <c r="Q17" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C17*8)+(D17*10))+(E17*2))-(F17*4))-(G17*5))+(H17*2))-(I17*3))+(J17*5))+(K17*5))+(L17*2))+(M17*2)) / 24))</f>
         <v>7</v>
       </c>
-      <c r="R17" s="13" t="n">
+      <c r="R17" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C17*0)+(D17*3))+(E17*10))-(F17*3))+(G17*2))+(H17*4))+(I17*5))-(J17*3))-(K17*4))-(L17*2))+(M17*2)) / 14))</f>
         <v>0</v>
       </c>
-      <c r="S17" s="13" t="n">
+      <c r="S17" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C17*3)-(D17*5))+(E17*3))+(F17*1))+(G17*4))+(H17*2))+(I17*10))-(J17*3))+(K17*6))+(L17*8))+(M17*0)) / 23))</f>
         <v>-2</v>
       </c>
-      <c r="T17" s="13" t="n">
+      <c r="T17" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C17*5)+(D17*5))-(E17*3))+(F17*7))-(G17*2))+(H17*7))-(I17*3))+(J17*5))+(K17*8))+(L17*8))+(M17*1)) / 38))</f>
         <v>4</v>
       </c>
-      <c r="U17" s="13" t="n">
+      <c r="U17" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C17*4)-(D17*2))+(E17*5))+(F17*5))+(G17*2))+(H17*2))-(I17*1))+(J17*7))+(K17*1))+(L17*2))+(M17*10)) / 27))</f>
         <v>3</v>
       </c>
-      <c r="V17" s="13" t="n">
+      <c r="V17" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C17*2)+(D17*4))+(E17*9))+(F17*3))-(G17*3))+(H17*10))-(I17*3))+(J17*3))+(K17*8))+(L17*5))+(M17*0)) / 38))</f>
         <v>4</v>
       </c>
-      <c r="W17" s="14" t="n">
+      <c r="W17" s="13" t="n">
         <f aca="false">SUM(P17:V17)</f>
         <v>22</v>
       </c>
-      <c r="Y17" s="11" t="n">
-        <f aca="false">C17+D17</f>
-        <v>7</v>
-      </c>
-      <c r="Z17" s="11" t="n">
-        <f aca="false">E17+G17+I17+M17</f>
-        <v>-2</v>
-      </c>
-      <c r="AA17" s="11" t="n">
-        <f aca="false">F17+J17+K17+L17</f>
-        <v>13</v>
-      </c>
-      <c r="AB17" s="11" t="n">
-        <f aca="false">H17</f>
-        <v>2</v>
-      </c>
-      <c r="AC17" s="11" t="n">
-        <f aca="false">ABS(Y17)+ABS(Z17)+ABS(AA17)+ABS(AB17)</f>
-        <v>24</v>
-      </c>
-      <c r="AD17" s="11" t="n">
-        <f aca="false">ROUND(Y17/AC17, 2)</f>
-        <v>0.29</v>
-      </c>
-      <c r="AE17" s="11" t="n">
-        <f aca="false">ROUND(Z17/AC17, 2)</f>
-        <v>-0.08</v>
-      </c>
-      <c r="AF17" s="11" t="n">
-        <f aca="false">ROUND(AA17/AC17, 2)</f>
-        <v>0.54</v>
-      </c>
-      <c r="AG17" s="11" t="n">
-        <f aca="false">ROUND(AB17/AC17, 2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="AH17" s="11" t="n">
-        <f aca="false">ABS(AD17)+ABS(AE17)+ABS(AF17)+ABS(AG17)</f>
-        <v>0.99</v>
+      <c r="Y17" s="0" t="n">
+        <f aca="false">0.5*C17+0.5*D17</f>
+        <v>3.5</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <f aca="false">0.4*E17+0.1*G17+0.3*I17+0.2*M17</f>
+        <v>0.3</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <f aca="false">0.3*F17+0.2*J17+0.2*K17+0.3*L17</f>
+        <v>2.8</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <f aca="false">1*H17</f>
+        <v>2</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <f aca="false">ROUND(Y17/10, 2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <f aca="false">ROUND(Z17/10, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <f aca="false">ROUND(AA17/10, 2)</f>
+        <v>0.28</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <f aca="false">ROUND(AB17/10, 2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AH17" s="0" t="n">
+        <f aca="false">AD17+AE17+AF17+AG17</f>
+        <v>0.86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -4074,82 +4012,78 @@
       <c r="M18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N18" s="11" t="n">
+      <c r="N18" s="0" t="n">
         <f aca="false">SUM(C18:M18)</f>
         <v>8</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="12" t="n">
+      <c r="P18" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C18*5)+(D18*10))+(E18*2))+(F18*4))-(G18*7))+(H18*4))-(I18*4))+(J18*3))+(K18*10))+(L18*5))+(M18*0)) / 32))</f>
         <v>-2</v>
       </c>
-      <c r="Q18" s="13" t="n">
+      <c r="Q18" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C18*8)+(D18*10))+(E18*2))-(F18*4))-(G18*5))+(H18*2))-(I18*3))+(J18*5))+(K18*5))+(L18*2))+(M18*2)) / 24))</f>
         <v>-3</v>
       </c>
-      <c r="R18" s="13" t="n">
+      <c r="R18" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C18*0)+(D18*3))+(E18*10))-(F18*3))+(G18*2))+(H18*4))+(I18*5))-(J18*3))-(K18*4))-(L18*2))+(M18*2)) / 14))</f>
         <v>9</v>
       </c>
-      <c r="S18" s="13" t="n">
+      <c r="S18" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C18*3)-(D18*5))+(E18*3))+(F18*1))+(G18*4))+(H18*2))+(I18*10))-(J18*3))+(K18*6))+(L18*8))+(M18*0)) / 23))</f>
         <v>2</v>
       </c>
-      <c r="T18" s="13" t="n">
+      <c r="T18" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C18*5)+(D18*5))-(E18*3))+(F18*7))-(G18*2))+(H18*7))-(I18*3))+(J18*5))+(K18*8))+(L18*8))+(M18*1)) / 38))</f>
         <v>-3</v>
       </c>
-      <c r="U18" s="13" t="n">
+      <c r="U18" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C18*4)-(D18*2))+(E18*5))+(F18*5))+(G18*2))+(H18*2))-(I18*1))+(J18*7))+(K18*1))+(L18*2))+(M18*10)) / 27))</f>
         <v>1</v>
       </c>
-      <c r="V18" s="13" t="n">
+      <c r="V18" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C18*2)+(D18*4))+(E18*9))+(F18*3))-(G18*3))+(H18*10))-(I18*3))+(J18*3))+(K18*8))+(L18*5))+(M18*0)) / 38))</f>
         <v>0</v>
       </c>
-      <c r="W18" s="14" t="n">
+      <c r="W18" s="13" t="n">
         <f aca="false">SUM(P18:V18)</f>
         <v>4</v>
       </c>
-      <c r="Y18" s="11" t="n">
-        <f aca="false">C18+D18</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="11" t="n">
-        <f aca="false">E18+G18+I18+M18</f>
-        <v>16</v>
-      </c>
-      <c r="AA18" s="11" t="n">
-        <f aca="false">F18+J18+K18+L18</f>
-        <v>-8</v>
-      </c>
-      <c r="AB18" s="11" t="n">
-        <f aca="false">H18</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="11" t="n">
-        <f aca="false">ABS(Y18)+ABS(Z18)+ABS(AA18)+ABS(AB18)</f>
-        <v>24</v>
-      </c>
-      <c r="AD18" s="11" t="n">
-        <f aca="false">ROUND(Y18/AC18, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="11" t="n">
-        <f aca="false">ROUND(Z18/AC18, 2)</f>
-        <v>0.67</v>
-      </c>
-      <c r="AF18" s="11" t="n">
-        <f aca="false">ROUND(AA18/AC18, 2)</f>
-        <v>-0.33</v>
-      </c>
-      <c r="AG18" s="11" t="n">
-        <f aca="false">ROUND(AB18/AC18, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="11" t="n">
-        <f aca="false">ABS(AD18)+ABS(AE18)+ABS(AF18)+ABS(AG18)</f>
-        <v>1</v>
+      <c r="Y18" s="0" t="n">
+        <f aca="false">0.5*C18+0.5*D18</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <f aca="false">0.4*E18+0.1*G18+0.3*I18+0.2*M18</f>
+        <v>5.3</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <f aca="false">0.3*F18+0.2*J18+0.2*K18+0.3*L18</f>
+        <v>-2</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <f aca="false">1*H18</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <f aca="false">ROUND(Y18/10, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <f aca="false">ROUND(Z18/10, 2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <f aca="false">ROUND(AA18/10, 2)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <f aca="false">ROUND(AB18/10, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <f aca="false">AD18+AE18+AF18+AG18</f>
+        <v>0.33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -4189,82 +4123,78 @@
       <c r="M19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N19" s="11" t="n">
+      <c r="N19" s="0" t="n">
         <f aca="false">SUM(C19:M19)</f>
         <v>15</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="12" t="n">
+      <c r="P19" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C19*5)+(D19*10))+(E19*2))+(F19*4))-(G19*7))+(H19*4))-(I19*4))+(J19*3))+(K19*10))+(L19*5))+(M19*0)) / 32))</f>
         <v>5</v>
       </c>
-      <c r="Q19" s="13" t="n">
+      <c r="Q19" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C19*8)+(D19*10))+(E19*2))-(F19*4))-(G19*5))+(H19*2))-(I19*3))+(J19*5))+(K19*5))+(L19*2))+(M19*2)) / 24))</f>
         <v>6</v>
       </c>
-      <c r="R19" s="13" t="n">
+      <c r="R19" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C19*0)+(D19*3))+(E19*10))-(F19*3))+(G19*2))+(H19*4))+(I19*5))-(J19*3))-(K19*4))-(L19*2))+(M19*2)) / 14))</f>
         <v>-3</v>
       </c>
-      <c r="S19" s="13" t="n">
+      <c r="S19" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C19*3)-(D19*5))+(E19*3))+(F19*1))+(G19*4))+(H19*2))+(I19*10))-(J19*3))+(K19*6))+(L19*8))+(M19*0)) / 23))</f>
         <v>-3</v>
       </c>
-      <c r="T19" s="13" t="n">
+      <c r="T19" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C19*5)+(D19*5))-(E19*3))+(F19*7))-(G19*2))+(H19*7))-(I19*3))+(J19*5))+(K19*8))+(L19*8))+(M19*1)) / 38))</f>
         <v>3</v>
       </c>
-      <c r="U19" s="13" t="n">
+      <c r="U19" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C19*4)-(D19*2))+(E19*5))+(F19*5))+(G19*2))+(H19*2))-(I19*1))+(J19*7))+(K19*1))+(L19*2))+(M19*10)) / 27))</f>
         <v>2</v>
       </c>
-      <c r="V19" s="13" t="n">
+      <c r="V19" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C19*2)+(D19*4))+(E19*9))+(F19*3))-(G19*3))+(H19*10))-(I19*3))+(J19*3))+(K19*8))+(L19*5))+(M19*0)) / 38))</f>
         <v>2</v>
       </c>
-      <c r="W19" s="14" t="n">
+      <c r="W19" s="13" t="n">
         <f aca="false">SUM(P19:V19)</f>
         <v>12</v>
       </c>
-      <c r="Y19" s="11" t="n">
-        <f aca="false">C19+D19</f>
-        <v>6</v>
-      </c>
-      <c r="Z19" s="11" t="n">
-        <f aca="false">E19+G19+I19+M19</f>
-        <v>-6</v>
-      </c>
-      <c r="AA19" s="11" t="n">
-        <f aca="false">F19+J19+K19+L19</f>
-        <v>14</v>
-      </c>
-      <c r="AB19" s="11" t="n">
-        <f aca="false">H19</f>
-        <v>1</v>
-      </c>
-      <c r="AC19" s="11" t="n">
-        <f aca="false">ABS(Y19)+ABS(Z19)+ABS(AA19)+ABS(AB19)</f>
-        <v>27</v>
-      </c>
-      <c r="AD19" s="11" t="n">
-        <f aca="false">ROUND(Y19/AC19, 2)</f>
-        <v>0.22</v>
-      </c>
-      <c r="AE19" s="11" t="n">
-        <f aca="false">ROUND(Z19/AC19, 2)</f>
-        <v>-0.22</v>
-      </c>
-      <c r="AF19" s="11" t="n">
-        <f aca="false">ROUND(AA19/AC19, 2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="AG19" s="11" t="n">
-        <f aca="false">ROUND(AB19/AC19, 2)</f>
-        <v>0.04</v>
-      </c>
-      <c r="AH19" s="11" t="n">
-        <f aca="false">ABS(AD19)+ABS(AE19)+ABS(AF19)+ABS(AG19)</f>
-        <v>1</v>
+      <c r="Y19" s="0" t="n">
+        <f aca="false">0.5*C19+0.5*D19</f>
+        <v>3</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <f aca="false">0.4*E19+0.1*G19+0.3*I19+0.2*M19</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <f aca="false">0.3*F19+0.2*J19+0.2*K19+0.3*L19</f>
+        <v>2.9</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <f aca="false">1*H19</f>
+        <v>1</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <f aca="false">ROUND(Y19/10, 2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <f aca="false">ROUND(Z19/10, 2)</f>
+        <v>-0.02</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <f aca="false">ROUND(AA19/10, 2)</f>
+        <v>0.29</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <f aca="false">ROUND(AB19/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <f aca="false">AD19+AE19+AF19+AG19</f>
+        <v>0.67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -4304,82 +4234,78 @@
       <c r="M20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N20" s="11" t="n">
+      <c r="N20" s="0" t="n">
         <f aca="false">SUM(C20:M20)</f>
         <v>28</v>
       </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="12" t="n">
+      <c r="P20" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C20*5)+(D20*10))+(E20*2))+(F20*4))-(G20*7))+(H20*4))-(I20*4))+(J20*3))+(K20*10))+(L20*5))+(M20*0)) / 32))</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="13" t="n">
+      <c r="Q20" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C20*8)+(D20*10))+(E20*2))-(F20*4))-(G20*5))+(H20*2))-(I20*3))+(J20*5))+(K20*5))+(L20*2))+(M20*2)) / 24))</f>
         <v>1</v>
       </c>
-      <c r="R20" s="13" t="n">
+      <c r="R20" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C20*0)+(D20*3))+(E20*10))-(F20*3))+(G20*2))+(H20*4))+(I20*5))-(J20*3))-(K20*4))-(L20*2))+(M20*2)) / 14))</f>
         <v>6</v>
       </c>
-      <c r="S20" s="13" t="n">
+      <c r="S20" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C20*3)-(D20*5))+(E20*3))+(F20*1))+(G20*4))+(H20*2))+(I20*10))-(J20*3))+(K20*6))+(L20*8))+(M20*0)) / 23))</f>
         <v>9</v>
       </c>
-      <c r="T20" s="13" t="n">
+      <c r="T20" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C20*5)+(D20*5))-(E20*3))+(F20*7))-(G20*2))+(H20*7))-(I20*3))+(J20*5))+(K20*8))+(L20*8))+(M20*1)) / 38))</f>
         <v>1</v>
       </c>
-      <c r="U20" s="13" t="n">
+      <c r="U20" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C20*4)-(D20*2))+(E20*5))+(F20*5))+(G20*2))+(H20*2))-(I20*1))+(J20*7))+(K20*1))+(L20*2))+(M20*10)) / 27))</f>
         <v>0</v>
       </c>
-      <c r="V20" s="13" t="n">
+      <c r="V20" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C20*2)+(D20*4))+(E20*9))+(F20*3))-(G20*3))+(H20*10))-(I20*3))+(J20*3))+(K20*8))+(L20*5))+(M20*0)) / 38))</f>
         <v>2</v>
       </c>
-      <c r="W20" s="14" t="n">
+      <c r="W20" s="13" t="n">
         <f aca="false">SUM(P20:V20)</f>
         <v>20</v>
       </c>
-      <c r="Y20" s="11" t="n">
-        <f aca="false">C20+D20</f>
-        <v>3</v>
-      </c>
-      <c r="Z20" s="11" t="n">
-        <f aca="false">E20+G20+I20+M20</f>
-        <v>18</v>
-      </c>
-      <c r="AA20" s="11" t="n">
-        <f aca="false">F20+J20+K20+L20</f>
-        <v>6</v>
-      </c>
-      <c r="AB20" s="11" t="n">
-        <f aca="false">H20</f>
-        <v>1</v>
-      </c>
-      <c r="AC20" s="11" t="n">
-        <f aca="false">ABS(Y20)+ABS(Z20)+ABS(AA20)+ABS(AB20)</f>
-        <v>28</v>
-      </c>
-      <c r="AD20" s="11" t="n">
-        <f aca="false">ROUND(Y20/AC20, 2)</f>
-        <v>0.11</v>
-      </c>
-      <c r="AE20" s="11" t="n">
-        <f aca="false">ROUND(Z20/AC20, 2)</f>
-        <v>0.64</v>
-      </c>
-      <c r="AF20" s="11" t="n">
-        <f aca="false">ROUND(AA20/AC20, 2)</f>
-        <v>0.21</v>
-      </c>
-      <c r="AG20" s="11" t="n">
-        <f aca="false">ROUND(AB20/AC20, 2)</f>
-        <v>0.04</v>
-      </c>
-      <c r="AH20" s="11" t="n">
-        <f aca="false">ABS(AD20)+ABS(AE20)+ABS(AF20)+ABS(AG20)</f>
-        <v>1</v>
+      <c r="Y20" s="0" t="n">
+        <f aca="false">0.5*C20+0.5*D20</f>
+        <v>1.5</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <f aca="false">0.4*E20+0.1*G20+0.3*I20+0.2*M20</f>
+        <v>4.8</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <f aca="false">0.3*F20+0.2*J20+0.2*K20+0.3*L20</f>
+        <v>1.7</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <f aca="false">1*H20</f>
+        <v>1</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <f aca="false">ROUND(Y20/10, 2)</f>
+        <v>0.15</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <f aca="false">ROUND(Z20/10, 2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <f aca="false">ROUND(AA20/10, 2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <f aca="false">ROUND(AB20/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <f aca="false">AD20+AE20+AF20+AG20</f>
+        <v>0.9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -4419,82 +4345,78 @@
       <c r="M21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="11" t="n">
+      <c r="N21" s="0" t="n">
         <f aca="false">SUM(C21:M21)</f>
         <v>-12</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C21*5)+(D21*10))+(E21*2))+(F21*4))-(G21*7))+(H21*4))-(I21*4))+(J21*3))+(K21*10))+(L21*5))+(M21*0)) / 32))</f>
         <v>-4</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C21*8)+(D21*10))+(E21*2))-(F21*4))-(G21*5))+(H21*2))-(I21*3))+(J21*5))+(K21*5))+(L21*2))+(M21*2)) / 24))</f>
         <v>-4</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C21*0)+(D21*3))+(E21*10))-(F21*3))+(G21*2))+(H21*4))+(I21*5))-(J21*3))-(K21*4))-(L21*2))+(M21*2)) / 14))</f>
         <v>2</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C21*3)-(D21*5))+(E21*3))+(F21*1))+(G21*4))+(H21*2))+(I21*10))-(J21*3))+(K21*6))+(L21*8))+(M21*0)) / 23))</f>
         <v>4</v>
       </c>
-      <c r="T21" s="13" t="n">
+      <c r="T21" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C21*5)+(D21*5))-(E21*3))+(F21*7))-(G21*2))+(H21*7))-(I21*3))+(J21*5))+(K21*8))+(L21*8))+(M21*1)) / 38))</f>
         <v>-3</v>
       </c>
-      <c r="U21" s="13" t="n">
+      <c r="U21" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C21*4)-(D21*2))+(E21*5))+(F21*5))+(G21*2))+(H21*2))-(I21*1))+(J21*7))+(K21*1))+(L21*2))+(M21*10)) / 27))</f>
         <v>-3</v>
       </c>
-      <c r="V21" s="13" t="n">
+      <c r="V21" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C21*2)+(D21*4))+(E21*9))+(F21*3))-(G21*3))+(H21*10))-(I21*3))+(J21*3))+(K21*8))+(L21*5))+(M21*0)) / 38))</f>
         <v>-3</v>
       </c>
-      <c r="W21" s="14" t="n">
+      <c r="W21" s="13" t="n">
         <f aca="false">SUM(P21:V21)</f>
         <v>-11</v>
       </c>
-      <c r="Y21" s="11" t="n">
-        <f aca="false">C21+D21</f>
-        <v>-3</v>
-      </c>
-      <c r="Z21" s="11" t="n">
-        <f aca="false">E21+G21+I21+M21</f>
-        <v>4</v>
-      </c>
-      <c r="AA21" s="11" t="n">
-        <f aca="false">F21+J21+K21+L21</f>
-        <v>-10</v>
-      </c>
-      <c r="AB21" s="11" t="n">
-        <f aca="false">H21</f>
-        <v>-3</v>
-      </c>
-      <c r="AC21" s="11" t="n">
-        <f aca="false">ABS(Y21)+ABS(Z21)+ABS(AA21)+ABS(AB21)</f>
-        <v>20</v>
-      </c>
-      <c r="AD21" s="11" t="n">
-        <f aca="false">ROUND(Y21/AC21, 2)</f>
+      <c r="Y21" s="0" t="n">
+        <f aca="false">0.5*C21+0.5*D21</f>
+        <v>-1.5</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <f aca="false">0.4*E21+0.1*G21+0.3*I21+0.2*M21</f>
+        <v>0.7</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <f aca="false">0.3*F21+0.2*J21+0.2*K21+0.3*L21</f>
+        <v>-2</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <f aca="false">1*H21</f>
+        <v>-3</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <f aca="false">ROUND(Y21/10, 2)</f>
         <v>-0.15</v>
       </c>
-      <c r="AE21" s="11" t="n">
-        <f aca="false">ROUND(Z21/AC21, 2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AF21" s="11" t="n">
-        <f aca="false">ROUND(AA21/AC21, 2)</f>
-        <v>-0.5</v>
-      </c>
-      <c r="AG21" s="11" t="n">
-        <f aca="false">ROUND(AB21/AC21, 2)</f>
-        <v>-0.15</v>
-      </c>
-      <c r="AH21" s="11" t="n">
-        <f aca="false">ABS(AD21)+ABS(AE21)+ABS(AF21)+ABS(AG21)</f>
-        <v>1</v>
+      <c r="AE21" s="0" t="n">
+        <f aca="false">ROUND(Z21/10, 2)</f>
+        <v>0.07</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <f aca="false">ROUND(AA21/10, 2)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <f aca="false">ROUND(AB21/10, 2)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <f aca="false">AD21+AE21+AF21+AG21</f>
+        <v>-0.58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -4534,82 +4456,78 @@
       <c r="M22" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="N22" s="11" t="n">
+      <c r="N22" s="0" t="n">
         <f aca="false">SUM(C22:M22)</f>
         <v>2</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="12" t="n">
+      <c r="P22" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C22*5)+(D22*10))+(E22*2))+(F22*4))-(G22*7))+(H22*4))-(I22*4))+(J22*3))+(K22*10))+(L22*5))+(M22*0)) / 32))</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="13" t="n">
+      <c r="Q22" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C22*8)+(D22*10))+(E22*2))-(F22*4))-(G22*5))+(H22*2))-(I22*3))+(J22*5))+(K22*5))+(L22*2))+(M22*2)) / 24))</f>
         <v>-5</v>
       </c>
-      <c r="R22" s="13" t="n">
+      <c r="R22" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C22*0)+(D22*3))+(E22*10))-(F22*3))+(G22*2))+(H22*4))+(I22*5))-(J22*3))-(K22*4))-(L22*2))+(M22*2)) / 14))</f>
         <v>-3</v>
       </c>
-      <c r="S22" s="13" t="n">
+      <c r="S22" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C22*3)-(D22*5))+(E22*3))+(F22*1))+(G22*4))+(H22*2))+(I22*10))-(J22*3))+(K22*6))+(L22*8))+(M22*0)) / 23))</f>
         <v>10</v>
       </c>
-      <c r="T22" s="13" t="n">
+      <c r="T22" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C22*5)+(D22*5))-(E22*3))+(F22*7))-(G22*2))+(H22*7))-(I22*3))+(J22*5))+(K22*8))+(L22*8))+(M22*1)) / 38))</f>
         <v>1</v>
       </c>
-      <c r="U22" s="13" t="n">
+      <c r="U22" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C22*4)-(D22*2))+(E22*5))+(F22*5))+(G22*2))+(H22*2))-(I22*1))+(J22*7))+(K22*1))+(L22*2))+(M22*10)) / 27))</f>
         <v>-1</v>
       </c>
-      <c r="V22" s="13" t="n">
+      <c r="V22" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C22*2)+(D22*4))+(E22*9))+(F22*3))-(G22*3))+(H22*10))-(I22*3))+(J22*3))+(K22*8))+(L22*5))+(M22*0)) / 38))</f>
         <v>0</v>
       </c>
-      <c r="W22" s="14" t="n">
+      <c r="W22" s="13" t="n">
         <f aca="false">SUM(P22:V22)</f>
         <v>2</v>
       </c>
-      <c r="Y22" s="11" t="n">
-        <f aca="false">C22+D22</f>
-        <v>-11</v>
-      </c>
-      <c r="Z22" s="11" t="n">
-        <f aca="false">E22+G22+I22+M22</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="11" t="n">
-        <f aca="false">F22+J22+K22+L22</f>
-        <v>11</v>
-      </c>
-      <c r="AB22" s="11" t="n">
-        <f aca="false">H22</f>
-        <v>2</v>
-      </c>
-      <c r="AC22" s="11" t="n">
-        <f aca="false">ABS(Y22)+ABS(Z22)+ABS(AA22)+ABS(AB22)</f>
-        <v>24</v>
-      </c>
-      <c r="AD22" s="11" t="n">
-        <f aca="false">ROUND(Y22/AC22, 2)</f>
-        <v>-0.46</v>
-      </c>
-      <c r="AE22" s="11" t="n">
-        <f aca="false">ROUND(Z22/AC22, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="11" t="n">
-        <f aca="false">ROUND(AA22/AC22, 2)</f>
-        <v>0.46</v>
-      </c>
-      <c r="AG22" s="11" t="n">
-        <f aca="false">ROUND(AB22/AC22, 2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="AH22" s="11" t="n">
-        <f aca="false">ABS(AD22)+ABS(AE22)+ABS(AF22)+ABS(AG22)</f>
-        <v>1</v>
+      <c r="Y22" s="0" t="n">
+        <f aca="false">0.5*C22+0.5*D22</f>
+        <v>-5.5</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <f aca="false">0.4*E22+0.1*G22+0.3*I22+0.2*M22</f>
+        <v>0.300000000000001</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <f aca="false">0.3*F22+0.2*J22+0.2*K22+0.3*L22</f>
+        <v>3.2</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <f aca="false">1*H22</f>
+        <v>2</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <f aca="false">ROUND(Y22/10, 2)</f>
+        <v>-0.55</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <f aca="false">ROUND(Z22/10, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <f aca="false">ROUND(AA22/10, 2)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AG22" s="0" t="n">
+        <f aca="false">ROUND(AB22/10, 2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <f aca="false">AD22+AE22+AF22+AG22</f>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -4623,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>10</v>
@@ -4649,82 +4567,78 @@
       <c r="M23" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="N23" s="11" t="n">
+      <c r="N23" s="0" t="n">
         <f aca="false">SUM(C23:M23)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O23" s="1"/>
-      <c r="P23" s="12" t="n">
+      <c r="P23" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C23*5)+(D23*10))+(E23*2))+(F23*4))-(G23*7))+(H23*4))-(I23*4))+(J23*3))+(K23*10))+(L23*5))+(M23*0)) / 32))</f>
         <v>6</v>
       </c>
-      <c r="Q23" s="13" t="n">
+      <c r="Q23" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C23*8)+(D23*10))+(E23*2))-(F23*4))-(G23*5))+(H23*2))-(I23*3))+(J23*5))+(K23*5))+(L23*2))+(M23*2)) / 24))</f>
         <v>1</v>
       </c>
-      <c r="R23" s="13" t="n">
+      <c r="R23" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C23*0)+(D23*3))+(E23*10))-(F23*3))+(G23*2))+(H23*4))+(I23*5))-(J23*3))-(K23*4))-(L23*2))+(M23*2)) / 14))</f>
-        <v>-8</v>
-      </c>
-      <c r="S23" s="13" t="n">
+        <v>-6</v>
+      </c>
+      <c r="S23" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C23*3)-(D23*5))+(E23*3))+(F23*1))+(G23*4))+(H23*2))+(I23*10))-(J23*3))+(K23*6))+(L23*8))+(M23*0)) / 23))</f>
         <v>3</v>
       </c>
-      <c r="T23" s="13" t="n">
+      <c r="T23" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C23*5)+(D23*5))-(E23*3))+(F23*7))-(G23*2))+(H23*7))-(I23*3))+(J23*5))+(K23*8))+(L23*8))+(M23*1)) / 38))</f>
         <v>6</v>
       </c>
-      <c r="U23" s="13" t="n">
+      <c r="U23" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C23*4)-(D23*2))+(E23*5))+(F23*5))+(G23*2))+(H23*2))-(I23*1))+(J23*7))+(K23*1))+(L23*2))+(M23*10)) / 27))</f>
-        <v>1</v>
-      </c>
-      <c r="V23" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C23*2)+(D23*4))+(E23*9))+(F23*3))-(G23*3))+(H23*10))-(I23*3))+(J23*3))+(K23*8))+(L23*5))+(M23*0)) / 38))</f>
-        <v>3</v>
-      </c>
-      <c r="W23" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" s="13" t="n">
         <f aca="false">SUM(P23:V23)</f>
-        <v>12</v>
-      </c>
-      <c r="Y23" s="11" t="n">
-        <f aca="false">C23+D23</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="11" t="n">
-        <f aca="false">E23+G23+I23+M23</f>
-        <v>-13</v>
-      </c>
-      <c r="AA23" s="11" t="n">
-        <f aca="false">F23+J23+K23+L23</f>
-        <v>23</v>
-      </c>
-      <c r="AB23" s="11" t="n">
-        <f aca="false">H23</f>
-        <v>3</v>
-      </c>
-      <c r="AC23" s="11" t="n">
-        <f aca="false">ABS(Y23)+ABS(Z23)+ABS(AA23)+ABS(AB23)</f>
-        <v>39</v>
-      </c>
-      <c r="AD23" s="11" t="n">
-        <f aca="false">ROUND(Y23/AC23, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="11" t="n">
-        <f aca="false">ROUND(Z23/AC23, 2)</f>
-        <v>-0.33</v>
-      </c>
-      <c r="AF23" s="11" t="n">
-        <f aca="false">ROUND(AA23/AC23, 2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="AG23" s="11" t="n">
-        <f aca="false">ROUND(AB23/AC23, 2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="AH23" s="11" t="n">
-        <f aca="false">ABS(AD23)+ABS(AE23)+ABS(AF23)+ABS(AG23)</f>
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <f aca="false">0.5*C23+0.5*D23</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <f aca="false">0.4*E23+0.1*G23+0.3*I23+0.2*M23</f>
+        <v>-2</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <f aca="false">0.3*F23+0.2*J23+0.2*K23+0.3*L23</f>
+        <v>6.6</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <f aca="false">1*H23</f>
+        <v>3</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <f aca="false">ROUND(Y23/10, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <f aca="false">ROUND(Z23/10, 2)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <f aca="false">ROUND(AA23/10, 2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="AG23" s="0" t="n">
+        <f aca="false">ROUND(AB23/10, 2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AH23" s="0" t="n">
+        <f aca="false">AD23+AE23+AF23+AG23</f>
+        <v>0.76</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -4764,82 +4678,78 @@
       <c r="M24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N24" s="11" t="n">
+      <c r="N24" s="0" t="n">
         <f aca="false">SUM(C24:M24)</f>
         <v>21</v>
       </c>
       <c r="O24" s="1"/>
-      <c r="P24" s="12" t="n">
+      <c r="P24" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C24*5)+(D24*10))+(E24*2))+(F24*4))-(G24*7))+(H24*4))-(I24*4))+(J24*3))+(K24*10))+(L24*5))+(M24*0)) / 32))</f>
         <v>5</v>
       </c>
-      <c r="Q24" s="13" t="n">
+      <c r="Q24" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C24*8)+(D24*10))+(E24*2))-(F24*4))-(G24*5))+(H24*2))-(I24*3))+(J24*5))+(K24*5))+(L24*2))+(M24*2)) / 24))</f>
         <v>4</v>
       </c>
-      <c r="R24" s="13" t="n">
+      <c r="R24" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C24*0)+(D24*3))+(E24*10))-(F24*3))+(G24*2))+(H24*4))+(I24*5))-(J24*3))-(K24*4))-(L24*2))+(M24*2)) / 14))</f>
         <v>1</v>
       </c>
-      <c r="S24" s="13" t="n">
+      <c r="S24" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C24*3)-(D24*5))+(E24*3))+(F24*1))+(G24*4))+(H24*2))+(I24*10))-(J24*3))+(K24*6))+(L24*8))+(M24*0)) / 23))</f>
         <v>0</v>
       </c>
-      <c r="T24" s="13" t="n">
+      <c r="T24" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C24*5)+(D24*5))-(E24*3))+(F24*7))-(G24*2))+(H24*7))-(I24*3))+(J24*5))+(K24*8))+(L24*8))+(M24*1)) / 38))</f>
         <v>4</v>
       </c>
-      <c r="U24" s="13" t="n">
+      <c r="U24" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C24*4)-(D24*2))+(E24*5))+(F24*5))+(G24*2))+(H24*2))-(I24*1))+(J24*7))+(K24*1))+(L24*2))+(M24*10)) / 27))</f>
         <v>1</v>
       </c>
-      <c r="V24" s="13" t="n">
+      <c r="V24" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C24*2)+(D24*4))+(E24*9))+(F24*3))-(G24*3))+(H24*10))-(I24*3))+(J24*3))+(K24*8))+(L24*5))+(M24*0)) / 38))</f>
         <v>3</v>
       </c>
-      <c r="W24" s="14" t="n">
+      <c r="W24" s="13" t="n">
         <f aca="false">SUM(P24:V24)</f>
         <v>18</v>
       </c>
-      <c r="Y24" s="11" t="n">
-        <f aca="false">C24+D24</f>
-        <v>8</v>
-      </c>
-      <c r="Z24" s="11" t="n">
-        <f aca="false">E24+G24+I24+M24</f>
-        <v>-2</v>
-      </c>
-      <c r="AA24" s="11" t="n">
-        <f aca="false">F24+J24+K24+L24</f>
-        <v>8</v>
-      </c>
-      <c r="AB24" s="11" t="n">
-        <f aca="false">H24</f>
+      <c r="Y24" s="0" t="n">
+        <f aca="false">0.5*C24+0.5*D24</f>
+        <v>4</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <f aca="false">0.4*E24+0.1*G24+0.3*I24+0.2*M24</f>
+        <v>-0.8</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <f aca="false">0.3*F24+0.2*J24+0.2*K24+0.3*L24</f>
+        <v>2</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <f aca="false">1*H24</f>
         <v>7</v>
       </c>
-      <c r="AC24" s="11" t="n">
-        <f aca="false">ABS(Y24)+ABS(Z24)+ABS(AA24)+ABS(AB24)</f>
-        <v>25</v>
-      </c>
-      <c r="AD24" s="11" t="n">
-        <f aca="false">ROUND(Y24/AC24, 2)</f>
-        <v>0.32</v>
-      </c>
-      <c r="AE24" s="11" t="n">
-        <f aca="false">ROUND(Z24/AC24, 2)</f>
+      <c r="AD24" s="0" t="n">
+        <f aca="false">ROUND(Y24/10, 2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <f aca="false">ROUND(Z24/10, 2)</f>
         <v>-0.08</v>
       </c>
-      <c r="AF24" s="11" t="n">
-        <f aca="false">ROUND(AA24/AC24, 2)</f>
-        <v>0.32</v>
-      </c>
-      <c r="AG24" s="11" t="n">
-        <f aca="false">ROUND(AB24/AC24, 2)</f>
-        <v>0.28</v>
-      </c>
-      <c r="AH24" s="11" t="n">
-        <f aca="false">ABS(AD24)+ABS(AE24)+ABS(AF24)+ABS(AG24)</f>
-        <v>1</v>
+      <c r="AF24" s="0" t="n">
+        <f aca="false">ROUND(AA24/10, 2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AG24" s="0" t="n">
+        <f aca="false">ROUND(AB24/10, 2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AH24" s="0" t="n">
+        <f aca="false">AD24+AE24+AF24+AG24</f>
+        <v>1.22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -4879,85 +4789,81 @@
       <c r="M25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N25" s="11" t="n">
+      <c r="N25" s="0" t="n">
         <f aca="false">SUM(C25:M25)</f>
         <v>13</v>
       </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="12" t="n">
+      <c r="P25" s="11" t="n">
         <f aca="false">ROUND(((((((((((((C25*5)+(D25*10))+(E25*2))+(F25*4))-(G25*7))+(H25*4))-(I25*4))+(J25*3))+(K25*10))+(L25*5))+(M25*0)) / 32))</f>
         <v>3</v>
       </c>
-      <c r="Q25" s="13" t="n">
+      <c r="Q25" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C25*8)+(D25*10))+(E25*2))-(F25*4))-(G25*5))+(H25*2))-(I25*3))+(J25*5))+(K25*5))+(L25*2))+(M25*2)) / 24))</f>
         <v>5</v>
       </c>
-      <c r="R25" s="13" t="n">
+      <c r="R25" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C25*0)+(D25*3))+(E25*10))-(F25*3))+(G25*2))+(H25*4))+(I25*5))-(J25*3))-(K25*4))-(L25*2))+(M25*2)) / 14))</f>
         <v>4</v>
       </c>
-      <c r="S25" s="13" t="n">
+      <c r="S25" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C25*3)-(D25*5))+(E25*3))+(F25*1))+(G25*4))+(H25*2))+(I25*10))-(J25*3))+(K25*6))+(L25*8))+(M25*0)) / 23))</f>
         <v>-1</v>
       </c>
-      <c r="T25" s="13" t="n">
+      <c r="T25" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C25*5)+(D25*5))-(E25*3))+(F25*7))-(G25*2))+(H25*7))-(I25*3))+(J25*5))+(K25*8))+(L25*8))+(M25*1)) / 38))</f>
         <v>2</v>
       </c>
-      <c r="U25" s="13" t="n">
+      <c r="U25" s="12" t="n">
         <f aca="false">ROUND(((((((((((((-C25*4)-(D25*2))+(E25*5))+(F25*5))+(G25*2))+(H25*2))-(I25*1))+(J25*7))+(K25*1))+(L25*2))+(M25*10)) / 27))</f>
         <v>-2</v>
       </c>
-      <c r="V25" s="13" t="n">
+      <c r="V25" s="12" t="n">
         <f aca="false">ROUND(((((((((((((C25*2)+(D25*4))+(E25*9))+(F25*3))-(G25*3))+(H25*10))-(I25*3))+(J25*3))+(K25*8))+(L25*5))+(M25*0)) / 38))</f>
         <v>2</v>
       </c>
-      <c r="W25" s="14" t="n">
+      <c r="W25" s="13" t="n">
         <f aca="false">SUM(P25:V25)</f>
         <v>13</v>
       </c>
-      <c r="Y25" s="11" t="n">
-        <f aca="false">C25+D25</f>
-        <v>12</v>
-      </c>
-      <c r="Z25" s="11" t="n">
-        <f aca="false">E25+G25+I25+M25</f>
-        <v>1</v>
-      </c>
-      <c r="AA25" s="11" t="n">
-        <f aca="false">F25+J25+K25+L25</f>
-        <v>-7</v>
-      </c>
-      <c r="AB25" s="11" t="n">
-        <f aca="false">H25</f>
+      <c r="Y25" s="0" t="n">
+        <f aca="false">0.5*C25+0.5*D25</f>
+        <v>6</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <f aca="false">0.4*E25+0.1*G25+0.3*I25+0.2*M25</f>
+        <v>0.4</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <f aca="false">0.3*F25+0.2*J25+0.2*K25+0.3*L25</f>
+        <v>-2</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <f aca="false">1*H25</f>
         <v>7</v>
       </c>
-      <c r="AC25" s="11" t="n">
-        <f aca="false">ABS(Y25)+ABS(Z25)+ABS(AA25)+ABS(AB25)</f>
-        <v>27</v>
-      </c>
-      <c r="AD25" s="11" t="n">
-        <f aca="false">ROUND(Y25/AC25, 2)</f>
-        <v>0.44</v>
-      </c>
-      <c r="AE25" s="11" t="n">
-        <f aca="false">ROUND(Z25/AC25, 2)</f>
+      <c r="AD25" s="0" t="n">
+        <f aca="false">ROUND(Y25/10, 2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <f aca="false">ROUND(Z25/10, 2)</f>
         <v>0.04</v>
       </c>
-      <c r="AF25" s="11" t="n">
-        <f aca="false">ROUND(AA25/AC25, 2)</f>
-        <v>-0.26</v>
-      </c>
-      <c r="AG25" s="11" t="n">
-        <f aca="false">ROUND(AB25/AC25, 2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="AH25" s="11" t="n">
-        <f aca="false">ABS(AD25)+ABS(AE25)+ABS(AF25)+ABS(AG25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="26">
+      <c r="AF25" s="0" t="n">
+        <f aca="false">ROUND(AA25/10, 2)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AG25" s="0" t="n">
+        <f aca="false">ROUND(AB25/10, 2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AH25" s="0" t="n">
+        <f aca="false">AD25+AE25+AF25+AG25</f>
+        <v>1.14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="P26" s="1" t="n">
         <f aca="false">SUM(P4:P25)</f>
         <v>49</v>
@@ -4968,7 +4874,7 @@
       </c>
       <c r="R26" s="1" t="n">
         <f aca="false">SUM(R4:R25)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S26" s="1" t="n">
         <f aca="false">SUM(S4:S25)</f>
@@ -4980,14 +4886,14 @@
       </c>
       <c r="U26" s="1" t="n">
         <f aca="false">SUM(U4:U25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V26" s="1" t="n">
         <f aca="false">SUM(V4:V25)</f>
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="B27" s="1" t="n">
         <f aca="false">SUM(P26:V26)</f>
         <v>218</v>
@@ -5015,7 +4921,7 @@
       </c>
       <c r="R27" s="10" t="n">
         <f aca="false">R26/167</f>
-        <v>0.065868263473054</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="S27" s="10" t="n">
         <f aca="false">S26/167</f>
@@ -5027,7 +4933,7 @@
       </c>
       <c r="U27" s="10" t="n">
         <f aca="false">U26/167</f>
-        <v>0.017964071856287</v>
+        <v>0.0239520958083832</v>
       </c>
       <c r="V27" s="10" t="n">
         <f aca="false">V26/167</f>

--- a/docs/Professions.xlsx
+++ b/docs/Professions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>nature</t>
   </si>
@@ -142,7 +142,7 @@
     <t>параметры профессий</t>
   </si>
   <si>
-    <t>влияние на типы городов</t>
+    <t>влияние на типы городов (делим на сумму модулей коофициентов!)</t>
   </si>
   <si>
     <t>влияние на параметры городов</t>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>здоровье</t>
+  </si>
+  <si>
+    <t>OUTLAWS</t>
   </si>
   <si>
     <t>PRODUCTION</t>
@@ -2136,7 +2139,7 @@
       </c>
       <c r="D26" s="10" t="n">
         <f aca="false">D25/94</f>
-        <v>-0.01063829787234</v>
+        <v>-0.0106382978723404</v>
       </c>
       <c r="E26" s="10" t="n">
         <f aca="false">E25/94</f>
@@ -2152,11 +2155,11 @@
       </c>
       <c r="H26" s="10" t="n">
         <f aca="false">H25/94</f>
-        <v>0.095744680851064</v>
+        <v>0.0957446808510638</v>
       </c>
       <c r="I26" s="10" t="n">
         <f aca="false">I25/94</f>
-        <v>0.085106382978723</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
   </sheetData>
@@ -2175,13 +2178,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AH27"/>
+  <dimension ref="B1:AI28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="H1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AB3" activeCellId="0" pane="topLeft" sqref="AB3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="T12" activeCellId="0" pane="topLeft" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.86224489795918"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8622448979592"/>
@@ -2205,14 +2208,14 @@
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.29081632653061"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.8622448979592"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="5.27551020408163"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.46938775510204"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.1428571428571"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="7.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="17.1326530612245"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="11.8622448979592"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="5.27551020408163"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="13.3367346938776"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="8.46938775510204"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.1428571428571"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="12.9132653061225"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="7.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="17.1326530612245"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="1">
@@ -2222,10 +2225,10 @@
       <c r="P1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AE1" s="0" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2287,11 +2290,11 @@
       <c r="V2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="Z2" s="0" t="s">
         <v>56</v>
@@ -2299,11 +2302,11 @@
       <c r="AA2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="AE2" s="0" t="s">
         <v>56</v>
@@ -2311,11 +2314,14 @@
       <c r="AF2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="0" t="s">
-        <v>58</v>
+      <c r="AI2" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -2356,53 +2362,29 @@
         <f aca="false">SUM(C3:M3)</f>
         <v>11</v>
       </c>
-      <c r="P3" s="11" t="n">
-        <f aca="false">(((((((((((C3*5)+(D3*10))+(E3*2))+(F3*4))-(G3*7))+(H3*4))-(I3*4))+(J3*3))+(K3*10))+(L3*5))+(M3*0))</f>
-        <v>32</v>
-      </c>
-      <c r="Q3" s="12" t="n">
-        <f aca="false">(((((((((((C3*8)+(D3*10))+(E3*2))-(F3*4))-(G3*5))+(H3*2))-(I3*3))+(J3*5))+(K3*5))+(L3*2))+(M3*2))</f>
-        <v>24</v>
-      </c>
-      <c r="R3" s="12" t="n">
-        <f aca="false">(((((((((((C3*0)+(D3*3))+(E3*10))-(F3*3))+(G3*2))+(H3*4))+(I3*5))-(J3*3))-(K3*4))-(L3*2))+(M3*2))</f>
-        <v>14</v>
-      </c>
-      <c r="S3" s="12" t="n">
-        <f aca="false">(((((((((((-C3*3)-(D3*5))+(E3*3))+(F3*1))+(G3*4))+(H3*2))+(I3*10))-(J3*3))+(K3*6))+(L3*8))+(M3*0))</f>
-        <v>23</v>
-      </c>
-      <c r="T3" s="12" t="n">
-        <f aca="false">(((((((((((C3*5)+(D3*5))-(E3*3))+(F3*7))-(G3*2))+(H3*7))-(I3*3))+(J3*5))+(K3*8))+(L3*8))+(M3*1))</f>
-        <v>38</v>
-      </c>
-      <c r="U3" s="12" t="n">
-        <f aca="false">(((((((((((-C3*4)-(D3*2))+(E3*5))+(F3*5))+(G3*2))+(H3*2))-(I3*1))+(J3*7))+(K3*1))+(L3*2))+(M3*10))</f>
-        <v>27</v>
-      </c>
-      <c r="V3" s="12" t="n">
-        <f aca="false">(((((((((((C3*2)+(D3*4))+(E3*9))+(F3*3))-(G3*3))+(H3*10))-(I3*3))+(J3*3))+(K3*8))+(L3*5))+(M3*0))</f>
-        <v>38</v>
-      </c>
-      <c r="Y3" s="0" t="n">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="Z3" s="0" t="n">
         <f aca="false">0.5*C3+0.5*D3</f>
         <v>1</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <f aca="false">0.4*E3+0.1*G3+0.3*I3+0.2*M3</f>
         <v>1</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <f aca="false">0.3*F3+0.2*J3+0.2*K3+0.3*L3</f>
         <v>1</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <f aca="false">1*H3</f>
         <v>1</v>
-      </c>
-      <c r="AD3" s="0" t="n">
-        <f aca="false">ROUND(Y3/10, 2)</f>
-        <v>0.1</v>
       </c>
       <c r="AE3" s="0" t="n">
         <f aca="false">ROUND(Z3/10, 2)</f>
@@ -2417,7 +2399,11 @@
         <v>0.1</v>
       </c>
       <c r="AH3" s="0" t="n">
-        <f aca="false">AD3+AE3+AF3+AG3</f>
+        <f aca="false">ROUND(AC3/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <f aca="false">AE3+AF3+AG3+AH3</f>
         <v>0.4</v>
       </c>
     </row>
@@ -2464,71 +2450,75 @@
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C4*5)+(D4*10))+(E4*2))+(F4*4))-(G4*7))+(H4*4))-(I4*4))+(J4*3))+(K4*10))+(L4*5))+(M4*0)) / 32))</f>
-        <v>5</v>
+        <f aca="false">ROUND((C4*5+D4*10+E4*2+F4*4-G4*7+H4*4-I4*4+J4*3+K4*10+L4*5+M4*0) / 54)</f>
+        <v>3</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C4*8)+(D4*10))+(E4*2))-(F4*4))-(G4*5))+(H4*2))-(I4*3))+(J4*5))+(K4*5))+(L4*2))+(M4*2)) / 24))</f>
-        <v>7</v>
+        <f aca="false">ROUND((C4*8+D4*10+E4*2-F4*4-G4*5+H4*2-I4*3+J4*5+K4*5+L4*2+M4*2) / 48)</f>
+        <v>3</v>
       </c>
       <c r="R4" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C4*0)+(D4*3))+(E4*10))-(F4*3))+(G4*2))+(H4*4))+(I4*5))-(J4*3))-(K4*4))-(L4*2))+(M4*2)) / 14))</f>
-        <v>3</v>
+        <f aca="false">ROUND((C4*0+D4*3+E4*10-F4*3+G4*2+H4*4+I4*5-J4*3-K4*4-L4*2+M4*2) / 38)</f>
+        <v>1</v>
       </c>
       <c r="S4" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C4*3)-(D4*5))+(E4*3))+(F4*1))+(G4*4))+(H4*2))+(I4*10))-(J4*3))+(K4*6))+(L4*8))+(M4*0)) / 23))</f>
+        <f aca="false">ROUND((-C4*3-D4*5+E4*3+F4*1+G4*4+H4*2+I4*10-J4*3+K4*6+L4*8+M4*0) / 45)</f>
         <v>-1</v>
       </c>
       <c r="T4" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C4*5)+(D4*5))-(E4*3))+(F4*7))-(G4*2))+(H4*7))-(I4*3))+(J4*5))+(K4*8))+(L4*8))+(M4*1)) / 38))</f>
-        <v>3</v>
+        <f aca="false">ROUND((C4*5+D4*5-E4*3+F4*7-G4*2+H4*7-I4*3+J4*5+K4*8+L4*8+M4*1) / 54)</f>
+        <v>2</v>
       </c>
       <c r="U4" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C4*4)-(D4*2))+(E4*5))+(F4*5))+(G4*2))+(H4*2))-(I4*1))+(J4*7))+(K4*1))+(L4*2))+(M4*10)) / 27))</f>
-        <v>-2</v>
+        <f aca="false">ROUND((-C4*4-D4*2+E4*5+F4*5+G4*2+H4*2-I4*1+J4*7+K4*1+L4*2+M4*10) / 41)</f>
+        <v>-1</v>
       </c>
       <c r="V4" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C4*2)+(D4*4))+(E4*9))+(F4*3))-(G4*3))+(H4*10))-(I4*3))+(J4*3))+(K4*8))+(L4*5))+(M4*0)) / 38))</f>
-        <v>3</v>
-      </c>
-      <c r="W4" s="13" t="n">
-        <f aca="false">SUM(P4:V4)</f>
-        <v>18</v>
-      </c>
-      <c r="Y4" s="0" t="n">
+        <f aca="false">ROUND((C4*2+D4*4+E4*9+F4*3-G4*3+H4*10-I4*3+J4*3+K4*8+L4*5+M4*0) / 50)</f>
+        <v>2</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <f aca="false">ROUND((3*C4-1*D4-10*E4+3*F4-6*G4+6*H4-7*I4+2*J4+1*K4+8*L4-2*M4)/50)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <f aca="false">SUM(P4:W4)</f>
+        <v>9</v>
+      </c>
+      <c r="Z4" s="0" t="n">
         <f aca="false">0.5*C4+0.5*D4</f>
         <v>6</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <f aca="false">0.4*E4+0.1*G4+0.3*I4+0.2*M4</f>
         <v>-0.2</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <f aca="false">0.3*F4+0.2*J4+0.2*K4+0.3*L4</f>
         <v>0.3</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <f aca="false">1*H4</f>
         <v>4</v>
       </c>
-      <c r="AD4" s="0" t="n">
-        <f aca="false">ROUND(Y4/10, 2)</f>
-        <v>0.6</v>
-      </c>
       <c r="AE4" s="0" t="n">
         <f aca="false">ROUND(Z4/10, 2)</f>
-        <v>-0.02</v>
+        <v>0.6</v>
       </c>
       <c r="AF4" s="0" t="n">
         <f aca="false">ROUND(AA4/10, 2)</f>
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AG4" s="0" t="n">
         <f aca="false">ROUND(AB4/10, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <f aca="false">ROUND(AC4/10, 2)</f>
         <v>0.4</v>
       </c>
-      <c r="AH4" s="0" t="n">
-        <f aca="false">AD4+AE4+AF4+AG4</f>
+      <c r="AI4" s="0" t="n">
+        <f aca="false">AE4+AF4+AG4+AH4</f>
         <v>1.01</v>
       </c>
     </row>
@@ -2575,71 +2565,75 @@
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C5*5)+(D5*10))+(E5*2))+(F5*4))-(G5*7))+(H5*4))-(I5*4))+(J5*3))+(K5*10))+(L5*5))+(M5*0)) / 32))</f>
+        <f aca="false">ROUND((C5*5+D5*10+E5*2+F5*4-G5*7+H5*4-I5*4+J5*3+K5*10+L5*5+M5*0) / 54)</f>
         <v>1</v>
       </c>
       <c r="Q5" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C5*8)+(D5*10))+(E5*2))-(F5*4))-(G5*5))+(H5*2))-(I5*3))+(J5*5))+(K5*5))+(L5*2))+(M5*2)) / 24))</f>
-        <v>2</v>
+        <f aca="false">ROUND((C5*8+D5*10+E5*2-F5*4-G5*5+H5*2-I5*3+J5*5+K5*5+L5*2+M5*2) / 48)</f>
+        <v>1</v>
       </c>
       <c r="R5" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C5*0)+(D5*3))+(E5*10))-(F5*3))+(G5*2))+(H5*4))+(I5*5))-(J5*3))-(K5*4))-(L5*2))+(M5*2)) / 14))</f>
-        <v>-2</v>
+        <f aca="false">ROUND((C5*0+D5*3+E5*10-F5*3+G5*2+H5*4+I5*5-J5*3-K5*4-L5*2+M5*2) / 38)</f>
+        <v>-1</v>
       </c>
       <c r="S5" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C5*3)-(D5*5))+(E5*3))+(F5*1))+(G5*4))+(H5*2))+(I5*10))-(J5*3))+(K5*6))+(L5*8))+(M5*0)) / 23))</f>
+        <f aca="false">ROUND((-C5*3-D5*5+E5*3+F5*1+G5*4+H5*2+I5*10-J5*3+K5*6+L5*8+M5*0) / 45)</f>
         <v>0</v>
       </c>
       <c r="T5" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C5*5)+(D5*5))-(E5*3))+(F5*7))-(G5*2))+(H5*7))-(I5*3))+(J5*5))+(K5*8))+(L5*8))+(M5*1)) / 38))</f>
-        <v>2</v>
+        <f aca="false">ROUND((C5*5+D5*5-E5*3+F5*7-G5*2+H5*7-I5*3+J5*5+K5*8+L5*8+M5*1) / 54)</f>
+        <v>1</v>
       </c>
       <c r="U5" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C5*4)-(D5*2))+(E5*5))+(F5*5))+(G5*2))+(H5*2))-(I5*1))+(J5*7))+(K5*1))+(L5*2))+(M5*10)) / 27))</f>
+        <f aca="false">ROUND((-C5*4-D5*2+E5*5+F5*5+G5*2+H5*2-I5*1+J5*7+K5*1+L5*2+M5*10) / 41)</f>
         <v>-1</v>
       </c>
       <c r="V5" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C5*2)+(D5*4))+(E5*9))+(F5*3))-(G5*3))+(H5*10))-(I5*3))+(J5*3))+(K5*8))+(L5*5))+(M5*0)) / 38))</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="13" t="n">
-        <f aca="false">SUM(P5:V5)</f>
-        <v>2</v>
-      </c>
-      <c r="Y5" s="0" t="n">
+        <f aca="false">ROUND((C5*2+D5*4+E5*9+F5*3-G5*3+H5*10-I5*3+J5*3+K5*8+L5*5+M5*0) / 50)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <f aca="false">ROUND((3*C5-1*D5-10*E5+3*F5-6*G5+6*H5-7*I5+2*J5+1*K5+8*L5-2*M5)/50)</f>
+        <v>1</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <f aca="false">SUM(P5:W5)</f>
+        <v>2</v>
+      </c>
+      <c r="Z5" s="0" t="n">
         <f aca="false">0.5*C5+0.5*D5</f>
         <v>3.5</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <f aca="false">0.4*E5+0.1*G5+0.3*I5+0.2*M5</f>
         <v>-0.6</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <f aca="false">0.3*F5+0.2*J5+0.2*K5+0.3*L5</f>
         <v>0.1</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <f aca="false">1*H5</f>
         <v>1</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <f aca="false">ROUND(Y5/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AE5" s="0" t="n">
         <f aca="false">ROUND(Z5/10, 2)</f>
-        <v>-0.06</v>
+        <v>0.35</v>
       </c>
       <c r="AF5" s="0" t="n">
         <f aca="false">ROUND(AA5/10, 2)</f>
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="AG5" s="0" t="n">
         <f aca="false">ROUND(AB5/10, 2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="AH5" s="0" t="n">
+        <f aca="false">ROUND(AC5/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AH5" s="0" t="n">
-        <f aca="false">AD5+AE5+AF5+AG5</f>
+      <c r="AI5" s="0" t="n">
+        <f aca="false">AE5+AF5+AG5+AH5</f>
         <v>0.4</v>
       </c>
     </row>
@@ -2686,71 +2680,75 @@
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C6*5)+(D6*10))+(E6*2))+(F6*4))-(G6*7))+(H6*4))-(I6*4))+(J6*3))+(K6*10))+(L6*5))+(M6*0)) / 32))</f>
-        <v>5</v>
+        <f aca="false">ROUND((C6*5+D6*10+E6*2+F6*4-G6*7+H6*4-I6*4+J6*3+K6*10+L6*5+M6*0) / 54)</f>
+        <v>3</v>
       </c>
       <c r="Q6" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C6*8)+(D6*10))+(E6*2))-(F6*4))-(G6*5))+(H6*2))-(I6*3))+(J6*5))+(K6*5))+(L6*2))+(M6*2)) / 24))</f>
-        <v>6</v>
+        <f aca="false">ROUND((C6*8+D6*10+E6*2-F6*4-G6*5+H6*2-I6*3+J6*5+K6*5+L6*2+M6*2) / 48)</f>
+        <v>3</v>
       </c>
       <c r="R6" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C6*0)+(D6*3))+(E6*10))-(F6*3))+(G6*2))+(H6*4))+(I6*5))-(J6*3))-(K6*4))-(L6*2))+(M6*2)) / 14))</f>
-        <v>1</v>
+        <f aca="false">ROUND((C6*0+D6*3+E6*10-F6*3+G6*2+H6*4+I6*5-J6*3-K6*4-L6*2+M6*2) / 38)</f>
+        <v>0</v>
       </c>
       <c r="S6" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C6*3)-(D6*5))+(E6*3))+(F6*1))+(G6*4))+(H6*2))+(I6*10))-(J6*3))+(K6*6))+(L6*8))+(M6*0)) / 23))</f>
+        <f aca="false">ROUND((-C6*3-D6*5+E6*3+F6*1+G6*4+H6*2+I6*10-J6*3+K6*6+L6*8+M6*0) / 45)</f>
         <v>-1</v>
       </c>
       <c r="T6" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C6*5)+(D6*5))-(E6*3))+(F6*7))-(G6*2))+(H6*7))-(I6*3))+(J6*5))+(K6*8))+(L6*8))+(M6*1)) / 38))</f>
-        <v>3</v>
+        <f aca="false">ROUND((C6*5+D6*5-E6*3+F6*7-G6*2+H6*7-I6*3+J6*5+K6*8+L6*8+M6*1) / 54)</f>
+        <v>2</v>
       </c>
       <c r="U6" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C6*4)-(D6*2))+(E6*5))+(F6*5))+(G6*2))+(H6*2))-(I6*1))+(J6*7))+(K6*1))+(L6*2))+(M6*10)) / 27))</f>
-        <v>1</v>
+        <f aca="false">ROUND((-C6*4-D6*2+E6*5+F6*5+G6*2+H6*2-I6*1+J6*7+K6*1+L6*2+M6*10) / 41)</f>
+        <v>0</v>
       </c>
       <c r="V6" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C6*2)+(D6*4))+(E6*9))+(F6*3))-(G6*3))+(H6*10))-(I6*3))+(J6*3))+(K6*8))+(L6*5))+(M6*0)) / 38))</f>
-        <v>3</v>
-      </c>
-      <c r="W6" s="13" t="n">
-        <f aca="false">SUM(P6:V6)</f>
-        <v>18</v>
-      </c>
-      <c r="Y6" s="0" t="n">
+        <f aca="false">ROUND((C6*2+D6*4+E6*9+F6*3-G6*3+H6*10-I6*3+J6*3+K6*8+L6*5+M6*0) / 50)</f>
+        <v>2</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <f aca="false">ROUND((3*C6-1*D6-10*E6+3*F6-6*G6+6*H6-7*I6+2*J6+1*K6+8*L6-2*M6)/50)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <f aca="false">SUM(P6:W6)</f>
+        <v>9</v>
+      </c>
+      <c r="Z6" s="0" t="n">
         <f aca="false">0.5*C6+0.5*D6</f>
         <v>5.5</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <f aca="false">0.4*E6+0.1*G6+0.3*I6+0.2*M6</f>
         <v>0.4</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <f aca="false">0.3*F6+0.2*J6+0.2*K6+0.3*L6</f>
         <v>2.1</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <f aca="false">1*H6</f>
         <v>2</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <f aca="false">ROUND(Y6/10, 2)</f>
-        <v>0.55</v>
       </c>
       <c r="AE6" s="0" t="n">
         <f aca="false">ROUND(Z6/10, 2)</f>
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="AF6" s="0" t="n">
         <f aca="false">ROUND(AA6/10, 2)</f>
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="AG6" s="0" t="n">
         <f aca="false">ROUND(AB6/10, 2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <f aca="false">ROUND(AC6/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AH6" s="0" t="n">
-        <f aca="false">AD6+AE6+AF6+AG6</f>
+      <c r="AI6" s="0" t="n">
+        <f aca="false">AE6+AF6+AG6+AH6</f>
         <v>1</v>
       </c>
     </row>
@@ -2797,71 +2795,75 @@
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C7*5)+(D7*10))+(E7*2))+(F7*4))-(G7*7))+(H7*4))-(I7*4))+(J7*3))+(K7*10))+(L7*5))+(M7*0)) / 32))</f>
-        <v>5</v>
+        <f aca="false">ROUND((C7*5+D7*10+E7*2+F7*4-G7*7+H7*4-I7*4+J7*3+K7*10+L7*5+M7*0) / 54)</f>
+        <v>3</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C7*8)+(D7*10))+(E7*2))-(F7*4))-(G7*5))+(H7*2))-(I7*3))+(J7*5))+(K7*5))+(L7*2))+(M7*2)) / 24))</f>
-        <v>6</v>
+        <f aca="false">ROUND((C7*8+D7*10+E7*2-F7*4-G7*5+H7*2-I7*3+J7*5+K7*5+L7*2+M7*2) / 48)</f>
+        <v>3</v>
       </c>
       <c r="R7" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C7*0)+(D7*3))+(E7*10))-(F7*3))+(G7*2))+(H7*4))+(I7*5))-(J7*3))-(K7*4))-(L7*2))+(M7*2)) / 14))</f>
-        <v>2</v>
+        <f aca="false">ROUND((C7*0+D7*3+E7*10-F7*3+G7*2+H7*4+I7*5-J7*3-K7*4-L7*2+M7*2) / 38)</f>
+        <v>1</v>
       </c>
       <c r="S7" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C7*3)-(D7*5))+(E7*3))+(F7*1))+(G7*4))+(H7*2))+(I7*10))-(J7*3))+(K7*6))+(L7*8))+(M7*0)) / 23))</f>
+        <f aca="false">ROUND((-C7*3-D7*5+E7*3+F7*1+G7*4+H7*2+I7*10-J7*3+K7*6+L7*8+M7*0) / 45)</f>
         <v>-1</v>
       </c>
       <c r="T7" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C7*5)+(D7*5))-(E7*3))+(F7*7))-(G7*2))+(H7*7))-(I7*3))+(J7*5))+(K7*8))+(L7*8))+(M7*1)) / 38))</f>
+        <f aca="false">ROUND((C7*5+D7*5-E7*3+F7*7-G7*2+H7*7-I7*3+J7*5+K7*8+L7*8+M7*1) / 54)</f>
         <v>2</v>
       </c>
       <c r="U7" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C7*4)-(D7*2))+(E7*5))+(F7*5))+(G7*2))+(H7*2))-(I7*1))+(J7*7))+(K7*1))+(L7*2))+(M7*10)) / 27))</f>
-        <v>0</v>
+        <f aca="false">ROUND((-C7*4-D7*2+E7*5+F7*5+G7*2+H7*2-I7*1+J7*7+K7*1+L7*2+M7*10) / 41)</f>
+        <v>-0</v>
       </c>
       <c r="V7" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C7*2)+(D7*4))+(E7*9))+(F7*3))-(G7*3))+(H7*10))-(I7*3))+(J7*3))+(K7*8))+(L7*5))+(M7*0)) / 38))</f>
-        <v>3</v>
-      </c>
-      <c r="W7" s="13" t="n">
-        <f aca="false">SUM(P7:V7)</f>
-        <v>17</v>
-      </c>
-      <c r="Y7" s="0" t="n">
+        <f aca="false">ROUND((C7*2+D7*4+E7*9+F7*3-G7*3+H7*10-I7*3+J7*3+K7*8+L7*5+M7*0) / 50)</f>
+        <v>2</v>
+      </c>
+      <c r="W7" s="12" t="n">
+        <f aca="false">ROUND((3*C7-1*D7-10*E7+3*F7-6*G7+6*H7-7*I7+2*J7+1*K7+8*L7-2*M7)/50)</f>
+        <v>-0</v>
+      </c>
+      <c r="X7" s="13" t="n">
+        <f aca="false">SUM(P7:W7)</f>
+        <v>10</v>
+      </c>
+      <c r="Z7" s="0" t="n">
         <f aca="false">0.5*C7+0.5*D7</f>
         <v>5.5</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <f aca="false">0.4*E7+0.1*G7+0.3*I7+0.2*M7</f>
         <v>0.4</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <f aca="false">0.3*F7+0.2*J7+0.2*K7+0.3*L7</f>
         <v>0.6</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <f aca="false">1*H7</f>
         <v>2</v>
-      </c>
-      <c r="AD7" s="0" t="n">
-        <f aca="false">ROUND(Y7/10, 2)</f>
-        <v>0.55</v>
       </c>
       <c r="AE7" s="0" t="n">
         <f aca="false">ROUND(Z7/10, 2)</f>
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="AF7" s="0" t="n">
         <f aca="false">ROUND(AA7/10, 2)</f>
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AG7" s="0" t="n">
         <f aca="false">ROUND(AB7/10, 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <f aca="false">ROUND(AC7/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AH7" s="0" t="n">
-        <f aca="false">AD7+AE7+AF7+AG7</f>
+      <c r="AI7" s="0" t="n">
+        <f aca="false">AE7+AF7+AG7+AH7</f>
         <v>0.85</v>
       </c>
     </row>
@@ -2908,71 +2910,75 @@
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C8*5)+(D8*10))+(E8*2))+(F8*4))-(G8*7))+(H8*4))-(I8*4))+(J8*3))+(K8*10))+(L8*5))+(M8*0)) / 32))</f>
-        <v>2</v>
+        <f aca="false">ROUND((C8*5+D8*10+E8*2+F8*4-G8*7+H8*4-I8*4+J8*3+K8*10+L8*5+M8*0) / 54)</f>
+        <v>1</v>
       </c>
       <c r="Q8" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C8*8)+(D8*10))+(E8*2))-(F8*4))-(G8*5))+(H8*2))-(I8*3))+(J8*5))+(K8*5))+(L8*2))+(M8*2)) / 24))</f>
-        <v>2</v>
+        <f aca="false">ROUND((C8*8+D8*10+E8*2-F8*4-G8*5+H8*2-I8*3+J8*5+K8*5+L8*2+M8*2) / 48)</f>
+        <v>1</v>
       </c>
       <c r="R8" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C8*0)+(D8*3))+(E8*10))-(F8*3))+(G8*2))+(H8*4))+(I8*5))-(J8*3))-(K8*4))-(L8*2))+(M8*2)) / 14))</f>
-        <v>2</v>
+        <f aca="false">ROUND((C8*0+D8*3+E8*10-F8*3+G8*2+H8*4+I8*5-J8*3-K8*4-L8*2+M8*2) / 38)</f>
+        <v>1</v>
       </c>
       <c r="S8" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C8*3)-(D8*5))+(E8*3))+(F8*1))+(G8*4))+(H8*2))+(I8*10))-(J8*3))+(K8*6))+(L8*8))+(M8*0)) / 23))</f>
-        <v>1</v>
+        <f aca="false">ROUND((-C8*3-D8*5+E8*3+F8*1+G8*4+H8*2+I8*10-J8*3+K8*6+L8*8+M8*0) / 45)</f>
+        <v>0</v>
       </c>
       <c r="T8" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C8*5)+(D8*5))-(E8*3))+(F8*7))-(G8*2))+(H8*7))-(I8*3))+(J8*5))+(K8*8))+(L8*8))+(M8*1)) / 38))</f>
+        <f aca="false">ROUND((C8*5+D8*5-E8*3+F8*7-G8*2+H8*7-I8*3+J8*5+K8*8+L8*8+M8*1) / 54)</f>
         <v>1</v>
       </c>
       <c r="U8" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C8*4)-(D8*2))+(E8*5))+(F8*5))+(G8*2))+(H8*2))-(I8*1))+(J8*7))+(K8*1))+(L8*2))+(M8*10)) / 27))</f>
+        <f aca="false">ROUND((-C8*4-D8*2+E8*5+F8*5+G8*2+H8*2-I8*1+J8*7+K8*1+L8*2+M8*10) / 41)</f>
         <v>0</v>
       </c>
       <c r="V8" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C8*2)+(D8*4))+(E8*9))+(F8*3))-(G8*3))+(H8*10))-(I8*3))+(J8*3))+(K8*8))+(L8*5))+(M8*0)) / 38))</f>
-        <v>2</v>
-      </c>
-      <c r="W8" s="13" t="n">
-        <f aca="false">SUM(P8:V8)</f>
-        <v>10</v>
-      </c>
-      <c r="Y8" s="0" t="n">
+        <f aca="false">ROUND((C8*2+D8*4+E8*9+F8*3-G8*3+H8*10-I8*3+J8*3+K8*8+L8*5+M8*0) / 50)</f>
+        <v>1</v>
+      </c>
+      <c r="W8" s="12" t="n">
+        <f aca="false">ROUND((3*C8-1*D8-10*E8+3*F8-6*G8+6*H8-7*I8+2*J8+1*K8+8*L8-2*M8)/50)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="13" t="n">
+        <f aca="false">SUM(P8:W8)</f>
+        <v>5</v>
+      </c>
+      <c r="Z8" s="0" t="n">
         <f aca="false">0.5*C8+0.5*D8</f>
         <v>3.5</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <f aca="false">0.4*E8+0.1*G8+0.3*I8+0.2*M8</f>
         <v>1.8</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <f aca="false">0.3*F8+0.2*J8+0.2*K8+0.3*L8</f>
         <v>0.4</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <f aca="false">1*H8</f>
         <v>1</v>
-      </c>
-      <c r="AD8" s="0" t="n">
-        <f aca="false">ROUND(Y8/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AE8" s="0" t="n">
         <f aca="false">ROUND(Z8/10, 2)</f>
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="AF8" s="0" t="n">
         <f aca="false">ROUND(AA8/10, 2)</f>
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="AG8" s="0" t="n">
         <f aca="false">ROUND(AB8/10, 2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <f aca="false">ROUND(AC8/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AH8" s="0" t="n">
-        <f aca="false">AD8+AE8+AF8+AG8</f>
+      <c r="AI8" s="0" t="n">
+        <f aca="false">AE8+AF8+AG8+AH8</f>
         <v>0.67</v>
       </c>
     </row>
@@ -3019,71 +3025,75 @@
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C9*5)+(D9*10))+(E9*2))+(F9*4))-(G9*7))+(H9*4))-(I9*4))+(J9*3))+(K9*10))+(L9*5))+(M9*0)) / 32))</f>
-        <v>-1</v>
+        <f aca="false">ROUND((C9*5+D9*10+E9*2+F9*4-G9*7+H9*4-I9*4+J9*3+K9*10+L9*5+M9*0) / 54)</f>
+        <v>-0</v>
       </c>
       <c r="Q9" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C9*8)+(D9*10))+(E9*2))-(F9*4))-(G9*5))+(H9*2))-(I9*3))+(J9*5))+(K9*5))+(L9*2))+(M9*2)) / 24))</f>
-        <v>-1</v>
+        <f aca="false">ROUND((C9*8+D9*10+E9*2-F9*4-G9*5+H9*2-I9*3+J9*5+K9*5+L9*2+M9*2) / 48)</f>
+        <v>-0</v>
       </c>
       <c r="R9" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C9*0)+(D9*3))+(E9*10))-(F9*3))+(G9*2))+(H9*4))+(I9*5))-(J9*3))-(K9*4))-(L9*2))+(M9*2)) / 14))</f>
-        <v>8</v>
+        <f aca="false">ROUND((C9*0+D9*3+E9*10-F9*3+G9*2+H9*4+I9*5-J9*3-K9*4-L9*2+M9*2) / 38)</f>
+        <v>3</v>
       </c>
       <c r="S9" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C9*3)-(D9*5))+(E9*3))+(F9*1))+(G9*4))+(H9*2))+(I9*10))-(J9*3))+(K9*6))+(L9*8))+(M9*0)) / 23))</f>
-        <v>7</v>
+        <f aca="false">ROUND((-C9*3-D9*5+E9*3+F9*1+G9*4+H9*2+I9*10-J9*3+K9*6+L9*8+M9*0) / 45)</f>
+        <v>4</v>
       </c>
       <c r="T9" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C9*5)+(D9*5))-(E9*3))+(F9*7))-(G9*2))+(H9*7))-(I9*3))+(J9*5))+(K9*8))+(L9*8))+(M9*1)) / 38))</f>
-        <v>-2</v>
+        <f aca="false">ROUND((C9*5+D9*5-E9*3+F9*7-G9*2+H9*7-I9*3+J9*5+K9*8+L9*8+M9*1) / 54)</f>
+        <v>-1</v>
       </c>
       <c r="U9" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C9*4)-(D9*2))+(E9*5))+(F9*5))+(G9*2))+(H9*2))-(I9*1))+(J9*7))+(K9*1))+(L9*2))+(M9*10)) / 27))</f>
-        <v>2</v>
+        <f aca="false">ROUND((-C9*4-D9*2+E9*5+F9*5+G9*2+H9*2-I9*1+J9*7+K9*1+L9*2+M9*10) / 41)</f>
+        <v>1</v>
       </c>
       <c r="V9" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C9*2)+(D9*4))+(E9*9))+(F9*3))-(G9*3))+(H9*10))-(I9*3))+(J9*3))+(K9*8))+(L9*5))+(M9*0)) / 38))</f>
-        <v>2</v>
-      </c>
-      <c r="W9" s="13" t="n">
-        <f aca="false">SUM(P9:V9)</f>
-        <v>15</v>
-      </c>
-      <c r="Y9" s="0" t="n">
+        <f aca="false">ROUND((C9*2+D9*4+E9*9+F9*3-G9*3+H9*10-I9*3+J9*3+K9*8+L9*5+M9*0) / 50)</f>
+        <v>2</v>
+      </c>
+      <c r="W9" s="12" t="n">
+        <f aca="false">ROUND((3*C9-1*D9-10*E9+3*F9-6*G9+6*H9-7*I9+2*J9+1*K9+8*L9-2*M9)/50)</f>
+        <v>-3</v>
+      </c>
+      <c r="X9" s="13" t="n">
+        <f aca="false">SUM(P9:W9)</f>
+        <v>6</v>
+      </c>
+      <c r="Z9" s="0" t="n">
         <f aca="false">0.5*C9+0.5*D9</f>
         <v>-2.5</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <f aca="false">0.4*E9+0.1*G9+0.3*I9+0.2*M9</f>
         <v>6</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <f aca="false">0.3*F9+0.2*J9+0.2*K9+0.3*L9</f>
         <v>-0.0999999999999999</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <f aca="false">1*H9</f>
         <v>-1</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <f aca="false">ROUND(Y9/10, 2)</f>
-        <v>-0.25</v>
       </c>
       <c r="AE9" s="0" t="n">
         <f aca="false">ROUND(Z9/10, 2)</f>
-        <v>0.6</v>
+        <v>-0.25</v>
       </c>
       <c r="AF9" s="0" t="n">
         <f aca="false">ROUND(AA9/10, 2)</f>
-        <v>-0.01</v>
+        <v>0.6</v>
       </c>
       <c r="AG9" s="0" t="n">
         <f aca="false">ROUND(AB9/10, 2)</f>
+        <v>-0.01</v>
+      </c>
+      <c r="AH9" s="0" t="n">
+        <f aca="false">ROUND(AC9/10, 2)</f>
         <v>-0.1</v>
       </c>
-      <c r="AH9" s="0" t="n">
-        <f aca="false">AD9+AE9+AF9+AG9</f>
+      <c r="AI9" s="0" t="n">
+        <f aca="false">AE9+AF9+AG9+AH9</f>
         <v>0.24</v>
       </c>
     </row>
@@ -3098,16 +3108,16 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>-3</v>
@@ -3126,76 +3136,80 @@
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">SUM(C10:M10)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C10*5)+(D10*10))+(E10*2))+(F10*4))-(G10*7))+(H10*4))-(I10*4))+(J10*3))+(K10*10))+(L10*5))+(M10*0)) / 32))</f>
-        <v>8</v>
+        <f aca="false">ROUND((C10*5+D10*10+E10*2+F10*4-G10*7+H10*4-I10*4+J10*3+K10*10+L10*5+M10*0) / 54)</f>
+        <v>4</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C10*8)+(D10*10))+(E10*2))-(F10*4))-(G10*5))+(H10*2))-(I10*3))+(J10*5))+(K10*5))+(L10*2))+(M10*2)) / 24))</f>
-        <v>6</v>
+        <f aca="false">ROUND((C10*8+D10*10+E10*2-F10*4-G10*5+H10*2-I10*3+J10*5+K10*5+L10*2+M10*2) / 48)</f>
+        <v>3</v>
       </c>
       <c r="R10" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C10*0)+(D10*3))+(E10*10))-(F10*3))+(G10*2))+(H10*4))+(I10*5))-(J10*3))-(K10*4))-(L10*2))+(M10*2)) / 14))</f>
-        <v>-6</v>
+        <f aca="false">ROUND((C10*0+D10*3+E10*10-F10*3+G10*2+H10*4+I10*5-J10*3-K10*4-L10*2+M10*2) / 38)</f>
+        <v>-2</v>
       </c>
       <c r="S10" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C10*3)-(D10*5))+(E10*3))+(F10*1))+(G10*4))+(H10*2))+(I10*10))-(J10*3))+(K10*6))+(L10*8))+(M10*0)) / 23))</f>
+        <f aca="false">ROUND((-C10*3-D10*5+E10*3+F10*1+G10*4+H10*2+I10*10-J10*3+K10*6+L10*8+M10*0) / 45)</f>
         <v>1</v>
       </c>
       <c r="T10" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C10*5)+(D10*5))-(E10*3))+(F10*7))-(G10*2))+(H10*7))-(I10*3))+(J10*5))+(K10*8))+(L10*8))+(M10*1)) / 38))</f>
-        <v>6</v>
+        <f aca="false">ROUND((C10*5+D10*5-E10*3+F10*7-G10*2+H10*7-I10*3+J10*5+K10*8+L10*8+M10*1) / 54)</f>
+        <v>4</v>
       </c>
       <c r="U10" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C10*4)-(D10*2))+(E10*5))+(F10*5))+(G10*2))+(H10*2))-(I10*1))+(J10*7))+(K10*1))+(L10*2))+(M10*10)) / 27))</f>
+        <f aca="false">ROUND((-C10*4-D10*2+E10*5+F10*5+G10*2+H10*2-I10*1+J10*7+K10*1+L10*2+M10*10) / 41)</f>
         <v>1</v>
       </c>
       <c r="V10" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C10*2)+(D10*4))+(E10*9))+(F10*3))-(G10*3))+(H10*10))-(I10*3))+(J10*3))+(K10*8))+(L10*5))+(M10*0)) / 38))</f>
-        <v>5</v>
-      </c>
-      <c r="W10" s="13" t="n">
-        <f aca="false">SUM(P10:V10)</f>
-        <v>21</v>
-      </c>
-      <c r="Y10" s="0" t="n">
+        <f aca="false">ROUND((C10*2+D10*4+E10*9+F10*3-G10*3+H10*10-I10*3+J10*3+K10*8+L10*5+M10*0) / 50)</f>
+        <v>4</v>
+      </c>
+      <c r="W10" s="12" t="n">
+        <f aca="false">ROUND((3*C10-1*D10-10*E10+3*F10-6*G10+6*H10-7*I10+2*J10+1*K10+8*L10-2*M10)/50)</f>
+        <v>3</v>
+      </c>
+      <c r="X10" s="13" t="n">
+        <f aca="false">SUM(P10:W10)</f>
+        <v>18</v>
+      </c>
+      <c r="Z10" s="0" t="n">
         <f aca="false">0.5*C10+0.5*D10</f>
         <v>3.5</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <f aca="false">0.4*E10+0.1*G10+0.3*I10+0.2*M10</f>
-        <v>-2.1</v>
-      </c>
-      <c r="AA10" s="0" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AB10" s="0" t="n">
         <f aca="false">0.3*F10+0.2*J10+0.2*K10+0.3*L10</f>
         <v>4.5</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <f aca="false">1*H10</f>
-        <v>4</v>
-      </c>
-      <c r="AD10" s="0" t="n">
-        <f aca="false">ROUND(Y10/10, 2)</f>
-        <v>0.35</v>
+        <v>6</v>
       </c>
       <c r="AE10" s="0" t="n">
         <f aca="false">ROUND(Z10/10, 2)</f>
-        <v>-0.21</v>
+        <v>0.35</v>
       </c>
       <c r="AF10" s="0" t="n">
         <f aca="false">ROUND(AA10/10, 2)</f>
-        <v>0.45</v>
+        <v>-0.15</v>
       </c>
       <c r="AG10" s="0" t="n">
         <f aca="false">ROUND(AB10/10, 2)</f>
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AH10" s="0" t="n">
-        <f aca="false">AD10+AE10+AF10+AG10</f>
-        <v>0.99</v>
+        <f aca="false">ROUND(AC10/10, 2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <f aca="false">AE10+AF10+AG10+AH10</f>
+        <v>1.25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -3212,16 +3226,16 @@
         <v>-4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>0</v>
@@ -3237,76 +3251,80 @@
       </c>
       <c r="N11" s="0" t="n">
         <f aca="false">SUM(C11:M11)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C11*5)+(D11*10))+(E11*2))+(F11*4))-(G11*7))+(H11*4))-(I11*4))+(J11*3))+(K11*10))+(L11*5))+(M11*0)) / 32))</f>
+        <f aca="false">ROUND((C11*5+D11*10+E11*2+F11*4-G11*7+H11*4-I11*4+J11*3+K11*10+L11*5+M11*0) / 54)</f>
+        <v>3</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <f aca="false">ROUND((C11*8+D11*10+E11*2-F11*4-G11*5+H11*2-I11*3+J11*5+K11*5+L11*2+M11*2) / 48)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <f aca="false">ROUND((C11*0+D11*3+E11*10-F11*3+G11*2+H11*4+I11*5-J11*3-K11*4-L11*2+M11*2) / 38)</f>
+        <v>-3</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <f aca="false">ROUND((-C11*3-D11*5+E11*3+F11*1+G11*4+H11*2+I11*10-J11*3+K11*6+L11*8+M11*0) / 45)</f>
+        <v>3</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <f aca="false">ROUND((C11*5+D11*5-E11*3+F11*7-G11*2+H11*7-I11*3+J11*5+K11*8+L11*8+M11*1) / 54)</f>
+        <v>4</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <f aca="false">ROUND((-C11*4-D11*2+E11*5+F11*5+G11*2+H11*2-I11*1+J11*7+K11*1+L11*2+M11*10) / 41)</f>
+        <v>1</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <f aca="false">ROUND((C11*2+D11*4+E11*9+F11*3-G11*3+H11*10-I11*3+J11*3+K11*8+L11*5+M11*0) / 50)</f>
+        <v>3</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <f aca="false">ROUND((3*C11-1*D11-10*E11+3*F11-6*G11+6*H11-7*I11+2*J11+1*K11+8*L11-2*M11)/50)</f>
+        <v>4</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <f aca="false">SUM(P11:W11)</f>
+        <v>15</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <f aca="false">0.5*C11+0.5*D11</f>
+        <v>-2</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <f aca="false">0.4*E11+0.1*G11+0.3*I11+0.2*M11</f>
+        <v>-2.8</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <f aca="false">0.3*F11+0.2*J11+0.2*K11+0.3*L11</f>
+        <v>6.5</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <f aca="false">1*H11</f>
         <v>5</v>
-      </c>
-      <c r="Q11" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C11*8)+(D11*10))+(E11*2))-(F11*4))-(G11*5))+(H11*2))-(I11*3))+(J11*5))+(K11*5))+(L11*2))+(M11*2)) / 24))</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C11*0)+(D11*3))+(E11*10))-(F11*3))+(G11*2))+(H11*4))+(I11*5))-(J11*3))-(K11*4))-(L11*2))+(M11*2)) / 14))</f>
-        <v>-8</v>
-      </c>
-      <c r="S11" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C11*3)-(D11*5))+(E11*3))+(F11*1))+(G11*4))+(H11*2))+(I11*10))-(J11*3))+(K11*6))+(L11*8))+(M11*0)) / 23))</f>
-        <v>5</v>
-      </c>
-      <c r="T11" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C11*5)+(D11*5))-(E11*3))+(F11*7))-(G11*2))+(H11*7))-(I11*3))+(J11*5))+(K11*8))+(L11*8))+(M11*1)) / 38))</f>
-        <v>7</v>
-      </c>
-      <c r="U11" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C11*4)-(D11*2))+(E11*5))+(F11*5))+(G11*2))+(H11*2))-(I11*1))+(J11*7))+(K11*1))+(L11*2))+(M11*10)) / 27))</f>
-        <v>2</v>
-      </c>
-      <c r="V11" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C11*2)+(D11*4))+(E11*9))+(F11*3))-(G11*3))+(H11*10))-(I11*3))+(J11*3))+(K11*8))+(L11*5))+(M11*0)) / 38))</f>
-        <v>4</v>
-      </c>
-      <c r="W11" s="13" t="n">
-        <f aca="false">SUM(P11:V11)</f>
-        <v>15</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <f aca="false">0.5*C11+0.5*D11</f>
-        <v>-2</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <f aca="false">0.4*E11+0.1*G11+0.3*I11+0.2*M11</f>
-        <v>-3</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <f aca="false">0.3*F11+0.2*J11+0.2*K11+0.3*L11</f>
-        <v>7.1</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <f aca="false">1*H11</f>
-        <v>7</v>
-      </c>
-      <c r="AD11" s="0" t="n">
-        <f aca="false">ROUND(Y11/10, 2)</f>
-        <v>-0.2</v>
       </c>
       <c r="AE11" s="0" t="n">
         <f aca="false">ROUND(Z11/10, 2)</f>
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AF11" s="0" t="n">
         <f aca="false">ROUND(AA11/10, 2)</f>
-        <v>0.71</v>
+        <v>-0.28</v>
       </c>
       <c r="AG11" s="0" t="n">
         <f aca="false">ROUND(AB11/10, 2)</f>
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="AH11" s="0" t="n">
-        <f aca="false">AD11+AE11+AF11+AG11</f>
-        <v>0.91</v>
+        <f aca="false">ROUND(AC11/10, 2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <f aca="false">AE11+AF11+AG11+AH11</f>
+        <v>0.67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -3320,19 +3338,19 @@
         <v>-2</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>1</v>
@@ -3341,83 +3359,87 @@
         <v>2</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" s="1" t="n">
         <v>-1</v>
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">SUM(C12:M12)</f>
-        <v>3</v>
+        <v>-11</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C12*5)+(D12*10))+(E12*2))+(F12*4))-(G12*7))+(H12*4))-(I12*4))+(J12*3))+(K12*10))+(L12*5))+(M12*0)) / 32))</f>
-        <v>1</v>
+        <f aca="false">ROUND((C12*5+D12*10+E12*2+F12*4-G12*7+H12*4-I12*4+J12*3+K12*10+L12*5+M12*0) / 54)</f>
+        <v>2</v>
       </c>
       <c r="Q12" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C12*8)+(D12*10))+(E12*2))-(F12*4))-(G12*5))+(H12*2))-(I12*3))+(J12*5))+(K12*5))+(L12*2))+(M12*2)) / 24))</f>
-        <v>-1</v>
+        <f aca="false">ROUND((C12*8+D12*10+E12*2-F12*4-G12*5+H12*2-I12*3+J12*5+K12*5+L12*2+M12*2) / 48)</f>
+        <v>0</v>
       </c>
       <c r="R12" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C12*0)+(D12*3))+(E12*10))-(F12*3))+(G12*2))+(H12*4))+(I12*5))-(J12*3))-(K12*4))-(L12*2))+(M12*2)) / 14))</f>
-        <v>-7</v>
+        <f aca="false">ROUND((C12*0+D12*3+E12*10-F12*3+G12*2+H12*4+I12*5-J12*3-K12*4-L12*2+M12*2) / 38)</f>
+        <v>-5</v>
       </c>
       <c r="S12" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C12*3)-(D12*5))+(E12*3))+(F12*1))+(G12*4))+(H12*2))+(I12*10))-(J12*3))+(K12*6))+(L12*8))+(M12*0)) / 23))</f>
-        <v>3</v>
+        <f aca="false">ROUND((-C12*3-D12*5+E12*3+F12*1+G12*4+H12*2+I12*10-J12*3+K12*6+L12*8+M12*0) / 45)</f>
+        <v>-1</v>
       </c>
       <c r="T12" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C12*5)+(D12*5))-(E12*3))+(F12*7))-(G12*2))+(H12*7))-(I12*3))+(J12*5))+(K12*8))+(L12*8))+(M12*1)) / 38))</f>
-        <v>2</v>
+        <f aca="false">ROUND((C12*5+D12*5-E12*3+F12*7-G12*2+H12*7-I12*3+J12*5+K12*8+L12*8+M12*1) / 54)</f>
+        <v>3</v>
       </c>
       <c r="U12" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C12*4)-(D12*2))+(E12*5))+(F12*5))+(G12*2))+(H12*2))-(I12*1))+(J12*7))+(K12*1))+(L12*2))+(M12*10)) / 27))</f>
+        <f aca="false">ROUND((-C12*4-D12*2+E12*5+F12*5+G12*2+H12*2-I12*1+J12*7+K12*1+L12*2+M12*10) / 41)</f>
         <v>-0</v>
       </c>
       <c r="V12" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C12*2)+(D12*4))+(E12*9))+(F12*3))-(G12*3))+(H12*10))-(I12*3))+(J12*3))+(K12*8))+(L12*5))+(M12*0)) / 38))</f>
-        <v>-1</v>
-      </c>
-      <c r="W12" s="13" t="n">
-        <f aca="false">SUM(P12:V12)</f>
-        <v>-3</v>
-      </c>
-      <c r="Y12" s="0" t="n">
+        <f aca="false">ROUND((C12*2+D12*4+E12*9+F12*3-G12*3+H12*10-I12*3+J12*3+K12*8+L12*5+M12*0) / 50)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="12" t="n">
+        <f aca="false">ROUND((3*C12-1*D12-10*E12+3*F12-6*G12+6*H12-7*I12+2*J12+1*K12+8*L12-2*M12)/50)</f>
+        <v>5</v>
+      </c>
+      <c r="X12" s="13" t="n">
+        <f aca="false">SUM(P12:W12)</f>
+        <v>4</v>
+      </c>
+      <c r="Z12" s="0" t="n">
         <f aca="false">0.5*C12+0.5*D12</f>
         <v>-1</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <f aca="false">0.4*E12+0.1*G12+0.3*I12+0.2*M12</f>
-        <v>-1.8</v>
-      </c>
-      <c r="AA12" s="0" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="AB12" s="0" t="n">
         <f aca="false">0.3*F12+0.2*J12+0.2*K12+0.3*L12</f>
-        <v>3</v>
-      </c>
-      <c r="AB12" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC12" s="0" t="n">
         <f aca="false">1*H12</f>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <f aca="false">ROUND(Y12/10, 2)</f>
-        <v>-0.1</v>
+        <v>2</v>
       </c>
       <c r="AE12" s="0" t="n">
         <f aca="false">ROUND(Z12/10, 2)</f>
-        <v>-0.18</v>
+        <v>-0.1</v>
       </c>
       <c r="AF12" s="0" t="n">
         <f aca="false">ROUND(AA12/10, 2)</f>
-        <v>0.3</v>
+        <v>-0.68</v>
       </c>
       <c r="AG12" s="0" t="n">
         <f aca="false">ROUND(AB12/10, 2)</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AH12" s="0" t="n">
-        <f aca="false">AD12+AE12+AF12+AG12</f>
-        <v>0.02</v>
+        <f aca="false">ROUND(AC12/10, 2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AI12" s="0" t="n">
+        <f aca="false">AE12+AF12+AG12+AH12</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -3463,71 +3485,75 @@
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C13*5)+(D13*10))+(E13*2))+(F13*4))-(G13*7))+(H13*4))-(I13*4))+(J13*3))+(K13*10))+(L13*5))+(M13*0)) / 32))</f>
-        <v>1</v>
+        <f aca="false">ROUND((C13*5+D13*10+E13*2+F13*4-G13*7+H13*4-I13*4+J13*3+K13*10+L13*5+M13*0) / 54)</f>
+        <v>0</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C13*8)+(D13*10))+(E13*2))-(F13*4))-(G13*5))+(H13*2))-(I13*3))+(J13*5))+(K13*5))+(L13*2))+(M13*2)) / 24))</f>
-        <v>2</v>
+        <f aca="false">ROUND((C13*8+D13*10+E13*2-F13*4-G13*5+H13*2-I13*3+J13*5+K13*5+L13*2+M13*2) / 48)</f>
+        <v>1</v>
       </c>
       <c r="R13" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C13*0)+(D13*3))+(E13*10))-(F13*3))+(G13*2))+(H13*4))+(I13*5))-(J13*3))-(K13*4))-(L13*2))+(M13*2)) / 14))</f>
-        <v>-2</v>
+        <f aca="false">ROUND((C13*0+D13*3+E13*10-F13*3+G13*2+H13*4+I13*5-J13*3-K13*4-L13*2+M13*2) / 38)</f>
+        <v>-1</v>
       </c>
       <c r="S13" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C13*3)-(D13*5))+(E13*3))+(F13*1))+(G13*4))+(H13*2))+(I13*10))-(J13*3))+(K13*6))+(L13*8))+(M13*0)) / 23))</f>
+        <f aca="false">ROUND((-C13*3-D13*5+E13*3+F13*1+G13*4+H13*2+I13*10-J13*3+K13*6+L13*8+M13*0) / 45)</f>
         <v>-1</v>
       </c>
       <c r="T13" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C13*5)+(D13*5))-(E13*3))+(F13*7))-(G13*2))+(H13*7))-(I13*3))+(J13*5))+(K13*8))+(L13*8))+(M13*1)) / 38))</f>
+        <f aca="false">ROUND((C13*5+D13*5-E13*3+F13*7-G13*2+H13*7-I13*3+J13*5+K13*8+L13*8+M13*1) / 54)</f>
         <v>1</v>
       </c>
       <c r="U13" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C13*4)-(D13*2))+(E13*5))+(F13*5))+(G13*2))+(H13*2))-(I13*1))+(J13*7))+(K13*1))+(L13*2))+(M13*10)) / 27))</f>
+        <f aca="false">ROUND((-C13*4-D13*2+E13*5+F13*5+G13*2+H13*2-I13*1+J13*7+K13*1+L13*2+M13*10) / 41)</f>
         <v>-1</v>
       </c>
       <c r="V13" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C13*2)+(D13*4))+(E13*9))+(F13*3))-(G13*3))+(H13*10))-(I13*3))+(J13*3))+(K13*8))+(L13*5))+(M13*0)) / 38))</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="13" t="n">
-        <f aca="false">SUM(P13:V13)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="0" t="n">
+        <f aca="false">ROUND((C13*2+D13*4+E13*9+F13*3-G13*3+H13*10-I13*3+J13*3+K13*8+L13*5+M13*0) / 50)</f>
+        <v>-0</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <f aca="false">ROUND((3*C13-1*D13-10*E13+3*F13-6*G13+6*H13-7*I13+2*J13+1*K13+8*L13-2*M13)/50)</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="13" t="n">
+        <f aca="false">SUM(P13:W13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="0" t="n">
         <f aca="false">0.5*C13+0.5*D13</f>
         <v>3.5</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <f aca="false">0.4*E13+0.1*G13+0.3*I13+0.2*M13</f>
         <v>-0.4</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <f aca="false">0.3*F13+0.2*J13+0.2*K13+0.3*L13</f>
         <v>-0.8</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <f aca="false">1*H13</f>
         <v>1</v>
-      </c>
-      <c r="AD13" s="0" t="n">
-        <f aca="false">ROUND(Y13/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AE13" s="0" t="n">
         <f aca="false">ROUND(Z13/10, 2)</f>
-        <v>-0.04</v>
+        <v>0.35</v>
       </c>
       <c r="AF13" s="0" t="n">
         <f aca="false">ROUND(AA13/10, 2)</f>
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="AG13" s="0" t="n">
         <f aca="false">ROUND(AB13/10, 2)</f>
+        <v>-0.08</v>
+      </c>
+      <c r="AH13" s="0" t="n">
+        <f aca="false">ROUND(AC13/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AH13" s="0" t="n">
-        <f aca="false">AD13+AE13+AF13+AG13</f>
+      <c r="AI13" s="0" t="n">
+        <f aca="false">AE13+AF13+AG13+AH13</f>
         <v>0.33</v>
       </c>
     </row>
@@ -3574,71 +3600,75 @@
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C14*5)+(D14*10))+(E14*2))+(F14*4))-(G14*7))+(H14*4))-(I14*4))+(J14*3))+(K14*10))+(L14*5))+(M14*0)) / 32))</f>
+        <f aca="false">ROUND((C14*5+D14*10+E14*2+F14*4-G14*7+H14*4-I14*4+J14*3+K14*10+L14*5+M14*0) / 54)</f>
         <v>1</v>
       </c>
       <c r="Q14" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C14*8)+(D14*10))+(E14*2))-(F14*4))-(G14*5))+(H14*2))-(I14*3))+(J14*5))+(K14*5))+(L14*2))+(M14*2)) / 24))</f>
-        <v>4</v>
+        <f aca="false">ROUND((C14*8+D14*10+E14*2-F14*4-G14*5+H14*2-I14*3+J14*5+K14*5+L14*2+M14*2) / 48)</f>
+        <v>2</v>
       </c>
       <c r="R14" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C14*0)+(D14*3))+(E14*10))-(F14*3))+(G14*2))+(H14*4))+(I14*5))-(J14*3))-(K14*4))-(L14*2))+(M14*2)) / 14))</f>
+        <f aca="false">ROUND((C14*0+D14*3+E14*10-F14*3+G14*2+H14*4+I14*5-J14*3-K14*4-L14*2+M14*2) / 38)</f>
         <v>0</v>
       </c>
       <c r="S14" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C14*3)-(D14*5))+(E14*3))+(F14*1))+(G14*4))+(H14*2))+(I14*10))-(J14*3))+(K14*6))+(L14*8))+(M14*0)) / 23))</f>
-        <v>-2</v>
+        <f aca="false">ROUND((-C14*3-D14*5+E14*3+F14*1+G14*4+H14*2+I14*10-J14*3+K14*6+L14*8+M14*0) / 45)</f>
+        <v>-1</v>
       </c>
       <c r="T14" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C14*5)+(D14*5))-(E14*3))+(F14*7))-(G14*2))+(H14*7))-(I14*3))+(J14*5))+(K14*8))+(L14*8))+(M14*1)) / 38))</f>
+        <f aca="false">ROUND((C14*5+D14*5-E14*3+F14*7-G14*2+H14*7-I14*3+J14*5+K14*8+L14*8+M14*1) / 54)</f>
         <v>0</v>
       </c>
       <c r="U14" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C14*4)-(D14*2))+(E14*5))+(F14*5))+(G14*2))+(H14*2))-(I14*1))+(J14*7))+(K14*1))+(L14*2))+(M14*10)) / 27))</f>
-        <v>-6</v>
+        <f aca="false">ROUND((-C14*4-D14*2+E14*5+F14*5+G14*2+H14*2-I14*1+J14*7+K14*1+L14*2+M14*10) / 41)</f>
+        <v>-4</v>
       </c>
       <c r="V14" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C14*2)+(D14*4))+(E14*9))+(F14*3))-(G14*3))+(H14*10))-(I14*3))+(J14*3))+(K14*8))+(L14*5))+(M14*0)) / 38))</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="13" t="n">
-        <f aca="false">SUM(P14:V14)</f>
-        <v>-3</v>
-      </c>
-      <c r="Y14" s="0" t="n">
+        <f aca="false">ROUND((C14*2+D14*4+E14*9+F14*3-G14*3+H14*10-I14*3+J14*3+K14*8+L14*5+M14*0) / 50)</f>
+        <v>-0</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <f aca="false">ROUND((3*C14-1*D14-10*E14+3*F14-6*G14+6*H14-7*I14+2*J14+1*K14+8*L14-2*M14)/50)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <f aca="false">SUM(P14:W14)</f>
+        <v>-2</v>
+      </c>
+      <c r="Z14" s="0" t="n">
         <f aca="false">0.5*C14+0.5*D14</f>
         <v>6</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <f aca="false">0.4*E14+0.1*G14+0.3*I14+0.2*M14</f>
         <v>-1.8</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <f aca="false">0.3*F14+0.2*J14+0.2*K14+0.3*L14</f>
         <v>-2.6</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <f aca="false">1*H14</f>
         <v>1</v>
-      </c>
-      <c r="AD14" s="0" t="n">
-        <f aca="false">ROUND(Y14/10, 2)</f>
-        <v>0.6</v>
       </c>
       <c r="AE14" s="0" t="n">
         <f aca="false">ROUND(Z14/10, 2)</f>
-        <v>-0.18</v>
+        <v>0.6</v>
       </c>
       <c r="AF14" s="0" t="n">
         <f aca="false">ROUND(AA14/10, 2)</f>
-        <v>-0.26</v>
+        <v>-0.18</v>
       </c>
       <c r="AG14" s="0" t="n">
         <f aca="false">ROUND(AB14/10, 2)</f>
+        <v>-0.26</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <f aca="false">ROUND(AC14/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AH14" s="0" t="n">
-        <f aca="false">AD14+AE14+AF14+AG14</f>
+      <c r="AI14" s="0" t="n">
+        <f aca="false">AE14+AF14+AG14+AH14</f>
         <v>0.26</v>
       </c>
     </row>
@@ -3685,71 +3715,75 @@
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C15*5)+(D15*10))+(E15*2))+(F15*4))-(G15*7))+(H15*4))-(I15*4))+(J15*3))+(K15*10))+(L15*5))+(M15*0)) / 32))</f>
+        <f aca="false">ROUND((C15*5+D15*10+E15*2+F15*4-G15*7+H15*4-I15*4+J15*3+K15*10+L15*5+M15*0) / 54)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <f aca="false">ROUND((C15*8+D15*10+E15*2-F15*4-G15*5+H15*2-I15*3+J15*5+K15*5+L15*2+M15*2) / 48)</f>
+        <v>-1</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <f aca="false">ROUND((C15*0+D15*3+E15*10-F15*3+G15*2+H15*4+I15*5-J15*3-K15*4-L15*2+M15*2) / 38)</f>
+        <v>4</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <f aca="false">ROUND((-C15*3-D15*5+E15*3+F15*1+G15*4+H15*2+I15*10-J15*3+K15*6+L15*8+M15*0) / 45)</f>
+        <v>2</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <f aca="false">ROUND((C15*5+D15*5-E15*3+F15*7-G15*2+H15*7-I15*3+J15*5+K15*8+L15*8+M15*1) / 54)</f>
+        <v>-2</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <f aca="false">ROUND((-C15*4-D15*2+E15*5+F15*5+G15*2+H15*2-I15*1+J15*7+K15*1+L15*2+M15*10) / 41)</f>
+        <v>-1</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <f aca="false">ROUND((C15*2+D15*4+E15*9+F15*3-G15*3+H15*10-I15*3+J15*3+K15*8+L15*5+M15*0) / 50)</f>
+        <v>-1</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <f aca="false">ROUND((3*C15-1*D15-10*E15+3*F15-6*G15+6*H15-7*I15+2*J15+1*K15+8*L15-2*M15)/50)</f>
+        <v>-3</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <f aca="false">SUM(P15:W15)</f>
         <v>-4</v>
       </c>
-      <c r="Q15" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C15*8)+(D15*10))+(E15*2))-(F15*4))-(G15*5))+(H15*2))-(I15*3))+(J15*5))+(K15*5))+(L15*2))+(M15*2)) / 24))</f>
-        <v>-3</v>
-      </c>
-      <c r="R15" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C15*0)+(D15*3))+(E15*10))-(F15*3))+(G15*2))+(H15*4))+(I15*5))-(J15*3))-(K15*4))-(L15*2))+(M15*2)) / 14))</f>
-        <v>10</v>
-      </c>
-      <c r="S15" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C15*3)-(D15*5))+(E15*3))+(F15*1))+(G15*4))+(H15*2))+(I15*10))-(J15*3))+(K15*6))+(L15*8))+(M15*0)) / 23))</f>
-        <v>4</v>
-      </c>
-      <c r="T15" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C15*5)+(D15*5))-(E15*3))+(F15*7))-(G15*2))+(H15*7))-(I15*3))+(J15*5))+(K15*8))+(L15*8))+(M15*1)) / 38))</f>
-        <v>-3</v>
-      </c>
-      <c r="U15" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C15*4)-(D15*2))+(E15*5))+(F15*5))+(G15*2))+(H15*2))-(I15*1))+(J15*7))+(K15*1))+(L15*2))+(M15*10)) / 27))</f>
-        <v>-2</v>
-      </c>
-      <c r="V15" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C15*2)+(D15*4))+(E15*9))+(F15*3))-(G15*3))+(H15*10))-(I15*3))+(J15*3))+(K15*8))+(L15*5))+(M15*0)) / 38))</f>
-        <v>-2</v>
-      </c>
-      <c r="W15" s="13" t="n">
-        <f aca="false">SUM(P15:V15)</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <f aca="false">0.5*C15+0.5*D15</f>
         <v>1</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <f aca="false">0.4*E15+0.1*G15+0.3*I15+0.2*M15</f>
         <v>3.3</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <f aca="false">0.3*F15+0.2*J15+0.2*K15+0.3*L15</f>
         <v>-4</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <f aca="false">1*H15</f>
         <v>1</v>
-      </c>
-      <c r="AD15" s="0" t="n">
-        <f aca="false">ROUND(Y15/10, 2)</f>
-        <v>0.1</v>
       </c>
       <c r="AE15" s="0" t="n">
         <f aca="false">ROUND(Z15/10, 2)</f>
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="AF15" s="0" t="n">
         <f aca="false">ROUND(AA15/10, 2)</f>
-        <v>-0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AG15" s="0" t="n">
         <f aca="false">ROUND(AB15/10, 2)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <f aca="false">ROUND(AC15/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AH15" s="0" t="n">
-        <f aca="false">AD15+AE15+AF15+AG15</f>
+      <c r="AI15" s="0" t="n">
+        <f aca="false">AE15+AF15+AG15+AH15</f>
         <v>0.13</v>
       </c>
     </row>
@@ -3796,71 +3830,75 @@
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C16*5)+(D16*10))+(E16*2))+(F16*4))-(G16*7))+(H16*4))-(I16*4))+(J16*3))+(K16*10))+(L16*5))+(M16*0)) / 32))</f>
+        <f aca="false">ROUND((C16*5+D16*10+E16*2+F16*4-G16*7+H16*4-I16*4+J16*3+K16*10+L16*5+M16*0) / 54)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C16*8)+(D16*10))+(E16*2))-(F16*4))-(G16*5))+(H16*2))-(I16*3))+(J16*5))+(K16*5))+(L16*2))+(M16*2)) / 24))</f>
+        <f aca="false">ROUND((C16*8+D16*10+E16*2-F16*4-G16*5+H16*2-I16*3+J16*5+K16*5+L16*2+M16*2) / 48)</f>
         <v>1</v>
       </c>
       <c r="R16" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C16*0)+(D16*3))+(E16*10))-(F16*3))+(G16*2))+(H16*4))+(I16*5))-(J16*3))-(K16*4))-(L16*2))+(M16*2)) / 14))</f>
+        <f aca="false">ROUND((C16*0+D16*3+E16*10-F16*3+G16*2+H16*4+I16*5-J16*3-K16*4-L16*2+M16*2) / 38)</f>
         <v>-1</v>
       </c>
       <c r="S16" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C16*3)-(D16*5))+(E16*3))+(F16*1))+(G16*4))+(H16*2))+(I16*10))-(J16*3))+(K16*6))+(L16*8))+(M16*0)) / 23))</f>
-        <v>3</v>
+        <f aca="false">ROUND((-C16*3-D16*5+E16*3+F16*1+G16*4+H16*2+I16*10-J16*3+K16*6+L16*8+M16*0) / 45)</f>
+        <v>1</v>
       </c>
       <c r="T16" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C16*5)+(D16*5))-(E16*3))+(F16*7))-(G16*2))+(H16*7))-(I16*3))+(J16*5))+(K16*8))+(L16*8))+(M16*1)) / 38))</f>
+        <f aca="false">ROUND((C16*5+D16*5-E16*3+F16*7-G16*2+H16*7-I16*3+J16*5+K16*8+L16*8+M16*1) / 54)</f>
         <v>1</v>
       </c>
       <c r="U16" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C16*4)-(D16*2))+(E16*5))+(F16*5))+(G16*2))+(H16*2))-(I16*1))+(J16*7))+(K16*1))+(L16*2))+(M16*10)) / 27))</f>
+        <f aca="false">ROUND((-C16*4-D16*2+E16*5+F16*5+G16*2+H16*2-I16*1+J16*7+K16*1+L16*2+M16*10) / 41)</f>
+        <v>4</v>
+      </c>
+      <c r="V16" s="12" t="n">
+        <f aca="false">ROUND((C16*2+D16*4+E16*9+F16*3-G16*3+H16*10-I16*3+J16*3+K16*8+L16*5+M16*0) / 50)</f>
+        <v>1</v>
+      </c>
+      <c r="W16" s="12" t="n">
+        <f aca="false">ROUND((3*C16-1*D16-10*E16+3*F16-6*G16+6*H16-7*I16+2*J16+1*K16+8*L16-2*M16)/50)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <f aca="false">SUM(P16:W16)</f>
         <v>7</v>
       </c>
-      <c r="V16" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C16*2)+(D16*4))+(E16*9))+(F16*3))-(G16*3))+(H16*10))-(I16*3))+(J16*3))+(K16*8))+(L16*5))+(M16*0)) / 38))</f>
-        <v>1</v>
-      </c>
-      <c r="W16" s="13" t="n">
-        <f aca="false">SUM(P16:V16)</f>
-        <v>12</v>
-      </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <f aca="false">0.5*C16+0.5*D16</f>
         <v>-4</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <f aca="false">0.4*E16+0.1*G16+0.3*I16+0.2*M16</f>
         <v>2.6</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <f aca="false">0.3*F16+0.2*J16+0.2*K16+0.3*L16</f>
         <v>3</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <f aca="false">1*H16</f>
         <v>-3</v>
       </c>
-      <c r="AD16" s="0" t="n">
-        <f aca="false">ROUND(Y16/10, 2)</f>
-        <v>-0.4</v>
-      </c>
       <c r="AE16" s="0" t="n">
         <f aca="false">ROUND(Z16/10, 2)</f>
-        <v>0.26</v>
+        <v>-0.4</v>
       </c>
       <c r="AF16" s="0" t="n">
         <f aca="false">ROUND(AA16/10, 2)</f>
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="AG16" s="0" t="n">
         <f aca="false">ROUND(AB16/10, 2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <f aca="false">ROUND(AC16/10, 2)</f>
         <v>-0.3</v>
       </c>
-      <c r="AH16" s="0" t="n">
-        <f aca="false">AD16+AE16+AF16+AG16</f>
+      <c r="AI16" s="0" t="n">
+        <f aca="false">AE16+AF16+AG16+AH16</f>
         <v>-0.14</v>
       </c>
     </row>
@@ -3907,71 +3945,75 @@
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C17*5)+(D17*10))+(E17*2))+(F17*4))-(G17*7))+(H17*4))-(I17*4))+(J17*3))+(K17*10))+(L17*5))+(M17*0)) / 32))</f>
-        <v>6</v>
+        <f aca="false">ROUND((C17*5+D17*10+E17*2+F17*4-G17*7+H17*4-I17*4+J17*3+K17*10+L17*5+M17*0) / 54)</f>
+        <v>4</v>
       </c>
       <c r="Q17" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C17*8)+(D17*10))+(E17*2))-(F17*4))-(G17*5))+(H17*2))-(I17*3))+(J17*5))+(K17*5))+(L17*2))+(M17*2)) / 24))</f>
-        <v>7</v>
+        <f aca="false">ROUND((C17*8+D17*10+E17*2-F17*4-G17*5+H17*2-I17*3+J17*5+K17*5+L17*2+M17*2) / 48)</f>
+        <v>3</v>
       </c>
       <c r="R17" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C17*0)+(D17*3))+(E17*10))-(F17*3))+(G17*2))+(H17*4))+(I17*5))-(J17*3))-(K17*4))-(L17*2))+(M17*2)) / 14))</f>
-        <v>0</v>
+        <f aca="false">ROUND((C17*0+D17*3+E17*10-F17*3+G17*2+H17*4+I17*5-J17*3-K17*4-L17*2+M17*2) / 38)</f>
+        <v>-0</v>
       </c>
       <c r="S17" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C17*3)-(D17*5))+(E17*3))+(F17*1))+(G17*4))+(H17*2))+(I17*10))-(J17*3))+(K17*6))+(L17*8))+(M17*0)) / 23))</f>
-        <v>-2</v>
+        <f aca="false">ROUND((-C17*3-D17*5+E17*3+F17*1+G17*4+H17*2+I17*10-J17*3+K17*6+L17*8+M17*0) / 45)</f>
+        <v>-1</v>
       </c>
       <c r="T17" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C17*5)+(D17*5))-(E17*3))+(F17*7))-(G17*2))+(H17*7))-(I17*3))+(J17*5))+(K17*8))+(L17*8))+(M17*1)) / 38))</f>
-        <v>4</v>
+        <f aca="false">ROUND((C17*5+D17*5-E17*3+F17*7-G17*2+H17*7-I17*3+J17*5+K17*8+L17*8+M17*1) / 54)</f>
+        <v>3</v>
       </c>
       <c r="U17" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C17*4)-(D17*2))+(E17*5))+(F17*5))+(G17*2))+(H17*2))-(I17*1))+(J17*7))+(K17*1))+(L17*2))+(M17*10)) / 27))</f>
-        <v>3</v>
+        <f aca="false">ROUND((-C17*4-D17*2+E17*5+F17*5+G17*2+H17*2-I17*1+J17*7+K17*1+L17*2+M17*10) / 41)</f>
+        <v>2</v>
       </c>
       <c r="V17" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C17*2)+(D17*4))+(E17*9))+(F17*3))-(G17*3))+(H17*10))-(I17*3))+(J17*3))+(K17*8))+(L17*5))+(M17*0)) / 38))</f>
-        <v>4</v>
-      </c>
-      <c r="W17" s="13" t="n">
-        <f aca="false">SUM(P17:V17)</f>
-        <v>22</v>
-      </c>
-      <c r="Y17" s="0" t="n">
+        <f aca="false">ROUND((C17*2+D17*4+E17*9+F17*3-G17*3+H17*10-I17*3+J17*3+K17*8+L17*5+M17*0) / 50)</f>
+        <v>3</v>
+      </c>
+      <c r="W17" s="12" t="n">
+        <f aca="false">ROUND((3*C17-1*D17-10*E17+3*F17-6*G17+6*H17-7*I17+2*J17+1*K17+8*L17-2*M17)/50)</f>
+        <v>1</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <f aca="false">SUM(P17:W17)</f>
+        <v>15</v>
+      </c>
+      <c r="Z17" s="0" t="n">
         <f aca="false">0.5*C17+0.5*D17</f>
         <v>3.5</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <f aca="false">0.4*E17+0.1*G17+0.3*I17+0.2*M17</f>
         <v>0.3</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <f aca="false">0.3*F17+0.2*J17+0.2*K17+0.3*L17</f>
         <v>2.8</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <f aca="false">1*H17</f>
         <v>2</v>
-      </c>
-      <c r="AD17" s="0" t="n">
-        <f aca="false">ROUND(Y17/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AE17" s="0" t="n">
         <f aca="false">ROUND(Z17/10, 2)</f>
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="AF17" s="0" t="n">
         <f aca="false">ROUND(AA17/10, 2)</f>
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AG17" s="0" t="n">
         <f aca="false">ROUND(AB17/10, 2)</f>
+        <v>0.28</v>
+      </c>
+      <c r="AH17" s="0" t="n">
+        <f aca="false">ROUND(AC17/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AH17" s="0" t="n">
-        <f aca="false">AD17+AE17+AF17+AG17</f>
+      <c r="AI17" s="0" t="n">
+        <f aca="false">AE17+AF17+AG17+AH17</f>
         <v>0.86</v>
       </c>
     </row>
@@ -4018,71 +4060,75 @@
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C18*5)+(D18*10))+(E18*2))+(F18*4))-(G18*7))+(H18*4))-(I18*4))+(J18*3))+(K18*10))+(L18*5))+(M18*0)) / 32))</f>
-        <v>-2</v>
+        <f aca="false">ROUND((C18*5+D18*10+E18*2+F18*4-G18*7+H18*4-I18*4+J18*3+K18*10+L18*5+M18*0) / 54)</f>
+        <v>-1</v>
       </c>
       <c r="Q18" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C18*8)+(D18*10))+(E18*2))-(F18*4))-(G18*5))+(H18*2))-(I18*3))+(J18*5))+(K18*5))+(L18*2))+(M18*2)) / 24))</f>
-        <v>-3</v>
+        <f aca="false">ROUND((C18*8+D18*10+E18*2-F18*4-G18*5+H18*2-I18*3+J18*5+K18*5+L18*2+M18*2) / 48)</f>
+        <v>-1</v>
       </c>
       <c r="R18" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C18*0)+(D18*3))+(E18*10))-(F18*3))+(G18*2))+(H18*4))+(I18*5))-(J18*3))-(K18*4))-(L18*2))+(M18*2)) / 14))</f>
-        <v>9</v>
+        <f aca="false">ROUND((C18*0+D18*3+E18*10-F18*3+G18*2+H18*4+I18*5-J18*3-K18*4-L18*2+M18*2) / 38)</f>
+        <v>3</v>
       </c>
       <c r="S18" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C18*3)-(D18*5))+(E18*3))+(F18*1))+(G18*4))+(H18*2))+(I18*10))-(J18*3))+(K18*6))+(L18*8))+(M18*0)) / 23))</f>
-        <v>2</v>
+        <f aca="false">ROUND((-C18*3-D18*5+E18*3+F18*1+G18*4+H18*2+I18*10-J18*3+K18*6+L18*8+M18*0) / 45)</f>
+        <v>1</v>
       </c>
       <c r="T18" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C18*5)+(D18*5))-(E18*3))+(F18*7))-(G18*2))+(H18*7))-(I18*3))+(J18*5))+(K18*8))+(L18*8))+(M18*1)) / 38))</f>
-        <v>-3</v>
+        <f aca="false">ROUND((C18*5+D18*5-E18*3+F18*7-G18*2+H18*7-I18*3+J18*5+K18*8+L18*8+M18*1) / 54)</f>
+        <v>-2</v>
       </c>
       <c r="U18" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C18*4)-(D18*2))+(E18*5))+(F18*5))+(G18*2))+(H18*2))-(I18*1))+(J18*7))+(K18*1))+(L18*2))+(M18*10)) / 27))</f>
-        <v>1</v>
+        <f aca="false">ROUND((-C18*4-D18*2+E18*5+F18*5+G18*2+H18*2-I18*1+J18*7+K18*1+L18*2+M18*10) / 41)</f>
+        <v>0</v>
       </c>
       <c r="V18" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C18*2)+(D18*4))+(E18*9))+(F18*3))-(G18*3))+(H18*10))-(I18*3))+(J18*3))+(K18*8))+(L18*5))+(M18*0)) / 38))</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="13" t="n">
-        <f aca="false">SUM(P18:V18)</f>
-        <v>4</v>
-      </c>
-      <c r="Y18" s="0" t="n">
+        <f aca="false">ROUND((C18*2+D18*4+E18*9+F18*3-G18*3+H18*10-I18*3+J18*3+K18*8+L18*5+M18*0) / 50)</f>
+        <v>-0</v>
+      </c>
+      <c r="W18" s="12" t="n">
+        <f aca="false">ROUND((3*C18-1*D18-10*E18+3*F18-6*G18+6*H18-7*I18+2*J18+1*K18+8*L18-2*M18)/50)</f>
+        <v>-4</v>
+      </c>
+      <c r="X18" s="13" t="n">
+        <f aca="false">SUM(P18:W18)</f>
+        <v>-4</v>
+      </c>
+      <c r="Z18" s="0" t="n">
         <f aca="false">0.5*C18+0.5*D18</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <f aca="false">0.4*E18+0.1*G18+0.3*I18+0.2*M18</f>
         <v>5.3</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <f aca="false">0.3*F18+0.2*J18+0.2*K18+0.3*L18</f>
         <v>-2</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <f aca="false">1*H18</f>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="0" t="n">
-        <f aca="false">ROUND(Y18/10, 2)</f>
         <v>0</v>
       </c>
       <c r="AE18" s="0" t="n">
         <f aca="false">ROUND(Z18/10, 2)</f>
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="0" t="n">
         <f aca="false">ROUND(AA18/10, 2)</f>
-        <v>-0.2</v>
+        <v>0.53</v>
       </c>
       <c r="AG18" s="0" t="n">
         <f aca="false">ROUND(AB18/10, 2)</f>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AH18" s="0" t="n">
-        <f aca="false">AD18+AE18+AF18+AG18</f>
+        <f aca="false">ROUND(AC18/10, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <f aca="false">AE18+AF18+AG18+AH18</f>
         <v>0.33</v>
       </c>
     </row>
@@ -4129,71 +4175,75 @@
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C19*5)+(D19*10))+(E19*2))+(F19*4))-(G19*7))+(H19*4))-(I19*4))+(J19*3))+(K19*10))+(L19*5))+(M19*0)) / 32))</f>
-        <v>5</v>
+        <f aca="false">ROUND((C19*5+D19*10+E19*2+F19*4-G19*7+H19*4-I19*4+J19*3+K19*10+L19*5+M19*0) / 54)</f>
+        <v>3</v>
       </c>
       <c r="Q19" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C19*8)+(D19*10))+(E19*2))-(F19*4))-(G19*5))+(H19*2))-(I19*3))+(J19*5))+(K19*5))+(L19*2))+(M19*2)) / 24))</f>
-        <v>6</v>
+        <f aca="false">ROUND((C19*8+D19*10+E19*2-F19*4-G19*5+H19*2-I19*3+J19*5+K19*5+L19*2+M19*2) / 48)</f>
+        <v>3</v>
       </c>
       <c r="R19" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C19*0)+(D19*3))+(E19*10))-(F19*3))+(G19*2))+(H19*4))+(I19*5))-(J19*3))-(K19*4))-(L19*2))+(M19*2)) / 14))</f>
-        <v>-3</v>
+        <f aca="false">ROUND((C19*0+D19*3+E19*10-F19*3+G19*2+H19*4+I19*5-J19*3-K19*4-L19*2+M19*2) / 38)</f>
+        <v>-1</v>
       </c>
       <c r="S19" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C19*3)-(D19*5))+(E19*3))+(F19*1))+(G19*4))+(H19*2))+(I19*10))-(J19*3))+(K19*6))+(L19*8))+(M19*0)) / 23))</f>
-        <v>-3</v>
+        <f aca="false">ROUND((-C19*3-D19*5+E19*3+F19*1+G19*4+H19*2+I19*10-J19*3+K19*6+L19*8+M19*0) / 45)</f>
+        <v>-1</v>
       </c>
       <c r="T19" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C19*5)+(D19*5))-(E19*3))+(F19*7))-(G19*2))+(H19*7))-(I19*3))+(J19*5))+(K19*8))+(L19*8))+(M19*1)) / 38))</f>
-        <v>3</v>
+        <f aca="false">ROUND((C19*5+D19*5-E19*3+F19*7-G19*2+H19*7-I19*3+J19*5+K19*8+L19*8+M19*1) / 54)</f>
+        <v>2</v>
       </c>
       <c r="U19" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C19*4)-(D19*2))+(E19*5))+(F19*5))+(G19*2))+(H19*2))-(I19*1))+(J19*7))+(K19*1))+(L19*2))+(M19*10)) / 27))</f>
-        <v>2</v>
+        <f aca="false">ROUND((-C19*4-D19*2+E19*5+F19*5+G19*2+H19*2-I19*1+J19*7+K19*1+L19*2+M19*10) / 41)</f>
+        <v>1</v>
       </c>
       <c r="V19" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C19*2)+(D19*4))+(E19*9))+(F19*3))-(G19*3))+(H19*10))-(I19*3))+(J19*3))+(K19*8))+(L19*5))+(M19*0)) / 38))</f>
-        <v>2</v>
-      </c>
-      <c r="W19" s="13" t="n">
-        <f aca="false">SUM(P19:V19)</f>
-        <v>12</v>
-      </c>
-      <c r="Y19" s="0" t="n">
+        <f aca="false">ROUND((C19*2+D19*4+E19*9+F19*3-G19*3+H19*10-I19*3+J19*3+K19*8+L19*5+M19*0) / 50)</f>
+        <v>2</v>
+      </c>
+      <c r="W19" s="12" t="n">
+        <f aca="false">ROUND((3*C19-1*D19-10*E19+3*F19-6*G19+6*H19-7*I19+2*J19+1*K19+8*L19-2*M19)/50)</f>
+        <v>1</v>
+      </c>
+      <c r="X19" s="13" t="n">
+        <f aca="false">SUM(P19:W19)</f>
+        <v>10</v>
+      </c>
+      <c r="Z19" s="0" t="n">
         <f aca="false">0.5*C19+0.5*D19</f>
         <v>3</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <f aca="false">0.4*E19+0.1*G19+0.3*I19+0.2*M19</f>
         <v>-0.2</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <f aca="false">0.3*F19+0.2*J19+0.2*K19+0.3*L19</f>
         <v>2.9</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <f aca="false">1*H19</f>
         <v>1</v>
-      </c>
-      <c r="AD19" s="0" t="n">
-        <f aca="false">ROUND(Y19/10, 2)</f>
-        <v>0.3</v>
       </c>
       <c r="AE19" s="0" t="n">
         <f aca="false">ROUND(Z19/10, 2)</f>
-        <v>-0.02</v>
+        <v>0.3</v>
       </c>
       <c r="AF19" s="0" t="n">
         <f aca="false">ROUND(AA19/10, 2)</f>
-        <v>0.29</v>
+        <v>-0.02</v>
       </c>
       <c r="AG19" s="0" t="n">
         <f aca="false">ROUND(AB19/10, 2)</f>
+        <v>0.29</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <f aca="false">ROUND(AC19/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AH19" s="0" t="n">
-        <f aca="false">AD19+AE19+AF19+AG19</f>
+      <c r="AI19" s="0" t="n">
+        <f aca="false">AE19+AF19+AG19+AH19</f>
         <v>0.67</v>
       </c>
     </row>
@@ -4240,71 +4290,75 @@
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C20*5)+(D20*10))+(E20*2))+(F20*4))-(G20*7))+(H20*4))-(I20*4))+(J20*3))+(K20*10))+(L20*5))+(M20*0)) / 32))</f>
-        <v>1</v>
+        <f aca="false">ROUND((C20*5+D20*10+E20*2+F20*4-G20*7+H20*4-I20*4+J20*3+K20*10+L20*5+M20*0) / 54)</f>
+        <v>0</v>
       </c>
       <c r="Q20" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C20*8)+(D20*10))+(E20*2))-(F20*4))-(G20*5))+(H20*2))-(I20*3))+(J20*5))+(K20*5))+(L20*2))+(M20*2)) / 24))</f>
-        <v>1</v>
+        <f aca="false">ROUND((C20*8+D20*10+E20*2-F20*4-G20*5+H20*2-I20*3+J20*5+K20*5+L20*2+M20*2) / 48)</f>
+        <v>0</v>
       </c>
       <c r="R20" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C20*0)+(D20*3))+(E20*10))-(F20*3))+(G20*2))+(H20*4))+(I20*5))-(J20*3))-(K20*4))-(L20*2))+(M20*2)) / 14))</f>
-        <v>6</v>
+        <f aca="false">ROUND((C20*0+D20*3+E20*10-F20*3+G20*2+H20*4+I20*5-J20*3-K20*4-L20*2+M20*2) / 38)</f>
+        <v>2</v>
       </c>
       <c r="S20" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C20*3)-(D20*5))+(E20*3))+(F20*1))+(G20*4))+(H20*2))+(I20*10))-(J20*3))+(K20*6))+(L20*8))+(M20*0)) / 23))</f>
-        <v>9</v>
+        <f aca="false">ROUND((-C20*3-D20*5+E20*3+F20*1+G20*4+H20*2+I20*10-J20*3+K20*6+L20*8+M20*0) / 45)</f>
+        <v>4</v>
       </c>
       <c r="T20" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C20*5)+(D20*5))-(E20*3))+(F20*7))-(G20*2))+(H20*7))-(I20*3))+(J20*5))+(K20*8))+(L20*8))+(M20*1)) / 38))</f>
+        <f aca="false">ROUND((C20*5+D20*5-E20*3+F20*7-G20*2+H20*7-I20*3+J20*5+K20*8+L20*8+M20*1) / 54)</f>
         <v>1</v>
       </c>
       <c r="U20" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C20*4)-(D20*2))+(E20*5))+(F20*5))+(G20*2))+(H20*2))-(I20*1))+(J20*7))+(K20*1))+(L20*2))+(M20*10)) / 27))</f>
+        <f aca="false">ROUND((-C20*4-D20*2+E20*5+F20*5+G20*2+H20*2-I20*1+J20*7+K20*1+L20*2+M20*10) / 41)</f>
         <v>0</v>
       </c>
       <c r="V20" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C20*2)+(D20*4))+(E20*9))+(F20*3))-(G20*3))+(H20*10))-(I20*3))+(J20*3))+(K20*8))+(L20*5))+(M20*0)) / 38))</f>
-        <v>2</v>
-      </c>
-      <c r="W20" s="13" t="n">
-        <f aca="false">SUM(P20:V20)</f>
-        <v>20</v>
-      </c>
-      <c r="Y20" s="0" t="n">
+        <f aca="false">ROUND((C20*2+D20*4+E20*9+F20*3-G20*3+H20*10-I20*3+J20*3+K20*8+L20*5+M20*0) / 50)</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="12" t="n">
+        <f aca="false">ROUND((3*C20-1*D20-10*E20+3*F20-6*G20+6*H20-7*I20+2*J20+1*K20+8*L20-2*M20)/50)</f>
+        <v>-1</v>
+      </c>
+      <c r="X20" s="13" t="n">
+        <f aca="false">SUM(P20:W20)</f>
+        <v>7</v>
+      </c>
+      <c r="Z20" s="0" t="n">
         <f aca="false">0.5*C20+0.5*D20</f>
         <v>1.5</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <f aca="false">0.4*E20+0.1*G20+0.3*I20+0.2*M20</f>
         <v>4.8</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <f aca="false">0.3*F20+0.2*J20+0.2*K20+0.3*L20</f>
         <v>1.7</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <f aca="false">1*H20</f>
         <v>1</v>
-      </c>
-      <c r="AD20" s="0" t="n">
-        <f aca="false">ROUND(Y20/10, 2)</f>
-        <v>0.15</v>
       </c>
       <c r="AE20" s="0" t="n">
         <f aca="false">ROUND(Z20/10, 2)</f>
-        <v>0.48</v>
+        <v>0.15</v>
       </c>
       <c r="AF20" s="0" t="n">
         <f aca="false">ROUND(AA20/10, 2)</f>
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="AG20" s="0" t="n">
         <f aca="false">ROUND(AB20/10, 2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <f aca="false">ROUND(AC20/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AH20" s="0" t="n">
-        <f aca="false">AD20+AE20+AF20+AG20</f>
+      <c r="AI20" s="0" t="n">
+        <f aca="false">AE20+AF20+AG20+AH20</f>
         <v>0.9</v>
       </c>
     </row>
@@ -4351,71 +4405,75 @@
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C21*5)+(D21*10))+(E21*2))+(F21*4))-(G21*7))+(H21*4))-(I21*4))+(J21*3))+(K21*10))+(L21*5))+(M21*0)) / 32))</f>
-        <v>-4</v>
+        <f aca="false">ROUND((C21*5+D21*10+E21*2+F21*4-G21*7+H21*4-I21*4+J21*3+K21*10+L21*5+M21*0) / 54)</f>
+        <v>-2</v>
       </c>
       <c r="Q21" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C21*8)+(D21*10))+(E21*2))-(F21*4))-(G21*5))+(H21*2))-(I21*3))+(J21*5))+(K21*5))+(L21*2))+(M21*2)) / 24))</f>
-        <v>-4</v>
+        <f aca="false">ROUND((C21*8+D21*10+E21*2-F21*4-G21*5+H21*2-I21*3+J21*5+K21*5+L21*2+M21*2) / 48)</f>
+        <v>-2</v>
       </c>
       <c r="R21" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C21*0)+(D21*3))+(E21*10))-(F21*3))+(G21*2))+(H21*4))+(I21*5))-(J21*3))-(K21*4))-(L21*2))+(M21*2)) / 14))</f>
-        <v>2</v>
+        <f aca="false">ROUND((C21*0+D21*3+E21*10-F21*3+G21*2+H21*4+I21*5-J21*3-K21*4-L21*2+M21*2) / 38)</f>
+        <v>1</v>
       </c>
       <c r="S21" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C21*3)-(D21*5))+(E21*3))+(F21*1))+(G21*4))+(H21*2))+(I21*10))-(J21*3))+(K21*6))+(L21*8))+(M21*0)) / 23))</f>
-        <v>4</v>
+        <f aca="false">ROUND((-C21*3-D21*5+E21*3+F21*1+G21*4+H21*2+I21*10-J21*3+K21*6+L21*8+M21*0) / 45)</f>
+        <v>2</v>
       </c>
       <c r="T21" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C21*5)+(D21*5))-(E21*3))+(F21*7))-(G21*2))+(H21*7))-(I21*3))+(J21*5))+(K21*8))+(L21*8))+(M21*1)) / 38))</f>
+        <f aca="false">ROUND((C21*5+D21*5-E21*3+F21*7-G21*2+H21*7-I21*3+J21*5+K21*8+L21*8+M21*1) / 54)</f>
+        <v>-2</v>
+      </c>
+      <c r="U21" s="12" t="n">
+        <f aca="false">ROUND((-C21*4-D21*2+E21*5+F21*5+G21*2+H21*2-I21*1+J21*7+K21*1+L21*2+M21*10) / 41)</f>
+        <v>-2</v>
+      </c>
+      <c r="V21" s="12" t="n">
+        <f aca="false">ROUND((C21*2+D21*4+E21*9+F21*3-G21*3+H21*10-I21*3+J21*3+K21*8+L21*5+M21*0) / 50)</f>
         <v>-3</v>
       </c>
-      <c r="U21" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C21*4)-(D21*2))+(E21*5))+(F21*5))+(G21*2))+(H21*2))-(I21*1))+(J21*7))+(K21*1))+(L21*2))+(M21*10)) / 27))</f>
-        <v>-3</v>
-      </c>
-      <c r="V21" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C21*2)+(D21*4))+(E21*9))+(F21*3))-(G21*3))+(H21*10))-(I21*3))+(J21*3))+(K21*8))+(L21*5))+(M21*0)) / 38))</f>
-        <v>-3</v>
-      </c>
-      <c r="W21" s="13" t="n">
-        <f aca="false">SUM(P21:V21)</f>
-        <v>-11</v>
-      </c>
-      <c r="Y21" s="0" t="n">
+      <c r="W21" s="12" t="n">
+        <f aca="false">ROUND((3*C21-1*D21-10*E21+3*F21-6*G21+6*H21-7*I21+2*J21+1*K21+8*L21-2*M21)/50)</f>
+        <v>-1</v>
+      </c>
+      <c r="X21" s="13" t="n">
+        <f aca="false">SUM(P21:W21)</f>
+        <v>-9</v>
+      </c>
+      <c r="Z21" s="0" t="n">
         <f aca="false">0.5*C21+0.5*D21</f>
         <v>-1.5</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <f aca="false">0.4*E21+0.1*G21+0.3*I21+0.2*M21</f>
         <v>0.7</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <f aca="false">0.3*F21+0.2*J21+0.2*K21+0.3*L21</f>
         <v>-2</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <f aca="false">1*H21</f>
         <v>-3</v>
       </c>
-      <c r="AD21" s="0" t="n">
-        <f aca="false">ROUND(Y21/10, 2)</f>
-        <v>-0.15</v>
-      </c>
       <c r="AE21" s="0" t="n">
         <f aca="false">ROUND(Z21/10, 2)</f>
-        <v>0.07</v>
+        <v>-0.15</v>
       </c>
       <c r="AF21" s="0" t="n">
         <f aca="false">ROUND(AA21/10, 2)</f>
-        <v>-0.2</v>
+        <v>0.07</v>
       </c>
       <c r="AG21" s="0" t="n">
         <f aca="false">ROUND(AB21/10, 2)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <f aca="false">ROUND(AC21/10, 2)</f>
         <v>-0.3</v>
       </c>
-      <c r="AH21" s="0" t="n">
-        <f aca="false">AD21+AE21+AF21+AG21</f>
+      <c r="AI21" s="0" t="n">
+        <f aca="false">AE21+AF21+AG21+AH21</f>
         <v>-0.58</v>
       </c>
     </row>
@@ -4462,71 +4520,75 @@
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C22*5)+(D22*10))+(E22*2))+(F22*4))-(G22*7))+(H22*4))-(I22*4))+(J22*3))+(K22*10))+(L22*5))+(M22*0)) / 32))</f>
-        <v>0</v>
+        <f aca="false">ROUND((C22*5+D22*10+E22*2+F22*4-G22*7+H22*4-I22*4+J22*3+K22*10+L22*5+M22*0) / 54)</f>
+        <v>-0</v>
       </c>
       <c r="Q22" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C22*8)+(D22*10))+(E22*2))-(F22*4))-(G22*5))+(H22*2))-(I22*3))+(J22*5))+(K22*5))+(L22*2))+(M22*2)) / 24))</f>
-        <v>-5</v>
+        <f aca="false">ROUND((C22*8+D22*10+E22*2-F22*4-G22*5+H22*2-I22*3+J22*5+K22*5+L22*2+M22*2) / 48)</f>
+        <v>-3</v>
       </c>
       <c r="R22" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C22*0)+(D22*3))+(E22*10))-(F22*3))+(G22*2))+(H22*4))+(I22*5))-(J22*3))-(K22*4))-(L22*2))+(M22*2)) / 14))</f>
-        <v>-3</v>
+        <f aca="false">ROUND((C22*0+D22*3+E22*10-F22*3+G22*2+H22*4+I22*5-J22*3-K22*4-L22*2+M22*2) / 38)</f>
+        <v>-1</v>
       </c>
       <c r="S22" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C22*3)-(D22*5))+(E22*3))+(F22*1))+(G22*4))+(H22*2))+(I22*10))-(J22*3))+(K22*6))+(L22*8))+(M22*0)) / 23))</f>
-        <v>10</v>
+        <f aca="false">ROUND((-C22*3-D22*5+E22*3+F22*1+G22*4+H22*2+I22*10-J22*3+K22*6+L22*8+M22*0) / 45)</f>
+        <v>5</v>
       </c>
       <c r="T22" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C22*5)+(D22*5))-(E22*3))+(F22*7))-(G22*2))+(H22*7))-(I22*3))+(J22*5))+(K22*8))+(L22*8))+(M22*1)) / 38))</f>
+        <f aca="false">ROUND((C22*5+D22*5-E22*3+F22*7-G22*2+H22*7-I22*3+J22*5+K22*8+L22*8+M22*1) / 54)</f>
         <v>1</v>
       </c>
       <c r="U22" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C22*4)-(D22*2))+(E22*5))+(F22*5))+(G22*2))+(H22*2))-(I22*1))+(J22*7))+(K22*1))+(L22*2))+(M22*10)) / 27))</f>
-        <v>-1</v>
+        <f aca="false">ROUND((-C22*4-D22*2+E22*5+F22*5+G22*2+H22*2-I22*1+J22*7+K22*1+L22*2+M22*10) / 41)</f>
+        <v>-0</v>
       </c>
       <c r="V22" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C22*2)+(D22*4))+(E22*9))+(F22*3))-(G22*3))+(H22*10))-(I22*3))+(J22*3))+(K22*8))+(L22*5))+(M22*0)) / 38))</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="13" t="n">
-        <f aca="false">SUM(P22:V22)</f>
-        <v>2</v>
-      </c>
-      <c r="Y22" s="0" t="n">
+        <f aca="false">ROUND((C22*2+D22*4+E22*9+F22*3-G22*3+H22*10-I22*3+J22*3+K22*8+L22*5+M22*0) / 50)</f>
+        <v>-0</v>
+      </c>
+      <c r="W22" s="12" t="n">
+        <f aca="false">ROUND((3*C22-1*D22-10*E22+3*F22-6*G22+6*H22-7*I22+2*J22+1*K22+8*L22-2*M22)/50)</f>
+        <v>1</v>
+      </c>
+      <c r="X22" s="13" t="n">
+        <f aca="false">SUM(P22:W22)</f>
+        <v>3</v>
+      </c>
+      <c r="Z22" s="0" t="n">
         <f aca="false">0.5*C22+0.5*D22</f>
         <v>-5.5</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <f aca="false">0.4*E22+0.1*G22+0.3*I22+0.2*M22</f>
         <v>0.300000000000001</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <f aca="false">0.3*F22+0.2*J22+0.2*K22+0.3*L22</f>
         <v>3.2</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <f aca="false">1*H22</f>
         <v>2</v>
-      </c>
-      <c r="AD22" s="0" t="n">
-        <f aca="false">ROUND(Y22/10, 2)</f>
-        <v>-0.55</v>
       </c>
       <c r="AE22" s="0" t="n">
         <f aca="false">ROUND(Z22/10, 2)</f>
-        <v>0.03</v>
+        <v>-0.55</v>
       </c>
       <c r="AF22" s="0" t="n">
         <f aca="false">ROUND(AA22/10, 2)</f>
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AG22" s="0" t="n">
         <f aca="false">ROUND(AB22/10, 2)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <f aca="false">ROUND(AC22/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AH22" s="0" t="n">
-        <f aca="false">AD22+AE22+AF22+AG22</f>
+      <c r="AI22" s="0" t="n">
+        <f aca="false">AE22+AF22+AG22+AH22</f>
         <v>0</v>
       </c>
     </row>
@@ -4573,71 +4635,75 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C23*5)+(D23*10))+(E23*2))+(F23*4))-(G23*7))+(H23*4))-(I23*4))+(J23*3))+(K23*10))+(L23*5))+(M23*0)) / 32))</f>
-        <v>6</v>
+        <f aca="false">ROUND((C23*5+D23*10+E23*2+F23*4-G23*7+H23*4-I23*4+J23*3+K23*10+L23*5+M23*0) / 54)</f>
+        <v>3</v>
       </c>
       <c r="Q23" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C23*8)+(D23*10))+(E23*2))-(F23*4))-(G23*5))+(H23*2))-(I23*3))+(J23*5))+(K23*5))+(L23*2))+(M23*2)) / 24))</f>
+        <f aca="false">ROUND((C23*8+D23*10+E23*2-F23*4-G23*5+H23*2-I23*3+J23*5+K23*5+L23*2+M23*2) / 48)</f>
         <v>1</v>
       </c>
       <c r="R23" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C23*0)+(D23*3))+(E23*10))-(F23*3))+(G23*2))+(H23*4))+(I23*5))-(J23*3))-(K23*4))-(L23*2))+(M23*2)) / 14))</f>
-        <v>-6</v>
+        <f aca="false">ROUND((C23*0+D23*3+E23*10-F23*3+G23*2+H23*4+I23*5-J23*3-K23*4-L23*2+M23*2) / 38)</f>
+        <v>-2</v>
       </c>
       <c r="S23" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C23*3)-(D23*5))+(E23*3))+(F23*1))+(G23*4))+(H23*2))+(I23*10))-(J23*3))+(K23*6))+(L23*8))+(M23*0)) / 23))</f>
-        <v>3</v>
+        <f aca="false">ROUND((-C23*3-D23*5+E23*3+F23*1+G23*4+H23*2+I23*10-J23*3+K23*6+L23*8+M23*0) / 45)</f>
+        <v>1</v>
       </c>
       <c r="T23" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C23*5)+(D23*5))-(E23*3))+(F23*7))-(G23*2))+(H23*7))-(I23*3))+(J23*5))+(K23*8))+(L23*8))+(M23*1)) / 38))</f>
-        <v>6</v>
+        <f aca="false">ROUND((C23*5+D23*5-E23*3+F23*7-G23*2+H23*7-I23*3+J23*5+K23*8+L23*8+M23*1) / 54)</f>
+        <v>4</v>
       </c>
       <c r="U23" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C23*4)-(D23*2))+(E23*5))+(F23*5))+(G23*2))+(H23*2))-(I23*1))+(J23*7))+(K23*1))+(L23*2))+(M23*10)) / 27))</f>
-        <v>2</v>
+        <f aca="false">ROUND((-C23*4-D23*2+E23*5+F23*5+G23*2+H23*2-I23*1+J23*7+K23*1+L23*2+M23*10) / 41)</f>
+        <v>1</v>
       </c>
       <c r="V23" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C23*2)+(D23*4))+(E23*9))+(F23*3))-(G23*3))+(H23*10))-(I23*3))+(J23*3))+(K23*8))+(L23*5))+(M23*0)) / 38))</f>
+        <f aca="false">ROUND((C23*2+D23*4+E23*9+F23*3-G23*3+H23*10-I23*3+J23*3+K23*8+L23*5+M23*0) / 50)</f>
+        <v>3</v>
+      </c>
+      <c r="W23" s="12" t="n">
+        <f aca="false">ROUND((3*C23-1*D23-10*E23+3*F23-6*G23+6*H23-7*I23+2*J23+1*K23+8*L23-2*M23)/50)</f>
         <v>4</v>
       </c>
-      <c r="W23" s="13" t="n">
-        <f aca="false">SUM(P23:V23)</f>
-        <v>16</v>
-      </c>
-      <c r="Y23" s="0" t="n">
+      <c r="X23" s="13" t="n">
+        <f aca="false">SUM(P23:W23)</f>
+        <v>15</v>
+      </c>
+      <c r="Z23" s="0" t="n">
         <f aca="false">0.5*C23+0.5*D23</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <f aca="false">0.4*E23+0.1*G23+0.3*I23+0.2*M23</f>
         <v>-2</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <f aca="false">0.3*F23+0.2*J23+0.2*K23+0.3*L23</f>
         <v>6.6</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <f aca="false">1*H23</f>
         <v>3</v>
-      </c>
-      <c r="AD23" s="0" t="n">
-        <f aca="false">ROUND(Y23/10, 2)</f>
-        <v>0</v>
       </c>
       <c r="AE23" s="0" t="n">
         <f aca="false">ROUND(Z23/10, 2)</f>
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="0" t="n">
         <f aca="false">ROUND(AA23/10, 2)</f>
-        <v>0.66</v>
+        <v>-0.2</v>
       </c>
       <c r="AG23" s="0" t="n">
         <f aca="false">ROUND(AB23/10, 2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="AH23" s="0" t="n">
+        <f aca="false">ROUND(AC23/10, 2)</f>
         <v>0.3</v>
       </c>
-      <c r="AH23" s="0" t="n">
-        <f aca="false">AD23+AE23+AF23+AG23</f>
+      <c r="AI23" s="0" t="n">
+        <f aca="false">AE23+AF23+AG23+AH23</f>
         <v>0.76</v>
       </c>
     </row>
@@ -4684,71 +4750,75 @@
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C24*5)+(D24*10))+(E24*2))+(F24*4))-(G24*7))+(H24*4))-(I24*4))+(J24*3))+(K24*10))+(L24*5))+(M24*0)) / 32))</f>
-        <v>5</v>
+        <f aca="false">ROUND((C24*5+D24*10+E24*2+F24*4-G24*7+H24*4-I24*4+J24*3+K24*10+L24*5+M24*0) / 54)</f>
+        <v>3</v>
       </c>
       <c r="Q24" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C24*8)+(D24*10))+(E24*2))-(F24*4))-(G24*5))+(H24*2))-(I24*3))+(J24*5))+(K24*5))+(L24*2))+(M24*2)) / 24))</f>
-        <v>4</v>
+        <f aca="false">ROUND((C24*8+D24*10+E24*2-F24*4-G24*5+H24*2-I24*3+J24*5+K24*5+L24*2+M24*2) / 48)</f>
+        <v>2</v>
       </c>
       <c r="R24" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C24*0)+(D24*3))+(E24*10))-(F24*3))+(G24*2))+(H24*4))+(I24*5))-(J24*3))-(K24*4))-(L24*2))+(M24*2)) / 14))</f>
-        <v>1</v>
+        <f aca="false">ROUND((C24*0+D24*3+E24*10-F24*3+G24*2+H24*4+I24*5-J24*3-K24*4-L24*2+M24*2) / 38)</f>
+        <v>0</v>
       </c>
       <c r="S24" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C24*3)-(D24*5))+(E24*3))+(F24*1))+(G24*4))+(H24*2))+(I24*10))-(J24*3))+(K24*6))+(L24*8))+(M24*0)) / 23))</f>
-        <v>0</v>
+        <f aca="false">ROUND((-C24*3-D24*5+E24*3+F24*1+G24*4+H24*2+I24*10-J24*3+K24*6+L24*8+M24*0) / 45)</f>
+        <v>-0</v>
       </c>
       <c r="T24" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C24*5)+(D24*5))-(E24*3))+(F24*7))-(G24*2))+(H24*7))-(I24*3))+(J24*5))+(K24*8))+(L24*8))+(M24*1)) / 38))</f>
-        <v>4</v>
+        <f aca="false">ROUND((C24*5+D24*5-E24*3+F24*7-G24*2+H24*7-I24*3+J24*5+K24*8+L24*8+M24*1) / 54)</f>
+        <v>3</v>
       </c>
       <c r="U24" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C24*4)-(D24*2))+(E24*5))+(F24*5))+(G24*2))+(H24*2))-(I24*1))+(J24*7))+(K24*1))+(L24*2))+(M24*10)) / 27))</f>
-        <v>1</v>
+        <f aca="false">ROUND((-C24*4-D24*2+E24*5+F24*5+G24*2+H24*2-I24*1+J24*7+K24*1+L24*2+M24*10) / 41)</f>
+        <v>0</v>
       </c>
       <c r="V24" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C24*2)+(D24*4))+(E24*9))+(F24*3))-(G24*3))+(H24*10))-(I24*3))+(J24*3))+(K24*8))+(L24*5))+(M24*0)) / 38))</f>
-        <v>3</v>
-      </c>
-      <c r="W24" s="13" t="n">
-        <f aca="false">SUM(P24:V24)</f>
-        <v>18</v>
-      </c>
-      <c r="Y24" s="0" t="n">
+        <f aca="false">ROUND((C24*2+D24*4+E24*9+F24*3-G24*3+H24*10-I24*3+J24*3+K24*8+L24*5+M24*0) / 50)</f>
+        <v>3</v>
+      </c>
+      <c r="W24" s="12" t="n">
+        <f aca="false">ROUND((3*C24-1*D24-10*E24+3*F24-6*G24+6*H24-7*I24+2*J24+1*K24+8*L24-2*M24)/50)</f>
+        <v>1</v>
+      </c>
+      <c r="X24" s="13" t="n">
+        <f aca="false">SUM(P24:W24)</f>
+        <v>12</v>
+      </c>
+      <c r="Z24" s="0" t="n">
         <f aca="false">0.5*C24+0.5*D24</f>
         <v>4</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <f aca="false">0.4*E24+0.1*G24+0.3*I24+0.2*M24</f>
         <v>-0.8</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <f aca="false">0.3*F24+0.2*J24+0.2*K24+0.3*L24</f>
         <v>2</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <f aca="false">1*H24</f>
         <v>7</v>
       </c>
-      <c r="AD24" s="0" t="n">
-        <f aca="false">ROUND(Y24/10, 2)</f>
-        <v>0.4</v>
-      </c>
       <c r="AE24" s="0" t="n">
         <f aca="false">ROUND(Z24/10, 2)</f>
-        <v>-0.08</v>
+        <v>0.4</v>
       </c>
       <c r="AF24" s="0" t="n">
         <f aca="false">ROUND(AA24/10, 2)</f>
-        <v>0.2</v>
+        <v>-0.08</v>
       </c>
       <c r="AG24" s="0" t="n">
         <f aca="false">ROUND(AB24/10, 2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AH24" s="0" t="n">
+        <f aca="false">ROUND(AC24/10, 2)</f>
         <v>0.7</v>
       </c>
-      <c r="AH24" s="0" t="n">
-        <f aca="false">AD24+AE24+AF24+AG24</f>
+      <c r="AI24" s="0" t="n">
+        <f aca="false">AE24+AF24+AG24+AH24</f>
         <v>1.22</v>
       </c>
     </row>
@@ -4795,109 +4865,114 @@
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="11" t="n">
-        <f aca="false">ROUND(((((((((((((C25*5)+(D25*10))+(E25*2))+(F25*4))-(G25*7))+(H25*4))-(I25*4))+(J25*3))+(K25*10))+(L25*5))+(M25*0)) / 32))</f>
-        <v>3</v>
+        <f aca="false">ROUND((C25*5+D25*10+E25*2+F25*4-G25*7+H25*4-I25*4+J25*3+K25*10+L25*5+M25*0) / 54)</f>
+        <v>2</v>
       </c>
       <c r="Q25" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C25*8)+(D25*10))+(E25*2))-(F25*4))-(G25*5))+(H25*2))-(I25*3))+(J25*5))+(K25*5))+(L25*2))+(M25*2)) / 24))</f>
-        <v>5</v>
+        <f aca="false">ROUND((C25*8+D25*10+E25*2-F25*4-G25*5+H25*2-I25*3+J25*5+K25*5+L25*2+M25*2) / 48)</f>
+        <v>2</v>
       </c>
       <c r="R25" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C25*0)+(D25*3))+(E25*10))-(F25*3))+(G25*2))+(H25*4))+(I25*5))-(J25*3))-(K25*4))-(L25*2))+(M25*2)) / 14))</f>
-        <v>4</v>
+        <f aca="false">ROUND((C25*0+D25*3+E25*10-F25*3+G25*2+H25*4+I25*5-J25*3-K25*4-L25*2+M25*2) / 38)</f>
+        <v>2</v>
       </c>
       <c r="S25" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C25*3)-(D25*5))+(E25*3))+(F25*1))+(G25*4))+(H25*2))+(I25*10))-(J25*3))+(K25*6))+(L25*8))+(M25*0)) / 23))</f>
+        <f aca="false">ROUND((-C25*3-D25*5+E25*3+F25*1+G25*4+H25*2+I25*10-J25*3+K25*6+L25*8+M25*0) / 45)</f>
         <v>-1</v>
       </c>
       <c r="T25" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C25*5)+(D25*5))-(E25*3))+(F25*7))-(G25*2))+(H25*7))-(I25*3))+(J25*5))+(K25*8))+(L25*8))+(M25*1)) / 38))</f>
-        <v>2</v>
+        <f aca="false">ROUND((C25*5+D25*5-E25*3+F25*7-G25*2+H25*7-I25*3+J25*5+K25*8+L25*8+M25*1) / 54)</f>
+        <v>1</v>
       </c>
       <c r="U25" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((-C25*4)-(D25*2))+(E25*5))+(F25*5))+(G25*2))+(H25*2))-(I25*1))+(J25*7))+(K25*1))+(L25*2))+(M25*10)) / 27))</f>
+        <f aca="false">ROUND((-C25*4-D25*2+E25*5+F25*5+G25*2+H25*2-I25*1+J25*7+K25*1+L25*2+M25*10) / 41)</f>
         <v>-2</v>
       </c>
       <c r="V25" s="12" t="n">
-        <f aca="false">ROUND(((((((((((((C25*2)+(D25*4))+(E25*9))+(F25*3))-(G25*3))+(H25*10))-(I25*3))+(J25*3))+(K25*8))+(L25*5))+(M25*0)) / 38))</f>
-        <v>2</v>
-      </c>
-      <c r="W25" s="13" t="n">
-        <f aca="false">SUM(P25:V25)</f>
-        <v>13</v>
-      </c>
-      <c r="Y25" s="0" t="n">
+        <f aca="false">ROUND((C25*2+D25*4+E25*9+F25*3-G25*3+H25*10-I25*3+J25*3+K25*8+L25*5+M25*0) / 50)</f>
+        <v>2</v>
+      </c>
+      <c r="W25" s="12" t="n">
+        <f aca="false">ROUND((3*C25-1*D25-10*E25+3*F25-6*G25+6*H25-7*I25+2*J25+1*K25+8*L25-2*M25)/50)</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="13" t="n">
+        <f aca="false">SUM(P25:W25)</f>
+        <v>6</v>
+      </c>
+      <c r="Z25" s="0" t="n">
         <f aca="false">0.5*C25+0.5*D25</f>
         <v>6</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <f aca="false">0.4*E25+0.1*G25+0.3*I25+0.2*M25</f>
         <v>0.4</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <f aca="false">0.3*F25+0.2*J25+0.2*K25+0.3*L25</f>
         <v>-2</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <f aca="false">1*H25</f>
         <v>7</v>
       </c>
-      <c r="AD25" s="0" t="n">
-        <f aca="false">ROUND(Y25/10, 2)</f>
-        <v>0.6</v>
-      </c>
       <c r="AE25" s="0" t="n">
         <f aca="false">ROUND(Z25/10, 2)</f>
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="AF25" s="0" t="n">
         <f aca="false">ROUND(AA25/10, 2)</f>
-        <v>-0.2</v>
+        <v>0.04</v>
       </c>
       <c r="AG25" s="0" t="n">
         <f aca="false">ROUND(AB25/10, 2)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AH25" s="0" t="n">
+        <f aca="false">ROUND(AC25/10, 2)</f>
         <v>0.7</v>
       </c>
-      <c r="AH25" s="0" t="n">
-        <f aca="false">AD25+AE25+AF25+AG25</f>
+      <c r="AI25" s="0" t="n">
+        <f aca="false">AE25+AF25+AG25+AH25</f>
         <v>1.14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="P26" s="1" t="n">
         <f aca="false">SUM(P4:P25)</f>
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="1" t="n">
         <f aca="false">SUM(Q4:Q25)</f>
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="R26" s="1" t="n">
         <f aca="false">SUM(R4:R25)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1" t="n">
         <f aca="false">SUM(S4:S25)</f>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="T26" s="1" t="n">
         <f aca="false">SUM(T4:T25)</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="U26" s="1" t="n">
         <f aca="false">SUM(U4:U25)</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="V26" s="1" t="n">
         <f aca="false">SUM(V4:V25)</f>
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <f aca="false">SUM(W4:W25)</f>
+        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
-      <c r="B27" s="1" t="n">
-        <f aca="false">SUM(P26:V26)</f>
-        <v>218</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -4912,32 +4987,70 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="10" t="n">
-        <f aca="false">P26/167</f>
-        <v>0.293413173652695</v>
+        <f aca="false">MAX(P4:P25)</f>
+        <v>4</v>
       </c>
       <c r="Q27" s="10" t="n">
-        <f aca="false">Q26/167</f>
-        <v>0.25748502994012</v>
+        <f aca="false">MAX(Q4:Q25)</f>
+        <v>3</v>
       </c>
       <c r="R27" s="10" t="n">
-        <f aca="false">R26/167</f>
-        <v>0.0598802395209581</v>
+        <f aca="false">MAX(R4:R25)</f>
+        <v>4</v>
       </c>
       <c r="S27" s="10" t="n">
-        <f aca="false">S26/167</f>
-        <v>0.239520958083832</v>
+        <f aca="false">MAX(S4:S25)</f>
+        <v>5</v>
       </c>
       <c r="T27" s="10" t="n">
-        <f aca="false">T26/167</f>
-        <v>0.227544910179641</v>
+        <f aca="false">MAX(T4:T25)</f>
+        <v>4</v>
       </c>
       <c r="U27" s="10" t="n">
-        <f aca="false">U26/167</f>
-        <v>0.0239520958083832</v>
+        <f aca="false">MAX(U4:U25)</f>
+        <v>4</v>
       </c>
       <c r="V27" s="10" t="n">
-        <f aca="false">V26/167</f>
-        <v>0.203592814371257</v>
+        <f aca="false">MAX(V4:V25)</f>
+        <v>4</v>
+      </c>
+      <c r="W27" s="10" t="n">
+        <f aca="false">MAX(W4:W25)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+      <c r="P28" s="0" t="n">
+        <f aca="false">MIN(P4:P25)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <f aca="false">MIN(Q4:Q25)</f>
+        <v>-3</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <f aca="false">MIN(R4:R25)</f>
+        <v>-5</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <f aca="false">MIN(S4:S25)</f>
+        <v>-1</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <f aca="false">MIN(T4:T25)</f>
+        <v>-2</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <f aca="false">MIN(U4:U25)</f>
+        <v>-4</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <f aca="false">MIN(V4:V25)</f>
+        <v>-3</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <f aca="false">MIN(W4:W25)</f>
+        <v>-4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Professions.xlsx
+++ b/docs/Professions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>nature</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>OUTLAWS</t>
+  </si>
+  <si>
+    <t>HOLY_CITY</t>
   </si>
   <si>
     <t>PRODUCTION</t>
@@ -210,7 +213,7 @@
     <numFmt formatCode="#,##0.00" numFmtId="167"/>
     <numFmt formatCode="#,##0" numFmtId="168"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -231,6 +234,12 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -300,7 +309,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -353,6 +362,10 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="168" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="168" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1402,7 +1415,7 @@
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2178,10 +2191,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AI28"/>
+  <dimension ref="B1:AJ28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="T12" activeCellId="0" pane="topLeft" sqref="T12"/>
+      <selection activeCell="Y35" activeCellId="0" pane="topLeft" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -2208,14 +2221,14 @@
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.29081632653061"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="11.8622448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="5.27551020408163"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="8.46938775510204"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.1428571428571"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="7.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="17.1326530612245"/>
+    <col collapsed="false" hidden="false" max="25" min="23" style="0" width="11.8622448979592"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="5.27551020408163"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="13.3367346938776"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.46938775510204"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.1428571428571"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="12.9132653061225"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="7.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="17.1326530612245"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="1">
@@ -2225,10 +2238,10 @@
       <c r="P1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AF1" s="0" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2293,11 +2306,11 @@
       <c r="W2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="AA2" s="0" t="s">
         <v>57</v>
@@ -2305,11 +2318,11 @@
       <c r="AB2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AE2" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="AF2" s="0" t="s">
         <v>57</v>
@@ -2317,11 +2330,14 @@
       <c r="AG2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="0" t="s">
-        <v>59</v>
+      <c r="AJ2" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -2370,25 +2386,22 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
-      <c r="Z3" s="0" t="n">
+      <c r="X3" s="12"/>
+      <c r="AA3" s="0" t="n">
         <f aca="false">0.5*C3+0.5*D3</f>
         <v>1</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <f aca="false">0.4*E3+0.1*G3+0.3*I3+0.2*M3</f>
         <v>1</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <f aca="false">0.3*F3+0.2*J3+0.2*K3+0.3*L3</f>
         <v>1</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <f aca="false">1*H3</f>
         <v>1</v>
-      </c>
-      <c r="AE3" s="0" t="n">
-        <f aca="false">ROUND(Z3/10, 2)</f>
-        <v>0.1</v>
       </c>
       <c r="AF3" s="0" t="n">
         <f aca="false">ROUND(AA3/10, 2)</f>
@@ -2403,7 +2416,11 @@
         <v>0.1</v>
       </c>
       <c r="AI3" s="0" t="n">
-        <f aca="false">AE3+AF3+AG3+AH3</f>
+        <f aca="false">ROUND(AD3/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <f aca="false">AF3+AG3+AH3+AI3</f>
         <v>0.4</v>
       </c>
     </row>
@@ -2482,43 +2499,47 @@
         <v>0</v>
       </c>
       <c r="X4" s="13" t="n">
-        <f aca="false">SUM(P4:W4)</f>
+        <f aca="false">ROUND((-C4*3+D4*2+E4*2-F4*5+G4*10+H4*3+I4*6-J4*8-K4*3+L4*5+M4*3) / 50)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14" t="n">
+        <f aca="false">SUM(P4:X4)</f>
         <v>9</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <f aca="false">0.5*C4+0.5*D4</f>
         <v>6</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <f aca="false">0.4*E4+0.1*G4+0.3*I4+0.2*M4</f>
         <v>-0.2</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <f aca="false">0.3*F4+0.2*J4+0.2*K4+0.3*L4</f>
         <v>0.3</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <f aca="false">1*H4</f>
         <v>4</v>
       </c>
-      <c r="AE4" s="0" t="n">
-        <f aca="false">ROUND(Z4/10, 2)</f>
-        <v>0.6</v>
-      </c>
       <c r="AF4" s="0" t="n">
         <f aca="false">ROUND(AA4/10, 2)</f>
-        <v>-0.02</v>
+        <v>0.6</v>
       </c>
       <c r="AG4" s="0" t="n">
         <f aca="false">ROUND(AB4/10, 2)</f>
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AH4" s="0" t="n">
         <f aca="false">ROUND(AC4/10, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <f aca="false">ROUND(AD4/10, 2)</f>
         <v>0.4</v>
       </c>
-      <c r="AI4" s="0" t="n">
-        <f aca="false">AE4+AF4+AG4+AH4</f>
+      <c r="AJ4" s="0" t="n">
+        <f aca="false">AF4+AG4+AH4+AI4</f>
         <v>1.01</v>
       </c>
     </row>
@@ -2597,43 +2618,47 @@
         <v>1</v>
       </c>
       <c r="X5" s="13" t="n">
-        <f aca="false">SUM(P5:W5)</f>
-        <v>2</v>
-      </c>
-      <c r="Z5" s="0" t="n">
+        <f aca="false">ROUND((-C5*3+D5*2+E5*2-F5*5+G5*10+H5*3+I5*6-J5*8-K5*3+L5*5+M5*3) / 50)</f>
+        <v>-0</v>
+      </c>
+      <c r="Y5" s="14" t="n">
+        <f aca="false">SUM(P5:X5)</f>
+        <v>2</v>
+      </c>
+      <c r="AA5" s="0" t="n">
         <f aca="false">0.5*C5+0.5*D5</f>
         <v>3.5</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <f aca="false">0.4*E5+0.1*G5+0.3*I5+0.2*M5</f>
         <v>-0.6</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <f aca="false">0.3*F5+0.2*J5+0.2*K5+0.3*L5</f>
         <v>0.1</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <f aca="false">1*H5</f>
         <v>1</v>
-      </c>
-      <c r="AE5" s="0" t="n">
-        <f aca="false">ROUND(Z5/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AF5" s="0" t="n">
         <f aca="false">ROUND(AA5/10, 2)</f>
-        <v>-0.06</v>
+        <v>0.35</v>
       </c>
       <c r="AG5" s="0" t="n">
         <f aca="false">ROUND(AB5/10, 2)</f>
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="AH5" s="0" t="n">
         <f aca="false">ROUND(AC5/10, 2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <f aca="false">ROUND(AD5/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AI5" s="0" t="n">
-        <f aca="false">AE5+AF5+AG5+AH5</f>
+      <c r="AJ5" s="0" t="n">
+        <f aca="false">AF5+AG5+AH5+AI5</f>
         <v>0.4</v>
       </c>
     </row>
@@ -2712,43 +2737,47 @@
         <v>0</v>
       </c>
       <c r="X6" s="13" t="n">
-        <f aca="false">SUM(P6:W6)</f>
+        <f aca="false">ROUND((-C6*3+D6*2+E6*2-F6*5+G6*10+H6*3+I6*6-J6*8-K6*3+L6*5+M6*3) / 50)</f>
+        <v>-0</v>
+      </c>
+      <c r="Y6" s="14" t="n">
+        <f aca="false">SUM(P6:X6)</f>
         <v>9</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <f aca="false">0.5*C6+0.5*D6</f>
         <v>5.5</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <f aca="false">0.4*E6+0.1*G6+0.3*I6+0.2*M6</f>
         <v>0.4</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <f aca="false">0.3*F6+0.2*J6+0.2*K6+0.3*L6</f>
         <v>2.1</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <f aca="false">1*H6</f>
         <v>2</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <f aca="false">ROUND(Z6/10, 2)</f>
-        <v>0.55</v>
       </c>
       <c r="AF6" s="0" t="n">
         <f aca="false">ROUND(AA6/10, 2)</f>
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="AG6" s="0" t="n">
         <f aca="false">ROUND(AB6/10, 2)</f>
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="AH6" s="0" t="n">
         <f aca="false">ROUND(AC6/10, 2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <f aca="false">ROUND(AD6/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AI6" s="0" t="n">
-        <f aca="false">AE6+AF6+AG6+AH6</f>
+      <c r="AJ6" s="0" t="n">
+        <f aca="false">AF6+AG6+AH6+AI6</f>
         <v>1</v>
       </c>
     </row>
@@ -2827,43 +2856,47 @@
         <v>-0</v>
       </c>
       <c r="X7" s="13" t="n">
-        <f aca="false">SUM(P7:W7)</f>
+        <f aca="false">ROUND((-C7*3+D7*2+E7*2-F7*5+G7*10+H7*3+I7*6-J7*8-K7*3+L7*5+M7*3) / 50)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14" t="n">
+        <f aca="false">SUM(P7:X7)</f>
         <v>10</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <f aca="false">0.5*C7+0.5*D7</f>
         <v>5.5</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <f aca="false">0.4*E7+0.1*G7+0.3*I7+0.2*M7</f>
         <v>0.4</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <f aca="false">0.3*F7+0.2*J7+0.2*K7+0.3*L7</f>
         <v>0.6</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <f aca="false">1*H7</f>
         <v>2</v>
-      </c>
-      <c r="AE7" s="0" t="n">
-        <f aca="false">ROUND(Z7/10, 2)</f>
-        <v>0.55</v>
       </c>
       <c r="AF7" s="0" t="n">
         <f aca="false">ROUND(AA7/10, 2)</f>
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="AG7" s="0" t="n">
         <f aca="false">ROUND(AB7/10, 2)</f>
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AH7" s="0" t="n">
         <f aca="false">ROUND(AC7/10, 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <f aca="false">ROUND(AD7/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AI7" s="0" t="n">
-        <f aca="false">AE7+AF7+AG7+AH7</f>
+      <c r="AJ7" s="0" t="n">
+        <f aca="false">AF7+AG7+AH7+AI7</f>
         <v>0.85</v>
       </c>
     </row>
@@ -2942,43 +2975,47 @@
         <v>0</v>
       </c>
       <c r="X8" s="13" t="n">
-        <f aca="false">SUM(P8:W8)</f>
+        <f aca="false">ROUND((-C8*3+D8*2+E8*2-F8*5+G8*10+H8*3+I8*6-J8*8-K8*3+L8*5+M8*3) / 50)</f>
+        <v>-0</v>
+      </c>
+      <c r="Y8" s="14" t="n">
+        <f aca="false">SUM(P8:X8)</f>
         <v>5</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <f aca="false">0.5*C8+0.5*D8</f>
         <v>3.5</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <f aca="false">0.4*E8+0.1*G8+0.3*I8+0.2*M8</f>
         <v>1.8</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <f aca="false">0.3*F8+0.2*J8+0.2*K8+0.3*L8</f>
         <v>0.4</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AD8" s="0" t="n">
         <f aca="false">1*H8</f>
         <v>1</v>
-      </c>
-      <c r="AE8" s="0" t="n">
-        <f aca="false">ROUND(Z8/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AF8" s="0" t="n">
         <f aca="false">ROUND(AA8/10, 2)</f>
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="AG8" s="0" t="n">
         <f aca="false">ROUND(AB8/10, 2)</f>
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="AH8" s="0" t="n">
         <f aca="false">ROUND(AC8/10, 2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <f aca="false">ROUND(AD8/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AI8" s="0" t="n">
-        <f aca="false">AE8+AF8+AG8+AH8</f>
+      <c r="AJ8" s="0" t="n">
+        <f aca="false">AF8+AG8+AH8+AI8</f>
         <v>0.67</v>
       </c>
     </row>
@@ -3057,43 +3094,47 @@
         <v>-3</v>
       </c>
       <c r="X9" s="13" t="n">
-        <f aca="false">SUM(P9:W9)</f>
-        <v>6</v>
-      </c>
-      <c r="Z9" s="0" t="n">
+        <f aca="false">ROUND((-C9*3+D9*2+E9*2-F9*5+G9*10+H9*3+I9*6-J9*8-K9*3+L9*5+M9*3) / 50)</f>
+        <v>2</v>
+      </c>
+      <c r="Y9" s="14" t="n">
+        <f aca="false">SUM(P9:X9)</f>
+        <v>8</v>
+      </c>
+      <c r="AA9" s="0" t="n">
         <f aca="false">0.5*C9+0.5*D9</f>
         <v>-2.5</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <f aca="false">0.4*E9+0.1*G9+0.3*I9+0.2*M9</f>
         <v>6</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <f aca="false">0.3*F9+0.2*J9+0.2*K9+0.3*L9</f>
         <v>-0.0999999999999999</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <f aca="false">1*H9</f>
         <v>-1</v>
-      </c>
-      <c r="AE9" s="0" t="n">
-        <f aca="false">ROUND(Z9/10, 2)</f>
-        <v>-0.25</v>
       </c>
       <c r="AF9" s="0" t="n">
         <f aca="false">ROUND(AA9/10, 2)</f>
-        <v>0.6</v>
+        <v>-0.25</v>
       </c>
       <c r="AG9" s="0" t="n">
         <f aca="false">ROUND(AB9/10, 2)</f>
-        <v>-0.01</v>
+        <v>0.6</v>
       </c>
       <c r="AH9" s="0" t="n">
         <f aca="false">ROUND(AC9/10, 2)</f>
+        <v>-0.01</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <f aca="false">ROUND(AD9/10, 2)</f>
         <v>-0.1</v>
       </c>
-      <c r="AI9" s="0" t="n">
-        <f aca="false">AE9+AF9+AG9+AH9</f>
+      <c r="AJ9" s="0" t="n">
+        <f aca="false">AF9+AG9+AH9+AI9</f>
         <v>0.24</v>
       </c>
     </row>
@@ -3172,43 +3213,47 @@
         <v>3</v>
       </c>
       <c r="X10" s="13" t="n">
-        <f aca="false">SUM(P10:W10)</f>
-        <v>18</v>
-      </c>
-      <c r="Z10" s="0" t="n">
+        <f aca="false">ROUND((-C10*3+D10*2+E10*2-F10*5+G10*10+H10*3+I10*6-J10*8-K10*3+L10*5+M10*3) / 50)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="14" t="n">
+        <f aca="false">SUM(P10:X10)</f>
+        <v>17</v>
+      </c>
+      <c r="AA10" s="0" t="n">
         <f aca="false">0.5*C10+0.5*D10</f>
         <v>3.5</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <f aca="false">0.4*E10+0.1*G10+0.3*I10+0.2*M10</f>
         <v>-1.5</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <f aca="false">0.3*F10+0.2*J10+0.2*K10+0.3*L10</f>
         <v>4.5</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <f aca="false">1*H10</f>
         <v>6</v>
       </c>
-      <c r="AE10" s="0" t="n">
-        <f aca="false">ROUND(Z10/10, 2)</f>
-        <v>0.35</v>
-      </c>
       <c r="AF10" s="0" t="n">
         <f aca="false">ROUND(AA10/10, 2)</f>
-        <v>-0.15</v>
+        <v>0.35</v>
       </c>
       <c r="AG10" s="0" t="n">
         <f aca="false">ROUND(AB10/10, 2)</f>
-        <v>0.45</v>
+        <v>-0.15</v>
       </c>
       <c r="AH10" s="0" t="n">
         <f aca="false">ROUND(AC10/10, 2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <f aca="false">ROUND(AD10/10, 2)</f>
         <v>0.6</v>
       </c>
-      <c r="AI10" s="0" t="n">
-        <f aca="false">AE10+AF10+AG10+AH10</f>
+      <c r="AJ10" s="0" t="n">
+        <f aca="false">AF10+AG10+AH10+AI10</f>
         <v>1.25</v>
       </c>
     </row>
@@ -3287,43 +3332,47 @@
         <v>4</v>
       </c>
       <c r="X11" s="13" t="n">
-        <f aca="false">SUM(P11:W11)</f>
-        <v>15</v>
-      </c>
-      <c r="Z11" s="0" t="n">
+        <f aca="false">ROUND((-C11*3+D11*2+E11*2-F11*5+G11*10+H11*3+I11*6-J11*8-K11*3+L11*5+M11*3) / 50)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="14" t="n">
+        <f aca="false">SUM(P11:X11)</f>
+        <v>14</v>
+      </c>
+      <c r="AA11" s="0" t="n">
         <f aca="false">0.5*C11+0.5*D11</f>
         <v>-2</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <f aca="false">0.4*E11+0.1*G11+0.3*I11+0.2*M11</f>
         <v>-2.8</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <f aca="false">0.3*F11+0.2*J11+0.2*K11+0.3*L11</f>
         <v>6.5</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <f aca="false">1*H11</f>
         <v>5</v>
       </c>
-      <c r="AE11" s="0" t="n">
-        <f aca="false">ROUND(Z11/10, 2)</f>
-        <v>-0.2</v>
-      </c>
       <c r="AF11" s="0" t="n">
         <f aca="false">ROUND(AA11/10, 2)</f>
-        <v>-0.28</v>
+        <v>-0.2</v>
       </c>
       <c r="AG11" s="0" t="n">
         <f aca="false">ROUND(AB11/10, 2)</f>
-        <v>0.65</v>
+        <v>-0.28</v>
       </c>
       <c r="AH11" s="0" t="n">
         <f aca="false">ROUND(AC11/10, 2)</f>
+        <v>0.65</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <f aca="false">ROUND(AD11/10, 2)</f>
         <v>0.5</v>
       </c>
-      <c r="AI11" s="0" t="n">
-        <f aca="false">AE11+AF11+AG11+AH11</f>
+      <c r="AJ11" s="0" t="n">
+        <f aca="false">AF11+AG11+AH11+AI11</f>
         <v>0.67</v>
       </c>
     </row>
@@ -3402,43 +3451,47 @@
         <v>5</v>
       </c>
       <c r="X12" s="13" t="n">
-        <f aca="false">SUM(P12:W12)</f>
-        <v>4</v>
-      </c>
-      <c r="Z12" s="0" t="n">
+        <f aca="false">ROUND((-C12*3+D12*2+E12*2-F12*5+G12*10+H12*3+I12*6-J12*8-K12*3+L12*5+M12*3) / 50)</f>
+        <v>-3</v>
+      </c>
+      <c r="Y12" s="14" t="n">
+        <f aca="false">SUM(P12:X12)</f>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="0" t="n">
         <f aca="false">0.5*C12+0.5*D12</f>
         <v>-1</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <f aca="false">0.4*E12+0.1*G12+0.3*I12+0.2*M12</f>
         <v>-6.8</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <f aca="false">0.3*F12+0.2*J12+0.2*K12+0.3*L12</f>
         <v>3.3</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <f aca="false">1*H12</f>
         <v>2</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <f aca="false">ROUND(Z12/10, 2)</f>
-        <v>-0.1</v>
       </c>
       <c r="AF12" s="0" t="n">
         <f aca="false">ROUND(AA12/10, 2)</f>
-        <v>-0.68</v>
+        <v>-0.1</v>
       </c>
       <c r="AG12" s="0" t="n">
         <f aca="false">ROUND(AB12/10, 2)</f>
-        <v>0.33</v>
+        <v>-0.68</v>
       </c>
       <c r="AH12" s="0" t="n">
         <f aca="false">ROUND(AC12/10, 2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="AI12" s="0" t="n">
+        <f aca="false">ROUND(AD12/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AI12" s="0" t="n">
-        <f aca="false">AE12+AF12+AG12+AH12</f>
+      <c r="AJ12" s="0" t="n">
+        <f aca="false">AF12+AG12+AH12+AI12</f>
         <v>-0.25</v>
       </c>
     </row>
@@ -3517,43 +3570,47 @@
         <v>1</v>
       </c>
       <c r="X13" s="13" t="n">
-        <f aca="false">SUM(P13:W13)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="0" t="n">
+        <f aca="false">ROUND((-C13*3+D13*2+E13*2-F13*5+G13*10+H13*3+I13*6-J13*8-K13*3+L13*5+M13*3) / 50)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="14" t="n">
+        <f aca="false">SUM(P13:X13)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA13" s="0" t="n">
         <f aca="false">0.5*C13+0.5*D13</f>
         <v>3.5</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <f aca="false">0.4*E13+0.1*G13+0.3*I13+0.2*M13</f>
         <v>-0.4</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <f aca="false">0.3*F13+0.2*J13+0.2*K13+0.3*L13</f>
         <v>-0.8</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <f aca="false">1*H13</f>
         <v>1</v>
-      </c>
-      <c r="AE13" s="0" t="n">
-        <f aca="false">ROUND(Z13/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AF13" s="0" t="n">
         <f aca="false">ROUND(AA13/10, 2)</f>
-        <v>-0.04</v>
+        <v>0.35</v>
       </c>
       <c r="AG13" s="0" t="n">
         <f aca="false">ROUND(AB13/10, 2)</f>
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="AH13" s="0" t="n">
         <f aca="false">ROUND(AC13/10, 2)</f>
+        <v>-0.08</v>
+      </c>
+      <c r="AI13" s="0" t="n">
+        <f aca="false">ROUND(AD13/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AI13" s="0" t="n">
-        <f aca="false">AE13+AF13+AG13+AH13</f>
+      <c r="AJ13" s="0" t="n">
+        <f aca="false">AF13+AG13+AH13+AI13</f>
         <v>0.33</v>
       </c>
     </row>
@@ -3632,43 +3689,47 @@
         <v>0</v>
       </c>
       <c r="X14" s="13" t="n">
-        <f aca="false">SUM(P14:W14)</f>
-        <v>-2</v>
-      </c>
-      <c r="Z14" s="0" t="n">
+        <f aca="false">ROUND((-C14*3+D14*2+E14*2-F14*5+G14*10+H14*3+I14*6-J14*8-K14*3+L14*5+M14*3) / 50)</f>
+        <v>-0</v>
+      </c>
+      <c r="Y14" s="14" t="n">
+        <f aca="false">SUM(P14:X14)</f>
+        <v>-2</v>
+      </c>
+      <c r="AA14" s="0" t="n">
         <f aca="false">0.5*C14+0.5*D14</f>
         <v>6</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <f aca="false">0.4*E14+0.1*G14+0.3*I14+0.2*M14</f>
         <v>-1.8</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <f aca="false">0.3*F14+0.2*J14+0.2*K14+0.3*L14</f>
         <v>-2.6</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <f aca="false">1*H14</f>
         <v>1</v>
-      </c>
-      <c r="AE14" s="0" t="n">
-        <f aca="false">ROUND(Z14/10, 2)</f>
-        <v>0.6</v>
       </c>
       <c r="AF14" s="0" t="n">
         <f aca="false">ROUND(AA14/10, 2)</f>
-        <v>-0.18</v>
+        <v>0.6</v>
       </c>
       <c r="AG14" s="0" t="n">
         <f aca="false">ROUND(AB14/10, 2)</f>
-        <v>-0.26</v>
+        <v>-0.18</v>
       </c>
       <c r="AH14" s="0" t="n">
         <f aca="false">ROUND(AC14/10, 2)</f>
+        <v>-0.26</v>
+      </c>
+      <c r="AI14" s="0" t="n">
+        <f aca="false">ROUND(AD14/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AI14" s="0" t="n">
-        <f aca="false">AE14+AF14+AG14+AH14</f>
+      <c r="AJ14" s="0" t="n">
+        <f aca="false">AF14+AG14+AH14+AI14</f>
         <v>0.26</v>
       </c>
     </row>
@@ -3747,43 +3808,47 @@
         <v>-3</v>
       </c>
       <c r="X15" s="13" t="n">
-        <f aca="false">SUM(P15:W15)</f>
-        <v>-4</v>
-      </c>
-      <c r="Z15" s="0" t="n">
+        <f aca="false">ROUND((-C15*3+D15*2+E15*2-F15*5+G15*10+H15*3+I15*6-J15*8-K15*3+L15*5+M15*3) / 50)</f>
+        <v>6</v>
+      </c>
+      <c r="Y15" s="14" t="n">
+        <f aca="false">SUM(P15:X15)</f>
+        <v>2</v>
+      </c>
+      <c r="AA15" s="0" t="n">
         <f aca="false">0.5*C15+0.5*D15</f>
         <v>1</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <f aca="false">0.4*E15+0.1*G15+0.3*I15+0.2*M15</f>
         <v>3.3</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <f aca="false">0.3*F15+0.2*J15+0.2*K15+0.3*L15</f>
         <v>-4</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <f aca="false">1*H15</f>
         <v>1</v>
-      </c>
-      <c r="AE15" s="0" t="n">
-        <f aca="false">ROUND(Z15/10, 2)</f>
-        <v>0.1</v>
       </c>
       <c r="AF15" s="0" t="n">
         <f aca="false">ROUND(AA15/10, 2)</f>
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="AG15" s="0" t="n">
         <f aca="false">ROUND(AB15/10, 2)</f>
-        <v>-0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AH15" s="0" t="n">
         <f aca="false">ROUND(AC15/10, 2)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="AI15" s="0" t="n">
+        <f aca="false">ROUND(AD15/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AI15" s="0" t="n">
-        <f aca="false">AE15+AF15+AG15+AH15</f>
+      <c r="AJ15" s="0" t="n">
+        <f aca="false">AF15+AG15+AH15+AI15</f>
         <v>0.13</v>
       </c>
     </row>
@@ -3862,43 +3927,47 @@
         <v>0</v>
       </c>
       <c r="X16" s="13" t="n">
-        <f aca="false">SUM(P16:W16)</f>
+        <f aca="false">ROUND((-C16*3+D16*2+E16*2-F16*5+G16*10+H16*3+I16*6-J16*8-K16*3+L16*5+M16*3) / 50)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14" t="n">
+        <f aca="false">SUM(P16:X16)</f>
         <v>7</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <f aca="false">0.5*C16+0.5*D16</f>
         <v>-4</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <f aca="false">0.4*E16+0.1*G16+0.3*I16+0.2*M16</f>
         <v>2.6</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <f aca="false">0.3*F16+0.2*J16+0.2*K16+0.3*L16</f>
         <v>3</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <f aca="false">1*H16</f>
         <v>-3</v>
       </c>
-      <c r="AE16" s="0" t="n">
-        <f aca="false">ROUND(Z16/10, 2)</f>
-        <v>-0.4</v>
-      </c>
       <c r="AF16" s="0" t="n">
         <f aca="false">ROUND(AA16/10, 2)</f>
-        <v>0.26</v>
+        <v>-0.4</v>
       </c>
       <c r="AG16" s="0" t="n">
         <f aca="false">ROUND(AB16/10, 2)</f>
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="AH16" s="0" t="n">
         <f aca="false">ROUND(AC16/10, 2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AI16" s="0" t="n">
+        <f aca="false">ROUND(AD16/10, 2)</f>
         <v>-0.3</v>
       </c>
-      <c r="AI16" s="0" t="n">
-        <f aca="false">AE16+AF16+AG16+AH16</f>
+      <c r="AJ16" s="0" t="n">
+        <f aca="false">AF16+AG16+AH16+AI16</f>
         <v>-0.14</v>
       </c>
     </row>
@@ -3977,43 +4046,47 @@
         <v>1</v>
       </c>
       <c r="X17" s="13" t="n">
-        <f aca="false">SUM(P17:W17)</f>
-        <v>15</v>
-      </c>
-      <c r="Z17" s="0" t="n">
+        <f aca="false">ROUND((-C17*3+D17*2+E17*2-F17*5+G17*10+H17*3+I17*6-J17*8-K17*3+L17*5+M17*3) / 50)</f>
+        <v>-2</v>
+      </c>
+      <c r="Y17" s="14" t="n">
+        <f aca="false">SUM(P17:X17)</f>
+        <v>13</v>
+      </c>
+      <c r="AA17" s="0" t="n">
         <f aca="false">0.5*C17+0.5*D17</f>
         <v>3.5</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <f aca="false">0.4*E17+0.1*G17+0.3*I17+0.2*M17</f>
         <v>0.3</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <f aca="false">0.3*F17+0.2*J17+0.2*K17+0.3*L17</f>
         <v>2.8</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <f aca="false">1*H17</f>
         <v>2</v>
-      </c>
-      <c r="AE17" s="0" t="n">
-        <f aca="false">ROUND(Z17/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AF17" s="0" t="n">
         <f aca="false">ROUND(AA17/10, 2)</f>
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="AG17" s="0" t="n">
         <f aca="false">ROUND(AB17/10, 2)</f>
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AH17" s="0" t="n">
         <f aca="false">ROUND(AC17/10, 2)</f>
+        <v>0.28</v>
+      </c>
+      <c r="AI17" s="0" t="n">
+        <f aca="false">ROUND(AD17/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AI17" s="0" t="n">
-        <f aca="false">AE17+AF17+AG17+AH17</f>
+      <c r="AJ17" s="0" t="n">
+        <f aca="false">AF17+AG17+AH17+AI17</f>
         <v>0.86</v>
       </c>
     </row>
@@ -4092,43 +4165,47 @@
         <v>-4</v>
       </c>
       <c r="X18" s="13" t="n">
-        <f aca="false">SUM(P18:W18)</f>
-        <v>-4</v>
-      </c>
-      <c r="Z18" s="0" t="n">
+        <f aca="false">ROUND((-C18*3+D18*2+E18*2-F18*5+G18*10+H18*3+I18*6-J18*8-K18*3+L18*5+M18*3) / 50)</f>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="14" t="n">
+        <f aca="false">SUM(P18:X18)</f>
+        <v>-3</v>
+      </c>
+      <c r="AA18" s="0" t="n">
         <f aca="false">0.5*C18+0.5*D18</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <f aca="false">0.4*E18+0.1*G18+0.3*I18+0.2*M18</f>
         <v>5.3</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <f aca="false">0.3*F18+0.2*J18+0.2*K18+0.3*L18</f>
         <v>-2</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <f aca="false">1*H18</f>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="0" t="n">
-        <f aca="false">ROUND(Z18/10, 2)</f>
         <v>0</v>
       </c>
       <c r="AF18" s="0" t="n">
         <f aca="false">ROUND(AA18/10, 2)</f>
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="0" t="n">
         <f aca="false">ROUND(AB18/10, 2)</f>
-        <v>-0.2</v>
+        <v>0.53</v>
       </c>
       <c r="AH18" s="0" t="n">
         <f aca="false">ROUND(AC18/10, 2)</f>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AI18" s="0" t="n">
-        <f aca="false">AE18+AF18+AG18+AH18</f>
+        <f aca="false">ROUND(AD18/10, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <f aca="false">AF18+AG18+AH18+AI18</f>
         <v>0.33</v>
       </c>
     </row>
@@ -4207,43 +4284,47 @@
         <v>1</v>
       </c>
       <c r="X19" s="13" t="n">
-        <f aca="false">SUM(P19:W19)</f>
-        <v>10</v>
-      </c>
-      <c r="Z19" s="0" t="n">
+        <f aca="false">ROUND((-C19*3+D19*2+E19*2-F19*5+G19*10+H19*3+I19*6-J19*8-K19*3+L19*5+M19*3) / 50)</f>
+        <v>-4</v>
+      </c>
+      <c r="Y19" s="14" t="n">
+        <f aca="false">SUM(P19:X19)</f>
+        <v>6</v>
+      </c>
+      <c r="AA19" s="0" t="n">
         <f aca="false">0.5*C19+0.5*D19</f>
         <v>3</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <f aca="false">0.4*E19+0.1*G19+0.3*I19+0.2*M19</f>
         <v>-0.2</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <f aca="false">0.3*F19+0.2*J19+0.2*K19+0.3*L19</f>
         <v>2.9</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <f aca="false">1*H19</f>
         <v>1</v>
-      </c>
-      <c r="AE19" s="0" t="n">
-        <f aca="false">ROUND(Z19/10, 2)</f>
-        <v>0.3</v>
       </c>
       <c r="AF19" s="0" t="n">
         <f aca="false">ROUND(AA19/10, 2)</f>
-        <v>-0.02</v>
+        <v>0.3</v>
       </c>
       <c r="AG19" s="0" t="n">
         <f aca="false">ROUND(AB19/10, 2)</f>
-        <v>0.29</v>
+        <v>-0.02</v>
       </c>
       <c r="AH19" s="0" t="n">
         <f aca="false">ROUND(AC19/10, 2)</f>
+        <v>0.29</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <f aca="false">ROUND(AD19/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AI19" s="0" t="n">
-        <f aca="false">AE19+AF19+AG19+AH19</f>
+      <c r="AJ19" s="0" t="n">
+        <f aca="false">AF19+AG19+AH19+AI19</f>
         <v>0.67</v>
       </c>
     </row>
@@ -4322,43 +4403,47 @@
         <v>-1</v>
       </c>
       <c r="X20" s="13" t="n">
-        <f aca="false">SUM(P20:W20)</f>
-        <v>7</v>
-      </c>
-      <c r="Z20" s="0" t="n">
+        <f aca="false">ROUND((-C20*3+D20*2+E20*2-F20*5+G20*10+H20*3+I20*6-J20*8-K20*3+L20*5+M20*3) / 50)</f>
+        <v>3</v>
+      </c>
+      <c r="Y20" s="14" t="n">
+        <f aca="false">SUM(P20:X20)</f>
+        <v>10</v>
+      </c>
+      <c r="AA20" s="0" t="n">
         <f aca="false">0.5*C20+0.5*D20</f>
         <v>1.5</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <f aca="false">0.4*E20+0.1*G20+0.3*I20+0.2*M20</f>
         <v>4.8</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <f aca="false">0.3*F20+0.2*J20+0.2*K20+0.3*L20</f>
         <v>1.7</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <f aca="false">1*H20</f>
         <v>1</v>
-      </c>
-      <c r="AE20" s="0" t="n">
-        <f aca="false">ROUND(Z20/10, 2)</f>
-        <v>0.15</v>
       </c>
       <c r="AF20" s="0" t="n">
         <f aca="false">ROUND(AA20/10, 2)</f>
-        <v>0.48</v>
+        <v>0.15</v>
       </c>
       <c r="AG20" s="0" t="n">
         <f aca="false">ROUND(AB20/10, 2)</f>
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="AH20" s="0" t="n">
         <f aca="false">ROUND(AC20/10, 2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <f aca="false">ROUND(AD20/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AI20" s="0" t="n">
-        <f aca="false">AE20+AF20+AG20+AH20</f>
+      <c r="AJ20" s="0" t="n">
+        <f aca="false">AF20+AG20+AH20+AI20</f>
         <v>0.9</v>
       </c>
     </row>
@@ -4437,43 +4522,47 @@
         <v>-1</v>
       </c>
       <c r="X21" s="13" t="n">
-        <f aca="false">SUM(P21:W21)</f>
-        <v>-9</v>
-      </c>
-      <c r="Z21" s="0" t="n">
+        <f aca="false">ROUND((-C21*3+D21*2+E21*2-F21*5+G21*10+H21*3+I21*6-J21*8-K21*3+L21*5+M21*3) / 50)</f>
+        <v>3</v>
+      </c>
+      <c r="Y21" s="14" t="n">
+        <f aca="false">SUM(P21:X21)</f>
+        <v>-6</v>
+      </c>
+      <c r="AA21" s="0" t="n">
         <f aca="false">0.5*C21+0.5*D21</f>
         <v>-1.5</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <f aca="false">0.4*E21+0.1*G21+0.3*I21+0.2*M21</f>
         <v>0.7</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <f aca="false">0.3*F21+0.2*J21+0.2*K21+0.3*L21</f>
         <v>-2</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <f aca="false">1*H21</f>
         <v>-3</v>
       </c>
-      <c r="AE21" s="0" t="n">
-        <f aca="false">ROUND(Z21/10, 2)</f>
-        <v>-0.15</v>
-      </c>
       <c r="AF21" s="0" t="n">
         <f aca="false">ROUND(AA21/10, 2)</f>
-        <v>0.07</v>
+        <v>-0.15</v>
       </c>
       <c r="AG21" s="0" t="n">
         <f aca="false">ROUND(AB21/10, 2)</f>
-        <v>-0.2</v>
+        <v>0.07</v>
       </c>
       <c r="AH21" s="0" t="n">
         <f aca="false">ROUND(AC21/10, 2)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AI21" s="0" t="n">
+        <f aca="false">ROUND(AD21/10, 2)</f>
         <v>-0.3</v>
       </c>
-      <c r="AI21" s="0" t="n">
-        <f aca="false">AE21+AF21+AG21+AH21</f>
+      <c r="AJ21" s="0" t="n">
+        <f aca="false">AF21+AG21+AH21+AI21</f>
         <v>-0.58</v>
       </c>
     </row>
@@ -4552,43 +4641,47 @@
         <v>1</v>
       </c>
       <c r="X22" s="13" t="n">
-        <f aca="false">SUM(P22:W22)</f>
-        <v>3</v>
-      </c>
-      <c r="Z22" s="0" t="n">
+        <f aca="false">ROUND((-C22*3+D22*2+E22*2-F22*5+G22*10+H22*3+I22*6-J22*8-K22*3+L22*5+M22*3) / 50)</f>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="14" t="n">
+        <f aca="false">SUM(P22:X22)</f>
+        <v>4</v>
+      </c>
+      <c r="AA22" s="0" t="n">
         <f aca="false">0.5*C22+0.5*D22</f>
         <v>-5.5</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <f aca="false">0.4*E22+0.1*G22+0.3*I22+0.2*M22</f>
         <v>0.300000000000001</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <f aca="false">0.3*F22+0.2*J22+0.2*K22+0.3*L22</f>
         <v>3.2</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <f aca="false">1*H22</f>
         <v>2</v>
-      </c>
-      <c r="AE22" s="0" t="n">
-        <f aca="false">ROUND(Z22/10, 2)</f>
-        <v>-0.55</v>
       </c>
       <c r="AF22" s="0" t="n">
         <f aca="false">ROUND(AA22/10, 2)</f>
-        <v>0.03</v>
+        <v>-0.55</v>
       </c>
       <c r="AG22" s="0" t="n">
         <f aca="false">ROUND(AB22/10, 2)</f>
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AH22" s="0" t="n">
         <f aca="false">ROUND(AC22/10, 2)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AI22" s="0" t="n">
+        <f aca="false">ROUND(AD22/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AI22" s="0" t="n">
-        <f aca="false">AE22+AF22+AG22+AH22</f>
+      <c r="AJ22" s="0" t="n">
+        <f aca="false">AF22+AG22+AH22+AI22</f>
         <v>0</v>
       </c>
     </row>
@@ -4667,43 +4760,47 @@
         <v>4</v>
       </c>
       <c r="X23" s="13" t="n">
-        <f aca="false">SUM(P23:W23)</f>
-        <v>15</v>
-      </c>
-      <c r="Z23" s="0" t="n">
+        <f aca="false">ROUND((-C23*3+D23*2+E23*2-F23*5+G23*10+H23*3+I23*6-J23*8-K23*3+L23*5+M23*3) / 50)</f>
+        <v>-2</v>
+      </c>
+      <c r="Y23" s="14" t="n">
+        <f aca="false">SUM(P23:X23)</f>
+        <v>13</v>
+      </c>
+      <c r="AA23" s="0" t="n">
         <f aca="false">0.5*C23+0.5*D23</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <f aca="false">0.4*E23+0.1*G23+0.3*I23+0.2*M23</f>
         <v>-2</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <f aca="false">0.3*F23+0.2*J23+0.2*K23+0.3*L23</f>
         <v>6.6</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <f aca="false">1*H23</f>
         <v>3</v>
-      </c>
-      <c r="AE23" s="0" t="n">
-        <f aca="false">ROUND(Z23/10, 2)</f>
-        <v>0</v>
       </c>
       <c r="AF23" s="0" t="n">
         <f aca="false">ROUND(AA23/10, 2)</f>
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="0" t="n">
         <f aca="false">ROUND(AB23/10, 2)</f>
-        <v>0.66</v>
+        <v>-0.2</v>
       </c>
       <c r="AH23" s="0" t="n">
         <f aca="false">ROUND(AC23/10, 2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="AI23" s="0" t="n">
+        <f aca="false">ROUND(AD23/10, 2)</f>
         <v>0.3</v>
       </c>
-      <c r="AI23" s="0" t="n">
-        <f aca="false">AE23+AF23+AG23+AH23</f>
+      <c r="AJ23" s="0" t="n">
+        <f aca="false">AF23+AG23+AH23+AI23</f>
         <v>0.76</v>
       </c>
     </row>
@@ -4782,43 +4879,47 @@
         <v>1</v>
       </c>
       <c r="X24" s="13" t="n">
-        <f aca="false">SUM(P24:W24)</f>
+        <f aca="false">ROUND((-C24*3+D24*2+E24*2-F24*5+G24*10+H24*3+I24*6-J24*8-K24*3+L24*5+M24*3) / 50)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14" t="n">
+        <f aca="false">SUM(P24:X24)</f>
         <v>12</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <f aca="false">0.5*C24+0.5*D24</f>
         <v>4</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <f aca="false">0.4*E24+0.1*G24+0.3*I24+0.2*M24</f>
         <v>-0.8</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <f aca="false">0.3*F24+0.2*J24+0.2*K24+0.3*L24</f>
         <v>2</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <f aca="false">1*H24</f>
         <v>7</v>
       </c>
-      <c r="AE24" s="0" t="n">
-        <f aca="false">ROUND(Z24/10, 2)</f>
-        <v>0.4</v>
-      </c>
       <c r="AF24" s="0" t="n">
         <f aca="false">ROUND(AA24/10, 2)</f>
-        <v>-0.08</v>
+        <v>0.4</v>
       </c>
       <c r="AG24" s="0" t="n">
         <f aca="false">ROUND(AB24/10, 2)</f>
-        <v>0.2</v>
+        <v>-0.08</v>
       </c>
       <c r="AH24" s="0" t="n">
         <f aca="false">ROUND(AC24/10, 2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AI24" s="0" t="n">
+        <f aca="false">ROUND(AD24/10, 2)</f>
         <v>0.7</v>
       </c>
-      <c r="AI24" s="0" t="n">
-        <f aca="false">AE24+AF24+AG24+AH24</f>
+      <c r="AJ24" s="0" t="n">
+        <f aca="false">AF24+AG24+AH24+AI24</f>
         <v>1.22</v>
       </c>
     </row>
@@ -4897,43 +4998,47 @@
         <v>0</v>
       </c>
       <c r="X25" s="13" t="n">
-        <f aca="false">SUM(P25:W25)</f>
+        <f aca="false">ROUND((-C25*3+D25*2+E25*2-F25*5+G25*10+H25*3+I25*6-J25*8-K25*3+L25*5+M25*3) / 50)</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="14" t="n">
+        <f aca="false">SUM(P25:X25)</f>
         <v>6</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <f aca="false">0.5*C25+0.5*D25</f>
         <v>6</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <f aca="false">0.4*E25+0.1*G25+0.3*I25+0.2*M25</f>
         <v>0.4</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <f aca="false">0.3*F25+0.2*J25+0.2*K25+0.3*L25</f>
         <v>-2</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <f aca="false">1*H25</f>
         <v>7</v>
       </c>
-      <c r="AE25" s="0" t="n">
-        <f aca="false">ROUND(Z25/10, 2)</f>
-        <v>0.6</v>
-      </c>
       <c r="AF25" s="0" t="n">
         <f aca="false">ROUND(AA25/10, 2)</f>
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="AG25" s="0" t="n">
         <f aca="false">ROUND(AB25/10, 2)</f>
-        <v>-0.2</v>
+        <v>0.04</v>
       </c>
       <c r="AH25" s="0" t="n">
         <f aca="false">ROUND(AC25/10, 2)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AI25" s="0" t="n">
+        <f aca="false">ROUND(AD25/10, 2)</f>
         <v>0.7</v>
       </c>
-      <c r="AI25" s="0" t="n">
-        <f aca="false">AE25+AF25+AG25+AH25</f>
+      <c r="AJ25" s="0" t="n">
+        <f aca="false">AF25+AG25+AH25+AI25</f>
         <v>1.14</v>
       </c>
     </row>
@@ -4969,6 +5074,10 @@
       <c r="W26" s="1" t="n">
         <f aca="false">SUM(W4:W25)</f>
         <v>10</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <f aca="false">SUM(X4:X25)</f>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -5018,6 +5127,10 @@
         <f aca="false">MAX(W4:W25)</f>
         <v>5</v>
       </c>
+      <c r="X27" s="10" t="n">
+        <f aca="false">MAX(X4:X25)</f>
+        <v>6</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="P28" s="0" t="n">
@@ -5050,6 +5163,10 @@
       </c>
       <c r="W28" s="0" t="n">
         <f aca="false">MIN(W4:W25)</f>
+        <v>-4</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <f aca="false">MIN(X4:X25)</f>
         <v>-4</v>
       </c>
     </row>
